--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3132" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82403B9-EAA3-4C79-93CB-B66FF191078F}"/>
+  <xr:revisionPtr revIDLastSave="3144" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FD08E6-606B-4429-8078-93680C6AD720}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2498,33 +2498,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2574,15 +2553,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3743,7 +3743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B380E-1396-4B6E-A468-8A3D9AA81345}">
   <dimension ref="A4:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3760,34 +3760,34 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1">
-      <c r="B5" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="84"/>
+      <c r="B5" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="102"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="104" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="105"/>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B6" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" s="82"/>
+      <c r="B6" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="100"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="106" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
       <c r="H6" s="44" t="s">
@@ -3811,10 +3811,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="103"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3824,27 +3824,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="101" t="str">
+      <c r="B11" s="95" t="str">
         <f>IF($B$6="","",$B$6)</f>
-        <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
-      </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+        <v>Beltone RIE Digital Achieve 17 62DRWC</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3857,28 +3857,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="90" t="str" cm="1">
+      <c r="J11" s="84" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
-        <v>()</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
+        <v>(REG-HI-ACH17-62DRWC)</v>
+      </c>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="86"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="101" t="str">
+      <c r="B12" s="95" t="str">
         <f>IF($D$6=1,"",B11)</f>
-        <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
+        <v>Beltone RIE Digital Achieve 17 62DRWC</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3891,25 +3891,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="101" t="str" cm="1">
+      <c r="B13" s="95" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3922,26 +3922,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="89"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="101" t="str" cm="1">
+      <c r="B14" s="95" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3951,26 +3951,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="89"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="101" t="str">
+      <c r="B15" s="95" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3980,46 +3980,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="98" cm="1">
+      <c r="J16" s="92" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
+        <v>REG-HI-ACH17-62DRWC</v>
+      </c>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1">
-      <c r="B17" s="97" t="str" cm="1">
+      <c r="B17" s="91" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4032,11 +4032,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4046,9 +4046,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4060,12 +4060,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="90" t="e" cm="1" vm="1">
+      <c r="L20" s="84" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4079,9 +4079,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="95"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="89"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4099,9 +4099,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="93"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="95"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4117,9 +4117,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="93"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="95"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4138,9 +4138,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="104"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="98"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4148,9 +4148,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4177,6 +4177,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4191,11 +4196,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4238,11 +4238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14:I15"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21:F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -4334,8 +4334,8 @@
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9">
-        <v>5584</v>
+      <c r="F2" s="73">
+        <v>5819</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
@@ -4344,8 +4344,8 @@
         <v>250</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I8" si="1">F2-J2</f>
-        <v>2364</v>
+        <f t="shared" ref="I2" si="1">F2-J2</f>
+        <v>2599</v>
       </c>
       <c r="J2" s="2">
         <f>(K2-H2-O2)/2</f>
@@ -4385,8 +4385,8 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
-        <v>3556</v>
+      <c r="F3" s="73">
+        <v>3689</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I66" si="2">F3-J3</f>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="3">(K3-H3-O3)/2</f>
@@ -4436,8 +4436,8 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9">
-        <v>4492</v>
+      <c r="F4" s="73">
+        <v>4679</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="3"/>
@@ -4671,8 +4671,8 @@
       <c r="E9" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="9">
-        <v>5584</v>
+      <c r="F9" s="73">
+        <v>5819</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>16</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
@@ -4718,8 +4718,8 @@
       <c r="E10" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="9">
-        <v>3556</v>
+      <c r="F10" s="73">
+        <v>3689</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>16</v>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
@@ -4765,8 +4765,8 @@
       <c r="E11" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="9">
-        <v>4492</v>
+      <c r="F11" s="73">
+        <v>4679</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>16</v>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
@@ -4812,8 +4812,8 @@
       <c r="E12" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="9">
-        <v>5584</v>
+      <c r="F12" s="73">
+        <v>5819</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
@@ -4859,8 +4859,8 @@
       <c r="E13" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="9">
-        <v>5584</v>
+      <c r="F13" s="73">
+        <v>5819</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
@@ -4906,8 +4906,8 @@
       <c r="E14" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="9">
-        <v>3556</v>
+      <c r="F14" s="73">
+        <v>3689</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>24</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
@@ -4953,8 +4953,8 @@
       <c r="E15" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="9">
-        <v>3556</v>
+      <c r="F15" s="73">
+        <v>3689</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
@@ -5000,8 +5000,8 @@
       <c r="E16" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="9">
-        <v>4492</v>
+      <c r="F16" s="73">
+        <v>4679</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
@@ -5047,8 +5047,8 @@
       <c r="E17" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="9">
-        <v>4492</v>
+      <c r="F17" s="73">
+        <v>4679</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
@@ -5251,8 +5251,8 @@
       <c r="E21" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="9">
-        <v>2595</v>
+      <c r="F21" s="73">
+        <v>3029</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>804</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
@@ -5671,8 +5671,8 @@
       <c r="E30" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="9">
-        <v>5584</v>
+      <c r="F30" s="73">
+        <v>5819</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>24</v>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
@@ -5718,8 +5718,8 @@
       <c r="E31" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="9">
-        <v>3556</v>
+      <c r="F31" s="73">
+        <v>3689</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>24</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
@@ -5765,8 +5765,8 @@
       <c r="E32" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="9">
-        <v>4492</v>
+      <c r="F32" s="73">
+        <v>4679</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>24</v>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="3"/>
@@ -5812,8 +5812,8 @@
       <c r="E33" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="9">
-        <v>2695</v>
+      <c r="F33" s="73">
+        <v>3029</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>24</v>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="3"/>
@@ -5859,8 +5859,8 @@
       <c r="E34" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F34" s="9">
-        <v>2695</v>
+      <c r="F34" s="73">
+        <v>3029</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>24</v>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
@@ -5906,8 +5906,8 @@
       <c r="E35" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="9">
-        <v>5584</v>
+      <c r="F35" s="73">
+        <v>5819</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="3"/>
@@ -5953,8 +5953,8 @@
       <c r="E36" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="9">
-        <v>3556</v>
+      <c r="F36" s="73">
+        <v>3689</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>19</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
@@ -6000,8 +6000,8 @@
       <c r="E37" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="9">
-        <v>4492</v>
+      <c r="F37" s="73">
+        <v>4679</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>19</v>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="3"/>
@@ -6047,8 +6047,8 @@
       <c r="E38" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="9">
-        <v>2695</v>
+      <c r="F38" s="73">
+        <v>3029</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>24</v>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="3"/>
@@ -6094,8 +6094,8 @@
       <c r="E39" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="9">
-        <v>2695</v>
+      <c r="F39" s="73">
+        <v>3029</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>24</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="3"/>
@@ -6186,8 +6186,8 @@
       <c r="E41" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="9">
-        <v>5584</v>
+      <c r="F41" s="73">
+        <v>5819</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>19</v>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="3"/>
@@ -6233,8 +6233,8 @@
       <c r="E42" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="9">
-        <v>3556</v>
+      <c r="F42" s="73">
+        <v>3689</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>19</v>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="3"/>
@@ -6280,8 +6280,8 @@
       <c r="E43" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F43" s="9">
-        <v>4492</v>
+      <c r="F43" s="73">
+        <v>4679</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>19</v>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="3"/>
@@ -6327,8 +6327,8 @@
       <c r="E44" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="9">
-        <v>2695</v>
+      <c r="F44" s="73">
+        <v>3029</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>24</v>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="3"/>
@@ -6466,8 +6466,8 @@
       <c r="E47" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="9">
-        <v>5584</v>
+      <c r="F47" s="73">
+        <v>5819</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>21</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="I47" s="2">
         <f t="shared" si="2"/>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="3"/>
@@ -6517,8 +6517,8 @@
       <c r="E48" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="9">
-        <v>3556</v>
+      <c r="F48" s="73">
+        <v>3689</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="I48" s="2">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="3"/>
@@ -6568,8 +6568,8 @@
       <c r="E49" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="9">
-        <v>4492</v>
+      <c r="F49" s="73">
+        <v>4679</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="I49" s="2">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="3"/>
@@ -6615,8 +6615,8 @@
       <c r="E50" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="9">
-        <v>2695</v>
+      <c r="F50" s="73">
+        <v>3029</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>24</v>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="I50" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="3"/>
@@ -6750,8 +6750,8 @@
       <c r="E53" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="9">
-        <v>2695</v>
+      <c r="F53" s="73">
+        <v>3029</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>24</v>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="I53" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="3"/>
@@ -6889,8 +6889,8 @@
       <c r="E56" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="9">
-        <v>2695</v>
+      <c r="F56" s="73">
+        <v>3029</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>24</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="I56" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="3"/>
@@ -6940,8 +6940,8 @@
       <c r="E57" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F57" s="9">
-        <v>5584</v>
+      <c r="F57" s="73">
+        <v>5819</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>21</v>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I57" s="2">
         <f t="shared" si="2"/>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="3"/>
@@ -6990,8 +6990,8 @@
       <c r="E58" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="9">
-        <v>3556</v>
+      <c r="F58" s="73">
+        <v>3689</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="I58" s="2">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="3"/>
@@ -7040,8 +7040,8 @@
       <c r="E59" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F59" s="9">
-        <v>4492</v>
+      <c r="F59" s="73">
+        <v>4679</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>21</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="I59" s="2">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="3"/>
@@ -7349,8 +7349,8 @@
       <c r="E66" s="78" t="s">
         <v>581</v>
       </c>
-      <c r="F66" s="9">
-        <v>5584</v>
+      <c r="F66" s="73">
+        <v>5819</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="I66" s="2">
         <f t="shared" si="2"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="3"/>
@@ -7399,8 +7399,8 @@
       <c r="E67" s="78" t="s">
         <v>581</v>
       </c>
-      <c r="F67" s="9">
-        <v>3556</v>
+      <c r="F67" s="73">
+        <v>3689</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I67" s="2">
         <f t="shared" ref="I67:I130" si="5">F67-J67</f>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" ref="J67:J130" si="6">(K67-H67-O67)/2</f>
@@ -7449,8 +7449,8 @@
       <c r="E68" s="78" t="s">
         <v>581</v>
       </c>
-      <c r="F68" s="9">
-        <v>4492</v>
+      <c r="F68" s="73">
+        <v>4679</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="I68" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="6"/>
@@ -7549,8 +7549,8 @@
       <c r="E70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="9">
-        <v>5584</v>
+      <c r="F70" s="73">
+        <v>5819</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="I70" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="6"/>
@@ -7600,8 +7600,8 @@
       <c r="E71" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="9">
-        <v>3556</v>
+      <c r="F71" s="73">
+        <v>3689</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="I71" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="6"/>
@@ -7651,8 +7651,8 @@
       <c r="E72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="9">
-        <v>4492</v>
+      <c r="F72" s="73">
+        <v>4679</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="I72" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="6"/>
@@ -7755,8 +7755,8 @@
       <c r="E74" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="9">
-        <v>5584</v>
+      <c r="F74" s="73">
+        <v>5819</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="I74" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="6"/>
@@ -7807,8 +7807,8 @@
       <c r="E75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="9">
-        <v>3556</v>
+      <c r="F75" s="73">
+        <v>3689</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="I75" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="6"/>
@@ -7859,8 +7859,8 @@
       <c r="E76" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="9">
-        <v>4492</v>
+      <c r="F76" s="73">
+        <v>4679</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="I76" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="6"/>
@@ -7963,8 +7963,8 @@
       <c r="E78" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="9">
-        <v>5584</v>
+      <c r="F78" s="73">
+        <v>5819</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="I78" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="6"/>
@@ -8015,8 +8015,8 @@
       <c r="E79" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F79" s="9">
-        <v>3556</v>
+      <c r="F79" s="73">
+        <v>3689</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I79" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="6"/>
@@ -8067,8 +8067,8 @@
       <c r="E80" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="9">
-        <v>4492</v>
+      <c r="F80" s="73">
+        <v>4679</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>21</v>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="I80" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="6"/>
@@ -8171,8 +8171,8 @@
       <c r="E82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F82" s="9">
-        <v>5584</v>
+      <c r="F82" s="73">
+        <v>5819</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>21</v>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="I82" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="6"/>
@@ -8223,8 +8223,8 @@
       <c r="E83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F83" s="9">
-        <v>3556</v>
+      <c r="F83" s="73">
+        <v>3689</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>21</v>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="I83" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="6"/>
@@ -8275,8 +8275,8 @@
       <c r="E84" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F84" s="9">
-        <v>4492</v>
+      <c r="F84" s="73">
+        <v>4679</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="I84" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="6"/>
@@ -8379,8 +8379,8 @@
       <c r="E86" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F86" s="9">
-        <v>5584</v>
+      <c r="F86" s="73">
+        <v>5819</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="I86" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="6"/>
@@ -8431,8 +8431,8 @@
       <c r="E87" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="9">
-        <v>3556</v>
+      <c r="F87" s="73">
+        <v>3689</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="I87" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="6"/>
@@ -8483,8 +8483,8 @@
       <c r="E88" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="9">
-        <v>4492</v>
+      <c r="F88" s="73">
+        <v>4679</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>21</v>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="I88" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="6"/>
@@ -8733,8 +8733,8 @@
       <c r="E93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="9">
-        <v>5584</v>
+      <c r="F93" s="73">
+        <v>5819</v>
       </c>
       <c r="G93" s="38" t="s">
         <v>16</v>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="I93" s="2">
         <f t="shared" si="5"/>
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="6"/>
@@ -8781,8 +8781,8 @@
       <c r="E94" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="9">
-        <v>3556</v>
+      <c r="F94" s="73">
+        <v>3689</v>
       </c>
       <c r="G94" s="38" t="s">
         <v>16</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="I94" s="2">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="6"/>
@@ -8829,8 +8829,8 @@
       <c r="E95" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="9">
-        <v>4492</v>
+      <c r="F95" s="73">
+        <v>4679</v>
       </c>
       <c r="G95" s="38" t="s">
         <v>16</v>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="I95" s="2">
         <f t="shared" si="5"/>
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="6"/>
@@ -8877,8 +8877,8 @@
       <c r="E96" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F96" s="9">
-        <v>5584</v>
+      <c r="F96" s="73">
+        <v>5819</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>24</v>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="I96" s="2">
         <f t="shared" si="5"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="6"/>
@@ -8925,8 +8925,8 @@
       <c r="E97" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F97" s="9">
-        <v>5584</v>
+      <c r="F97" s="73">
+        <v>5819</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>24</v>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="I97" s="2">
         <f t="shared" si="5"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="6"/>
@@ -8973,8 +8973,8 @@
       <c r="E98" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F98" s="9">
-        <v>3556</v>
+      <c r="F98" s="73">
+        <v>3689</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>24</v>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="I98" s="2">
         <f t="shared" si="5"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="6"/>
@@ -9021,8 +9021,8 @@
       <c r="E99" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F99" s="9">
-        <v>3556</v>
+      <c r="F99" s="73">
+        <v>3689</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>24</v>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="I99" s="2">
         <f t="shared" si="5"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="6"/>
@@ -9069,8 +9069,8 @@
       <c r="E100" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F100" s="9">
-        <v>4492</v>
+      <c r="F100" s="73">
+        <v>4679</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>24</v>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="I100" s="2">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="6"/>
@@ -9117,8 +9117,8 @@
       <c r="E101" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F101" s="9">
-        <v>4492</v>
+      <c r="F101" s="73">
+        <v>4679</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>24</v>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="I101" s="2">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="6"/>
@@ -9325,8 +9325,8 @@
       <c r="E105" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="9">
-        <v>2595</v>
+      <c r="F105" s="73">
+        <v>3029</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>16</v>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="I105" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>804</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="6"/>
@@ -9752,8 +9752,8 @@
       <c r="E114" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="9">
-        <v>5584</v>
+      <c r="F114" s="73">
+        <v>5819</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>24</v>
@@ -9763,7 +9763,7 @@
       </c>
       <c r="I114" s="2">
         <f t="shared" si="5"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J114" s="2">
         <f t="shared" si="6"/>
@@ -9799,8 +9799,8 @@
       <c r="E115" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F115" s="9">
-        <v>3556</v>
+      <c r="F115" s="73">
+        <v>3689</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>24</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="I115" s="2">
         <f t="shared" si="5"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J115" s="2">
         <f t="shared" si="6"/>
@@ -9846,8 +9846,8 @@
       <c r="E116" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F116" s="9">
-        <v>4492</v>
+      <c r="F116" s="73">
+        <v>4679</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>24</v>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I116" s="2">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J116" s="2">
         <f t="shared" si="6"/>
@@ -9893,8 +9893,8 @@
       <c r="E117" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F117" s="9">
-        <v>2695</v>
+      <c r="F117" s="73">
+        <v>3029</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>24</v>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="I117" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" si="6"/>
@@ -9940,8 +9940,8 @@
       <c r="E118" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F118" s="9">
-        <v>2695</v>
+      <c r="F118" s="73">
+        <v>3029</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>24</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="I118" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J118" s="2">
         <f t="shared" si="6"/>
@@ -9987,8 +9987,8 @@
       <c r="E119" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F119" s="9">
-        <v>5584</v>
+      <c r="F119" s="73">
+        <v>5819</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>19</v>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="I119" s="2">
         <f t="shared" si="5"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J119" s="2">
         <f t="shared" si="6"/>
@@ -10034,8 +10034,8 @@
       <c r="E120" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F120" s="9">
-        <v>3556</v>
+      <c r="F120" s="73">
+        <v>3689</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>19</v>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I120" s="2">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" si="6"/>
@@ -10081,8 +10081,8 @@
       <c r="E121" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F121" s="9">
-        <v>4492</v>
+      <c r="F121" s="73">
+        <v>4679</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>19</v>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="I121" s="2">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J121" s="2">
         <f t="shared" si="6"/>
@@ -10128,8 +10128,8 @@
       <c r="E122" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F122" s="9">
-        <v>2695</v>
+      <c r="F122" s="73">
+        <v>3029</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>24</v>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="I122" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J122" s="2">
         <f t="shared" si="6"/>
@@ -10175,8 +10175,8 @@
       <c r="E123" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F123" s="9">
-        <v>2695</v>
+      <c r="F123" s="73">
+        <v>3029</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>24</v>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="I123" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" si="6"/>
@@ -10267,8 +10267,8 @@
       <c r="E125" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F125" s="9">
-        <v>5584</v>
+      <c r="F125" s="73">
+        <v>5819</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>19</v>
@@ -10278,7 +10278,7 @@
       </c>
       <c r="I125" s="2">
         <f t="shared" si="5"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J125" s="2">
         <f t="shared" si="6"/>
@@ -10314,8 +10314,8 @@
       <c r="E126" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F126" s="9">
-        <v>3556</v>
+      <c r="F126" s="73">
+        <v>3689</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>19</v>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="I126" s="2">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J126" s="2">
         <f t="shared" si="6"/>
@@ -10361,8 +10361,8 @@
       <c r="E127" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F127" s="9">
-        <v>4492</v>
+      <c r="F127" s="73">
+        <v>4679</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>19</v>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="I127" s="2">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J127" s="2">
         <f t="shared" si="6"/>
@@ -10408,8 +10408,8 @@
       <c r="E128" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F128" s="9">
-        <v>2695</v>
+      <c r="F128" s="73">
+        <v>3029</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>24</v>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="I128" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J128" s="2">
         <f t="shared" si="6"/>
@@ -10547,8 +10547,8 @@
       <c r="E131" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F131" s="9">
-        <v>5584</v>
+      <c r="F131" s="73">
+        <v>5819</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>21</v>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="I131" s="2">
         <f t="shared" ref="I131:I165" si="9">F131-J131</f>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J131" s="2">
         <f t="shared" ref="J131:J165" si="10">(K131-H131-O131)/2</f>
@@ -10598,8 +10598,8 @@
       <c r="E132" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F132" s="9">
-        <v>3556</v>
+      <c r="F132" s="73">
+        <v>3689</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>21</v>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="I132" s="2">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" si="10"/>
@@ -10649,8 +10649,8 @@
       <c r="E133" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F133" s="9">
-        <v>4492</v>
+      <c r="F133" s="73">
+        <v>4679</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>21</v>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="I133" s="2">
         <f t="shared" si="9"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" si="10"/>
@@ -10696,8 +10696,8 @@
       <c r="E134" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F134" s="9">
-        <v>2695</v>
+      <c r="F134" s="73">
+        <v>3029</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>24</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="I134" s="2">
         <f t="shared" si="9"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J134" s="2">
         <f t="shared" si="10"/>
@@ -10831,8 +10831,8 @@
       <c r="E137" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F137" s="9">
-        <v>2695</v>
+      <c r="F137" s="73">
+        <v>3029</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>24</v>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="I137" s="2">
         <f t="shared" si="9"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J137" s="2">
         <f t="shared" si="10"/>
@@ -10970,8 +10970,8 @@
       <c r="E140" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F140" s="9">
-        <v>2695</v>
+      <c r="F140" s="73">
+        <v>3029</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>24</v>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="I140" s="2">
         <f t="shared" si="9"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J140" s="2">
         <f t="shared" si="10"/>
@@ -11021,8 +11021,8 @@
       <c r="E141" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F141" s="9">
-        <v>5584</v>
+      <c r="F141" s="73">
+        <v>5819</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>21</v>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="I141" s="2">
         <f t="shared" si="9"/>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J141" s="2">
         <f t="shared" si="10"/>
@@ -11072,8 +11072,8 @@
       <c r="E142" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F142" s="9">
-        <v>3556</v>
+      <c r="F142" s="73">
+        <v>3689</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>21</v>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="I142" s="2">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J142" s="2">
         <f t="shared" si="10"/>
@@ -11123,8 +11123,8 @@
       <c r="E143" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F143" s="9">
-        <v>4492</v>
+      <c r="F143" s="73">
+        <v>4679</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>21</v>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="I143" s="2">
         <f t="shared" si="9"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J143" s="2">
         <f t="shared" si="10"/>
@@ -11438,8 +11438,8 @@
       <c r="E150" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F150" s="9">
-        <v>5584</v>
+      <c r="F150" s="73">
+        <v>5819</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>21</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I150" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J150" s="2">
         <f t="shared" si="10"/>
@@ -11489,8 +11489,8 @@
       <c r="E151" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F151" s="9">
-        <v>3556</v>
+      <c r="F151" s="73">
+        <v>3689</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>21</v>
@@ -11500,7 +11500,7 @@
       </c>
       <c r="I151" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J151" s="2">
         <f t="shared" si="10"/>
@@ -11540,8 +11540,8 @@
       <c r="E152" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F152" s="9">
-        <v>4492</v>
+      <c r="F152" s="73">
+        <v>4679</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>21</v>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="I152" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J152" s="2">
         <f t="shared" si="10"/>
@@ -11638,8 +11638,8 @@
       <c r="E154" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F154" s="9">
-        <v>5584</v>
+      <c r="F154" s="73">
+        <v>5819</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>21</v>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="I154" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J154" s="2">
         <f t="shared" si="10"/>
@@ -11689,8 +11689,8 @@
       <c r="E155" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F155" s="9">
-        <v>3556</v>
+      <c r="F155" s="73">
+        <v>3689</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>21</v>
@@ -11700,7 +11700,7 @@
       </c>
       <c r="I155" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J155" s="2">
         <f t="shared" si="10"/>
@@ -11740,8 +11740,8 @@
       <c r="E156" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F156" s="9">
-        <v>4492</v>
+      <c r="F156" s="73">
+        <v>4679</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>21</v>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="I156" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J156" s="2">
         <f t="shared" si="10"/>
@@ -11838,8 +11838,8 @@
       <c r="E158" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F158" s="9">
-        <v>5584</v>
+      <c r="F158" s="73">
+        <v>5819</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>21</v>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="I158" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J158" s="2">
         <f t="shared" si="10"/>
@@ -11889,8 +11889,8 @@
       <c r="E159" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F159" s="9">
-        <v>3556</v>
+      <c r="F159" s="73">
+        <v>3689</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>21</v>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="I159" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J159" s="2">
         <f t="shared" si="10"/>
@@ -11940,8 +11940,8 @@
       <c r="E160" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F160" s="9">
-        <v>4492</v>
+      <c r="F160" s="73">
+        <v>4679</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>21</v>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="I160" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J160" s="2">
         <f t="shared" si="10"/>
@@ -12038,8 +12038,8 @@
       <c r="E162" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F162" s="9">
-        <v>5584</v>
+      <c r="F162" s="73">
+        <v>5819</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>21</v>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="I162" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J162" s="2">
         <f t="shared" si="10"/>
@@ -12089,8 +12089,8 @@
       <c r="E163" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F163" s="9">
-        <v>3556</v>
+      <c r="F163" s="73">
+        <v>3689</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>21</v>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="I163" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J163" s="2">
         <f t="shared" si="10"/>
@@ -12140,8 +12140,8 @@
       <c r="E164" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F164" s="9">
-        <v>4492</v>
+      <c r="F164" s="73">
+        <v>4679</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>21</v>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="I164" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J164" s="2">
         <f t="shared" si="10"/>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3144" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FD08E6-606B-4429-8078-93680C6AD720}"/>
+  <xr:revisionPtr revIDLastSave="3151" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5FE7637-083B-4833-B7D8-E7B8C8DE19F1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="600">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1875,6 +1875,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Beltone Envision 4 62S-DRWC Digital RIE</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2360,7 +2363,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2584,6 +2587,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3319,7 +3323,22 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P165" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
+  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Beltone RIE Digital Envision 17 62S-DRWC"/>
+        <filter val="Beltone RIE Digital Envision 4 62S-DRWC"/>
+        <filter val="Beltone RIE Digital Envision 6 62S-DRWC"/>
+        <filter val="Beltone RIE Digital Envision 9 62S-DRWC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Open House Special"/>
+        <filter val="Regular"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P165">
     <sortCondition ref="E2:E165"/>
   </sortState>
@@ -3743,23 +3762,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B380E-1396-4B6E-A468-8A3D9AA81345}">
   <dimension ref="A4:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.296875" customWidth="1"/>
+    <col min="7" max="7" width="38.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
-    <row r="5" spans="1:20" ht="13.5" thickBot="1">
+    <row r="4" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="101" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +3794,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="99" t="s">
         <v>426</v>
       </c>
@@ -3798,7 +3817,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -3810,7 +3829,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1">
+    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +3854,7 @@
       <c r="P10" s="83"/>
       <c r="Q10" s="83"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>446</v>
       </c>
@@ -3869,7 +3888,7 @@
       <c r="P11" s="85"/>
       <c r="Q11" s="86"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>447</v>
       </c>
@@ -3900,7 +3919,7 @@
       <c r="P12" s="88"/>
       <c r="Q12" s="89"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3932,7 +3951,7 @@
       <c r="Q13" s="89"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3961,7 +3980,7 @@
       <c r="Q14" s="89"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3989,7 +4008,7 @@
       <c r="P15" s="88"/>
       <c r="Q15" s="89"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="91" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4032,7 @@
       <c r="P16" s="93"/>
       <c r="Q16" s="94"/>
     </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1">
+    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="91" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
@@ -4031,7 +4050,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="18" customHeight="1">
+    <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="90" t="s">
         <v>12</v>
       </c>
@@ -4045,7 +4064,7 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
@@ -4053,7 +4072,7 @@
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -4072,7 +4091,7 @@
       <c r="R20" s="54"/>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -4088,7 +4107,7 @@
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1">
+    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="3.8">
       <c r="F22" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter deductible amount not met ---&gt;","")</f>
         <v/>
@@ -4108,7 +4127,7 @@
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="18" customHeight="1">
+    <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="3.8">
       <c r="F23" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter Coinsurance % ---&gt;","")</f>
         <v/>
@@ -4126,7 +4145,7 @@
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="47"/>
@@ -4147,7 +4166,7 @@
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
       <c r="D25" s="90"/>
@@ -4161,7 +4180,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="47"/>
@@ -4238,35 +4257,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q314"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21:F140"/>
+      <selection pane="bottomRight" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" customWidth="1"/>
+    <col min="8" max="8" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" customWidth="1"/>
+    <col min="10" max="10" width="16.8984375" customWidth="1"/>
+    <col min="11" max="12" width="23.8984375" customWidth="1"/>
+    <col min="13" max="13" width="18.8984375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -4317,7 +4336,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75">
+    <row r="2" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4368,7 +4387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.75">
+    <row r="3" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4419,7 +4438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75">
+    <row r="4" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4470,7 +4489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75">
+    <row r="5" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4518,7 +4537,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75">
+    <row r="6" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="71" t="s">
         <v>575</v>
       </c>
@@ -4565,7 +4584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12.75">
+    <row r="7" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="71" t="s">
         <v>576</v>
       </c>
@@ -4612,7 +4631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75">
+    <row r="8" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
@@ -4659,7 +4678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12.75">
+    <row r="9" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4706,7 +4725,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75">
+    <row r="10" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4753,7 +4772,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75">
+    <row r="11" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4800,7 +4819,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="12.75">
+    <row r="12" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4847,7 +4866,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="12.75">
+    <row r="13" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4894,7 +4913,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="12.75">
+    <row r="14" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4941,7 +4960,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="12.75">
+    <row r="15" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -4988,7 +5007,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75">
+    <row r="16" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5035,7 +5054,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="12.75">
+    <row r="17" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5082,7 +5101,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="12.75">
+    <row r="18" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5133,7 +5152,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="12.75">
+    <row r="19" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5184,7 +5203,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75">
+    <row r="20" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5235,7 +5254,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="12.75">
+    <row r="21" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5286,7 +5305,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75">
+    <row r="22" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5332,7 +5351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12.75">
+    <row r="23" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5378,7 +5397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.75">
+    <row r="24" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5424,7 +5443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="12.75">
+    <row r="25" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5471,7 +5490,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75">
+    <row r="26" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5518,7 +5537,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75">
+    <row r="27" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5565,7 +5584,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75">
+    <row r="28" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5612,7 +5631,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75">
+    <row r="29" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5659,7 +5678,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75">
+    <row r="30" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5706,7 +5725,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75">
+    <row r="31" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5753,7 +5772,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="12.75">
+    <row r="32" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5800,7 +5819,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75">
+    <row r="33" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5847,7 +5866,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75">
+    <row r="34" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5894,7 +5913,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75">
+    <row r="35" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5941,7 +5960,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75">
+    <row r="36" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -5988,7 +6007,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75">
+    <row r="37" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6035,7 +6054,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75">
+    <row r="38" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6082,7 +6101,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75">
+    <row r="39" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6129,7 +6148,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75">
+    <row r="40" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6174,7 +6193,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75">
+    <row r="41" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6221,7 +6240,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75">
+    <row r="42" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6268,7 +6287,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75">
+    <row r="43" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6315,7 +6334,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75">
+    <row r="44" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6360,7 +6379,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75">
+    <row r="45" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6405,7 +6424,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75">
+    <row r="46" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6450,7 +6469,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75">
+    <row r="47" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6501,7 +6520,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75">
+    <row r="48" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6552,7 +6571,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75">
+    <row r="49" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6603,7 +6622,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75">
+    <row r="50" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6648,7 +6667,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75">
+    <row r="51" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6693,7 +6712,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75">
+    <row r="52" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6738,7 +6757,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75">
+    <row r="53" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6783,7 +6802,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75">
+    <row r="54" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6830,7 +6849,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75">
+    <row r="55" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6877,7 +6896,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75">
+    <row r="56" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6924,7 +6943,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75">
+    <row r="57" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6974,7 +6993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="12.75">
+    <row r="58" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -7024,7 +7043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12.75">
+    <row r="59" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7074,7 +7093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12.75">
+    <row r="60" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A60" s="71" t="s">
         <v>575</v>
       </c>
@@ -7120,7 +7139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="12.75">
+    <row r="61" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
@@ -7166,7 +7185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="12.75">
+    <row r="62" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A62" s="71" t="s">
         <v>576</v>
       </c>
@@ -7212,7 +7231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="12.75">
+    <row r="63" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
@@ -7252,7 +7271,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75">
+    <row r="64" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7293,7 +7312,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75">
+    <row r="65" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7334,7 +7353,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75">
+    <row r="66" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7384,7 +7403,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75">
+    <row r="67" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7434,7 +7453,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75">
+    <row r="68" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7484,7 +7503,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75">
+    <row r="69" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7532,7 +7551,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75">
+    <row r="70" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7583,7 +7602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12.75">
+    <row r="71" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7634,7 +7653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="12.75">
+    <row r="72" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7686,7 +7705,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75">
+    <row r="73" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7738,7 +7757,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75">
+    <row r="74" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7790,7 +7809,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75">
+    <row r="75" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7842,7 +7861,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75">
+    <row r="76" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7894,7 +7913,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75">
+    <row r="77" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7946,7 +7965,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75">
+    <row r="78" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -7998,7 +8017,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75">
+    <row r="79" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8050,7 +8069,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75">
+    <row r="80" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8102,7 +8121,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75">
+    <row r="81" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8154,7 +8173,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75">
+    <row r="82" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8206,7 +8225,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75">
+    <row r="83" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8258,7 +8277,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75">
+    <row r="84" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8310,7 +8329,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75">
+    <row r="85" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8362,7 +8381,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75">
+    <row r="86" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8414,7 +8433,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75">
+    <row r="87" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8466,7 +8485,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75">
+    <row r="88" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8518,7 +8537,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75">
+    <row r="89" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8570,7 +8589,7 @@
       </c>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75">
+    <row r="90" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A90" s="71" t="s">
         <v>575</v>
       </c>
@@ -8620,7 +8639,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75">
+    <row r="91" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A91" s="71" t="s">
         <v>576</v>
       </c>
@@ -8670,7 +8689,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75">
+    <row r="92" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A92" s="71" t="s">
         <v>577</v>
       </c>
@@ -8720,7 +8739,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75">
+    <row r="93" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8768,7 +8787,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75">
+    <row r="94" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8816,7 +8835,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="12.75">
+    <row r="95" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8864,7 +8883,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="12.75">
+    <row r="96" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8912,7 +8931,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="12.75">
+    <row r="97" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8960,7 +8979,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="12.75">
+    <row r="98" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -9008,7 +9027,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="12.75">
+    <row r="99" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9056,7 +9075,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="12.75">
+    <row r="100" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9104,7 +9123,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="12.75">
+    <row r="101" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9152,7 +9171,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="12.75">
+    <row r="102" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9204,7 +9223,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="12.75">
+    <row r="103" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9256,7 +9275,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="12.75">
+    <row r="104" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9308,7 +9327,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="12.75">
+    <row r="105" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9360,7 +9379,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="12.75">
+    <row r="106" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9408,7 +9427,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="12.75">
+    <row r="107" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9456,7 +9475,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="12.75">
+    <row r="108" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9504,7 +9523,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="12.75">
+    <row r="109" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9551,7 +9570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="12.75">
+    <row r="110" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9598,7 +9617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="12.75">
+    <row r="111" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9645,7 +9664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="12.75">
+    <row r="112" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9692,7 +9711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="12.75">
+    <row r="113" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9739,7 +9758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="12.75">
+    <row r="114" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9786,7 +9805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="12.75">
+    <row r="115" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9833,7 +9852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="12.75">
+    <row r="116" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9880,7 +9899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="12.75">
+    <row r="117" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9927,7 +9946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="12.75">
+    <row r="118" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9974,7 +9993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="12.75">
+    <row r="119" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -10021,7 +10040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="12.75">
+    <row r="120" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10068,7 +10087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="12.75">
+    <row r="121" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10115,7 +10134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="12.75">
+    <row r="122" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10162,7 +10181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="12.75">
+    <row r="123" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10209,7 +10228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="12.75">
+    <row r="124" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10254,7 +10273,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="12.75">
+    <row r="125" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10301,7 +10320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="12.75">
+    <row r="126" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10348,7 +10367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="12.75">
+    <row r="127" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10395,7 +10414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="12.75">
+    <row r="128" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10440,7 +10459,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="12.75">
+    <row r="129" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10485,7 +10504,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="12.75">
+    <row r="130" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10530,7 +10549,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="12.75">
+    <row r="131" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10581,7 +10600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="12.75">
+    <row r="132" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10632,7 +10651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="12.75">
+    <row r="133" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10683,7 +10702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="12.75">
+    <row r="134" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10728,7 +10747,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="12.75">
+    <row r="135" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10773,7 +10792,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="12.75">
+    <row r="136" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10818,7 +10837,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="12.75">
+    <row r="137" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10863,7 +10882,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="12.75">
+    <row r="138" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10910,7 +10929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75">
+    <row r="139" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10957,7 +10976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="12.75">
+    <row r="140" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -11004,7 +11023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="12.75">
+    <row r="141" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11055,7 +11074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="12.75">
+    <row r="142" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11106,7 +11125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="12.75">
+    <row r="143" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11157,11 +11176,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="12.75">
+    <row r="144" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A144" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B144" s="71"/>
+      <c r="B144" s="80" t="s">
+        <v>594</v>
+      </c>
       <c r="C144" s="71"/>
       <c r="D144" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11204,11 +11225,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="12.75">
+    <row r="145" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B145" s="71"/>
+      <c r="B145" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C145" s="71"/>
       <c r="D145" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11251,11 +11274,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="12.75">
+    <row r="146" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B146" s="71"/>
+      <c r="B146" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C146" s="71"/>
       <c r="D146" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11298,11 +11323,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="12.75">
+    <row r="147" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
-      <c r="B147" s="71"/>
+      <c r="B147" s="108" t="s">
+        <v>599</v>
+      </c>
       <c r="C147" s="71"/>
       <c r="D147" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11339,11 +11366,13 @@
       <c r="O147" s="77"/>
       <c r="P147" s="73"/>
     </row>
-    <row r="148" spans="1:16" ht="12.75">
+    <row r="148" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
-      <c r="B148" s="71"/>
+      <c r="B148" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C148" s="71"/>
       <c r="D148" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11380,11 +11409,13 @@
       <c r="O148" s="77"/>
       <c r="P148" s="73"/>
     </row>
-    <row r="149" spans="1:16" ht="12.75">
+    <row r="149" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
-      <c r="B149" s="71"/>
+      <c r="B149" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C149" s="71"/>
       <c r="D149" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11421,7 +11452,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="12.75">
+    <row r="150" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11472,7 +11503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="12.75">
+    <row r="151" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11523,7 +11554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="12.75">
+    <row r="152" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11574,7 +11605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75">
+    <row r="153" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11621,7 +11652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75">
+    <row r="154" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11672,7 +11703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="12.75">
+    <row r="155" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11723,7 +11754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="12.75">
+    <row r="156" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11774,7 +11805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="12.75">
+    <row r="157" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11821,7 +11852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="12.75">
+    <row r="158" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11872,7 +11903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="12.75">
+    <row r="159" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11923,7 +11954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="12.75">
+    <row r="160" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -11974,7 +12005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="12.75">
+    <row r="161" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12021,7 +12052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="12.75">
+    <row r="162" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12072,7 +12103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="12.75">
+    <row r="163" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12123,7 +12154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="12.75">
+    <row r="164" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12174,7 +12205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="12.75">
+    <row r="165" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>
@@ -12221,7 +12252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="12.75">
+    <row r="166" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -12239,7 +12270,7 @@
       <c r="O166" s="16"/>
       <c r="P166" s="9"/>
     </row>
-    <row r="167" spans="1:16" ht="12.75">
+    <row r="167" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -12257,7 +12288,7 @@
       <c r="O167" s="16"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="12.75">
+    <row r="168" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -12275,7 +12306,7 @@
       <c r="O168" s="16"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" ht="12.75">
+    <row r="169" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -12293,7 +12324,7 @@
       <c r="O169" s="16"/>
       <c r="P169" s="9"/>
     </row>
-    <row r="170" spans="1:16" ht="12.75">
+    <row r="170" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -12311,7 +12342,7 @@
       <c r="O170" s="16"/>
       <c r="P170" s="9"/>
     </row>
-    <row r="171" spans="1:16" ht="12.75">
+    <row r="171" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -12329,7 +12360,7 @@
       <c r="O171" s="16"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="12.75">
+    <row r="172" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -12347,7 +12378,7 @@
       <c r="O172" s="16"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" ht="12.75">
+    <row r="173" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -12365,7 +12396,7 @@
       <c r="O173" s="16"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" ht="12.75">
+    <row r="174" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -12383,7 +12414,7 @@
       <c r="O174" s="16"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="12.75">
+    <row r="175" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -12401,7 +12432,7 @@
       <c r="O175" s="16"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="12.75">
+    <row r="176" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -12419,7 +12450,7 @@
       <c r="O176" s="16"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" ht="12.75">
+    <row r="177" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -12437,7 +12468,7 @@
       <c r="O177" s="16"/>
       <c r="P177" s="9"/>
     </row>
-    <row r="178" spans="1:16" ht="12.75">
+    <row r="178" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -12455,7 +12486,7 @@
       <c r="O178" s="16"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:16" ht="12.75">
+    <row r="179" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -12473,7 +12504,7 @@
       <c r="O179" s="16"/>
       <c r="P179" s="9"/>
     </row>
-    <row r="180" spans="1:16" ht="12.75">
+    <row r="180" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -12491,7 +12522,7 @@
       <c r="O180" s="16"/>
       <c r="P180" s="9"/>
     </row>
-    <row r="181" spans="1:16" ht="12.75">
+    <row r="181" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -12509,7 +12540,7 @@
       <c r="O181" s="16"/>
       <c r="P181" s="9"/>
     </row>
-    <row r="182" spans="1:16" ht="12.75">
+    <row r="182" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -12527,7 +12558,7 @@
       <c r="O182" s="16"/>
       <c r="P182" s="9"/>
     </row>
-    <row r="183" spans="1:16" ht="12.75">
+    <row r="183" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -12545,7 +12576,7 @@
       <c r="O183" s="16"/>
       <c r="P183" s="9"/>
     </row>
-    <row r="184" spans="1:16" ht="12.75">
+    <row r="184" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="55"/>
@@ -12563,7 +12594,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="20"/>
     </row>
-    <row r="185" spans="1:16" ht="12.75">
+    <row r="185" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="55"/>
@@ -12581,7 +12612,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="20"/>
     </row>
-    <row r="186" spans="1:16" ht="12.75">
+    <row r="186" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="55"/>
@@ -12599,7 +12630,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="20"/>
     </row>
-    <row r="187" spans="1:16" ht="12.75">
+    <row r="187" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -12617,7 +12648,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="20"/>
     </row>
-    <row r="188" spans="1:16" ht="12.75">
+    <row r="188" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -12635,7 +12666,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="20"/>
     </row>
-    <row r="189" spans="1:16" ht="12.75">
+    <row r="189" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -12653,7 +12684,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="20"/>
     </row>
-    <row r="190" spans="1:16" ht="12.75">
+    <row r="190" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -12671,7 +12702,7 @@
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" ht="12.75">
+    <row r="191" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -12689,7 +12720,7 @@
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" ht="12.75">
+    <row r="192" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -12707,7 +12738,7 @@
       <c r="O192" s="16"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:16" ht="12.75">
+    <row r="193" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -12725,7 +12756,7 @@
       <c r="O193" s="16"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:16" ht="12.75">
+    <row r="194" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -12743,7 +12774,7 @@
       <c r="O194" s="16"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:16" ht="12.75">
+    <row r="195" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -12761,7 +12792,7 @@
       <c r="O195" s="16"/>
       <c r="P195" s="9"/>
     </row>
-    <row r="196" spans="1:16" ht="12.75">
+    <row r="196" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -12779,7 +12810,7 @@
       <c r="O196" s="16"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" ht="12.75">
+    <row r="197" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -12797,7 +12828,7 @@
       <c r="O197" s="16"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="12.75">
+    <row r="198" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -12815,7 +12846,7 @@
       <c r="O198" s="16"/>
       <c r="P198" s="9"/>
     </row>
-    <row r="199" spans="1:16" ht="12.75">
+    <row r="199" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -12833,7 +12864,7 @@
       <c r="O199" s="16"/>
       <c r="P199" s="9"/>
     </row>
-    <row r="200" spans="1:16" ht="12.75">
+    <row r="200" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -12851,7 +12882,7 @@
       <c r="O200" s="16"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" ht="12.75">
+    <row r="201" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -12869,7 +12900,7 @@
       <c r="O201" s="16"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="12.75">
+    <row r="202" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -12887,7 +12918,7 @@
       <c r="O202" s="16"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:16" ht="12.75">
+    <row r="203" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -12905,7 +12936,7 @@
       <c r="O203" s="16"/>
       <c r="P203" s="9"/>
     </row>
-    <row r="204" spans="1:16" ht="12.75">
+    <row r="204" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -12923,7 +12954,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="1:16" ht="12.75">
+    <row r="205" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12941,7 +12972,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="1:16" ht="12.75">
+    <row r="206" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12959,7 +12990,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="1:16" ht="12.75">
+    <row r="207" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12977,7 +13008,7 @@
       <c r="O207" s="16"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="12.75">
+    <row r="208" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12995,7 +13026,7 @@
       <c r="O208" s="16"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="12.75">
+    <row r="209" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -13013,7 +13044,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="1:16" ht="12.75">
+    <row r="210" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -13031,7 +13062,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="1:16" ht="12.75">
+    <row r="211" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -13049,7 +13080,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="1:16" ht="12.75">
+    <row r="212" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -13067,7 +13098,7 @@
       <c r="O212" s="16"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="12.75">
+    <row r="213" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -13085,7 +13116,7 @@
       <c r="O213" s="16"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" ht="12.75">
+    <row r="214" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -13103,7 +13134,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="1:16" ht="12.75">
+    <row r="215" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -13121,7 +13152,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:16" ht="12.75">
+    <row r="216" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -13139,7 +13170,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16" ht="12.75">
+    <row r="217" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -13157,7 +13188,7 @@
       <c r="O217" s="16"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" ht="12.75">
+    <row r="218" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -13175,7 +13206,7 @@
       <c r="O218" s="16"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" ht="12.75">
+    <row r="219" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -13193,7 +13224,7 @@
       <c r="O219" s="16"/>
       <c r="P219" s="9"/>
     </row>
-    <row r="220" spans="1:16" ht="12.75">
+    <row r="220" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -13211,7 +13242,7 @@
       <c r="O220" s="16"/>
       <c r="P220" s="9"/>
     </row>
-    <row r="221" spans="1:16" ht="12.75">
+    <row r="221" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -13229,7 +13260,7 @@
       <c r="O221" s="16"/>
       <c r="P221" s="9"/>
     </row>
-    <row r="222" spans="1:16" ht="12.75">
+    <row r="222" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -13247,7 +13278,7 @@
       <c r="O222" s="16"/>
       <c r="P222" s="9"/>
     </row>
-    <row r="223" spans="1:16" ht="12.75">
+    <row r="223" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -13265,7 +13296,7 @@
       <c r="O223" s="16"/>
       <c r="P223" s="9"/>
     </row>
-    <row r="224" spans="1:16" ht="12.75">
+    <row r="224" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -13283,7 +13314,7 @@
       <c r="O224" s="16"/>
       <c r="P224" s="9"/>
     </row>
-    <row r="225" spans="1:17" ht="12.75">
+    <row r="225" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -13302,7 +13333,7 @@
       <c r="P225" s="9"/>
       <c r="Q225" s="41"/>
     </row>
-    <row r="226" spans="1:17" ht="12.75">
+    <row r="226" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="55"/>
@@ -13321,7 +13352,7 @@
       <c r="P226" s="20"/>
       <c r="Q226" s="41"/>
     </row>
-    <row r="227" spans="1:17" ht="12.75">
+    <row r="227" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="55"/>
@@ -13340,7 +13371,7 @@
       <c r="P227" s="20"/>
       <c r="Q227" s="41"/>
     </row>
-    <row r="228" spans="1:17" ht="12.75">
+    <row r="228" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="55"/>
@@ -13358,7 +13389,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="20"/>
     </row>
-    <row r="229" spans="1:17" ht="12.75">
+    <row r="229" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -13376,7 +13407,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="20"/>
     </row>
-    <row r="230" spans="1:17" ht="12.75">
+    <row r="230" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -13394,7 +13425,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="20"/>
     </row>
-    <row r="231" spans="1:17" ht="12.75">
+    <row r="231" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -13412,7 +13443,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="20"/>
     </row>
-    <row r="232" spans="1:17" ht="12.75">
+    <row r="232" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -13430,7 +13461,7 @@
       <c r="O232" s="16"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:17" ht="12.75">
+    <row r="233" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -13448,7 +13479,7 @@
       <c r="O233" s="16"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:17" ht="12.75">
+    <row r="234" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -13466,7 +13497,7 @@
       <c r="O234" s="16"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:17" ht="12.75">
+    <row r="235" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -13484,7 +13515,7 @@
       <c r="O235" s="16"/>
       <c r="P235" s="9"/>
     </row>
-    <row r="236" spans="1:17" ht="12.75">
+    <row r="236" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13502,7 +13533,7 @@
       <c r="O236" s="16"/>
       <c r="P236" s="9"/>
     </row>
-    <row r="237" spans="1:17" ht="12.75">
+    <row r="237" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13520,7 +13551,7 @@
       <c r="O237" s="16"/>
       <c r="P237" s="9"/>
     </row>
-    <row r="238" spans="1:17" ht="12.75">
+    <row r="238" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13538,7 +13569,7 @@
       <c r="O238" s="16"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:17" ht="12.75">
+    <row r="239" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13556,7 +13587,7 @@
       <c r="O239" s="16"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:17" ht="12.75">
+    <row r="240" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13574,7 +13605,7 @@
       <c r="O240" s="16"/>
       <c r="P240" s="9"/>
     </row>
-    <row r="241" spans="1:16" ht="12.75">
+    <row r="241" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13592,7 +13623,7 @@
       <c r="O241" s="16"/>
       <c r="P241" s="9"/>
     </row>
-    <row r="242" spans="1:16" ht="12.75">
+    <row r="242" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13610,7 +13641,7 @@
       <c r="O242" s="16"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16" ht="12.75">
+    <row r="243" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13628,7 +13659,7 @@
       <c r="O243" s="16"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16" ht="12.75">
+    <row r="244" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13646,7 +13677,7 @@
       <c r="O244" s="16"/>
       <c r="P244" s="9"/>
     </row>
-    <row r="245" spans="1:16" ht="12.75">
+    <row r="245" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13664,7 +13695,7 @@
       <c r="O245" s="16"/>
       <c r="P245" s="9"/>
     </row>
-    <row r="246" spans="1:16" ht="12.75">
+    <row r="246" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13682,7 +13713,7 @@
       <c r="O246" s="2"/>
       <c r="P246" s="20"/>
     </row>
-    <row r="247" spans="1:16" ht="12.75">
+    <row r="247" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13700,7 +13731,7 @@
       <c r="O247" s="2"/>
       <c r="P247" s="20"/>
     </row>
-    <row r="248" spans="1:16" ht="12.75">
+    <row r="248" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13718,7 +13749,7 @@
       <c r="O248" s="2"/>
       <c r="P248" s="20"/>
     </row>
-    <row r="249" spans="1:16" ht="12.75">
+    <row r="249" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13736,7 +13767,7 @@
       <c r="O249" s="16"/>
       <c r="P249" s="2"/>
     </row>
-    <row r="250" spans="1:16" ht="12.75">
+    <row r="250" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13754,7 +13785,7 @@
       <c r="O250" s="16"/>
       <c r="P250" s="2"/>
     </row>
-    <row r="251" spans="1:16" ht="12.75">
+    <row r="251" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13772,7 +13803,7 @@
       <c r="O251" s="2"/>
       <c r="P251" s="20"/>
     </row>
-    <row r="252" spans="1:16" ht="12.75">
+    <row r="252" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13790,7 +13821,7 @@
       <c r="O252" s="2"/>
       <c r="P252" s="20"/>
     </row>
-    <row r="253" spans="1:16" ht="12.75">
+    <row r="253" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13808,7 +13839,7 @@
       <c r="O253" s="2"/>
       <c r="P253" s="20"/>
     </row>
-    <row r="254" spans="1:16" ht="12.75">
+    <row r="254" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13826,7 +13857,7 @@
       <c r="O254" s="16"/>
       <c r="P254" s="2"/>
     </row>
-    <row r="255" spans="1:16" ht="12.75">
+    <row r="255" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13844,7 +13875,7 @@
       <c r="O255" s="16"/>
       <c r="P255" s="2"/>
     </row>
-    <row r="256" spans="1:16" ht="12.75">
+    <row r="256" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13862,7 +13893,7 @@
       <c r="O256" s="2"/>
       <c r="P256" s="20"/>
     </row>
-    <row r="257" spans="1:16" ht="12.75">
+    <row r="257" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13880,7 +13911,7 @@
       <c r="O257" s="2"/>
       <c r="P257" s="20"/>
     </row>
-    <row r="258" spans="1:16" ht="12.75">
+    <row r="258" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13898,7 +13929,7 @@
       <c r="O258" s="2"/>
       <c r="P258" s="20"/>
     </row>
-    <row r="259" spans="1:16" ht="12.75">
+    <row r="259" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13916,7 +13947,7 @@
       <c r="O259" s="16"/>
       <c r="P259" s="2"/>
     </row>
-    <row r="260" spans="1:16" ht="12.75">
+    <row r="260" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13934,7 +13965,7 @@
       <c r="O260" s="16"/>
       <c r="P260" s="2"/>
     </row>
-    <row r="261" spans="1:16" ht="12.75">
+    <row r="261" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13952,7 +13983,7 @@
       <c r="O261" s="16"/>
       <c r="P261" s="9"/>
     </row>
-    <row r="262" spans="1:16" ht="12.75">
+    <row r="262" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13970,7 +14001,7 @@
       <c r="O262" s="16"/>
       <c r="P262" s="9"/>
     </row>
-    <row r="263" spans="1:16" ht="12.75">
+    <row r="263" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -13988,7 +14019,7 @@
       <c r="O263" s="16"/>
       <c r="P263" s="9"/>
     </row>
-    <row r="264" spans="1:16" ht="12.75">
+    <row r="264" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -14006,7 +14037,7 @@
       <c r="O264" s="16"/>
       <c r="P264" s="9"/>
     </row>
-    <row r="265" spans="1:16" ht="12.75">
+    <row r="265" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -14024,7 +14055,7 @@
       <c r="O265" s="16"/>
       <c r="P265" s="9"/>
     </row>
-    <row r="266" spans="1:16" ht="12.75">
+    <row r="266" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14042,7 +14073,7 @@
       <c r="O266" s="16"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:16" ht="12.75">
+    <row r="267" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14060,7 +14091,7 @@
       <c r="O267" s="16"/>
       <c r="P267" s="9"/>
     </row>
-    <row r="268" spans="1:16" ht="12.75">
+    <row r="268" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14078,7 +14109,7 @@
       <c r="O268" s="16"/>
       <c r="P268" s="9"/>
     </row>
-    <row r="269" spans="1:16" ht="12.75">
+    <row r="269" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="55"/>
@@ -14096,7 +14127,7 @@
       <c r="O269" s="2"/>
       <c r="P269" s="20"/>
     </row>
-    <row r="270" spans="1:16" ht="12.75">
+    <row r="270" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="55"/>
@@ -14114,7 +14145,7 @@
       <c r="O270" s="2"/>
       <c r="P270" s="20"/>
     </row>
-    <row r="271" spans="1:16" ht="12.75">
+    <row r="271" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="55"/>
@@ -14132,7 +14163,7 @@
       <c r="O271" s="2"/>
       <c r="P271" s="20"/>
     </row>
-    <row r="272" spans="1:16" ht="12.75">
+    <row r="272" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14150,7 +14181,7 @@
       <c r="O272" s="41"/>
       <c r="P272" s="41"/>
     </row>
-    <row r="273" spans="1:16" ht="12.75">
+    <row r="273" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A273" s="59"/>
       <c r="B273" s="59"/>
       <c r="C273" s="59"/>
@@ -14168,7 +14199,7 @@
       <c r="O273" s="63"/>
       <c r="P273" s="61"/>
     </row>
-    <row r="274" spans="1:16" ht="12.75">
+    <row r="274" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A274" s="59"/>
       <c r="B274" s="59"/>
       <c r="C274" s="59"/>
@@ -14186,7 +14217,7 @@
       <c r="O274" s="63"/>
       <c r="P274" s="61"/>
     </row>
-    <row r="275" spans="1:16" ht="12.75">
+    <row r="275" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A275" s="59"/>
       <c r="B275" s="59"/>
       <c r="C275" s="59"/>
@@ -14204,7 +14235,7 @@
       <c r="O275" s="63"/>
       <c r="P275" s="61"/>
     </row>
-    <row r="276" spans="1:16" ht="12.75">
+    <row r="276" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A276" s="59"/>
       <c r="B276" s="59"/>
       <c r="C276" s="59"/>
@@ -14222,7 +14253,7 @@
       <c r="O276" s="63"/>
       <c r="P276" s="61"/>
     </row>
-    <row r="277" spans="1:16" ht="12.75">
+    <row r="277" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A277" s="59"/>
       <c r="B277" s="59"/>
       <c r="C277" s="59"/>
@@ -14240,7 +14271,7 @@
       <c r="O277" s="63"/>
       <c r="P277" s="61"/>
     </row>
-    <row r="278" spans="1:16" ht="12.75">
+    <row r="278" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A278" s="59"/>
       <c r="B278" s="59"/>
       <c r="C278" s="59"/>
@@ -14258,7 +14289,7 @@
       <c r="O278" s="63"/>
       <c r="P278" s="61"/>
     </row>
-    <row r="279" spans="1:16" ht="12.75">
+    <row r="279" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A279" s="59"/>
       <c r="B279" s="59"/>
       <c r="C279" s="59"/>
@@ -14276,7 +14307,7 @@
       <c r="O279" s="63"/>
       <c r="P279" s="61"/>
     </row>
-    <row r="280" spans="1:16" ht="12.75">
+    <row r="280" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A280" s="59"/>
       <c r="B280" s="59"/>
       <c r="C280" s="59"/>
@@ -14294,7 +14325,7 @@
       <c r="O280" s="63"/>
       <c r="P280" s="61"/>
     </row>
-    <row r="281" spans="1:16" ht="12.75">
+    <row r="281" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A281" s="59"/>
       <c r="B281" s="59"/>
       <c r="C281" s="59"/>
@@ -14312,7 +14343,7 @@
       <c r="O281" s="63"/>
       <c r="P281" s="61"/>
     </row>
-    <row r="282" spans="1:16" ht="12.75">
+    <row r="282" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A282" s="59"/>
       <c r="B282" s="59"/>
       <c r="C282" s="59"/>
@@ -14330,7 +14361,7 @@
       <c r="O282" s="63"/>
       <c r="P282" s="61"/>
     </row>
-    <row r="283" spans="1:16" ht="12.75">
+    <row r="283" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A283" s="59"/>
       <c r="B283" s="59"/>
       <c r="C283" s="59"/>
@@ -14348,7 +14379,7 @@
       <c r="O283" s="63"/>
       <c r="P283" s="61"/>
     </row>
-    <row r="284" spans="1:16" ht="12.75">
+    <row r="284" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A284" s="59"/>
       <c r="B284" s="59"/>
       <c r="C284" s="59"/>
@@ -14366,7 +14397,7 @@
       <c r="O284" s="63"/>
       <c r="P284" s="61"/>
     </row>
-    <row r="285" spans="1:16" ht="12.75">
+    <row r="285" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A285" s="59"/>
       <c r="B285" s="59"/>
       <c r="C285" s="59"/>
@@ -14384,7 +14415,7 @@
       <c r="O285" s="63"/>
       <c r="P285" s="61"/>
     </row>
-    <row r="286" spans="1:16" ht="12.75">
+    <row r="286" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A286" s="59"/>
       <c r="B286" s="59"/>
       <c r="C286" s="59"/>
@@ -14402,7 +14433,7 @@
       <c r="O286" s="63"/>
       <c r="P286" s="61"/>
     </row>
-    <row r="287" spans="1:16" ht="12.75">
+    <row r="287" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A287" s="59"/>
       <c r="B287" s="59"/>
       <c r="C287" s="59"/>
@@ -14420,7 +14451,7 @@
       <c r="O287" s="63"/>
       <c r="P287" s="61"/>
     </row>
-    <row r="288" spans="1:16" ht="12.75">
+    <row r="288" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A288" s="59"/>
       <c r="B288" s="59"/>
       <c r="C288" s="59"/>
@@ -14438,7 +14469,7 @@
       <c r="O288" s="63"/>
       <c r="P288" s="61"/>
     </row>
-    <row r="289" spans="1:16" ht="12.75">
+    <row r="289" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A289" s="59"/>
       <c r="B289" s="59"/>
       <c r="C289" s="59"/>
@@ -14456,7 +14487,7 @@
       <c r="O289" s="63"/>
       <c r="P289" s="61"/>
     </row>
-    <row r="290" spans="1:16" ht="12.75">
+    <row r="290" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A290" s="59"/>
       <c r="B290" s="59"/>
       <c r="C290" s="59"/>
@@ -14474,7 +14505,7 @@
       <c r="O290" s="63"/>
       <c r="P290" s="61"/>
     </row>
-    <row r="291" spans="1:16" ht="12.75">
+    <row r="291" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A291" s="59"/>
       <c r="B291" s="59"/>
       <c r="C291" s="59"/>
@@ -14492,7 +14523,7 @@
       <c r="O291" s="63"/>
       <c r="P291" s="61"/>
     </row>
-    <row r="292" spans="1:16" ht="12.75">
+    <row r="292" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A292" s="59"/>
       <c r="B292" s="59"/>
       <c r="C292" s="59"/>
@@ -14510,7 +14541,7 @@
       <c r="O292" s="63"/>
       <c r="P292" s="61"/>
     </row>
-    <row r="293" spans="1:16" ht="12.75">
+    <row r="293" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A293" s="59"/>
       <c r="B293" s="59"/>
       <c r="C293" s="59"/>
@@ -14528,7 +14559,7 @@
       <c r="O293" s="63"/>
       <c r="P293" s="61"/>
     </row>
-    <row r="294" spans="1:16" ht="12.75">
+    <row r="294" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A294" s="59"/>
       <c r="B294" s="59"/>
       <c r="C294" s="59"/>
@@ -14546,7 +14577,7 @@
       <c r="O294" s="63"/>
       <c r="P294" s="61"/>
     </row>
-    <row r="295" spans="1:16" ht="12.75">
+    <row r="295" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A295" s="59"/>
       <c r="B295" s="59"/>
       <c r="C295" s="59"/>
@@ -14564,7 +14595,7 @@
       <c r="O295" s="63"/>
       <c r="P295" s="61"/>
     </row>
-    <row r="296" spans="1:16" ht="12.75">
+    <row r="296" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A296" s="59"/>
       <c r="B296" s="59"/>
       <c r="C296" s="59"/>
@@ -14582,7 +14613,7 @@
       <c r="O296" s="63"/>
       <c r="P296" s="61"/>
     </row>
-    <row r="297" spans="1:16" ht="12.75">
+    <row r="297" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A297" s="59"/>
       <c r="B297" s="59"/>
       <c r="C297" s="59"/>
@@ -14600,7 +14631,7 @@
       <c r="O297" s="63"/>
       <c r="P297" s="61"/>
     </row>
-    <row r="298" spans="1:16" ht="12.75">
+    <row r="298" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A298" s="59"/>
       <c r="B298" s="59"/>
       <c r="C298" s="59"/>
@@ -14618,7 +14649,7 @@
       <c r="O298" s="63"/>
       <c r="P298" s="61"/>
     </row>
-    <row r="299" spans="1:16" ht="12.75">
+    <row r="299" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A299" s="59"/>
       <c r="B299" s="59"/>
       <c r="C299" s="59"/>
@@ -14636,7 +14667,7 @@
       <c r="O299" s="63"/>
       <c r="P299" s="61"/>
     </row>
-    <row r="300" spans="1:16" ht="12.75">
+    <row r="300" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A300" s="59"/>
       <c r="B300" s="59"/>
       <c r="C300" s="59"/>
@@ -14654,7 +14685,7 @@
       <c r="O300" s="63"/>
       <c r="P300" s="61"/>
     </row>
-    <row r="301" spans="1:16" ht="12.75">
+    <row r="301" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A301" s="59"/>
       <c r="B301" s="59"/>
       <c r="C301" s="59"/>
@@ -14672,7 +14703,7 @@
       <c r="O301" s="63"/>
       <c r="P301" s="61"/>
     </row>
-    <row r="302" spans="1:16" ht="12.75">
+    <row r="302" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A302" s="59"/>
       <c r="B302" s="59"/>
       <c r="C302" s="59"/>
@@ -14690,7 +14721,7 @@
       <c r="O302" s="63"/>
       <c r="P302" s="61"/>
     </row>
-    <row r="303" spans="1:16" ht="12.75">
+    <row r="303" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A303" s="59"/>
       <c r="B303" s="59"/>
       <c r="C303" s="59"/>
@@ -14708,7 +14739,7 @@
       <c r="O303" s="63"/>
       <c r="P303" s="61"/>
     </row>
-    <row r="304" spans="1:16" ht="12.75">
+    <row r="304" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A304" s="59"/>
       <c r="B304" s="59"/>
       <c r="C304" s="59"/>
@@ -14726,7 +14757,7 @@
       <c r="O304" s="63"/>
       <c r="P304" s="61"/>
     </row>
-    <row r="305" spans="1:16" ht="12.75">
+    <row r="305" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A305" s="59"/>
       <c r="B305" s="59"/>
       <c r="C305" s="59"/>
@@ -14744,7 +14775,7 @@
       <c r="O305" s="63"/>
       <c r="P305" s="61"/>
     </row>
-    <row r="306" spans="1:16" ht="12.75">
+    <row r="306" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A306" s="59"/>
       <c r="B306" s="59"/>
       <c r="C306" s="59"/>
@@ -14762,7 +14793,7 @@
       <c r="O306" s="63"/>
       <c r="P306" s="61"/>
     </row>
-    <row r="307" spans="1:16" ht="12.75">
+    <row r="307" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A307" s="59"/>
       <c r="B307" s="59"/>
       <c r="C307" s="59"/>
@@ -14780,7 +14811,7 @@
       <c r="O307" s="63"/>
       <c r="P307" s="61"/>
     </row>
-    <row r="308" spans="1:16" ht="12.75">
+    <row r="308" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A308" s="59"/>
       <c r="B308" s="59"/>
       <c r="C308" s="59"/>
@@ -14798,7 +14829,7 @@
       <c r="O308" s="63"/>
       <c r="P308" s="61"/>
     </row>
-    <row r="309" spans="1:16" ht="12.75">
+    <row r="309" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A309" s="59"/>
       <c r="B309" s="59"/>
       <c r="C309" s="59"/>
@@ -14816,7 +14847,7 @@
       <c r="O309" s="63"/>
       <c r="P309" s="61"/>
     </row>
-    <row r="310" spans="1:16" ht="12.75">
+    <row r="310" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A310" s="59"/>
       <c r="B310" s="59"/>
       <c r="C310" s="59"/>
@@ -14834,7 +14865,7 @@
       <c r="O310" s="63"/>
       <c r="P310" s="61"/>
     </row>
-    <row r="311" spans="1:16" ht="12.75">
+    <row r="311" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A311" s="59"/>
       <c r="B311" s="59"/>
       <c r="C311" s="59"/>
@@ -14852,7 +14883,7 @@
       <c r="O311" s="63"/>
       <c r="P311" s="61"/>
     </row>
-    <row r="312" spans="1:16" ht="12.75">
+    <row r="312" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A312" s="59"/>
       <c r="B312" s="59"/>
       <c r="C312" s="59"/>
@@ -14870,7 +14901,7 @@
       <c r="O312" s="63"/>
       <c r="P312" s="61"/>
     </row>
-    <row r="313" spans="1:16" ht="12.75">
+    <row r="313" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A313" s="59"/>
       <c r="B313" s="59"/>
       <c r="C313" s="59"/>
@@ -14888,7 +14919,7 @@
       <c r="O313" s="63"/>
       <c r="P313" s="61"/>
     </row>
-    <row r="314" spans="1:16" ht="12.75">
+    <row r="314" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A314" s="59"/>
       <c r="B314" s="59"/>
       <c r="C314" s="59"/>
@@ -14923,20 +14954,20 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69921875" customWidth="1"/>
+    <col min="7" max="7" width="23.8984375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.296875" customWidth="1"/>
+    <col min="10" max="10" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -14965,7 +14996,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="32" t="s">
         <v>316</v>
       </c>
@@ -14995,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="32" t="s">
         <v>317</v>
       </c>
@@ -15025,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A4" s="32" t="s">
         <v>318</v>
       </c>
@@ -15055,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="32" t="s">
         <v>319</v>
       </c>
@@ -15085,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="32" t="s">
         <v>320</v>
       </c>
@@ -15115,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="32" t="s">
         <v>321</v>
       </c>
@@ -15145,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="32" t="s">
         <v>322</v>
       </c>
@@ -15175,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="32" t="s">
         <v>323</v>
       </c>
@@ -15205,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="32" t="s">
         <v>324</v>
       </c>
@@ -15235,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="32" t="s">
         <v>325</v>
       </c>
@@ -15265,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A12" s="32" t="s">
         <v>326</v>
       </c>
@@ -15295,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="32" t="s">
         <v>327</v>
       </c>
@@ -15325,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="32" t="s">
         <v>328</v>
       </c>
@@ -15355,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A15" s="32" t="s">
         <v>329</v>
       </c>
@@ -15385,7 +15416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="32" t="s">
         <v>330</v>
       </c>
@@ -15415,7 +15446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A17" s="32" t="s">
         <v>239</v>
       </c>
@@ -15445,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A18" s="32" t="s">
         <v>240</v>
       </c>
@@ -15475,7 +15506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A19" s="32" t="s">
         <v>241</v>
       </c>
@@ -15505,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A20" s="32" t="s">
         <v>242</v>
       </c>
@@ -15535,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A21" s="32" t="s">
         <v>243</v>
       </c>
@@ -15565,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -15595,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A23" s="32" t="s">
         <v>245</v>
       </c>
@@ -15625,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A24" s="32" t="s">
         <v>246</v>
       </c>
@@ -15655,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A25" s="32" t="s">
         <v>247</v>
       </c>
@@ -15685,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A26" s="32" t="s">
         <v>248</v>
       </c>
@@ -15715,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A27" s="32" t="s">
         <v>249</v>
       </c>
@@ -15745,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A28" s="32" t="s">
         <v>250</v>
       </c>
@@ -15775,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A29" s="32" t="s">
         <v>251</v>
       </c>
@@ -15805,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A30" s="32" t="s">
         <v>252</v>
       </c>
@@ -15835,7 +15866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A31" s="32" t="s">
         <v>197</v>
       </c>
@@ -15865,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A32" s="32" t="s">
         <v>198</v>
       </c>
@@ -15895,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A33" s="32" t="s">
         <v>199</v>
       </c>
@@ -15925,7 +15956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A34" s="32" t="s">
         <v>200</v>
       </c>
@@ -15955,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A35" s="32" t="s">
         <v>201</v>
       </c>
@@ -15985,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A36" s="32" t="s">
         <v>202</v>
       </c>
@@ -16015,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A37" s="32" t="s">
         <v>203</v>
       </c>
@@ -16045,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A38" s="32" t="s">
         <v>204</v>
       </c>
@@ -16075,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A39" s="32" t="s">
         <v>205</v>
       </c>
@@ -16105,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A40" s="32" t="s">
         <v>206</v>
       </c>
@@ -16135,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A41" s="32" t="s">
         <v>207</v>
       </c>
@@ -16165,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A42" s="32" t="s">
         <v>208</v>
       </c>
@@ -16195,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A43" s="32" t="s">
         <v>209</v>
       </c>
@@ -16225,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A44" s="32" t="s">
         <v>210</v>
       </c>
@@ -16255,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A45" s="32" t="s">
         <v>211</v>
       </c>
@@ -16285,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A46" s="32" t="s">
         <v>212</v>
       </c>
@@ -16315,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A47" s="32" t="s">
         <v>213</v>
       </c>
@@ -16345,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A48" s="32" t="s">
         <v>214</v>
       </c>
@@ -16375,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A49" s="32" t="s">
         <v>215</v>
       </c>
@@ -16405,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A50" s="32" t="s">
         <v>216</v>
       </c>
@@ -16435,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A51" s="32" t="s">
         <v>217</v>
       </c>
@@ -16465,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A52" s="32" t="s">
         <v>218</v>
       </c>
@@ -16495,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A53" s="32" t="s">
         <v>219</v>
       </c>
@@ -16525,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A54" s="32" t="s">
         <v>220</v>
       </c>
@@ -16555,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A55" s="32" t="s">
         <v>221</v>
       </c>
@@ -16585,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A56" s="32" t="s">
         <v>222</v>
       </c>
@@ -16615,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A57" s="32" t="s">
         <v>223</v>
       </c>
@@ -16645,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A58" s="32" t="s">
         <v>224</v>
       </c>
@@ -16675,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A59" s="32" t="s">
         <v>225</v>
       </c>
@@ -16705,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A60" s="32" t="s">
         <v>226</v>
       </c>
@@ -16735,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A61" s="32" t="s">
         <v>227</v>
       </c>
@@ -16765,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A62" s="32" t="s">
         <v>228</v>
       </c>
@@ -16795,7 +16826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A63" s="32" t="s">
         <v>229</v>
       </c>
@@ -16825,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A64" s="32" t="s">
         <v>230</v>
       </c>
@@ -16855,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A65" s="32" t="s">
         <v>231</v>
       </c>
@@ -16885,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A66" s="32" t="s">
         <v>232</v>
       </c>
@@ -16915,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A67" s="32" t="s">
         <v>233</v>
       </c>
@@ -16945,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A68" s="32" t="s">
         <v>234</v>
       </c>
@@ -16975,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A69" s="32" t="s">
         <v>508</v>
       </c>
@@ -17005,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A70" s="32" t="s">
         <v>509</v>
       </c>
@@ -17035,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A71" s="32" t="s">
         <v>510</v>
       </c>
@@ -17065,7 +17096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A72" s="32" t="s">
         <v>511</v>
       </c>
@@ -17095,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A73" s="32" t="s">
         <v>512</v>
       </c>
@@ -17125,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A74" s="32" t="s">
         <v>513</v>
       </c>
@@ -17155,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A75" s="32" t="s">
         <v>514</v>
       </c>
@@ -17185,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A76" s="32" t="s">
         <v>515</v>
       </c>
@@ -17215,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A77" s="32" t="s">
         <v>516</v>
       </c>
@@ -17245,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A78" s="32" t="s">
         <v>517</v>
       </c>
@@ -17275,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A79" s="32" t="s">
         <v>518</v>
       </c>
@@ -17305,7 +17336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A80" s="32" t="s">
         <v>519</v>
       </c>
@@ -17335,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A81" s="32" t="s">
         <v>520</v>
       </c>
@@ -17365,7 +17396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A82" s="32" t="s">
         <v>521</v>
       </c>
@@ -17395,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A83" s="32" t="s">
         <v>522</v>
       </c>
@@ -17425,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A84" s="32" t="s">
         <v>282</v>
       </c>
@@ -17455,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A85" s="32" t="s">
         <v>283</v>
       </c>
@@ -17485,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A86" s="32" t="s">
         <v>284</v>
       </c>
@@ -17515,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A87" s="32" t="s">
         <v>285</v>
       </c>
@@ -17545,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A88" s="32" t="s">
         <v>286</v>
       </c>
@@ -17575,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A89" s="32" t="s">
         <v>287</v>
       </c>
@@ -17605,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A90" s="32" t="s">
         <v>288</v>
       </c>
@@ -17635,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A91" s="32" t="s">
         <v>289</v>
       </c>
@@ -17665,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A92" s="32" t="s">
         <v>290</v>
       </c>
@@ -17695,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A93" s="32" t="s">
         <v>291</v>
       </c>
@@ -17725,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A94" s="32" t="s">
         <v>292</v>
       </c>
@@ -17755,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A95" s="32" t="s">
         <v>293</v>
       </c>
@@ -17785,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A96" s="32" t="s">
         <v>294</v>
       </c>
@@ -17815,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A97" s="32" t="s">
         <v>295</v>
       </c>
@@ -17845,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A98" s="32" t="s">
         <v>296</v>
       </c>
@@ -17875,7 +17906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A99" s="32" t="s">
         <v>301</v>
       </c>
@@ -17905,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A100" s="32" t="s">
         <v>302</v>
       </c>
@@ -17935,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A101" s="32" t="s">
         <v>303</v>
       </c>
@@ -17965,7 +17996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A102" s="32" t="s">
         <v>304</v>
       </c>
@@ -17995,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A103" s="32" t="s">
         <v>305</v>
       </c>
@@ -18025,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A104" s="32" t="s">
         <v>306</v>
       </c>
@@ -18055,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A105" s="32" t="s">
         <v>307</v>
       </c>
@@ -18085,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A106" s="32" t="s">
         <v>308</v>
       </c>
@@ -18115,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A107" s="32" t="s">
         <v>309</v>
       </c>
@@ -18145,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A108" s="32" t="s">
         <v>310</v>
       </c>
@@ -18175,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A109" s="32" t="s">
         <v>311</v>
       </c>
@@ -18205,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A110" s="32" t="s">
         <v>312</v>
       </c>
@@ -18235,7 +18266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A111" s="32" t="s">
         <v>313</v>
       </c>
@@ -18265,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A112" s="32" t="s">
         <v>314</v>
       </c>
@@ -18295,7 +18326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A113" s="32" t="s">
         <v>315</v>
       </c>
@@ -18325,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A114" s="32" t="s">
         <v>265</v>
       </c>
@@ -18355,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A115" s="32" t="s">
         <v>266</v>
       </c>
@@ -18385,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A116" s="32" t="s">
         <v>267</v>
       </c>
@@ -18415,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A117" s="32" t="s">
         <v>268</v>
       </c>
@@ -18445,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A118" s="32" t="s">
         <v>269</v>
       </c>
@@ -18475,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A119" s="32" t="s">
         <v>270</v>
       </c>
@@ -18505,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A120" s="32" t="s">
         <v>271</v>
       </c>
@@ -18535,7 +18566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A121" s="32" t="s">
         <v>272</v>
       </c>
@@ -18565,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A122" s="32" t="s">
         <v>273</v>
       </c>
@@ -18595,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A123" s="32" t="s">
         <v>274</v>
       </c>
@@ -18625,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A124" s="32" t="s">
         <v>275</v>
       </c>
@@ -18655,7 +18686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A125" s="32" t="s">
         <v>276</v>
       </c>
@@ -18685,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A126" s="32" t="s">
         <v>277</v>
       </c>
@@ -18715,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A127" s="32" t="s">
         <v>278</v>
       </c>
@@ -18745,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A128" s="32" t="s">
         <v>279</v>
       </c>
@@ -18775,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A129" s="32" t="s">
         <v>352</v>
       </c>
@@ -18805,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A130" s="32" t="s">
         <v>353</v>
       </c>
@@ -18835,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A131" s="32" t="s">
         <v>354</v>
       </c>
@@ -18865,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A132" s="32" t="s">
         <v>355</v>
       </c>
@@ -18895,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A133" s="32" t="s">
         <v>356</v>
       </c>
@@ -18925,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A134" s="32" t="s">
         <v>357</v>
       </c>
@@ -18955,7 +18986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A135" s="32" t="s">
         <v>358</v>
       </c>
@@ -18985,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A136" s="32" t="s">
         <v>359</v>
       </c>
@@ -19015,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A137" s="32" t="s">
         <v>360</v>
       </c>
@@ -19045,7 +19076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A138" s="32" t="s">
         <v>361</v>
       </c>
@@ -19075,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A139" s="32" t="s">
         <v>362</v>
       </c>
@@ -19105,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A140" s="32" t="s">
         <v>363</v>
       </c>
@@ -19135,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A141" s="32" t="s">
         <v>364</v>
       </c>
@@ -19165,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A142" s="32" t="s">
         <v>365</v>
       </c>
@@ -19195,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A143" s="32" t="s">
         <v>366</v>
       </c>
@@ -19225,7 +19256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A144" s="32" t="s">
         <v>333</v>
       </c>
@@ -19255,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A145" s="32" t="s">
         <v>334</v>
       </c>
@@ -19285,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A146" s="32" t="s">
         <v>335</v>
       </c>
@@ -19315,7 +19346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A147" s="32" t="s">
         <v>336</v>
       </c>
@@ -19345,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A148" s="32" t="s">
         <v>337</v>
       </c>
@@ -19375,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A149" s="32" t="s">
         <v>338</v>
       </c>
@@ -19405,7 +19436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A150" s="32" t="s">
         <v>339</v>
       </c>
@@ -19435,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A151" s="32" t="s">
         <v>340</v>
       </c>
@@ -19465,7 +19496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A152" s="32" t="s">
         <v>341</v>
       </c>
@@ -19495,7 +19526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A153" s="32" t="s">
         <v>342</v>
       </c>
@@ -19525,7 +19556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" customHeight="1">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A154" s="32" t="s">
         <v>343</v>
       </c>
@@ -19555,7 +19586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A155" s="32" t="s">
         <v>344</v>
       </c>
@@ -19585,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75" customHeight="1">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A156" s="32" t="s">
         <v>345</v>
       </c>
@@ -19615,7 +19646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" customHeight="1">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A157" s="32" t="s">
         <v>346</v>
       </c>
@@ -19645,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" customHeight="1">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A158" s="32" t="s">
         <v>347</v>
       </c>
@@ -19675,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A159" s="32" t="s">
         <v>367</v>
       </c>
@@ -19705,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" customHeight="1">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A160" s="32" t="s">
         <v>368</v>
       </c>
@@ -19735,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A161" s="32" t="s">
         <v>369</v>
       </c>
@@ -19765,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A162" s="32" t="s">
         <v>370</v>
       </c>
@@ -19795,7 +19826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A163" s="32" t="s">
         <v>371</v>
       </c>
@@ -19825,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A164" s="32" t="s">
         <v>372</v>
       </c>
@@ -19855,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A165" s="32" t="s">
         <v>373</v>
       </c>
@@ -19885,7 +19916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A166" s="32" t="s">
         <v>374</v>
       </c>
@@ -19915,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A167" s="32" t="s">
         <v>375</v>
       </c>
@@ -19945,7 +19976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A168" s="32" t="s">
         <v>376</v>
       </c>
@@ -19975,7 +20006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A169" s="32" t="s">
         <v>377</v>
       </c>
@@ -20005,7 +20036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A170" s="32" t="s">
         <v>378</v>
       </c>
@@ -20035,7 +20066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A171" s="32" t="s">
         <v>379</v>
       </c>
@@ -20065,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A172" s="32" t="s">
         <v>380</v>
       </c>
@@ -20095,7 +20126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A173" s="32" t="s">
         <v>381</v>
       </c>
@@ -20125,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18.75" customHeight="1">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A174" s="32" t="s">
         <v>135</v>
       </c>
@@ -20155,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18.75" customHeight="1">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A175" s="32" t="s">
         <v>137</v>
       </c>
@@ -20185,7 +20216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" customHeight="1">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A176" s="32" t="s">
         <v>136</v>
       </c>
@@ -20215,7 +20246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" customHeight="1">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A177" s="32" t="s">
         <v>138</v>
       </c>
@@ -20245,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18.75" customHeight="1">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A178" s="32" t="s">
         <v>139</v>
       </c>
@@ -20275,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" customHeight="1">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A179" s="32" t="s">
         <v>140</v>
       </c>
@@ -20305,7 +20336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18.75" customHeight="1">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A180" s="32" t="s">
         <v>141</v>
       </c>
@@ -20335,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18.75" customHeight="1">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A181" s="32" t="s">
         <v>142</v>
       </c>
@@ -20365,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.75" customHeight="1">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A182" s="32" t="s">
         <v>143</v>
       </c>
@@ -20395,7 +20426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75" customHeight="1">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A183" s="32" t="s">
         <v>144</v>
       </c>
@@ -20425,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18.75" customHeight="1">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A184" s="32" t="s">
         <v>146</v>
       </c>
@@ -20455,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18.75" customHeight="1">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A185" s="32" t="s">
         <v>148</v>
       </c>
@@ -20485,7 +20516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18.75" customHeight="1">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A186" s="32" t="s">
         <v>153</v>
       </c>
@@ -20515,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18.75" customHeight="1">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A187" s="32" t="s">
         <v>145</v>
       </c>
@@ -20545,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18.75" customHeight="1">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A188" s="32" t="s">
         <v>149</v>
       </c>
@@ -20575,7 +20606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18.75" customHeight="1">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A189" s="32" t="s">
         <v>147</v>
       </c>
@@ -20605,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18.75" customHeight="1">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A190" s="32" t="s">
         <v>150</v>
       </c>
@@ -20635,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18.75" customHeight="1">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A191" s="32" t="s">
         <v>151</v>
       </c>
@@ -20665,7 +20696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18.75" customHeight="1">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A192" s="32" t="s">
         <v>152</v>
       </c>
@@ -20695,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18.75" customHeight="1">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A193" s="32" t="s">
         <v>386</v>
       </c>
@@ -20725,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18.75" customHeight="1">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A194" s="32" t="s">
         <v>387</v>
       </c>
@@ -20755,7 +20786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75" customHeight="1">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A195" s="32" t="s">
         <v>388</v>
       </c>
@@ -20785,7 +20816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18.75" customHeight="1">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A196" s="32" t="s">
         <v>389</v>
       </c>
@@ -20815,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" customHeight="1">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A197" s="32" t="s">
         <v>390</v>
       </c>
@@ -20845,7 +20876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18.75" customHeight="1">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A198" s="32" t="s">
         <v>391</v>
       </c>
@@ -20875,7 +20906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18.75" customHeight="1">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A199" s="32" t="s">
         <v>392</v>
       </c>
@@ -20905,7 +20936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18.75" customHeight="1">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A200" s="32" t="s">
         <v>393</v>
       </c>
@@ -20935,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18.75" customHeight="1">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A201" s="32" t="s">
         <v>394</v>
       </c>
@@ -20965,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A202" s="32" t="s">
         <v>395</v>
       </c>
@@ -20995,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A203" s="32" t="s">
         <v>396</v>
       </c>
@@ -21025,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A204" s="32" t="s">
         <v>397</v>
       </c>
@@ -21055,7 +21086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A205" s="32" t="s">
         <v>398</v>
       </c>
@@ -21085,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A206" s="32" t="s">
         <v>399</v>
       </c>
@@ -21115,7 +21146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A207" s="32" t="s">
         <v>400</v>
       </c>
@@ -21145,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A208" s="32" t="s">
         <v>403</v>
       </c>
@@ -21175,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18.75" customHeight="1">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A209" s="32" t="s">
         <v>404</v>
       </c>
@@ -21205,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18.75" customHeight="1">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A210" s="32" t="s">
         <v>405</v>
       </c>
@@ -21235,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18.75" customHeight="1">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A211" s="32" t="s">
         <v>406</v>
       </c>
@@ -21265,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18.75" customHeight="1">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A212" s="32" t="s">
         <v>407</v>
       </c>
@@ -21295,7 +21326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18.75" customHeight="1">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A213" s="32" t="s">
         <v>408</v>
       </c>
@@ -21325,7 +21356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18.75" customHeight="1">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A214" s="32" t="s">
         <v>409</v>
       </c>
@@ -21355,7 +21386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18.75" customHeight="1">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A215" s="32" t="s">
         <v>410</v>
       </c>
@@ -21385,7 +21416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" customHeight="1">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A216" s="32" t="s">
         <v>411</v>
       </c>
@@ -21415,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18.75" customHeight="1">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A217" s="32" t="s">
         <v>412</v>
       </c>
@@ -21445,7 +21476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18.75" customHeight="1">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A218" s="32" t="s">
         <v>413</v>
       </c>
@@ -21475,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18.75" customHeight="1">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A219" s="32" t="s">
         <v>414</v>
       </c>
@@ -21505,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18.75" customHeight="1">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A220" s="32" t="s">
         <v>415</v>
       </c>
@@ -21535,7 +21566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18.75" customHeight="1">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A221" s="32" t="s">
         <v>416</v>
       </c>
@@ -21565,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18.75" customHeight="1">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A222" s="32" t="s">
         <v>417</v>
       </c>
@@ -21595,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18.75" customHeight="1">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A223" s="32"/>
       <c r="B223" s="26"/>
       <c r="C223" s="26"/>
@@ -21605,7 +21636,7 @@
       <c r="G223" s="43"/>
       <c r="H223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" customHeight="1">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A224" s="32"/>
       <c r="B224" s="26"/>
       <c r="C224" s="26"/>
@@ -21615,7 +21646,7 @@
       <c r="G224" s="43"/>
       <c r="H224" s="32"/>
     </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1">
+    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A225" s="32"/>
       <c r="B225" s="26"/>
       <c r="C225" s="26"/>
@@ -21625,7 +21656,7 @@
       <c r="G225" s="43"/>
       <c r="H225" s="32"/>
     </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1">
+    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A226" s="32"/>
       <c r="B226" s="26"/>
       <c r="C226" s="26"/>
@@ -21635,7 +21666,7 @@
       <c r="G226" s="43"/>
       <c r="H226" s="32"/>
     </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1">
+    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A227" s="32"/>
       <c r="B227" s="26"/>
       <c r="C227" s="26"/>
@@ -21645,7 +21676,7 @@
       <c r="G227" s="43"/>
       <c r="H227" s="32"/>
     </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1">
+    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A228" s="32"/>
       <c r="B228" s="26"/>
       <c r="C228" s="26"/>
@@ -21655,7 +21686,7 @@
       <c r="G228" s="43"/>
       <c r="H228" s="32"/>
     </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1">
+    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A229" s="32"/>
       <c r="B229" s="26"/>
       <c r="C229" s="26"/>
@@ -21665,7 +21696,7 @@
       <c r="G229" s="43"/>
       <c r="H229" s="32"/>
     </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1">
+    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A230" s="32"/>
       <c r="B230" s="26"/>
       <c r="C230" s="26"/>
@@ -21675,7 +21706,7 @@
       <c r="G230" s="43"/>
       <c r="H230" s="32"/>
     </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1">
+    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A231" s="32"/>
       <c r="B231" s="26"/>
       <c r="C231" s="26"/>
@@ -21685,7 +21716,7 @@
       <c r="G231" s="43"/>
       <c r="H231" s="32"/>
     </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1">
+    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -21695,7 +21726,7 @@
       <c r="G232" s="43"/>
       <c r="H232" s="32"/>
     </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1">
+    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A233" s="32"/>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -21705,7 +21736,7 @@
       <c r="G233" s="43"/>
       <c r="H233" s="32"/>
     </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1">
+    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A234" s="32"/>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -21715,7 +21746,7 @@
       <c r="G234" s="43"/>
       <c r="H234" s="32"/>
     </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1">
+    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A235" s="32"/>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -21725,7 +21756,7 @@
       <c r="G235" s="43"/>
       <c r="H235" s="32"/>
     </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1">
+    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A236" s="32"/>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -21735,7 +21766,7 @@
       <c r="G236" s="43"/>
       <c r="H236" s="32"/>
     </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1">
+    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A237" s="32"/>
       <c r="B237" s="26"/>
       <c r="C237" s="26"/>
@@ -21745,7 +21776,7 @@
       <c r="G237" s="43"/>
       <c r="H237" s="32"/>
     </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1">
+    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A238" s="32"/>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
@@ -21755,7 +21786,7 @@
       <c r="G238" s="43"/>
       <c r="H238" s="32"/>
     </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1">
+    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A239" s="32"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -21765,7 +21796,7 @@
       <c r="G239" s="43"/>
       <c r="H239" s="32"/>
     </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1">
+    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A240" s="32"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -21775,7 +21806,7 @@
       <c r="G240" s="43"/>
       <c r="H240" s="32"/>
     </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1">
+    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A241" s="32"/>
       <c r="B241" s="26"/>
       <c r="C241" s="26"/>
@@ -21785,7 +21816,7 @@
       <c r="G241" s="43"/>
       <c r="H241" s="32"/>
     </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1">
+    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -21795,7 +21826,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1">
+    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -21805,7 +21836,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1">
+    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -21815,7 +21846,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1">
+    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -21825,7 +21856,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1">
+    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -21835,7 +21866,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1">
+    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -21845,7 +21876,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1">
+    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -21855,7 +21886,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1">
+    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -21865,7 +21896,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1">
+    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -21875,7 +21906,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1">
+    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -21885,7 +21916,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1">
+    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -21895,7 +21926,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1">
+    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -21905,7 +21936,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1">
+    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -21915,7 +21946,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1">
+    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -21925,7 +21956,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1">
+    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -21935,7 +21966,7 @@
       <c r="G256" s="43"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1">
+    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A257" s="32"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -21945,7 +21976,7 @@
       <c r="G257" s="43"/>
       <c r="H257" s="32"/>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1">
+    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A258" s="32"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -21955,7 +21986,7 @@
       <c r="G258" s="43"/>
       <c r="H258" s="32"/>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1">
+    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A259" s="32"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -21965,7 +21996,7 @@
       <c r="G259" s="43"/>
       <c r="H259" s="32"/>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1">
+    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A260" s="32"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -21975,7 +22006,7 @@
       <c r="G260" s="43"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1">
+    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A261" s="32"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -21985,7 +22016,7 @@
       <c r="G261" s="43"/>
       <c r="H261" s="32"/>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1">
+    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A262" s="32"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -21995,7 +22026,7 @@
       <c r="G262" s="43"/>
       <c r="H262" s="32"/>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1">
+    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A263" s="32"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -22005,7 +22036,7 @@
       <c r="G263" s="43"/>
       <c r="H263" s="32"/>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1">
+    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A264" s="32"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -22015,7 +22046,7 @@
       <c r="G264" s="43"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1">
+    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A265" s="32"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -22025,7 +22056,7 @@
       <c r="G265" s="43"/>
       <c r="H265" s="32"/>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1">
+    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A266" s="32"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -22035,7 +22066,7 @@
       <c r="G266" s="43"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1">
+    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A267" s="32"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -22045,7 +22076,7 @@
       <c r="G267" s="43"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1">
+    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -22055,7 +22086,7 @@
       <c r="G268" s="43"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1">
+    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A269" s="32"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -22065,7 +22096,7 @@
       <c r="G269" s="43"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1">
+    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A270" s="32"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -22075,7 +22106,7 @@
       <c r="G270" s="43"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1">
+    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A271" s="32"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -22085,7 +22116,7 @@
       <c r="G271" s="43"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1">
+    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A272" s="32"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -22095,7 +22126,7 @@
       <c r="G272" s="43"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="18.75" customHeight="1">
+    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A273" s="32"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -22105,7 +22136,7 @@
       <c r="G273" s="43"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" ht="18.75" customHeight="1">
+    <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A274" s="32"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -22115,7 +22146,7 @@
       <c r="G274" s="43"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" ht="18.75" customHeight="1">
+    <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A275" s="32"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -22125,7 +22156,7 @@
       <c r="G275" s="43"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" ht="18.75" customHeight="1">
+    <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A276" s="32"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -22135,7 +22166,7 @@
       <c r="G276" s="43"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="18.75" customHeight="1">
+    <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A277" s="32"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -22145,7 +22176,7 @@
       <c r="G277" s="43"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" ht="18.75" customHeight="1">
+    <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A278" s="32"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -22155,7 +22186,7 @@
       <c r="G278" s="43"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" ht="18.75" customHeight="1">
+    <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A279" s="32"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -22165,7 +22196,7 @@
       <c r="G279" s="43"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" ht="18.75" customHeight="1">
+    <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -22175,7 +22206,7 @@
       <c r="G280" s="43"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75" customHeight="1">
+    <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -22185,7 +22216,7 @@
       <c r="G281" s="43"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" ht="18.75" customHeight="1">
+    <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -22195,7 +22226,7 @@
       <c r="G282" s="43"/>
       <c r="H282" s="32"/>
     </row>
-    <row r="283" spans="1:8" ht="18.75" customHeight="1">
+    <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A283" s="32"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -22205,7 +22236,7 @@
       <c r="G283" s="43"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" ht="18.75" customHeight="1">
+    <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A284" s="32"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -22215,7 +22246,7 @@
       <c r="G284" s="43"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="18.75" customHeight="1">
+    <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A285" s="32"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -22225,7 +22256,7 @@
       <c r="G285" s="43"/>
       <c r="H285" s="32"/>
     </row>
-    <row r="286" spans="1:8" ht="18.75" customHeight="1">
+    <row r="286" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A286" s="32"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -22253,16 +22284,16 @@
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.296875" customWidth="1"/>
+    <col min="6" max="7" width="23.296875" customWidth="1"/>
+    <col min="8" max="8" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -22288,7 +22319,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -22316,7 +22347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -22344,7 +22375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -22372,7 +22403,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -22400,7 +22431,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -22428,7 +22459,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -22456,7 +22487,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -22484,7 +22515,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -22512,7 +22543,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -22540,7 +22571,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -22568,7 +22599,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -22596,7 +22627,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -22624,7 +22655,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -22652,7 +22683,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -22680,7 +22711,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -22708,7 +22739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -22736,7 +22767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -22764,7 +22795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -22792,7 +22823,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -22820,7 +22851,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -22848,7 +22879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -22876,7 +22907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -22904,7 +22935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -22932,7 +22963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -22960,7 +22991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>299</v>
       </c>
@@ -22988,7 +23019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -23016,7 +23047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -23044,7 +23075,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -23072,7 +23103,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -23100,7 +23131,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>350</v>
       </c>
@@ -23128,7 +23159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>351</v>
       </c>
@@ -23156,7 +23187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>349</v>
       </c>
@@ -23184,7 +23215,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>382</v>
       </c>
@@ -23212,7 +23243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>383</v>
       </c>
@@ -23240,7 +23271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -23268,7 +23299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -23296,7 +23327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -23324,7 +23355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>529</v>
       </c>
@@ -23352,7 +23383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -23380,7 +23411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -23408,7 +23439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -23436,7 +23467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -23464,7 +23495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -23492,7 +23523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -23520,7 +23551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -23548,7 +23579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -23576,7 +23607,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -23604,7 +23635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -23632,7 +23663,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -23660,7 +23691,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -23688,7 +23719,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>449</v>
       </c>
@@ -23716,7 +23747,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>451</v>
       </c>
@@ -23744,7 +23775,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>464</v>
       </c>
@@ -23772,7 +23803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -23800,7 +23831,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>470</v>
       </c>
@@ -23828,7 +23859,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>553</v>
       </c>
@@ -23856,7 +23887,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>471</v>
       </c>
@@ -23884,7 +23915,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>472</v>
       </c>
@@ -23912,7 +23943,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>536</v>
       </c>
@@ -23941,7 +23972,7 @@
       </c>
       <c r="J60" s="69"/>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>544</v>
       </c>
@@ -23970,7 +24001,7 @@
       </c>
       <c r="J61" s="69"/>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -23999,7 +24030,7 @@
       </c>
       <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>473</v>
       </c>
@@ -24028,7 +24059,7 @@
       </c>
       <c r="J63" s="69"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>552</v>
       </c>
@@ -24057,7 +24088,7 @@
       </c>
       <c r="J64" s="69"/>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -24086,7 +24117,7 @@
       </c>
       <c r="J65" s="69"/>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>551</v>
       </c>
@@ -24115,7 +24146,7 @@
       </c>
       <c r="J66" s="69"/>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>475</v>
       </c>
@@ -24144,7 +24175,7 @@
       </c>
       <c r="J67" s="69"/>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -24172,7 +24203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -24200,7 +24231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -24228,7 +24259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -24256,7 +24287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24281,7 +24312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24306,7 +24337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24348,18 +24379,18 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -24385,7 +24416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>176</v>
       </c>
@@ -24412,7 +24443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>177</v>
       </c>
@@ -24456,16 +24487,16 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.69921875" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -24488,7 +24519,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>179</v>
       </c>
@@ -24512,7 +24543,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>180</v>
       </c>
@@ -24553,16 +24584,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -24575,7 +24606,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A59">_xlfn.UNIQUE(_xlfn._xlws.SORT((HearingAids[haModel])))</f>
         <v>Beltone BTE Digital Achieve 17 86DWC</v>
@@ -24588,7 +24619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>Beltone BTE Digital Achieve 6 86DWC</v>
       </c>
@@ -24599,7 +24630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>Beltone BTE Digital Achieve 9 86DWC</v>
       </c>
@@ -24610,7 +24641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
       </c>
@@ -24621,7 +24652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 95DWT</v>
       </c>
@@ -24632,7 +24663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 86DWHT</v>
       </c>
@@ -24640,7 +24671,7 @@
         <v>HearUSA Competitive</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 95DWT</v>
       </c>
@@ -24648,7 +24679,7 @@
         <v>Humana</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 86DWHT</v>
       </c>
@@ -24656,7 +24687,7 @@
         <v>Martins Point Competitive</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 95DWT</v>
       </c>
@@ -24664,7 +24695,7 @@
         <v>Nations Hearing Competitive</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>Beltone BTE Digital Rely 2 66DW</v>
       </c>
@@ -24672,7 +24703,7 @@
         <v>Open House Special</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
@@ -24680,7 +24711,7 @@
         <v>Regular</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
@@ -24688,7 +24719,7 @@
         <v>Tri-Care</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
@@ -24696,7 +24727,7 @@
         <v>TruHearing Competitive</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
@@ -24704,7 +24735,7 @@
         <v>Veterans Discount</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
@@ -24712,212 +24743,212 @@
         <v>WellCare Competitive</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>Beltone CIC Digital Achieve 17 CIC</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>Beltone CIC Digital Achieve 6 CIC</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>Beltone CIC Digital Achieve 9 CIC</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>Beltone ITC Digital Achieve 17 ITC-DWC</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <v>Beltone ITC Digital Achieve 6 ITC-DWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <v>Beltone ITC Digital Achieve 9 ITC-DWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>Beltone ITE Digital Achieve 17 ITE-DWC</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <v>Beltone ITE Digital Achieve 6 ITE-DWC</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>Beltone ITE Digital Achieve 9 ITE-DWC</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <v>Beltone RIE Digital Achieve 6 62DRWC</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <v>Beltone RIE Digital Achieve 9 62DRWC</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <v>Beltone RIE Digital Envision 6 62S-DRWC</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <v>Beltone RIE Digital Envision 9 62S-DRWC</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <v>Beltone RIE Digital Rely 2 63DRW</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <v>Beltone RIE Digital Rely 2 64DRW</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <v>Beltone RIE Digital Rely 3 63DRW</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <v>Beltone RIE Digital Rely 3 63DRWC</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <v>Beltone RIE Digital Rely 3 64DRW</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <v>Beltone RIE Digital Rely 4 63DRWC</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <v>Beltone RIE Digital Rely 4 64DRW</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <v>Beltone RIE Digital Serene 6 62SDRWC</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <v>Beltone RIE Digital Serene 9 62SDRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3151" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5FE7637-083B-4833-B7D8-E7B8C8DE19F1}"/>
+  <xr:revisionPtr revIDLastSave="3158" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C4C5D4-A8D7-45A5-A583-DB49934DE360}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="1710" yWindow="1080" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="600">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -2508,6 +2508,38 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2556,38 +2588,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3323,22 +3323,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P165" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Beltone RIE Digital Envision 17 62S-DRWC"/>
-        <filter val="Beltone RIE Digital Envision 4 62S-DRWC"/>
-        <filter val="Beltone RIE Digital Envision 6 62S-DRWC"/>
-        <filter val="Beltone RIE Digital Envision 9 62S-DRWC"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Open House Special"/>
-        <filter val="Regular"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P165">
     <sortCondition ref="E2:E165"/>
   </sortState>
@@ -3779,33 +3764,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="102"/>
+      <c r="B5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="87"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
@@ -3830,10 +3815,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="103"/>
+      <c r="C10" s="88"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3843,27 +3828,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="95" t="str">
+      <c r="B11" s="105" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3876,28 +3861,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="84" t="str" cm="1">
+      <c r="J11" s="94" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-ACH17-62DRWC)</v>
       </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="86"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="96"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="95" t="str">
+      <c r="B12" s="105" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3910,25 +3895,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="89"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="95" t="str" cm="1">
+      <c r="B13" s="105" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3941,26 +3926,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="89"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="95" t="str" cm="1">
+      <c r="B14" s="105" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3970,26 +3955,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="89"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="95" t="str">
+      <c r="B15" s="105" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3999,46 +3984,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="89"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="92" t="str" cm="1">
+      <c r="J16" s="102" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-ACH17-62DRWC</v>
       </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="104"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="91" t="str" cm="1">
+      <c r="B17" s="101" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4051,11 +4036,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4065,9 +4050,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4079,12 +4064,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="84" t="e" cm="1" vm="1">
+      <c r="L20" s="94" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="85"/>
-      <c r="N20" s="86"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4098,9 +4083,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="89"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4118,9 +4103,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="89"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4136,9 +4121,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="89"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4157,9 +4142,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="96"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="98"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4167,9 +4152,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4196,11 +4181,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4215,6 +4195,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4258,10 +4243,10 @@
   <dimension ref="A1:Q314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B147" sqref="B147"/>
+      <selection pane="bottomRight" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -4336,7 +4321,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4387,7 +4372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="3" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4438,7 +4423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="4" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4489,7 +4474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4537,11 +4522,13 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="80" t="s">
+        <v>594</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -4584,11 +4571,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -4631,11 +4620,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -4678,7 +4669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4725,7 +4716,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4772,7 +4763,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="11" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4819,7 +4810,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="12" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4866,7 +4857,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="13" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4913,7 +4904,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="14" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4960,7 +4951,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -5007,7 +4998,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="16" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5054,7 +5045,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="17" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5101,7 +5092,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="18" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5152,7 +5143,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5203,7 +5194,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5254,7 +5245,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="21" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5305,7 +5296,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5351,7 +5342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5397,7 +5388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="24" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5443,7 +5434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="25" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5490,7 +5481,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="26" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5537,7 +5528,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5584,7 +5575,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="28" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5631,7 +5622,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="29" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5678,7 +5669,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="30" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5725,7 +5716,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="31" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5772,7 +5763,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="32" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5819,7 +5810,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5866,7 +5857,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5913,7 +5904,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="35" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5960,7 +5951,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="36" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -6007,7 +5998,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="37" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6054,7 +6045,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="38" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6101,7 +6092,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="39" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6148,7 +6139,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="40" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6193,7 +6184,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="41" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6240,7 +6231,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="42" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6287,7 +6278,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="43" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6334,7 +6325,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="44" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6379,7 +6370,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="45" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6424,7 +6415,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="46" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6469,7 +6460,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="47" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6520,7 +6511,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="48" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6571,7 +6562,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="49" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6622,7 +6613,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="50" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6667,7 +6658,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="51" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6712,7 +6703,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="52" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6757,7 +6748,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="53" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6802,7 +6793,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="54" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6849,7 +6840,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="55" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6896,7 +6887,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="56" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6943,7 +6934,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="57" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6993,7 +6984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="58" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -7043,7 +7034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="59" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7093,11 +7084,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="60" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A60" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B60" s="71"/>
+      <c r="B60" s="80" t="s">
+        <v>594</v>
+      </c>
       <c r="C60" s="71"/>
       <c r="D60" s="26" t="s">
         <v>582</v>
@@ -7139,11 +7132,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="61" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B61" s="71"/>
+      <c r="B61" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C61" s="71"/>
       <c r="D61" s="26" t="s">
         <v>582</v>
@@ -7185,11 +7180,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="62" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A62" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B62" s="71"/>
+      <c r="B62" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C62" s="71"/>
       <c r="D62" s="26" t="s">
         <v>582</v>
@@ -7231,11 +7228,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="63" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
-      <c r="B63" s="71"/>
+      <c r="B63" s="83" t="s">
+        <v>599</v>
+      </c>
       <c r="C63" s="71"/>
       <c r="D63" s="26" t="s">
         <v>582</v>
@@ -7271,7 +7270,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="64" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7312,7 +7311,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="65" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7353,7 +7352,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="66" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7403,7 +7402,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="67" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7453,7 +7452,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="68" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7503,7 +7502,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="69" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7551,7 +7550,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="70" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="71" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="72" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7705,7 +7704,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="73" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7757,7 +7756,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="74" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7809,7 +7808,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="75" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7861,7 +7860,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="76" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7913,7 +7912,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="77" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7965,7 +7964,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="78" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -8017,7 +8016,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="79" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8069,7 +8068,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="80" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8121,7 +8120,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="81" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8173,7 +8172,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="82" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8225,7 +8224,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="83" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8277,7 +8276,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="84" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8329,7 +8328,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="85" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8381,7 +8380,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="86" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8433,7 +8432,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="87" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8485,7 +8484,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="88" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8537,7 +8536,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="89" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8739,7 +8738,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="93" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8787,7 +8786,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="94" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8835,7 +8834,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="95" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8883,7 +8882,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="96" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8931,7 +8930,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="97" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8979,7 +8978,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="98" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -9027,7 +9026,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="99" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9075,7 +9074,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="100" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9123,7 +9122,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="101" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9171,7 +9170,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="102" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9223,7 +9222,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="103" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9275,7 +9274,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="104" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9327,7 +9326,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="105" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9379,7 +9378,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="106" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9427,7 +9426,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="107" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9475,7 +9474,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="108" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9523,7 +9522,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="109" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="110" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="111" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="112" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="113" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="114" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="115" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="116" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="117" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="118" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="119" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="120" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10087,7 +10086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="121" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="122" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="123" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="124" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10273,7 +10272,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="125" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="126" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="127" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="128" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10459,7 +10458,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="129" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10504,7 +10503,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="130" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10549,7 +10548,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="131" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="132" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10651,7 +10650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="133" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="134" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10747,7 +10746,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="135" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10792,7 +10791,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="136" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10837,7 +10836,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="137" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10882,7 +10881,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="138" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10929,7 +10928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="139" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="140" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="141" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="142" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="143" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11327,7 +11326,7 @@
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
-      <c r="B147" s="108" t="s">
+      <c r="B147" s="83" t="s">
         <v>599</v>
       </c>
       <c r="C147" s="71"/>
@@ -11366,7 +11365,7 @@
       <c r="O147" s="77"/>
       <c r="P147" s="73"/>
     </row>
-    <row r="148" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="148" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
@@ -11409,7 +11408,7 @@
       <c r="O148" s="77"/>
       <c r="P148" s="73"/>
     </row>
-    <row r="149" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="149" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
@@ -11452,7 +11451,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="150" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="151" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="152" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="153" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="154" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11703,7 +11702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="155" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="156" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11805,7 +11804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="157" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="158" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11903,7 +11902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="159" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11954,7 +11953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="160" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="161" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12052,7 +12051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="162" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12103,7 +12102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="163" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="164" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12205,7 +12204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="165" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3158" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C4C5D4-A8D7-45A5-A583-DB49934DE360}"/>
+  <xr:revisionPtr revIDLastSave="3159" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FC6A40F-7ED7-4F89-840B-9256C2D74508}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1080" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -1887,7 +1887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2509,37 +2509,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2587,6 +2556,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3380,16 +3380,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H74" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:H74" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Desktop"/>
-        <filter val="Premium"/>
-        <filter val="Remote Control 2"/>
-        <filter val="Standard"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H74" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
     <sortCondition ref="H1:H49"/>
   </sortState>
@@ -3751,46 +3742,46 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.296875" customWidth="1"/>
-    <col min="7" max="7" width="38.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="87"/>
+    <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
+    <row r="5" spans="1:20" ht="13.5" thickBot="1">
+      <c r="B5" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="103"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="90"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84" t="s">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B6" s="100" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="92"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
@@ -3802,7 +3793,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -3814,11 +3805,11 @@
       <c r="G9" s="19"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="88" t="s">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1">
+      <c r="B10" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="104"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3828,27 +3819,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="105" t="str">
+      <c r="B11" s="96" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3861,28 +3852,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="94" t="str" cm="1">
+      <c r="J11" s="85" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-ACH17-62DRWC)</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="87"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="105" t="str">
+      <c r="B12" s="96" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3895,25 +3886,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
+    </row>
+    <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="105" t="str" cm="1">
+      <c r="B13" s="96" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3926,26 +3917,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="105" t="str" cm="1">
+      <c r="B14" s="96" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3955,26 +3946,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="105" t="str">
+      <c r="B15" s="96" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3984,46 +3975,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
-    </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="101" t="s">
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="102" t="str" cm="1">
+      <c r="J16" s="93" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-ACH17-62DRWC</v>
       </c>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="104"/>
-    </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="101" t="str" cm="1">
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+    </row>
+    <row r="17" spans="2:19" ht="18" customHeight="1">
+      <c r="B17" s="92" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4035,12 +4026,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="100" t="s">
+    <row r="18" spans="2:19" ht="18" customHeight="1">
+      <c r="B18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4049,50 +4040,50 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
+    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="94" t="e" cm="1" vm="1">
+      <c r="L20" s="85" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="95"/>
-      <c r="N20" s="96"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="54"/>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="99"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="3.8">
+    <row r="22" spans="2:19" ht="18" customHeight="1">
       <c r="F22" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter deductible amount not met ---&gt;","")</f>
         <v/>
@@ -4103,16 +4094,16 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="99"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="90"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="3.8">
+    <row r="23" spans="2:19" ht="18" customHeight="1">
       <c r="F23" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter Coinsurance % ---&gt;","")</f>
         <v/>
@@ -4121,16 +4112,16 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="99"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="47"/>
@@ -4142,19 +4133,19 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4165,7 +4156,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="47"/>
@@ -4181,6 +4172,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4195,11 +4191,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4242,35 +4233,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="42.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.69921875" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.59765625" customWidth="1"/>
-    <col min="8" max="8" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.09765625" customWidth="1"/>
-    <col min="10" max="10" width="16.8984375" customWidth="1"/>
-    <col min="11" max="12" width="23.8984375" customWidth="1"/>
-    <col min="13" max="13" width="18.8984375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.69921875" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -4321,7 +4312,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="1:17" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4372,7 +4363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="3" spans="1:17" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4423,7 +4414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="4" spans="1:17" ht="12.75">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4474,7 +4465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="5" spans="1:17" ht="12.75">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4522,7 +4513,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="6" spans="1:17" ht="12.75">
       <c r="A6" s="71" t="s">
         <v>575</v>
       </c>
@@ -4571,7 +4562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="7" spans="1:17" ht="12.75">
       <c r="A7" s="71" t="s">
         <v>576</v>
       </c>
@@ -4620,7 +4611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="1:17" ht="12.75">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
@@ -4669,7 +4660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="1:17" ht="12.75">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4716,7 +4707,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="10" spans="1:17" ht="12.75">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4763,7 +4754,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="11" spans="1:17" ht="12.75">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4810,7 +4801,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="12" spans="1:17" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4857,7 +4848,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="13" spans="1:17" ht="12.75">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4904,7 +4895,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="14" spans="1:17" ht="12.75">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4951,7 +4942,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="15" spans="1:17" ht="12.75">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -4998,7 +4989,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="16" spans="1:17" ht="12.75">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5045,7 +5036,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="17" spans="1:17" ht="12.75">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5092,7 +5083,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="18" spans="1:17" ht="12.75">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5143,7 +5134,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="19" spans="1:17" ht="12.75">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5194,7 +5185,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="20" spans="1:17" ht="12.75">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5245,7 +5236,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="21" spans="1:17" ht="12.75">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5296,7 +5287,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="22" spans="1:17" ht="12.75">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5342,7 +5333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="23" spans="1:17" ht="12.75">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5388,7 +5379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="24" spans="1:17" ht="12.75">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5434,7 +5425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="25" spans="1:17" ht="12.75">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5481,7 +5472,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="26" spans="1:17" ht="12.75">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5528,7 +5519,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="27" spans="1:17" ht="12.75">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5575,7 +5566,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="28" spans="1:17" ht="12.75">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5622,7 +5613,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="29" spans="1:17" ht="12.75">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5669,7 +5660,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="30" spans="1:17" ht="12.75">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5716,7 +5707,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="31" spans="1:17" ht="12.75">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5763,7 +5754,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="32" spans="1:17" ht="12.75">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5810,7 +5801,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="33" spans="1:17" ht="12.75">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5857,7 +5848,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="34" spans="1:17" ht="12.75">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5904,7 +5895,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="35" spans="1:17" ht="12.75">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5951,7 +5942,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="36" spans="1:17" ht="12.75">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -5998,7 +5989,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="37" spans="1:17" ht="12.75">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6045,7 +6036,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="38" spans="1:17" ht="12.75">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6092,7 +6083,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="39" spans="1:17" ht="12.75">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6139,7 +6130,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="40" spans="1:17" ht="12.75">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6184,7 +6175,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="41" spans="1:17" ht="12.75">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6231,7 +6222,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="42" spans="1:17" ht="12.75">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6278,7 +6269,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="43" spans="1:17" ht="12.75">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6325,7 +6316,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="44" spans="1:17" ht="12.75">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6370,7 +6361,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="45" spans="1:17" ht="12.75">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6415,7 +6406,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="46" spans="1:17" ht="12.75">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6460,7 +6451,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="47" spans="1:17" ht="12.75">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6511,7 +6502,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="48" spans="1:17" ht="12.75">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6562,7 +6553,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="49" spans="1:17" ht="12.75">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6613,7 +6604,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="50" spans="1:17" ht="12.75">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6658,7 +6649,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="51" spans="1:17" ht="12.75">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6703,7 +6694,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="52" spans="1:17" ht="12.75">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6748,7 +6739,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="53" spans="1:17" ht="12.75">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6793,7 +6784,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="54" spans="1:17" ht="12.75">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6840,7 +6831,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="55" spans="1:17" ht="12.75">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6887,7 +6878,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="56" spans="1:17" ht="12.75">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6934,7 +6925,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="57" spans="1:17" ht="12.75">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6984,7 +6975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="58" spans="1:17" ht="12.75">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -7034,7 +7025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="59" spans="1:17" ht="12.75">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7084,7 +7075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="60" spans="1:17" ht="12.75">
       <c r="A60" s="71" t="s">
         <v>575</v>
       </c>
@@ -7132,7 +7123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="61" spans="1:17" ht="12.75">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
@@ -7180,7 +7171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="62" spans="1:17" ht="12.75">
       <c r="A62" s="71" t="s">
         <v>576</v>
       </c>
@@ -7228,7 +7219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="63" spans="1:17" ht="12.75">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
@@ -7270,7 +7261,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="64" spans="1:17" ht="12.75">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7311,7 +7302,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="65" spans="1:17" ht="12.75">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7352,7 +7343,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="66" spans="1:17" ht="12.75">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7402,7 +7393,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="67" spans="1:17" ht="12.75">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7452,7 +7443,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="68" spans="1:17" ht="12.75">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7502,7 +7493,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="69" spans="1:17" ht="12.75">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7550,7 +7541,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="70" spans="1:17" ht="12.75">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7601,7 +7592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="71" spans="1:17" ht="12.75">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7652,7 +7643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="72" spans="1:17" ht="12.75">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7704,7 +7695,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="73" spans="1:17" ht="12.75">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7756,7 +7747,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="74" spans="1:17" ht="12.75">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7808,7 +7799,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="75" spans="1:17" ht="12.75">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7860,7 +7851,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="76" spans="1:17" ht="12.75">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7912,7 +7903,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="77" spans="1:17" ht="12.75">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7964,7 +7955,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="78" spans="1:17" ht="12.75">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -8016,7 +8007,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="79" spans="1:17" ht="12.75">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8068,7 +8059,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="80" spans="1:17" ht="12.75">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8120,7 +8111,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="81" spans="1:17" ht="12.75">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8172,7 +8163,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="82" spans="1:17" ht="12.75">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8224,7 +8215,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="83" spans="1:17" ht="12.75">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8276,7 +8267,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="84" spans="1:17" ht="12.75">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8328,7 +8319,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="85" spans="1:17" ht="12.75">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8380,7 +8371,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="86" spans="1:17" ht="12.75">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8432,7 +8423,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="87" spans="1:17" ht="12.75">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8484,7 +8475,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="88" spans="1:17" ht="12.75">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8536,7 +8527,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="89" spans="1:17" ht="12.75">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8588,7 +8579,7 @@
       </c>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="90" spans="1:17" ht="12.75">
       <c r="A90" s="71" t="s">
         <v>575</v>
       </c>
@@ -8638,7 +8629,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="91" spans="1:17" ht="12.75">
       <c r="A91" s="71" t="s">
         <v>576</v>
       </c>
@@ -8688,7 +8679,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="92" spans="1:17" ht="12.75">
       <c r="A92" s="71" t="s">
         <v>577</v>
       </c>
@@ -8738,7 +8729,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="93" spans="1:17" ht="12.75">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8786,7 +8777,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="94" spans="1:17" ht="12.75">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8834,7 +8825,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="95" spans="1:17" ht="12.75">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8882,7 +8873,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="96" spans="1:17" ht="12.75">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8930,7 +8921,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="97" spans="1:17" ht="12.75">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8978,7 +8969,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="98" spans="1:17" ht="12.75">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -9026,7 +9017,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="99" spans="1:17" ht="12.75">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9074,7 +9065,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="100" spans="1:17" ht="12.75">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9122,7 +9113,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="101" spans="1:17" ht="12.75">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9170,7 +9161,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="102" spans="1:17" ht="12.75">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9222,7 +9213,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="103" spans="1:17" ht="12.75">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9274,7 +9265,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="104" spans="1:17" ht="12.75">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9326,7 +9317,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="105" spans="1:17" ht="12.75">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9378,7 +9369,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="106" spans="1:17" ht="12.75">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9426,7 +9417,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="107" spans="1:17" ht="12.75">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9474,7 +9465,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="108" spans="1:17" ht="12.75">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9522,7 +9513,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="109" spans="1:17" ht="12.75">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9569,7 +9560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="110" spans="1:17" ht="12.75">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9616,7 +9607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="111" spans="1:17" ht="12.75">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9663,7 +9654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="112" spans="1:17" ht="12.75">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9710,7 +9701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="113" spans="1:16" ht="12.75">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9757,7 +9748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="114" spans="1:16" ht="12.75">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9804,7 +9795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="115" spans="1:16" ht="12.75">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9851,7 +9842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="116" spans="1:16" ht="12.75">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9898,7 +9889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="117" spans="1:16" ht="12.75">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9945,7 +9936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="118" spans="1:16" ht="12.75">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9992,7 +9983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="119" spans="1:16" ht="12.75">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -10039,7 +10030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="120" spans="1:16" ht="12.75">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10086,7 +10077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="121" spans="1:16" ht="12.75">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10133,7 +10124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="122" spans="1:16" ht="12.75">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10180,7 +10171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="123" spans="1:16" ht="12.75">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10227,7 +10218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="124" spans="1:16" ht="12.75">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10272,7 +10263,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="125" spans="1:16" ht="12.75">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10319,7 +10310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="126" spans="1:16" ht="12.75">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10366,7 +10357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="127" spans="1:16" ht="12.75">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10413,7 +10404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="128" spans="1:16" ht="12.75">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10458,7 +10449,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="129" spans="1:16" ht="12.75">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10503,7 +10494,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="130" spans="1:16" ht="12.75">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10548,7 +10539,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="131" spans="1:16" ht="12.75">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10599,7 +10590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="132" spans="1:16" ht="12.75">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10650,7 +10641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="133" spans="1:16" ht="12.75">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10701,7 +10692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="134" spans="1:16" ht="12.75">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10746,7 +10737,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="135" spans="1:16" ht="12.75">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10791,7 +10782,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="136" spans="1:16" ht="12.75">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10836,7 +10827,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="137" spans="1:16" ht="12.75">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10881,7 +10872,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="138" spans="1:16" ht="12.75">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10928,7 +10919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="139" spans="1:16" ht="12.75">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10975,7 +10966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="140" spans="1:16" ht="12.75">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -11022,7 +11013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="141" spans="1:16" ht="12.75">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11073,7 +11064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="142" spans="1:16" ht="12.75">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11124,7 +11115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="143" spans="1:16" ht="12.75">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11175,7 +11166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="144" spans="1:16" ht="12.75">
       <c r="A144" s="71" t="s">
         <v>575</v>
       </c>
@@ -11224,7 +11215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="145" spans="1:16" ht="12.75">
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
@@ -11273,7 +11264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="146" spans="1:16" ht="12.75">
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
@@ -11322,7 +11313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="147" spans="1:16" ht="12.75">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
@@ -11365,7 +11356,7 @@
       <c r="O147" s="77"/>
       <c r="P147" s="73"/>
     </row>
-    <row r="148" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="148" spans="1:16" ht="12.75">
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
@@ -11408,7 +11399,7 @@
       <c r="O148" s="77"/>
       <c r="P148" s="73"/>
     </row>
-    <row r="149" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="149" spans="1:16" ht="12.75">
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
@@ -11451,7 +11442,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="150" spans="1:16" ht="12.75">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11502,7 +11493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="151" spans="1:16" ht="12.75">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11553,7 +11544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="152" spans="1:16" ht="12.75">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11604,7 +11595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="153" spans="1:16" ht="12.75">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11651,7 +11642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="154" spans="1:16" ht="12.75">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11702,7 +11693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="155" spans="1:16" ht="12.75">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11753,7 +11744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="156" spans="1:16" ht="12.75">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11804,7 +11795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="157" spans="1:16" ht="12.75">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11851,7 +11842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="158" spans="1:16" ht="12.75">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11902,7 +11893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="159" spans="1:16" ht="12.75">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11953,7 +11944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="160" spans="1:16" ht="12.75">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -12004,7 +11995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="161" spans="1:16" ht="12.75">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12051,7 +12042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="162" spans="1:16" ht="12.75">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12102,7 +12093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="163" spans="1:16" ht="12.75">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12153,7 +12144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="164" spans="1:16" ht="12.75">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12204,7 +12195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="165" spans="1:16" ht="12.75">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>
@@ -12251,7 +12242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="166" spans="1:16" ht="12.75">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -12269,7 +12260,7 @@
       <c r="O166" s="16"/>
       <c r="P166" s="9"/>
     </row>
-    <row r="167" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="167" spans="1:16" ht="12.75">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -12287,7 +12278,7 @@
       <c r="O167" s="16"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="168" spans="1:16" ht="12.75">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -12305,7 +12296,7 @@
       <c r="O168" s="16"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="169" spans="1:16" ht="12.75">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -12323,7 +12314,7 @@
       <c r="O169" s="16"/>
       <c r="P169" s="9"/>
     </row>
-    <row r="170" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="170" spans="1:16" ht="12.75">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -12341,7 +12332,7 @@
       <c r="O170" s="16"/>
       <c r="P170" s="9"/>
     </row>
-    <row r="171" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="171" spans="1:16" ht="12.75">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -12359,7 +12350,7 @@
       <c r="O171" s="16"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="172" spans="1:16" ht="12.75">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -12377,7 +12368,7 @@
       <c r="O172" s="16"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="173" spans="1:16" ht="12.75">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -12395,7 +12386,7 @@
       <c r="O173" s="16"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="174" spans="1:16" ht="12.75">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -12413,7 +12404,7 @@
       <c r="O174" s="16"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="175" spans="1:16" ht="12.75">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -12431,7 +12422,7 @@
       <c r="O175" s="16"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="176" spans="1:16" ht="12.75">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -12449,7 +12440,7 @@
       <c r="O176" s="16"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="177" spans="1:16" ht="12.75">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -12467,7 +12458,7 @@
       <c r="O177" s="16"/>
       <c r="P177" s="9"/>
     </row>
-    <row r="178" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="178" spans="1:16" ht="12.75">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -12485,7 +12476,7 @@
       <c r="O178" s="16"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="179" spans="1:16" ht="12.75">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -12503,7 +12494,7 @@
       <c r="O179" s="16"/>
       <c r="P179" s="9"/>
     </row>
-    <row r="180" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="180" spans="1:16" ht="12.75">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -12521,7 +12512,7 @@
       <c r="O180" s="16"/>
       <c r="P180" s="9"/>
     </row>
-    <row r="181" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="181" spans="1:16" ht="12.75">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -12539,7 +12530,7 @@
       <c r="O181" s="16"/>
       <c r="P181" s="9"/>
     </row>
-    <row r="182" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="182" spans="1:16" ht="12.75">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -12557,7 +12548,7 @@
       <c r="O182" s="16"/>
       <c r="P182" s="9"/>
     </row>
-    <row r="183" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="183" spans="1:16" ht="12.75">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -12575,7 +12566,7 @@
       <c r="O183" s="16"/>
       <c r="P183" s="9"/>
     </row>
-    <row r="184" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="184" spans="1:16" ht="12.75">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="55"/>
@@ -12593,7 +12584,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="20"/>
     </row>
-    <row r="185" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="185" spans="1:16" ht="12.75">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="55"/>
@@ -12611,7 +12602,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="20"/>
     </row>
-    <row r="186" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="186" spans="1:16" ht="12.75">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="55"/>
@@ -12629,7 +12620,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="20"/>
     </row>
-    <row r="187" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="187" spans="1:16" ht="12.75">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -12647,7 +12638,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="20"/>
     </row>
-    <row r="188" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="188" spans="1:16" ht="12.75">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -12665,7 +12656,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="20"/>
     </row>
-    <row r="189" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="189" spans="1:16" ht="12.75">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -12683,7 +12674,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="20"/>
     </row>
-    <row r="190" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="190" spans="1:16" ht="12.75">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -12701,7 +12692,7 @@
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="191" spans="1:16" ht="12.75">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -12719,7 +12710,7 @@
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="192" spans="1:16" ht="12.75">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -12737,7 +12728,7 @@
       <c r="O192" s="16"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="193" spans="1:16" ht="12.75">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -12755,7 +12746,7 @@
       <c r="O193" s="16"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="194" spans="1:16" ht="12.75">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -12773,7 +12764,7 @@
       <c r="O194" s="16"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="195" spans="1:16" ht="12.75">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -12791,7 +12782,7 @@
       <c r="O195" s="16"/>
       <c r="P195" s="9"/>
     </row>
-    <row r="196" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="196" spans="1:16" ht="12.75">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -12809,7 +12800,7 @@
       <c r="O196" s="16"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="197" spans="1:16" ht="12.75">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -12827,7 +12818,7 @@
       <c r="O197" s="16"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="198" spans="1:16" ht="12.75">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -12845,7 +12836,7 @@
       <c r="O198" s="16"/>
       <c r="P198" s="9"/>
     </row>
-    <row r="199" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="199" spans="1:16" ht="12.75">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -12863,7 +12854,7 @@
       <c r="O199" s="16"/>
       <c r="P199" s="9"/>
     </row>
-    <row r="200" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="200" spans="1:16" ht="12.75">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -12881,7 +12872,7 @@
       <c r="O200" s="16"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="201" spans="1:16" ht="12.75">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -12899,7 +12890,7 @@
       <c r="O201" s="16"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="202" spans="1:16" ht="12.75">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -12917,7 +12908,7 @@
       <c r="O202" s="16"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="203" spans="1:16" ht="12.75">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -12935,7 +12926,7 @@
       <c r="O203" s="16"/>
       <c r="P203" s="9"/>
     </row>
-    <row r="204" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="204" spans="1:16" ht="12.75">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -12953,7 +12944,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="205" spans="1:16" ht="12.75">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12971,7 +12962,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="206" spans="1:16" ht="12.75">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12989,7 +12980,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="207" spans="1:16" ht="12.75">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -13007,7 +12998,7 @@
       <c r="O207" s="16"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="208" spans="1:16" ht="12.75">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -13025,7 +13016,7 @@
       <c r="O208" s="16"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="209" spans="1:16" ht="12.75">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -13043,7 +13034,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="210" spans="1:16" ht="12.75">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -13061,7 +13052,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="211" spans="1:16" ht="12.75">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -13079,7 +13070,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="212" spans="1:16" ht="12.75">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -13097,7 +13088,7 @@
       <c r="O212" s="16"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="213" spans="1:16" ht="12.75">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -13115,7 +13106,7 @@
       <c r="O213" s="16"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="214" spans="1:16" ht="12.75">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -13133,7 +13124,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="215" spans="1:16" ht="12.75">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -13151,7 +13142,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="216" spans="1:16" ht="12.75">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -13169,7 +13160,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="217" spans="1:16" ht="12.75">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -13187,7 +13178,7 @@
       <c r="O217" s="16"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="218" spans="1:16" ht="12.75">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -13205,7 +13196,7 @@
       <c r="O218" s="16"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="219" spans="1:16" ht="12.75">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -13223,7 +13214,7 @@
       <c r="O219" s="16"/>
       <c r="P219" s="9"/>
     </row>
-    <row r="220" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="220" spans="1:16" ht="12.75">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -13241,7 +13232,7 @@
       <c r="O220" s="16"/>
       <c r="P220" s="9"/>
     </row>
-    <row r="221" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="221" spans="1:16" ht="12.75">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -13259,7 +13250,7 @@
       <c r="O221" s="16"/>
       <c r="P221" s="9"/>
     </row>
-    <row r="222" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="222" spans="1:16" ht="12.75">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -13277,7 +13268,7 @@
       <c r="O222" s="16"/>
       <c r="P222" s="9"/>
     </row>
-    <row r="223" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="223" spans="1:16" ht="12.75">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -13295,7 +13286,7 @@
       <c r="O223" s="16"/>
       <c r="P223" s="9"/>
     </row>
-    <row r="224" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="224" spans="1:16" ht="12.75">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -13313,7 +13304,7 @@
       <c r="O224" s="16"/>
       <c r="P224" s="9"/>
     </row>
-    <row r="225" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="225" spans="1:17" ht="12.75">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -13332,7 +13323,7 @@
       <c r="P225" s="9"/>
       <c r="Q225" s="41"/>
     </row>
-    <row r="226" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="226" spans="1:17" ht="12.75">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="55"/>
@@ -13351,7 +13342,7 @@
       <c r="P226" s="20"/>
       <c r="Q226" s="41"/>
     </row>
-    <row r="227" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="227" spans="1:17" ht="12.75">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="55"/>
@@ -13370,7 +13361,7 @@
       <c r="P227" s="20"/>
       <c r="Q227" s="41"/>
     </row>
-    <row r="228" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="228" spans="1:17" ht="12.75">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="55"/>
@@ -13388,7 +13379,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="20"/>
     </row>
-    <row r="229" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="229" spans="1:17" ht="12.75">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -13406,7 +13397,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="20"/>
     </row>
-    <row r="230" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="230" spans="1:17" ht="12.75">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -13424,7 +13415,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="20"/>
     </row>
-    <row r="231" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="231" spans="1:17" ht="12.75">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -13442,7 +13433,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="20"/>
     </row>
-    <row r="232" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="232" spans="1:17" ht="12.75">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -13460,7 +13451,7 @@
       <c r="O232" s="16"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="233" spans="1:17" ht="12.75">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -13478,7 +13469,7 @@
       <c r="O233" s="16"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="234" spans="1:17" ht="12.75">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -13496,7 +13487,7 @@
       <c r="O234" s="16"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="235" spans="1:17" ht="12.75">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -13514,7 +13505,7 @@
       <c r="O235" s="16"/>
       <c r="P235" s="9"/>
     </row>
-    <row r="236" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="236" spans="1:17" ht="12.75">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13532,7 +13523,7 @@
       <c r="O236" s="16"/>
       <c r="P236" s="9"/>
     </row>
-    <row r="237" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="237" spans="1:17" ht="12.75">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13550,7 +13541,7 @@
       <c r="O237" s="16"/>
       <c r="P237" s="9"/>
     </row>
-    <row r="238" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="238" spans="1:17" ht="12.75">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13568,7 +13559,7 @@
       <c r="O238" s="16"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="239" spans="1:17" ht="12.75">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13586,7 +13577,7 @@
       <c r="O239" s="16"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="240" spans="1:17" ht="12.75">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13604,7 +13595,7 @@
       <c r="O240" s="16"/>
       <c r="P240" s="9"/>
     </row>
-    <row r="241" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="241" spans="1:16" ht="12.75">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13622,7 +13613,7 @@
       <c r="O241" s="16"/>
       <c r="P241" s="9"/>
     </row>
-    <row r="242" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="242" spans="1:16" ht="12.75">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13640,7 +13631,7 @@
       <c r="O242" s="16"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="243" spans="1:16" ht="12.75">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13658,7 +13649,7 @@
       <c r="O243" s="16"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="244" spans="1:16" ht="12.75">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13676,7 +13667,7 @@
       <c r="O244" s="16"/>
       <c r="P244" s="9"/>
     </row>
-    <row r="245" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="245" spans="1:16" ht="12.75">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13694,7 +13685,7 @@
       <c r="O245" s="16"/>
       <c r="P245" s="9"/>
     </row>
-    <row r="246" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="246" spans="1:16" ht="12.75">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13712,7 +13703,7 @@
       <c r="O246" s="2"/>
       <c r="P246" s="20"/>
     </row>
-    <row r="247" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="247" spans="1:16" ht="12.75">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13730,7 +13721,7 @@
       <c r="O247" s="2"/>
       <c r="P247" s="20"/>
     </row>
-    <row r="248" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="248" spans="1:16" ht="12.75">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13748,7 +13739,7 @@
       <c r="O248" s="2"/>
       <c r="P248" s="20"/>
     </row>
-    <row r="249" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="249" spans="1:16" ht="12.75">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13766,7 +13757,7 @@
       <c r="O249" s="16"/>
       <c r="P249" s="2"/>
     </row>
-    <row r="250" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="250" spans="1:16" ht="12.75">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13784,7 +13775,7 @@
       <c r="O250" s="16"/>
       <c r="P250" s="2"/>
     </row>
-    <row r="251" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="251" spans="1:16" ht="12.75">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13802,7 +13793,7 @@
       <c r="O251" s="2"/>
       <c r="P251" s="20"/>
     </row>
-    <row r="252" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="252" spans="1:16" ht="12.75">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13820,7 +13811,7 @@
       <c r="O252" s="2"/>
       <c r="P252" s="20"/>
     </row>
-    <row r="253" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="253" spans="1:16" ht="12.75">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13838,7 +13829,7 @@
       <c r="O253" s="2"/>
       <c r="P253" s="20"/>
     </row>
-    <row r="254" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="254" spans="1:16" ht="12.75">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13856,7 +13847,7 @@
       <c r="O254" s="16"/>
       <c r="P254" s="2"/>
     </row>
-    <row r="255" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="255" spans="1:16" ht="12.75">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13874,7 +13865,7 @@
       <c r="O255" s="16"/>
       <c r="P255" s="2"/>
     </row>
-    <row r="256" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="256" spans="1:16" ht="12.75">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13892,7 +13883,7 @@
       <c r="O256" s="2"/>
       <c r="P256" s="20"/>
     </row>
-    <row r="257" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="257" spans="1:16" ht="12.75">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13910,7 +13901,7 @@
       <c r="O257" s="2"/>
       <c r="P257" s="20"/>
     </row>
-    <row r="258" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="258" spans="1:16" ht="12.75">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13928,7 +13919,7 @@
       <c r="O258" s="2"/>
       <c r="P258" s="20"/>
     </row>
-    <row r="259" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="259" spans="1:16" ht="12.75">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13946,7 +13937,7 @@
       <c r="O259" s="16"/>
       <c r="P259" s="2"/>
     </row>
-    <row r="260" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="260" spans="1:16" ht="12.75">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13964,7 +13955,7 @@
       <c r="O260" s="16"/>
       <c r="P260" s="2"/>
     </row>
-    <row r="261" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="261" spans="1:16" ht="12.75">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13982,7 +13973,7 @@
       <c r="O261" s="16"/>
       <c r="P261" s="9"/>
     </row>
-    <row r="262" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="262" spans="1:16" ht="12.75">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -14000,7 +13991,7 @@
       <c r="O262" s="16"/>
       <c r="P262" s="9"/>
     </row>
-    <row r="263" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="263" spans="1:16" ht="12.75">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -14018,7 +14009,7 @@
       <c r="O263" s="16"/>
       <c r="P263" s="9"/>
     </row>
-    <row r="264" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="264" spans="1:16" ht="12.75">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -14036,7 +14027,7 @@
       <c r="O264" s="16"/>
       <c r="P264" s="9"/>
     </row>
-    <row r="265" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="265" spans="1:16" ht="12.75">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -14054,7 +14045,7 @@
       <c r="O265" s="16"/>
       <c r="P265" s="9"/>
     </row>
-    <row r="266" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="266" spans="1:16" ht="12.75">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14072,7 +14063,7 @@
       <c r="O266" s="16"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="267" spans="1:16" ht="12.75">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14090,7 +14081,7 @@
       <c r="O267" s="16"/>
       <c r="P267" s="9"/>
     </row>
-    <row r="268" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="268" spans="1:16" ht="12.75">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14108,7 +14099,7 @@
       <c r="O268" s="16"/>
       <c r="P268" s="9"/>
     </row>
-    <row r="269" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="269" spans="1:16" ht="12.75">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="55"/>
@@ -14126,7 +14117,7 @@
       <c r="O269" s="2"/>
       <c r="P269" s="20"/>
     </row>
-    <row r="270" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="270" spans="1:16" ht="12.75">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="55"/>
@@ -14144,7 +14135,7 @@
       <c r="O270" s="2"/>
       <c r="P270" s="20"/>
     </row>
-    <row r="271" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="271" spans="1:16" ht="12.75">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="55"/>
@@ -14162,7 +14153,7 @@
       <c r="O271" s="2"/>
       <c r="P271" s="20"/>
     </row>
-    <row r="272" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="272" spans="1:16" ht="12.75">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14180,7 +14171,7 @@
       <c r="O272" s="41"/>
       <c r="P272" s="41"/>
     </row>
-    <row r="273" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="273" spans="1:16" ht="12.75">
       <c r="A273" s="59"/>
       <c r="B273" s="59"/>
       <c r="C273" s="59"/>
@@ -14198,7 +14189,7 @@
       <c r="O273" s="63"/>
       <c r="P273" s="61"/>
     </row>
-    <row r="274" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="274" spans="1:16" ht="12.75">
       <c r="A274" s="59"/>
       <c r="B274" s="59"/>
       <c r="C274" s="59"/>
@@ -14216,7 +14207,7 @@
       <c r="O274" s="63"/>
       <c r="P274" s="61"/>
     </row>
-    <row r="275" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="275" spans="1:16" ht="12.75">
       <c r="A275" s="59"/>
       <c r="B275" s="59"/>
       <c r="C275" s="59"/>
@@ -14234,7 +14225,7 @@
       <c r="O275" s="63"/>
       <c r="P275" s="61"/>
     </row>
-    <row r="276" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="276" spans="1:16" ht="12.75">
       <c r="A276" s="59"/>
       <c r="B276" s="59"/>
       <c r="C276" s="59"/>
@@ -14252,7 +14243,7 @@
       <c r="O276" s="63"/>
       <c r="P276" s="61"/>
     </row>
-    <row r="277" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="277" spans="1:16" ht="12.75">
       <c r="A277" s="59"/>
       <c r="B277" s="59"/>
       <c r="C277" s="59"/>
@@ -14270,7 +14261,7 @@
       <c r="O277" s="63"/>
       <c r="P277" s="61"/>
     </row>
-    <row r="278" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="278" spans="1:16" ht="12.75">
       <c r="A278" s="59"/>
       <c r="B278" s="59"/>
       <c r="C278" s="59"/>
@@ -14288,7 +14279,7 @@
       <c r="O278" s="63"/>
       <c r="P278" s="61"/>
     </row>
-    <row r="279" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="279" spans="1:16" ht="12.75">
       <c r="A279" s="59"/>
       <c r="B279" s="59"/>
       <c r="C279" s="59"/>
@@ -14306,7 +14297,7 @@
       <c r="O279" s="63"/>
       <c r="P279" s="61"/>
     </row>
-    <row r="280" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="280" spans="1:16" ht="12.75">
       <c r="A280" s="59"/>
       <c r="B280" s="59"/>
       <c r="C280" s="59"/>
@@ -14324,7 +14315,7 @@
       <c r="O280" s="63"/>
       <c r="P280" s="61"/>
     </row>
-    <row r="281" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="281" spans="1:16" ht="12.75">
       <c r="A281" s="59"/>
       <c r="B281" s="59"/>
       <c r="C281" s="59"/>
@@ -14342,7 +14333,7 @@
       <c r="O281" s="63"/>
       <c r="P281" s="61"/>
     </row>
-    <row r="282" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="282" spans="1:16" ht="12.75">
       <c r="A282" s="59"/>
       <c r="B282" s="59"/>
       <c r="C282" s="59"/>
@@ -14360,7 +14351,7 @@
       <c r="O282" s="63"/>
       <c r="P282" s="61"/>
     </row>
-    <row r="283" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="283" spans="1:16" ht="12.75">
       <c r="A283" s="59"/>
       <c r="B283" s="59"/>
       <c r="C283" s="59"/>
@@ -14378,7 +14369,7 @@
       <c r="O283" s="63"/>
       <c r="P283" s="61"/>
     </row>
-    <row r="284" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="284" spans="1:16" ht="12.75">
       <c r="A284" s="59"/>
       <c r="B284" s="59"/>
       <c r="C284" s="59"/>
@@ -14396,7 +14387,7 @@
       <c r="O284" s="63"/>
       <c r="P284" s="61"/>
     </row>
-    <row r="285" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="285" spans="1:16" ht="12.75">
       <c r="A285" s="59"/>
       <c r="B285" s="59"/>
       <c r="C285" s="59"/>
@@ -14414,7 +14405,7 @@
       <c r="O285" s="63"/>
       <c r="P285" s="61"/>
     </row>
-    <row r="286" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="286" spans="1:16" ht="12.75">
       <c r="A286" s="59"/>
       <c r="B286" s="59"/>
       <c r="C286" s="59"/>
@@ -14432,7 +14423,7 @@
       <c r="O286" s="63"/>
       <c r="P286" s="61"/>
     </row>
-    <row r="287" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="287" spans="1:16" ht="12.75">
       <c r="A287" s="59"/>
       <c r="B287" s="59"/>
       <c r="C287" s="59"/>
@@ -14450,7 +14441,7 @@
       <c r="O287" s="63"/>
       <c r="P287" s="61"/>
     </row>
-    <row r="288" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="288" spans="1:16" ht="12.75">
       <c r="A288" s="59"/>
       <c r="B288" s="59"/>
       <c r="C288" s="59"/>
@@ -14468,7 +14459,7 @@
       <c r="O288" s="63"/>
       <c r="P288" s="61"/>
     </row>
-    <row r="289" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="289" spans="1:16" ht="12.75">
       <c r="A289" s="59"/>
       <c r="B289" s="59"/>
       <c r="C289" s="59"/>
@@ -14486,7 +14477,7 @@
       <c r="O289" s="63"/>
       <c r="P289" s="61"/>
     </row>
-    <row r="290" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="290" spans="1:16" ht="12.75">
       <c r="A290" s="59"/>
       <c r="B290" s="59"/>
       <c r="C290" s="59"/>
@@ -14504,7 +14495,7 @@
       <c r="O290" s="63"/>
       <c r="P290" s="61"/>
     </row>
-    <row r="291" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="291" spans="1:16" ht="12.75">
       <c r="A291" s="59"/>
       <c r="B291" s="59"/>
       <c r="C291" s="59"/>
@@ -14522,7 +14513,7 @@
       <c r="O291" s="63"/>
       <c r="P291" s="61"/>
     </row>
-    <row r="292" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="292" spans="1:16" ht="12.75">
       <c r="A292" s="59"/>
       <c r="B292" s="59"/>
       <c r="C292" s="59"/>
@@ -14540,7 +14531,7 @@
       <c r="O292" s="63"/>
       <c r="P292" s="61"/>
     </row>
-    <row r="293" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="293" spans="1:16" ht="12.75">
       <c r="A293" s="59"/>
       <c r="B293" s="59"/>
       <c r="C293" s="59"/>
@@ -14558,7 +14549,7 @@
       <c r="O293" s="63"/>
       <c r="P293" s="61"/>
     </row>
-    <row r="294" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="294" spans="1:16" ht="12.75">
       <c r="A294" s="59"/>
       <c r="B294" s="59"/>
       <c r="C294" s="59"/>
@@ -14576,7 +14567,7 @@
       <c r="O294" s="63"/>
       <c r="P294" s="61"/>
     </row>
-    <row r="295" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="295" spans="1:16" ht="12.75">
       <c r="A295" s="59"/>
       <c r="B295" s="59"/>
       <c r="C295" s="59"/>
@@ -14594,7 +14585,7 @@
       <c r="O295" s="63"/>
       <c r="P295" s="61"/>
     </row>
-    <row r="296" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="296" spans="1:16" ht="12.75">
       <c r="A296" s="59"/>
       <c r="B296" s="59"/>
       <c r="C296" s="59"/>
@@ -14612,7 +14603,7 @@
       <c r="O296" s="63"/>
       <c r="P296" s="61"/>
     </row>
-    <row r="297" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="297" spans="1:16" ht="12.75">
       <c r="A297" s="59"/>
       <c r="B297" s="59"/>
       <c r="C297" s="59"/>
@@ -14630,7 +14621,7 @@
       <c r="O297" s="63"/>
       <c r="P297" s="61"/>
     </row>
-    <row r="298" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="298" spans="1:16" ht="12.75">
       <c r="A298" s="59"/>
       <c r="B298" s="59"/>
       <c r="C298" s="59"/>
@@ -14648,7 +14639,7 @@
       <c r="O298" s="63"/>
       <c r="P298" s="61"/>
     </row>
-    <row r="299" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="299" spans="1:16" ht="12.75">
       <c r="A299" s="59"/>
       <c r="B299" s="59"/>
       <c r="C299" s="59"/>
@@ -14666,7 +14657,7 @@
       <c r="O299" s="63"/>
       <c r="P299" s="61"/>
     </row>
-    <row r="300" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="300" spans="1:16" ht="12.75">
       <c r="A300" s="59"/>
       <c r="B300" s="59"/>
       <c r="C300" s="59"/>
@@ -14684,7 +14675,7 @@
       <c r="O300" s="63"/>
       <c r="P300" s="61"/>
     </row>
-    <row r="301" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="301" spans="1:16" ht="12.75">
       <c r="A301" s="59"/>
       <c r="B301" s="59"/>
       <c r="C301" s="59"/>
@@ -14702,7 +14693,7 @@
       <c r="O301" s="63"/>
       <c r="P301" s="61"/>
     </row>
-    <row r="302" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="302" spans="1:16" ht="12.75">
       <c r="A302" s="59"/>
       <c r="B302" s="59"/>
       <c r="C302" s="59"/>
@@ -14720,7 +14711,7 @@
       <c r="O302" s="63"/>
       <c r="P302" s="61"/>
     </row>
-    <row r="303" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="303" spans="1:16" ht="12.75">
       <c r="A303" s="59"/>
       <c r="B303" s="59"/>
       <c r="C303" s="59"/>
@@ -14738,7 +14729,7 @@
       <c r="O303" s="63"/>
       <c r="P303" s="61"/>
     </row>
-    <row r="304" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="304" spans="1:16" ht="12.75">
       <c r="A304" s="59"/>
       <c r="B304" s="59"/>
       <c r="C304" s="59"/>
@@ -14756,7 +14747,7 @@
       <c r="O304" s="63"/>
       <c r="P304" s="61"/>
     </row>
-    <row r="305" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="305" spans="1:16" ht="12.75">
       <c r="A305" s="59"/>
       <c r="B305" s="59"/>
       <c r="C305" s="59"/>
@@ -14774,7 +14765,7 @@
       <c r="O305" s="63"/>
       <c r="P305" s="61"/>
     </row>
-    <row r="306" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="306" spans="1:16" ht="12.75">
       <c r="A306" s="59"/>
       <c r="B306" s="59"/>
       <c r="C306" s="59"/>
@@ -14792,7 +14783,7 @@
       <c r="O306" s="63"/>
       <c r="P306" s="61"/>
     </row>
-    <row r="307" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="307" spans="1:16" ht="12.75">
       <c r="A307" s="59"/>
       <c r="B307" s="59"/>
       <c r="C307" s="59"/>
@@ -14810,7 +14801,7 @@
       <c r="O307" s="63"/>
       <c r="P307" s="61"/>
     </row>
-    <row r="308" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="308" spans="1:16" ht="12.75">
       <c r="A308" s="59"/>
       <c r="B308" s="59"/>
       <c r="C308" s="59"/>
@@ -14828,7 +14819,7 @@
       <c r="O308" s="63"/>
       <c r="P308" s="61"/>
     </row>
-    <row r="309" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="309" spans="1:16" ht="12.75">
       <c r="A309" s="59"/>
       <c r="B309" s="59"/>
       <c r="C309" s="59"/>
@@ -14846,7 +14837,7 @@
       <c r="O309" s="63"/>
       <c r="P309" s="61"/>
     </row>
-    <row r="310" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="310" spans="1:16" ht="12.75">
       <c r="A310" s="59"/>
       <c r="B310" s="59"/>
       <c r="C310" s="59"/>
@@ -14864,7 +14855,7 @@
       <c r="O310" s="63"/>
       <c r="P310" s="61"/>
     </row>
-    <row r="311" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="311" spans="1:16" ht="12.75">
       <c r="A311" s="59"/>
       <c r="B311" s="59"/>
       <c r="C311" s="59"/>
@@ -14882,7 +14873,7 @@
       <c r="O311" s="63"/>
       <c r="P311" s="61"/>
     </row>
-    <row r="312" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="312" spans="1:16" ht="12.75">
       <c r="A312" s="59"/>
       <c r="B312" s="59"/>
       <c r="C312" s="59"/>
@@ -14900,7 +14891,7 @@
       <c r="O312" s="63"/>
       <c r="P312" s="61"/>
     </row>
-    <row r="313" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="313" spans="1:16" ht="12.75">
       <c r="A313" s="59"/>
       <c r="B313" s="59"/>
       <c r="C313" s="59"/>
@@ -14918,7 +14909,7 @@
       <c r="O313" s="63"/>
       <c r="P313" s="61"/>
     </row>
-    <row r="314" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="314" spans="1:16" ht="12.75">
       <c r="A314" s="59"/>
       <c r="B314" s="59"/>
       <c r="C314" s="59"/>
@@ -14953,20 +14944,20 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.69921875" customWidth="1"/>
-    <col min="4" max="4" width="23.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.69921875" customWidth="1"/>
-    <col min="7" max="7" width="23.8984375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.296875" customWidth="1"/>
-    <col min="10" max="10" width="26.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -14995,7 +14986,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="1:9" ht="12">
       <c r="A2" s="32" t="s">
         <v>316</v>
       </c>
@@ -15025,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>317</v>
       </c>
@@ -15055,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>318</v>
       </c>
@@ -15085,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>319</v>
       </c>
@@ -15115,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>320</v>
       </c>
@@ -15145,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>321</v>
       </c>
@@ -15175,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>322</v>
       </c>
@@ -15205,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>323</v>
       </c>
@@ -15235,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>324</v>
       </c>
@@ -15265,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>325</v>
       </c>
@@ -15295,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>326</v>
       </c>
@@ -15325,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>327</v>
       </c>
@@ -15355,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>328</v>
       </c>
@@ -15385,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1">
       <c r="A15" s="32" t="s">
         <v>329</v>
       </c>
@@ -15415,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1">
       <c r="A16" s="32" t="s">
         <v>330</v>
       </c>
@@ -15445,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>239</v>
       </c>
@@ -15475,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>240</v>
       </c>
@@ -15505,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
       <c r="A19" s="32" t="s">
         <v>241</v>
       </c>
@@ -15535,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="32" t="s">
         <v>242</v>
       </c>
@@ -15565,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
       <c r="A21" s="32" t="s">
         <v>243</v>
       </c>
@@ -15595,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -15625,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1">
       <c r="A23" s="32" t="s">
         <v>245</v>
       </c>
@@ -15655,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="32" t="s">
         <v>246</v>
       </c>
@@ -15685,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>247</v>
       </c>
@@ -15715,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="32" t="s">
         <v>248</v>
       </c>
@@ -15745,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1">
       <c r="A27" s="32" t="s">
         <v>249</v>
       </c>
@@ -15775,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1">
       <c r="A28" s="32" t="s">
         <v>250</v>
       </c>
@@ -15805,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1">
       <c r="A29" s="32" t="s">
         <v>251</v>
       </c>
@@ -15835,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="32" t="s">
         <v>252</v>
       </c>
@@ -15865,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
       <c r="A31" s="32" t="s">
         <v>197</v>
       </c>
@@ -15895,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
       <c r="A32" s="32" t="s">
         <v>198</v>
       </c>
@@ -15925,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
       <c r="A33" s="32" t="s">
         <v>199</v>
       </c>
@@ -15955,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="32" t="s">
         <v>200</v>
       </c>
@@ -15985,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1">
       <c r="A35" s="32" t="s">
         <v>201</v>
       </c>
@@ -16015,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="32" t="s">
         <v>202</v>
       </c>
@@ -16045,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="32" t="s">
         <v>203</v>
       </c>
@@ -16075,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
       <c r="A38" s="32" t="s">
         <v>204</v>
       </c>
@@ -16105,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="32" t="s">
         <v>205</v>
       </c>
@@ -16135,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
       <c r="A40" s="32" t="s">
         <v>206</v>
       </c>
@@ -16165,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1">
       <c r="A41" s="32" t="s">
         <v>207</v>
       </c>
@@ -16195,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>208</v>
       </c>
@@ -16225,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>209</v>
       </c>
@@ -16255,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1">
       <c r="A44" s="32" t="s">
         <v>210</v>
       </c>
@@ -16285,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1">
       <c r="A45" s="32" t="s">
         <v>211</v>
       </c>
@@ -16315,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1">
       <c r="A46" s="32" t="s">
         <v>212</v>
       </c>
@@ -16345,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1">
       <c r="A47" s="32" t="s">
         <v>213</v>
       </c>
@@ -16375,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1">
       <c r="A48" s="32" t="s">
         <v>214</v>
       </c>
@@ -16405,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1">
       <c r="A49" s="32" t="s">
         <v>215</v>
       </c>
@@ -16435,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1">
       <c r="A50" s="32" t="s">
         <v>216</v>
       </c>
@@ -16465,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1">
       <c r="A51" s="32" t="s">
         <v>217</v>
       </c>
@@ -16495,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1">
       <c r="A52" s="32" t="s">
         <v>218</v>
       </c>
@@ -16525,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
       <c r="A53" s="32" t="s">
         <v>219</v>
       </c>
@@ -16555,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1">
       <c r="A54" s="32" t="s">
         <v>220</v>
       </c>
@@ -16585,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1">
       <c r="A55" s="32" t="s">
         <v>221</v>
       </c>
@@ -16615,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1">
       <c r="A56" s="32" t="s">
         <v>222</v>
       </c>
@@ -16645,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1">
       <c r="A57" s="32" t="s">
         <v>223</v>
       </c>
@@ -16675,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1">
       <c r="A58" s="32" t="s">
         <v>224</v>
       </c>
@@ -16705,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1">
       <c r="A59" s="32" t="s">
         <v>225</v>
       </c>
@@ -16735,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1">
       <c r="A60" s="32" t="s">
         <v>226</v>
       </c>
@@ -16765,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1">
       <c r="A61" s="32" t="s">
         <v>227</v>
       </c>
@@ -16795,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1">
       <c r="A62" s="32" t="s">
         <v>228</v>
       </c>
@@ -16825,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1">
       <c r="A63" s="32" t="s">
         <v>229</v>
       </c>
@@ -16855,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1">
       <c r="A64" s="32" t="s">
         <v>230</v>
       </c>
@@ -16885,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1">
       <c r="A65" s="32" t="s">
         <v>231</v>
       </c>
@@ -16915,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1">
       <c r="A66" s="32" t="s">
         <v>232</v>
       </c>
@@ -16945,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1">
       <c r="A67" s="32" t="s">
         <v>233</v>
       </c>
@@ -16975,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1">
       <c r="A68" s="32" t="s">
         <v>234</v>
       </c>
@@ -17005,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1">
       <c r="A69" s="32" t="s">
         <v>508</v>
       </c>
@@ -17035,7 +17026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="32" t="s">
         <v>509</v>
       </c>
@@ -17065,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
       <c r="A71" s="32" t="s">
         <v>510</v>
       </c>
@@ -17095,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1">
       <c r="A72" s="32" t="s">
         <v>511</v>
       </c>
@@ -17125,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
       <c r="A73" s="32" t="s">
         <v>512</v>
       </c>
@@ -17155,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="32" t="s">
         <v>513</v>
       </c>
@@ -17185,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="32" t="s">
         <v>514</v>
       </c>
@@ -17215,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="32" t="s">
         <v>515</v>
       </c>
@@ -17245,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="32" t="s">
         <v>516</v>
       </c>
@@ -17275,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="32" t="s">
         <v>517</v>
       </c>
@@ -17305,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="32" t="s">
         <v>518</v>
       </c>
@@ -17335,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="32" t="s">
         <v>519</v>
       </c>
@@ -17365,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1">
       <c r="A81" s="32" t="s">
         <v>520</v>
       </c>
@@ -17395,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="32" t="s">
         <v>521</v>
       </c>
@@ -17425,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="32" t="s">
         <v>522</v>
       </c>
@@ -17455,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1">
       <c r="A84" s="32" t="s">
         <v>282</v>
       </c>
@@ -17485,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="32" t="s">
         <v>283</v>
       </c>
@@ -17515,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="32" t="s">
         <v>284</v>
       </c>
@@ -17545,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="32" t="s">
         <v>285</v>
       </c>
@@ -17575,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="32" t="s">
         <v>286</v>
       </c>
@@ -17605,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="32" t="s">
         <v>287</v>
       </c>
@@ -17635,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1">
       <c r="A90" s="32" t="s">
         <v>288</v>
       </c>
@@ -17665,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="32" t="s">
         <v>289</v>
       </c>
@@ -17695,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
       <c r="A92" s="32" t="s">
         <v>290</v>
       </c>
@@ -17725,7 +17716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="32" t="s">
         <v>291</v>
       </c>
@@ -17755,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="32" t="s">
         <v>292</v>
       </c>
@@ -17785,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="32" t="s">
         <v>293</v>
       </c>
@@ -17815,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="32" t="s">
         <v>294</v>
       </c>
@@ -17845,7 +17836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
       <c r="A97" s="32" t="s">
         <v>295</v>
       </c>
@@ -17875,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="32" t="s">
         <v>296</v>
       </c>
@@ -17905,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="32" t="s">
         <v>301</v>
       </c>
@@ -17935,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="32" t="s">
         <v>302</v>
       </c>
@@ -17965,7 +17956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="32" t="s">
         <v>303</v>
       </c>
@@ -17995,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="32" t="s">
         <v>304</v>
       </c>
@@ -18025,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
       <c r="A103" s="32" t="s">
         <v>305</v>
       </c>
@@ -18055,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1">
       <c r="A104" s="32" t="s">
         <v>306</v>
       </c>
@@ -18085,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
       <c r="A105" s="32" t="s">
         <v>307</v>
       </c>
@@ -18115,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
       <c r="A106" s="32" t="s">
         <v>308</v>
       </c>
@@ -18145,7 +18136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
       <c r="A107" s="32" t="s">
         <v>309</v>
       </c>
@@ -18175,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="32" t="s">
         <v>310</v>
       </c>
@@ -18205,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
       <c r="A109" s="32" t="s">
         <v>311</v>
       </c>
@@ -18235,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
       <c r="A110" s="32" t="s">
         <v>312</v>
       </c>
@@ -18265,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1">
       <c r="A111" s="32" t="s">
         <v>313</v>
       </c>
@@ -18295,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
       <c r="A112" s="32" t="s">
         <v>314</v>
       </c>
@@ -18325,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1">
       <c r="A113" s="32" t="s">
         <v>315</v>
       </c>
@@ -18355,7 +18346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
       <c r="A114" s="32" t="s">
         <v>265</v>
       </c>
@@ -18385,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1">
       <c r="A115" s="32" t="s">
         <v>266</v>
       </c>
@@ -18415,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1">
       <c r="A116" s="32" t="s">
         <v>267</v>
       </c>
@@ -18445,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
       <c r="A117" s="32" t="s">
         <v>268</v>
       </c>
@@ -18475,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
       <c r="A118" s="32" t="s">
         <v>269</v>
       </c>
@@ -18505,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
       <c r="A119" s="32" t="s">
         <v>270</v>
       </c>
@@ -18535,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1">
       <c r="A120" s="32" t="s">
         <v>271</v>
       </c>
@@ -18565,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1">
       <c r="A121" s="32" t="s">
         <v>272</v>
       </c>
@@ -18595,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1">
       <c r="A122" s="32" t="s">
         <v>273</v>
       </c>
@@ -18625,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1">
       <c r="A123" s="32" t="s">
         <v>274</v>
       </c>
@@ -18655,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1">
       <c r="A124" s="32" t="s">
         <v>275</v>
       </c>
@@ -18685,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1">
       <c r="A125" s="32" t="s">
         <v>276</v>
       </c>
@@ -18715,7 +18706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1">
       <c r="A126" s="32" t="s">
         <v>277</v>
       </c>
@@ -18745,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1">
       <c r="A127" s="32" t="s">
         <v>278</v>
       </c>
@@ -18775,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1">
       <c r="A128" s="32" t="s">
         <v>279</v>
       </c>
@@ -18805,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1">
       <c r="A129" s="32" t="s">
         <v>352</v>
       </c>
@@ -18835,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
       <c r="A130" s="32" t="s">
         <v>353</v>
       </c>
@@ -18865,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
       <c r="A131" s="32" t="s">
         <v>354</v>
       </c>
@@ -18895,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
       <c r="A132" s="32" t="s">
         <v>355</v>
       </c>
@@ -18925,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
       <c r="A133" s="32" t="s">
         <v>356</v>
       </c>
@@ -18955,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
       <c r="A134" s="32" t="s">
         <v>357</v>
       </c>
@@ -18985,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1">
       <c r="A135" s="32" t="s">
         <v>358</v>
       </c>
@@ -19015,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1">
       <c r="A136" s="32" t="s">
         <v>359</v>
       </c>
@@ -19045,7 +19036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
       <c r="A137" s="32" t="s">
         <v>360</v>
       </c>
@@ -19075,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
       <c r="A138" s="32" t="s">
         <v>361</v>
       </c>
@@ -19105,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1">
       <c r="A139" s="32" t="s">
         <v>362</v>
       </c>
@@ -19135,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1">
       <c r="A140" s="32" t="s">
         <v>363</v>
       </c>
@@ -19165,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1">
       <c r="A141" s="32" t="s">
         <v>364</v>
       </c>
@@ -19195,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
       <c r="A142" s="32" t="s">
         <v>365</v>
       </c>
@@ -19225,7 +19216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1">
       <c r="A143" s="32" t="s">
         <v>366</v>
       </c>
@@ -19255,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1">
       <c r="A144" s="32" t="s">
         <v>333</v>
       </c>
@@ -19285,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
       <c r="A145" s="32" t="s">
         <v>334</v>
       </c>
@@ -19315,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
       <c r="A146" s="32" t="s">
         <v>335</v>
       </c>
@@ -19345,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1">
       <c r="A147" s="32" t="s">
         <v>336</v>
       </c>
@@ -19375,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1">
       <c r="A148" s="32" t="s">
         <v>337</v>
       </c>
@@ -19405,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1">
       <c r="A149" s="32" t="s">
         <v>338</v>
       </c>
@@ -19435,7 +19426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1">
       <c r="A150" s="32" t="s">
         <v>339</v>
       </c>
@@ -19465,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1">
       <c r="A151" s="32" t="s">
         <v>340</v>
       </c>
@@ -19495,7 +19486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1">
       <c r="A152" s="32" t="s">
         <v>341</v>
       </c>
@@ -19525,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1">
       <c r="A153" s="32" t="s">
         <v>342</v>
       </c>
@@ -19555,7 +19546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1">
       <c r="A154" s="32" t="s">
         <v>343</v>
       </c>
@@ -19585,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1">
       <c r="A155" s="32" t="s">
         <v>344</v>
       </c>
@@ -19615,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1">
       <c r="A156" s="32" t="s">
         <v>345</v>
       </c>
@@ -19645,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1">
       <c r="A157" s="32" t="s">
         <v>346</v>
       </c>
@@ -19675,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1">
       <c r="A158" s="32" t="s">
         <v>347</v>
       </c>
@@ -19705,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1">
       <c r="A159" s="32" t="s">
         <v>367</v>
       </c>
@@ -19735,7 +19726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1">
       <c r="A160" s="32" t="s">
         <v>368</v>
       </c>
@@ -19765,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1">
       <c r="A161" s="32" t="s">
         <v>369</v>
       </c>
@@ -19795,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1">
       <c r="A162" s="32" t="s">
         <v>370</v>
       </c>
@@ -19825,7 +19816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1">
       <c r="A163" s="32" t="s">
         <v>371</v>
       </c>
@@ -19855,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1">
       <c r="A164" s="32" t="s">
         <v>372</v>
       </c>
@@ -19885,7 +19876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1">
       <c r="A165" s="32" t="s">
         <v>373</v>
       </c>
@@ -19915,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1">
       <c r="A166" s="32" t="s">
         <v>374</v>
       </c>
@@ -19945,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1">
       <c r="A167" s="32" t="s">
         <v>375</v>
       </c>
@@ -19975,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1">
       <c r="A168" s="32" t="s">
         <v>376</v>
       </c>
@@ -20005,7 +19996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1">
       <c r="A169" s="32" t="s">
         <v>377</v>
       </c>
@@ -20035,7 +20026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1">
       <c r="A170" s="32" t="s">
         <v>378</v>
       </c>
@@ -20065,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1">
       <c r="A171" s="32" t="s">
         <v>379</v>
       </c>
@@ -20095,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1">
       <c r="A172" s="32" t="s">
         <v>380</v>
       </c>
@@ -20125,7 +20116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1">
       <c r="A173" s="32" t="s">
         <v>381</v>
       </c>
@@ -20155,7 +20146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1">
       <c r="A174" s="32" t="s">
         <v>135</v>
       </c>
@@ -20185,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1">
       <c r="A175" s="32" t="s">
         <v>137</v>
       </c>
@@ -20215,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1">
       <c r="A176" s="32" t="s">
         <v>136</v>
       </c>
@@ -20245,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1">
       <c r="A177" s="32" t="s">
         <v>138</v>
       </c>
@@ -20275,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1">
       <c r="A178" s="32" t="s">
         <v>139</v>
       </c>
@@ -20305,7 +20296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1">
       <c r="A179" s="32" t="s">
         <v>140</v>
       </c>
@@ -20335,7 +20326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1">
       <c r="A180" s="32" t="s">
         <v>141</v>
       </c>
@@ -20365,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1">
       <c r="A181" s="32" t="s">
         <v>142</v>
       </c>
@@ -20395,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1">
       <c r="A182" s="32" t="s">
         <v>143</v>
       </c>
@@ -20425,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1">
       <c r="A183" s="32" t="s">
         <v>144</v>
       </c>
@@ -20455,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1">
       <c r="A184" s="32" t="s">
         <v>146</v>
       </c>
@@ -20485,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1">
       <c r="A185" s="32" t="s">
         <v>148</v>
       </c>
@@ -20515,7 +20506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1">
       <c r="A186" s="32" t="s">
         <v>153</v>
       </c>
@@ -20545,7 +20536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1">
       <c r="A187" s="32" t="s">
         <v>145</v>
       </c>
@@ -20575,7 +20566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1">
       <c r="A188" s="32" t="s">
         <v>149</v>
       </c>
@@ -20605,7 +20596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1">
       <c r="A189" s="32" t="s">
         <v>147</v>
       </c>
@@ -20635,7 +20626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1">
       <c r="A190" s="32" t="s">
         <v>150</v>
       </c>
@@ -20665,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1">
       <c r="A191" s="32" t="s">
         <v>151</v>
       </c>
@@ -20695,7 +20686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1">
       <c r="A192" s="32" t="s">
         <v>152</v>
       </c>
@@ -20725,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1">
       <c r="A193" s="32" t="s">
         <v>386</v>
       </c>
@@ -20755,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1">
       <c r="A194" s="32" t="s">
         <v>387</v>
       </c>
@@ -20785,7 +20776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1">
       <c r="A195" s="32" t="s">
         <v>388</v>
       </c>
@@ -20815,7 +20806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1">
       <c r="A196" s="32" t="s">
         <v>389</v>
       </c>
@@ -20845,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1">
       <c r="A197" s="32" t="s">
         <v>390</v>
       </c>
@@ -20875,7 +20866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1">
       <c r="A198" s="32" t="s">
         <v>391</v>
       </c>
@@ -20905,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1">
       <c r="A199" s="32" t="s">
         <v>392</v>
       </c>
@@ -20935,7 +20926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1">
       <c r="A200" s="32" t="s">
         <v>393</v>
       </c>
@@ -20965,7 +20956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1">
       <c r="A201" s="32" t="s">
         <v>394</v>
       </c>
@@ -20995,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1">
       <c r="A202" s="32" t="s">
         <v>395</v>
       </c>
@@ -21025,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1">
       <c r="A203" s="32" t="s">
         <v>396</v>
       </c>
@@ -21055,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1">
       <c r="A204" s="32" t="s">
         <v>397</v>
       </c>
@@ -21085,7 +21076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1">
       <c r="A205" s="32" t="s">
         <v>398</v>
       </c>
@@ -21115,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1">
       <c r="A206" s="32" t="s">
         <v>399</v>
       </c>
@@ -21145,7 +21136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1">
       <c r="A207" s="32" t="s">
         <v>400</v>
       </c>
@@ -21175,7 +21166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1">
       <c r="A208" s="32" t="s">
         <v>403</v>
       </c>
@@ -21205,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1">
       <c r="A209" s="32" t="s">
         <v>404</v>
       </c>
@@ -21235,7 +21226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1">
       <c r="A210" s="32" t="s">
         <v>405</v>
       </c>
@@ -21265,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1">
       <c r="A211" s="32" t="s">
         <v>406</v>
       </c>
@@ -21295,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1">
       <c r="A212" s="32" t="s">
         <v>407</v>
       </c>
@@ -21325,7 +21316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1">
       <c r="A213" s="32" t="s">
         <v>408</v>
       </c>
@@ -21355,7 +21346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1">
       <c r="A214" s="32" t="s">
         <v>409</v>
       </c>
@@ -21385,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1">
       <c r="A215" s="32" t="s">
         <v>410</v>
       </c>
@@ -21415,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1">
       <c r="A216" s="32" t="s">
         <v>411</v>
       </c>
@@ -21445,7 +21436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1">
       <c r="A217" s="32" t="s">
         <v>412</v>
       </c>
@@ -21475,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1">
       <c r="A218" s="32" t="s">
         <v>413</v>
       </c>
@@ -21505,7 +21496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1">
       <c r="A219" s="32" t="s">
         <v>414</v>
       </c>
@@ -21535,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1">
       <c r="A220" s="32" t="s">
         <v>415</v>
       </c>
@@ -21565,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1">
       <c r="A221" s="32" t="s">
         <v>416</v>
       </c>
@@ -21595,7 +21586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1">
       <c r="A222" s="32" t="s">
         <v>417</v>
       </c>
@@ -21625,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1">
       <c r="A223" s="32"/>
       <c r="B223" s="26"/>
       <c r="C223" s="26"/>
@@ -21635,7 +21626,7 @@
       <c r="G223" s="43"/>
       <c r="H223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1">
       <c r="A224" s="32"/>
       <c r="B224" s="26"/>
       <c r="C224" s="26"/>
@@ -21645,7 +21636,7 @@
       <c r="G224" s="43"/>
       <c r="H224" s="32"/>
     </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="225" spans="1:8" ht="18.75" customHeight="1">
       <c r="A225" s="32"/>
       <c r="B225" s="26"/>
       <c r="C225" s="26"/>
@@ -21655,7 +21646,7 @@
       <c r="G225" s="43"/>
       <c r="H225" s="32"/>
     </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="226" spans="1:8" ht="18.75" customHeight="1">
       <c r="A226" s="32"/>
       <c r="B226" s="26"/>
       <c r="C226" s="26"/>
@@ -21665,7 +21656,7 @@
       <c r="G226" s="43"/>
       <c r="H226" s="32"/>
     </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="227" spans="1:8" ht="18.75" customHeight="1">
       <c r="A227" s="32"/>
       <c r="B227" s="26"/>
       <c r="C227" s="26"/>
@@ -21675,7 +21666,7 @@
       <c r="G227" s="43"/>
       <c r="H227" s="32"/>
     </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="228" spans="1:8" ht="18.75" customHeight="1">
       <c r="A228" s="32"/>
       <c r="B228" s="26"/>
       <c r="C228" s="26"/>
@@ -21685,7 +21676,7 @@
       <c r="G228" s="43"/>
       <c r="H228" s="32"/>
     </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="229" spans="1:8" ht="18.75" customHeight="1">
       <c r="A229" s="32"/>
       <c r="B229" s="26"/>
       <c r="C229" s="26"/>
@@ -21695,7 +21686,7 @@
       <c r="G229" s="43"/>
       <c r="H229" s="32"/>
     </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="230" spans="1:8" ht="18.75" customHeight="1">
       <c r="A230" s="32"/>
       <c r="B230" s="26"/>
       <c r="C230" s="26"/>
@@ -21705,7 +21696,7 @@
       <c r="G230" s="43"/>
       <c r="H230" s="32"/>
     </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="231" spans="1:8" ht="18.75" customHeight="1">
       <c r="A231" s="32"/>
       <c r="B231" s="26"/>
       <c r="C231" s="26"/>
@@ -21715,7 +21706,7 @@
       <c r="G231" s="43"/>
       <c r="H231" s="32"/>
     </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="232" spans="1:8" ht="18.75" customHeight="1">
       <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -21725,7 +21716,7 @@
       <c r="G232" s="43"/>
       <c r="H232" s="32"/>
     </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="233" spans="1:8" ht="18.75" customHeight="1">
       <c r="A233" s="32"/>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -21735,7 +21726,7 @@
       <c r="G233" s="43"/>
       <c r="H233" s="32"/>
     </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="234" spans="1:8" ht="18.75" customHeight="1">
       <c r="A234" s="32"/>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -21745,7 +21736,7 @@
       <c r="G234" s="43"/>
       <c r="H234" s="32"/>
     </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="235" spans="1:8" ht="18.75" customHeight="1">
       <c r="A235" s="32"/>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -21755,7 +21746,7 @@
       <c r="G235" s="43"/>
       <c r="H235" s="32"/>
     </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="236" spans="1:8" ht="18.75" customHeight="1">
       <c r="A236" s="32"/>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -21765,7 +21756,7 @@
       <c r="G236" s="43"/>
       <c r="H236" s="32"/>
     </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="237" spans="1:8" ht="18.75" customHeight="1">
       <c r="A237" s="32"/>
       <c r="B237" s="26"/>
       <c r="C237" s="26"/>
@@ -21775,7 +21766,7 @@
       <c r="G237" s="43"/>
       <c r="H237" s="32"/>
     </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="238" spans="1:8" ht="18.75" customHeight="1">
       <c r="A238" s="32"/>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
@@ -21785,7 +21776,7 @@
       <c r="G238" s="43"/>
       <c r="H238" s="32"/>
     </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="239" spans="1:8" ht="18.75" customHeight="1">
       <c r="A239" s="32"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -21795,7 +21786,7 @@
       <c r="G239" s="43"/>
       <c r="H239" s="32"/>
     </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="240" spans="1:8" ht="18.75" customHeight="1">
       <c r="A240" s="32"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -21805,7 +21796,7 @@
       <c r="G240" s="43"/>
       <c r="H240" s="32"/>
     </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="241" spans="1:8" ht="18.75" customHeight="1">
       <c r="A241" s="32"/>
       <c r="B241" s="26"/>
       <c r="C241" s="26"/>
@@ -21815,7 +21806,7 @@
       <c r="G241" s="43"/>
       <c r="H241" s="32"/>
     </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="242" spans="1:8" ht="18.75" customHeight="1">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -21825,7 +21816,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="243" spans="1:8" ht="18.75" customHeight="1">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -21835,7 +21826,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="244" spans="1:8" ht="18.75" customHeight="1">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -21845,7 +21836,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="245" spans="1:8" ht="18.75" customHeight="1">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -21855,7 +21846,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="246" spans="1:8" ht="18.75" customHeight="1">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -21865,7 +21856,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="247" spans="1:8" ht="18.75" customHeight="1">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -21875,7 +21866,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="248" spans="1:8" ht="18.75" customHeight="1">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -21885,7 +21876,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="249" spans="1:8" ht="18.75" customHeight="1">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -21895,7 +21886,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="250" spans="1:8" ht="18.75" customHeight="1">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -21905,7 +21896,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="251" spans="1:8" ht="18.75" customHeight="1">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -21915,7 +21906,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="252" spans="1:8" ht="18.75" customHeight="1">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -21925,7 +21916,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="253" spans="1:8" ht="18.75" customHeight="1">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -21935,7 +21926,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="254" spans="1:8" ht="18.75" customHeight="1">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -21945,7 +21936,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="255" spans="1:8" ht="18.75" customHeight="1">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -21955,7 +21946,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="256" spans="1:8" ht="18.75" customHeight="1">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -21965,7 +21956,7 @@
       <c r="G256" s="43"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="257" spans="1:8" ht="18.75" customHeight="1">
       <c r="A257" s="32"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -21975,7 +21966,7 @@
       <c r="G257" s="43"/>
       <c r="H257" s="32"/>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="258" spans="1:8" ht="18.75" customHeight="1">
       <c r="A258" s="32"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -21985,7 +21976,7 @@
       <c r="G258" s="43"/>
       <c r="H258" s="32"/>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="259" spans="1:8" ht="18.75" customHeight="1">
       <c r="A259" s="32"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -21995,7 +21986,7 @@
       <c r="G259" s="43"/>
       <c r="H259" s="32"/>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="260" spans="1:8" ht="18.75" customHeight="1">
       <c r="A260" s="32"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -22005,7 +21996,7 @@
       <c r="G260" s="43"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="261" spans="1:8" ht="18.75" customHeight="1">
       <c r="A261" s="32"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -22015,7 +22006,7 @@
       <c r="G261" s="43"/>
       <c r="H261" s="32"/>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="262" spans="1:8" ht="18.75" customHeight="1">
       <c r="A262" s="32"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -22025,7 +22016,7 @@
       <c r="G262" s="43"/>
       <c r="H262" s="32"/>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="263" spans="1:8" ht="18.75" customHeight="1">
       <c r="A263" s="32"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -22035,7 +22026,7 @@
       <c r="G263" s="43"/>
       <c r="H263" s="32"/>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="264" spans="1:8" ht="18.75" customHeight="1">
       <c r="A264" s="32"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -22045,7 +22036,7 @@
       <c r="G264" s="43"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="265" spans="1:8" ht="18.75" customHeight="1">
       <c r="A265" s="32"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -22055,7 +22046,7 @@
       <c r="G265" s="43"/>
       <c r="H265" s="32"/>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="266" spans="1:8" ht="18.75" customHeight="1">
       <c r="A266" s="32"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -22065,7 +22056,7 @@
       <c r="G266" s="43"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="267" spans="1:8" ht="18.75" customHeight="1">
       <c r="A267" s="32"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -22075,7 +22066,7 @@
       <c r="G267" s="43"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="268" spans="1:8" ht="18.75" customHeight="1">
       <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -22085,7 +22076,7 @@
       <c r="G268" s="43"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="269" spans="1:8" ht="18.75" customHeight="1">
       <c r="A269" s="32"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -22095,7 +22086,7 @@
       <c r="G269" s="43"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="270" spans="1:8" ht="18.75" customHeight="1">
       <c r="A270" s="32"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -22105,7 +22096,7 @@
       <c r="G270" s="43"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="271" spans="1:8" ht="18.75" customHeight="1">
       <c r="A271" s="32"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -22115,7 +22106,7 @@
       <c r="G271" s="43"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="272" spans="1:8" ht="18.75" customHeight="1">
       <c r="A272" s="32"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -22125,7 +22116,7 @@
       <c r="G272" s="43"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="273" spans="1:8" ht="18.75" customHeight="1">
       <c r="A273" s="32"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -22135,7 +22126,7 @@
       <c r="G273" s="43"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="274" spans="1:8" ht="18.75" customHeight="1">
       <c r="A274" s="32"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -22145,7 +22136,7 @@
       <c r="G274" s="43"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="275" spans="1:8" ht="18.75" customHeight="1">
       <c r="A275" s="32"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -22155,7 +22146,7 @@
       <c r="G275" s="43"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="276" spans="1:8" ht="18.75" customHeight="1">
       <c r="A276" s="32"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -22165,7 +22156,7 @@
       <c r="G276" s="43"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="277" spans="1:8" ht="18.75" customHeight="1">
       <c r="A277" s="32"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -22175,7 +22166,7 @@
       <c r="G277" s="43"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="278" spans="1:8" ht="18.75" customHeight="1">
       <c r="A278" s="32"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -22185,7 +22176,7 @@
       <c r="G278" s="43"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="279" spans="1:8" ht="18.75" customHeight="1">
       <c r="A279" s="32"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -22195,7 +22186,7 @@
       <c r="G279" s="43"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="280" spans="1:8" ht="18.75" customHeight="1">
       <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -22205,7 +22196,7 @@
       <c r="G280" s="43"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="281" spans="1:8" ht="18.75" customHeight="1">
       <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -22215,7 +22206,7 @@
       <c r="G281" s="43"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="282" spans="1:8" ht="18.75" customHeight="1">
       <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -22225,7 +22216,7 @@
       <c r="G282" s="43"/>
       <c r="H282" s="32"/>
     </row>
-    <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="283" spans="1:8" ht="18.75" customHeight="1">
       <c r="A283" s="32"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -22235,7 +22226,7 @@
       <c r="G283" s="43"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="284" spans="1:8" ht="18.75" customHeight="1">
       <c r="A284" s="32"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -22245,7 +22236,7 @@
       <c r="G284" s="43"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="285" spans="1:8" ht="18.75" customHeight="1">
       <c r="A285" s="32"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -22255,7 +22246,7 @@
       <c r="G285" s="43"/>
       <c r="H285" s="32"/>
     </row>
-    <row r="286" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="286" spans="1:8" ht="18.75" customHeight="1">
       <c r="A286" s="32"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -22278,21 +22269,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051AA2F-ED82-497D-A0D7-BA51300AC6DC}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.296875" customWidth="1"/>
-    <col min="6" max="7" width="23.296875" customWidth="1"/>
-    <col min="8" max="8" width="26.09765625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -22318,7 +22309,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -22346,7 +22337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -22374,7 +22365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -22402,7 +22393,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -22430,7 +22421,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -22458,7 +22449,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -22486,7 +22477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -22514,7 +22505,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -22542,7 +22533,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -22570,7 +22561,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -22598,7 +22589,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -22626,7 +22617,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -22654,7 +22645,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -22682,7 +22673,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -22710,7 +22701,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -22738,7 +22729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -22766,7 +22757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -22794,7 +22785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -22822,7 +22813,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -22850,7 +22841,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -22878,7 +22869,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -22906,7 +22897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -22934,7 +22925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -22962,7 +22953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -22990,7 +22981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>299</v>
       </c>
@@ -23018,7 +23009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -23046,7 +23037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -23074,7 +23065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -23102,7 +23093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -23130,7 +23121,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>350</v>
       </c>
@@ -23158,7 +23149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>351</v>
       </c>
@@ -23186,7 +23177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>349</v>
       </c>
@@ -23214,7 +23205,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>382</v>
       </c>
@@ -23242,7 +23233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>383</v>
       </c>
@@ -23270,7 +23261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -23298,7 +23289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -23326,7 +23317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -23354,7 +23345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>529</v>
       </c>
@@ -23382,7 +23373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -23410,7 +23401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -23438,7 +23429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -23466,7 +23457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -23494,7 +23485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -23522,7 +23513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -23550,7 +23541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -23578,7 +23569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -23606,7 +23597,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -23634,7 +23625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -23662,7 +23653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -23690,7 +23681,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -23718,7 +23709,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>449</v>
       </c>
@@ -23746,7 +23737,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>451</v>
       </c>
@@ -23774,7 +23765,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>464</v>
       </c>
@@ -23802,7 +23793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -23830,7 +23821,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>470</v>
       </c>
@@ -23858,7 +23849,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>553</v>
       </c>
@@ -23886,7 +23877,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>471</v>
       </c>
@@ -23914,7 +23905,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>472</v>
       </c>
@@ -23942,7 +23933,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>536</v>
       </c>
@@ -23971,7 +23962,7 @@
       </c>
       <c r="J60" s="69"/>
     </row>
-    <row r="61" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>544</v>
       </c>
@@ -24000,7 +23991,7 @@
       </c>
       <c r="J61" s="69"/>
     </row>
-    <row r="62" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -24029,7 +24020,7 @@
       </c>
       <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>473</v>
       </c>
@@ -24058,7 +24049,7 @@
       </c>
       <c r="J63" s="69"/>
     </row>
-    <row r="64" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>552</v>
       </c>
@@ -24087,7 +24078,7 @@
       </c>
       <c r="J64" s="69"/>
     </row>
-    <row r="65" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -24116,7 +24107,7 @@
       </c>
       <c r="J65" s="69"/>
     </row>
-    <row r="66" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>551</v>
       </c>
@@ -24145,7 +24136,7 @@
       </c>
       <c r="J66" s="69"/>
     </row>
-    <row r="67" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>475</v>
       </c>
@@ -24174,7 +24165,7 @@
       </c>
       <c r="J67" s="69"/>
     </row>
-    <row r="68" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -24202,7 +24193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -24230,7 +24221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -24258,7 +24249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -24286,7 +24277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="B72" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24311,7 +24302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="B73" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24336,7 +24327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="B74" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24378,18 +24369,18 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="25.3984375" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -24415,7 +24406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>176</v>
       </c>
@@ -24442,7 +24433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>177</v>
       </c>
@@ -24486,16 +24477,16 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.69921875" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -24518,7 +24509,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>179</v>
       </c>
@@ -24542,7 +24533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>180</v>
       </c>
@@ -24583,16 +24574,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -24605,7 +24596,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A59">_xlfn.UNIQUE(_xlfn._xlws.SORT((HearingAids[haModel])))</f>
         <v>Beltone BTE Digital Achieve 17 86DWC</v>
@@ -24618,7 +24609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="str">
         <v>Beltone BTE Digital Achieve 6 86DWC</v>
       </c>
@@ -24629,7 +24620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="str">
         <v>Beltone BTE Digital Achieve 9 86DWC</v>
       </c>
@@ -24640,7 +24631,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
       </c>
@@ -24651,7 +24642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 95DWT</v>
       </c>
@@ -24662,7 +24653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 86DWHT</v>
       </c>
@@ -24670,7 +24661,7 @@
         <v>HearUSA Competitive</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 95DWT</v>
       </c>
@@ -24678,7 +24669,7 @@
         <v>Humana</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 86DWHT</v>
       </c>
@@ -24686,7 +24677,7 @@
         <v>Martins Point Competitive</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 95DWT</v>
       </c>
@@ -24694,7 +24685,7 @@
         <v>Nations Hearing Competitive</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="str">
         <v>Beltone BTE Digital Rely 2 66DW</v>
       </c>
@@ -24702,7 +24693,7 @@
         <v>Open House Special</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="str">
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
@@ -24710,7 +24701,7 @@
         <v>Regular</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="str">
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
@@ -24718,7 +24709,7 @@
         <v>Tri-Care</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="str">
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
@@ -24726,7 +24717,7 @@
         <v>TruHearing Competitive</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="str">
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
@@ -24734,7 +24725,7 @@
         <v>Veterans Discount</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
@@ -24742,212 +24733,212 @@
         <v>WellCare Competitive</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="str">
         <v>Beltone CIC Digital Achieve 17 CIC</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="str">
         <v>Beltone CIC Digital Achieve 6 CIC</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="str">
         <v>Beltone CIC Digital Achieve 9 CIC</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="str">
         <v>Beltone ITC Digital Achieve 17 ITC-DWC</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="str">
         <v>Beltone ITC Digital Achieve 6 ITC-DWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="str">
         <v>Beltone ITC Digital Achieve 9 ITC-DWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="str">
         <v>Beltone ITE Digital Achieve 17 ITE-DWC</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="str">
         <v>Beltone ITE Digital Achieve 6 ITE-DWC</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="str">
         <v>Beltone ITE Digital Achieve 9 ITE-DWC</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="str">
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="str">
         <v>Beltone RIE Digital Achieve 6 62DRWC</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="str">
         <v>Beltone RIE Digital Achieve 9 62DRWC</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" t="str">
         <v>Beltone RIE Digital Envision 6 62S-DRWC</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="str">
         <v>Beltone RIE Digital Envision 9 62S-DRWC</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="str">
         <v>Beltone RIE Digital Rely 2 63DRW</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="str">
         <v>Beltone RIE Digital Rely 2 64DRW</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" t="str">
         <v>Beltone RIE Digital Rely 3 63DRW</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" t="str">
         <v>Beltone RIE Digital Rely 3 63DRWC</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" t="str">
         <v>Beltone RIE Digital Rely 3 64DRW</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" t="str">
         <v>Beltone RIE Digital Rely 4 63DRWC</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" t="str">
         <v>Beltone RIE Digital Rely 4 64DRW</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" t="str">
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" t="str">
         <v>Beltone RIE Digital Serene 6 62SDRWC</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" t="str">
         <v>Beltone RIE Digital Serene 9 62SDRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3159" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FC6A40F-7ED7-4F89-840B-9256C2D74508}"/>
+  <xr:revisionPtr revIDLastSave="3160" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{314656C6-ACBF-48BC-95AF-878685C4B9B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView minimized="1" xWindow="32520" yWindow="825" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -1887,7 +1887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2509,6 +2509,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2556,37 +2587,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3323,7 +3323,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P165" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
+  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Beltone RIE Digital Envision 4 62S-DRWC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P165">
     <sortCondition ref="E2:E165"/>
   </sortState>
@@ -3742,7 +3748,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -3753,35 +3759,35 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
-    <row r="5" spans="1:20" ht="13.5" thickBot="1">
-      <c r="B5" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="103"/>
+    <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="87"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B6" s="100" t="s">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
@@ -3793,7 +3799,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -3805,11 +3811,11 @@
       <c r="G9" s="19"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1">
-      <c r="B10" s="104" t="s">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="88"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3819,27 +3825,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1">
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="96" t="str">
+      <c r="B11" s="105" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3852,28 +3858,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="85" t="str" cm="1">
+      <c r="J11" s="94" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-ACH17-62DRWC)</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="87"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1">
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="96"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="96" t="str">
+      <c r="B12" s="105" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3886,25 +3892,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1">
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="96" t="str" cm="1">
+      <c r="B13" s="105" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3917,26 +3923,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="96" t="str" cm="1">
+      <c r="B14" s="105" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3946,26 +3952,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="96" t="str">
+      <c r="B15" s="105" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3975,46 +3981,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
-    </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="92" t="s">
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="93" t="str" cm="1">
+      <c r="J16" s="102" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-ACH17-62DRWC</v>
       </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-    </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1">
-      <c r="B17" s="92" t="str" cm="1">
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="104"/>
+    </row>
+    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="101" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4026,12 +4032,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="18" customHeight="1">
-      <c r="B18" s="91" t="s">
+    <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4040,50 +4046,50 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="85" t="e" cm="1" vm="1">
+      <c r="L20" s="94" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="87"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="54"/>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1">
+    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
       <c r="F22" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter deductible amount not met ---&gt;","")</f>
         <v/>
@@ -4094,16 +4100,16 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="18" customHeight="1">
+    <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
       <c r="F23" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter Coinsurance % ---&gt;","")</f>
         <v/>
@@ -4112,16 +4118,16 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="90"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="47"/>
@@ -4133,19 +4139,19 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="99"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4156,7 +4162,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="47"/>
@@ -4172,11 +4178,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4191,6 +4192,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4233,14 +4239,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q314"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C170" sqref="C170"/>
+      <selection pane="bottomRight" activeCell="K147" sqref="J63:K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
@@ -4261,7 +4267,7 @@
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -4312,7 +4318,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75">
+    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.75">
+    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75">
+    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75">
+    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4513,7 +4519,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75">
+    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A6" s="71" t="s">
         <v>575</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12.75">
+    <row r="7" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A7" s="71" t="s">
         <v>576</v>
       </c>
@@ -4611,7 +4617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75">
+    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12.75">
+    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4707,7 +4713,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75">
+    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4754,7 +4760,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75">
+    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4801,7 +4807,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="12.75">
+    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4848,7 +4854,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="12.75">
+    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4895,7 +4901,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="12.75">
+    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4942,7 +4948,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="12.75">
+    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -4989,7 +4995,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75">
+    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5036,7 +5042,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="12.75">
+    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5083,7 +5089,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="12.75">
+    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5134,7 +5140,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="12.75">
+    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5185,7 +5191,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75">
+    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5236,7 +5242,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="12.75">
+    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5287,7 +5293,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75">
+    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12.75">
+    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5379,7 +5385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.75">
+    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="12.75">
+    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5472,7 +5478,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75">
+    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5519,7 +5525,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75">
+    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5566,7 +5572,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75">
+    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5613,7 +5619,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75">
+    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5660,7 +5666,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75">
+    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5707,7 +5713,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75">
+    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5754,7 +5760,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="12.75">
+    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5801,7 +5807,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75">
+    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5848,7 +5854,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75">
+    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5895,7 +5901,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75">
+    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5942,7 +5948,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75">
+    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -5989,7 +5995,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75">
+    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6036,7 +6042,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75">
+    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6083,7 +6089,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75">
+    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6130,7 +6136,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75">
+    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6175,7 +6181,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75">
+    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6222,7 +6228,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75">
+    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6269,7 +6275,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75">
+    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6316,7 +6322,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75">
+    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6361,7 +6367,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75">
+    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6406,7 +6412,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75">
+    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6451,7 +6457,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75">
+    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6502,7 +6508,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75">
+    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6553,7 +6559,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75">
+    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6604,7 +6610,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75">
+    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6649,7 +6655,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75">
+    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6694,7 +6700,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75">
+    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6739,7 +6745,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75">
+    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6784,7 +6790,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75">
+    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6831,7 +6837,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75">
+    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6878,7 +6884,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75">
+    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6925,7 +6931,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75">
+    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="12.75">
+    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12.75">
+    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12.75">
+    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
         <v>575</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="12.75">
+    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="12.75">
+    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
         <v>576</v>
       </c>
@@ -7219,7 +7225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="12.75">
+    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
@@ -7261,7 +7267,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75">
+    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7302,7 +7308,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75">
+    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7343,7 +7349,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75">
+    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7393,7 +7399,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75">
+    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7443,7 +7449,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75">
+    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7493,7 +7499,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75">
+    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7541,7 +7547,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75">
+    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7592,7 +7598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12.75">
+    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7643,7 +7649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="12.75">
+    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7695,7 +7701,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75">
+    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7747,7 +7753,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75">
+    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7799,7 +7805,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75">
+    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7851,7 +7857,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75">
+    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7903,7 +7909,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75">
+    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7955,7 +7961,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75">
+    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -8007,7 +8013,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75">
+    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8059,7 +8065,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75">
+    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8111,7 +8117,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75">
+    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8163,7 +8169,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75">
+    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8215,7 +8221,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75">
+    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8267,7 +8273,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75">
+    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8319,7 +8325,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75">
+    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8371,7 +8377,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75">
+    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8423,7 +8429,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75">
+    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8475,7 +8481,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75">
+    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8527,7 +8533,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75">
+    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8579,7 +8585,7 @@
       </c>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75">
+    <row r="90" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A90" s="71" t="s">
         <v>575</v>
       </c>
@@ -8629,7 +8635,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75">
+    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A91" s="71" t="s">
         <v>576</v>
       </c>
@@ -8679,7 +8685,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75">
+    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A92" s="71" t="s">
         <v>577</v>
       </c>
@@ -8729,7 +8735,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75">
+    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8777,7 +8783,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75">
+    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8825,7 +8831,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="12.75">
+    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8873,7 +8879,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="12.75">
+    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8921,7 +8927,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="12.75">
+    <row r="97" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8969,7 +8975,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="12.75">
+    <row r="98" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -9017,7 +9023,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="12.75">
+    <row r="99" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9065,7 +9071,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="12.75">
+    <row r="100" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9113,7 +9119,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="12.75">
+    <row r="101" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9161,7 +9167,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="12.75">
+    <row r="102" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9213,7 +9219,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="12.75">
+    <row r="103" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9265,7 +9271,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="12.75">
+    <row r="104" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9317,7 +9323,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="12.75">
+    <row r="105" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9369,7 +9375,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="12.75">
+    <row r="106" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9417,7 +9423,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="12.75">
+    <row r="107" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9465,7 +9471,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="12.75">
+    <row r="108" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9513,7 +9519,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="12.75">
+    <row r="109" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9560,7 +9566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="12.75">
+    <row r="110" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9607,7 +9613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="12.75">
+    <row r="111" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9654,7 +9660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="12.75">
+    <row r="112" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9701,7 +9707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="12.75">
+    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="12.75">
+    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9795,7 +9801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="12.75">
+    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="12.75">
+    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9889,7 +9895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="12.75">
+    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="12.75">
+    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9983,7 +9989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="12.75">
+    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -10030,7 +10036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="12.75">
+    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10077,7 +10083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="12.75">
+    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10124,7 +10130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="12.75">
+    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="12.75">
+    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="12.75">
+    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10263,7 +10269,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="12.75">
+    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="12.75">
+    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10357,7 +10363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="12.75">
+    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10404,7 +10410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="12.75">
+    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10449,7 +10455,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="12.75">
+    <row r="129" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10494,7 +10500,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="12.75">
+    <row r="130" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10539,7 +10545,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="12.75">
+    <row r="131" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10590,7 +10596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="12.75">
+    <row r="132" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="12.75">
+    <row r="133" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10692,7 +10698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="12.75">
+    <row r="134" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10737,7 +10743,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="12.75">
+    <row r="135" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10782,7 +10788,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="12.75">
+    <row r="136" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10827,7 +10833,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="12.75">
+    <row r="137" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10872,7 +10878,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="12.75">
+    <row r="138" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10919,7 +10925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75">
+    <row r="139" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10966,7 +10972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="12.75">
+    <row r="140" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -11013,7 +11019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="12.75">
+    <row r="141" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11064,7 +11070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="12.75">
+    <row r="142" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11115,7 +11121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="12.75">
+    <row r="143" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11166,7 +11172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="12.75">
+    <row r="144" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A144" s="71" t="s">
         <v>575</v>
       </c>
@@ -11215,7 +11221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="12.75">
+    <row r="145" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
@@ -11264,7 +11270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="12.75">
+    <row r="146" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
@@ -11313,7 +11319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="12.75">
+    <row r="147" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
@@ -11356,7 +11362,7 @@
       <c r="O147" s="77"/>
       <c r="P147" s="73"/>
     </row>
-    <row r="148" spans="1:16" ht="12.75">
+    <row r="148" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
@@ -11399,7 +11405,7 @@
       <c r="O148" s="77"/>
       <c r="P148" s="73"/>
     </row>
-    <row r="149" spans="1:16" ht="12.75">
+    <row r="149" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
@@ -11442,7 +11448,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="12.75">
+    <row r="150" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11493,7 +11499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="12.75">
+    <row r="151" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11544,7 +11550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="12.75">
+    <row r="152" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11595,7 +11601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75">
+    <row r="153" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75">
+    <row r="154" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11693,7 +11699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="12.75">
+    <row r="155" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11744,7 +11750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="12.75">
+    <row r="156" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11795,7 +11801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="12.75">
+    <row r="157" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="12.75">
+    <row r="158" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="12.75">
+    <row r="159" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11944,7 +11950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="12.75">
+    <row r="160" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -11995,7 +12001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="12.75">
+    <row r="161" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12042,7 +12048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="12.75">
+    <row r="162" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12093,7 +12099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="12.75">
+    <row r="163" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12144,7 +12150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="12.75">
+    <row r="164" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12195,7 +12201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="12.75">
+    <row r="165" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>
@@ -12242,7 +12248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="12.75">
+    <row r="166" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -12260,7 +12266,7 @@
       <c r="O166" s="16"/>
       <c r="P166" s="9"/>
     </row>
-    <row r="167" spans="1:16" ht="12.75">
+    <row r="167" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -12278,7 +12284,7 @@
       <c r="O167" s="16"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="12.75">
+    <row r="168" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -12296,7 +12302,7 @@
       <c r="O168" s="16"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" ht="12.75">
+    <row r="169" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -12314,7 +12320,7 @@
       <c r="O169" s="16"/>
       <c r="P169" s="9"/>
     </row>
-    <row r="170" spans="1:16" ht="12.75">
+    <row r="170" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -12332,7 +12338,7 @@
       <c r="O170" s="16"/>
       <c r="P170" s="9"/>
     </row>
-    <row r="171" spans="1:16" ht="12.75">
+    <row r="171" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -12350,7 +12356,7 @@
       <c r="O171" s="16"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="12.75">
+    <row r="172" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -12368,7 +12374,7 @@
       <c r="O172" s="16"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" ht="12.75">
+    <row r="173" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -12386,7 +12392,7 @@
       <c r="O173" s="16"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" ht="12.75">
+    <row r="174" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -12404,7 +12410,7 @@
       <c r="O174" s="16"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="12.75">
+    <row r="175" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -12422,7 +12428,7 @@
       <c r="O175" s="16"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="12.75">
+    <row r="176" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -12440,7 +12446,7 @@
       <c r="O176" s="16"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" ht="12.75">
+    <row r="177" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -12458,7 +12464,7 @@
       <c r="O177" s="16"/>
       <c r="P177" s="9"/>
     </row>
-    <row r="178" spans="1:16" ht="12.75">
+    <row r="178" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -12476,7 +12482,7 @@
       <c r="O178" s="16"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:16" ht="12.75">
+    <row r="179" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -12494,7 +12500,7 @@
       <c r="O179" s="16"/>
       <c r="P179" s="9"/>
     </row>
-    <row r="180" spans="1:16" ht="12.75">
+    <row r="180" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -12512,7 +12518,7 @@
       <c r="O180" s="16"/>
       <c r="P180" s="9"/>
     </row>
-    <row r="181" spans="1:16" ht="12.75">
+    <row r="181" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -12530,7 +12536,7 @@
       <c r="O181" s="16"/>
       <c r="P181" s="9"/>
     </row>
-    <row r="182" spans="1:16" ht="12.75">
+    <row r="182" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -12548,7 +12554,7 @@
       <c r="O182" s="16"/>
       <c r="P182" s="9"/>
     </row>
-    <row r="183" spans="1:16" ht="12.75">
+    <row r="183" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -12566,7 +12572,7 @@
       <c r="O183" s="16"/>
       <c r="P183" s="9"/>
     </row>
-    <row r="184" spans="1:16" ht="12.75">
+    <row r="184" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="55"/>
@@ -12584,7 +12590,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="20"/>
     </row>
-    <row r="185" spans="1:16" ht="12.75">
+    <row r="185" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="55"/>
@@ -12602,7 +12608,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="20"/>
     </row>
-    <row r="186" spans="1:16" ht="12.75">
+    <row r="186" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="55"/>
@@ -12620,7 +12626,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="20"/>
     </row>
-    <row r="187" spans="1:16" ht="12.75">
+    <row r="187" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -12638,7 +12644,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="20"/>
     </row>
-    <row r="188" spans="1:16" ht="12.75">
+    <row r="188" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -12656,7 +12662,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="20"/>
     </row>
-    <row r="189" spans="1:16" ht="12.75">
+    <row r="189" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -12674,7 +12680,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="20"/>
     </row>
-    <row r="190" spans="1:16" ht="12.75">
+    <row r="190" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -12692,7 +12698,7 @@
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" ht="12.75">
+    <row r="191" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -12710,7 +12716,7 @@
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" ht="12.75">
+    <row r="192" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -12728,7 +12734,7 @@
       <c r="O192" s="16"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:16" ht="12.75">
+    <row r="193" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -12746,7 +12752,7 @@
       <c r="O193" s="16"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:16" ht="12.75">
+    <row r="194" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -12764,7 +12770,7 @@
       <c r="O194" s="16"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:16" ht="12.75">
+    <row r="195" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -12782,7 +12788,7 @@
       <c r="O195" s="16"/>
       <c r="P195" s="9"/>
     </row>
-    <row r="196" spans="1:16" ht="12.75">
+    <row r="196" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -12800,7 +12806,7 @@
       <c r="O196" s="16"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" ht="12.75">
+    <row r="197" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -12818,7 +12824,7 @@
       <c r="O197" s="16"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="12.75">
+    <row r="198" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -12836,7 +12842,7 @@
       <c r="O198" s="16"/>
       <c r="P198" s="9"/>
     </row>
-    <row r="199" spans="1:16" ht="12.75">
+    <row r="199" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -12854,7 +12860,7 @@
       <c r="O199" s="16"/>
       <c r="P199" s="9"/>
     </row>
-    <row r="200" spans="1:16" ht="12.75">
+    <row r="200" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -12872,7 +12878,7 @@
       <c r="O200" s="16"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" ht="12.75">
+    <row r="201" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -12890,7 +12896,7 @@
       <c r="O201" s="16"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="12.75">
+    <row r="202" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -12908,7 +12914,7 @@
       <c r="O202" s="16"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:16" ht="12.75">
+    <row r="203" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -12926,7 +12932,7 @@
       <c r="O203" s="16"/>
       <c r="P203" s="9"/>
     </row>
-    <row r="204" spans="1:16" ht="12.75">
+    <row r="204" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -12944,7 +12950,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="1:16" ht="12.75">
+    <row r="205" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12962,7 +12968,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="1:16" ht="12.75">
+    <row r="206" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12980,7 +12986,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="1:16" ht="12.75">
+    <row r="207" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12998,7 +13004,7 @@
       <c r="O207" s="16"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="12.75">
+    <row r="208" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -13016,7 +13022,7 @@
       <c r="O208" s="16"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="12.75">
+    <row r="209" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -13034,7 +13040,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="1:16" ht="12.75">
+    <row r="210" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -13052,7 +13058,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="1:16" ht="12.75">
+    <row r="211" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -13070,7 +13076,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="1:16" ht="12.75">
+    <row r="212" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -13088,7 +13094,7 @@
       <c r="O212" s="16"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="12.75">
+    <row r="213" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -13106,7 +13112,7 @@
       <c r="O213" s="16"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" ht="12.75">
+    <row r="214" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -13124,7 +13130,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="1:16" ht="12.75">
+    <row r="215" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -13142,7 +13148,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:16" ht="12.75">
+    <row r="216" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -13160,7 +13166,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16" ht="12.75">
+    <row r="217" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -13178,7 +13184,7 @@
       <c r="O217" s="16"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" ht="12.75">
+    <row r="218" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -13196,7 +13202,7 @@
       <c r="O218" s="16"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" ht="12.75">
+    <row r="219" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -13214,7 +13220,7 @@
       <c r="O219" s="16"/>
       <c r="P219" s="9"/>
     </row>
-    <row r="220" spans="1:16" ht="12.75">
+    <row r="220" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -13232,7 +13238,7 @@
       <c r="O220" s="16"/>
       <c r="P220" s="9"/>
     </row>
-    <row r="221" spans="1:16" ht="12.75">
+    <row r="221" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -13250,7 +13256,7 @@
       <c r="O221" s="16"/>
       <c r="P221" s="9"/>
     </row>
-    <row r="222" spans="1:16" ht="12.75">
+    <row r="222" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -13268,7 +13274,7 @@
       <c r="O222" s="16"/>
       <c r="P222" s="9"/>
     </row>
-    <row r="223" spans="1:16" ht="12.75">
+    <row r="223" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -13286,7 +13292,7 @@
       <c r="O223" s="16"/>
       <c r="P223" s="9"/>
     </row>
-    <row r="224" spans="1:16" ht="12.75">
+    <row r="224" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -13304,7 +13310,7 @@
       <c r="O224" s="16"/>
       <c r="P224" s="9"/>
     </row>
-    <row r="225" spans="1:17" ht="12.75">
+    <row r="225" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -13323,7 +13329,7 @@
       <c r="P225" s="9"/>
       <c r="Q225" s="41"/>
     </row>
-    <row r="226" spans="1:17" ht="12.75">
+    <row r="226" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="55"/>
@@ -13342,7 +13348,7 @@
       <c r="P226" s="20"/>
       <c r="Q226" s="41"/>
     </row>
-    <row r="227" spans="1:17" ht="12.75">
+    <row r="227" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="55"/>
@@ -13361,7 +13367,7 @@
       <c r="P227" s="20"/>
       <c r="Q227" s="41"/>
     </row>
-    <row r="228" spans="1:17" ht="12.75">
+    <row r="228" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="55"/>
@@ -13379,7 +13385,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="20"/>
     </row>
-    <row r="229" spans="1:17" ht="12.75">
+    <row r="229" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -13397,7 +13403,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="20"/>
     </row>
-    <row r="230" spans="1:17" ht="12.75">
+    <row r="230" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -13415,7 +13421,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="20"/>
     </row>
-    <row r="231" spans="1:17" ht="12.75">
+    <row r="231" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -13433,7 +13439,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="20"/>
     </row>
-    <row r="232" spans="1:17" ht="12.75">
+    <row r="232" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -13451,7 +13457,7 @@
       <c r="O232" s="16"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:17" ht="12.75">
+    <row r="233" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -13469,7 +13475,7 @@
       <c r="O233" s="16"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:17" ht="12.75">
+    <row r="234" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -13487,7 +13493,7 @@
       <c r="O234" s="16"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:17" ht="12.75">
+    <row r="235" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -13505,7 +13511,7 @@
       <c r="O235" s="16"/>
       <c r="P235" s="9"/>
     </row>
-    <row r="236" spans="1:17" ht="12.75">
+    <row r="236" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13523,7 +13529,7 @@
       <c r="O236" s="16"/>
       <c r="P236" s="9"/>
     </row>
-    <row r="237" spans="1:17" ht="12.75">
+    <row r="237" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13541,7 +13547,7 @@
       <c r="O237" s="16"/>
       <c r="P237" s="9"/>
     </row>
-    <row r="238" spans="1:17" ht="12.75">
+    <row r="238" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13559,7 +13565,7 @@
       <c r="O238" s="16"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:17" ht="12.75">
+    <row r="239" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13577,7 +13583,7 @@
       <c r="O239" s="16"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:17" ht="12.75">
+    <row r="240" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13595,7 +13601,7 @@
       <c r="O240" s="16"/>
       <c r="P240" s="9"/>
     </row>
-    <row r="241" spans="1:16" ht="12.75">
+    <row r="241" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13613,7 +13619,7 @@
       <c r="O241" s="16"/>
       <c r="P241" s="9"/>
     </row>
-    <row r="242" spans="1:16" ht="12.75">
+    <row r="242" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13631,7 +13637,7 @@
       <c r="O242" s="16"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16" ht="12.75">
+    <row r="243" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13649,7 +13655,7 @@
       <c r="O243" s="16"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16" ht="12.75">
+    <row r="244" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13667,7 +13673,7 @@
       <c r="O244" s="16"/>
       <c r="P244" s="9"/>
     </row>
-    <row r="245" spans="1:16" ht="12.75">
+    <row r="245" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13685,7 +13691,7 @@
       <c r="O245" s="16"/>
       <c r="P245" s="9"/>
     </row>
-    <row r="246" spans="1:16" ht="12.75">
+    <row r="246" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13703,7 +13709,7 @@
       <c r="O246" s="2"/>
       <c r="P246" s="20"/>
     </row>
-    <row r="247" spans="1:16" ht="12.75">
+    <row r="247" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13721,7 +13727,7 @@
       <c r="O247" s="2"/>
       <c r="P247" s="20"/>
     </row>
-    <row r="248" spans="1:16" ht="12.75">
+    <row r="248" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13739,7 +13745,7 @@
       <c r="O248" s="2"/>
       <c r="P248" s="20"/>
     </row>
-    <row r="249" spans="1:16" ht="12.75">
+    <row r="249" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13757,7 +13763,7 @@
       <c r="O249" s="16"/>
       <c r="P249" s="2"/>
     </row>
-    <row r="250" spans="1:16" ht="12.75">
+    <row r="250" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13775,7 +13781,7 @@
       <c r="O250" s="16"/>
       <c r="P250" s="2"/>
     </row>
-    <row r="251" spans="1:16" ht="12.75">
+    <row r="251" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13793,7 +13799,7 @@
       <c r="O251" s="2"/>
       <c r="P251" s="20"/>
     </row>
-    <row r="252" spans="1:16" ht="12.75">
+    <row r="252" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13811,7 +13817,7 @@
       <c r="O252" s="2"/>
       <c r="P252" s="20"/>
     </row>
-    <row r="253" spans="1:16" ht="12.75">
+    <row r="253" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13829,7 +13835,7 @@
       <c r="O253" s="2"/>
       <c r="P253" s="20"/>
     </row>
-    <row r="254" spans="1:16" ht="12.75">
+    <row r="254" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13847,7 +13853,7 @@
       <c r="O254" s="16"/>
       <c r="P254" s="2"/>
     </row>
-    <row r="255" spans="1:16" ht="12.75">
+    <row r="255" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13865,7 +13871,7 @@
       <c r="O255" s="16"/>
       <c r="P255" s="2"/>
     </row>
-    <row r="256" spans="1:16" ht="12.75">
+    <row r="256" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13883,7 +13889,7 @@
       <c r="O256" s="2"/>
       <c r="P256" s="20"/>
     </row>
-    <row r="257" spans="1:16" ht="12.75">
+    <row r="257" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13901,7 +13907,7 @@
       <c r="O257" s="2"/>
       <c r="P257" s="20"/>
     </row>
-    <row r="258" spans="1:16" ht="12.75">
+    <row r="258" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13919,7 +13925,7 @@
       <c r="O258" s="2"/>
       <c r="P258" s="20"/>
     </row>
-    <row r="259" spans="1:16" ht="12.75">
+    <row r="259" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13937,7 +13943,7 @@
       <c r="O259" s="16"/>
       <c r="P259" s="2"/>
     </row>
-    <row r="260" spans="1:16" ht="12.75">
+    <row r="260" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13955,7 +13961,7 @@
       <c r="O260" s="16"/>
       <c r="P260" s="2"/>
     </row>
-    <row r="261" spans="1:16" ht="12.75">
+    <row r="261" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13973,7 +13979,7 @@
       <c r="O261" s="16"/>
       <c r="P261" s="9"/>
     </row>
-    <row r="262" spans="1:16" ht="12.75">
+    <row r="262" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13991,7 +13997,7 @@
       <c r="O262" s="16"/>
       <c r="P262" s="9"/>
     </row>
-    <row r="263" spans="1:16" ht="12.75">
+    <row r="263" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -14009,7 +14015,7 @@
       <c r="O263" s="16"/>
       <c r="P263" s="9"/>
     </row>
-    <row r="264" spans="1:16" ht="12.75">
+    <row r="264" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -14027,7 +14033,7 @@
       <c r="O264" s="16"/>
       <c r="P264" s="9"/>
     </row>
-    <row r="265" spans="1:16" ht="12.75">
+    <row r="265" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -14045,7 +14051,7 @@
       <c r="O265" s="16"/>
       <c r="P265" s="9"/>
     </row>
-    <row r="266" spans="1:16" ht="12.75">
+    <row r="266" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14063,7 +14069,7 @@
       <c r="O266" s="16"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:16" ht="12.75">
+    <row r="267" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14081,7 +14087,7 @@
       <c r="O267" s="16"/>
       <c r="P267" s="9"/>
     </row>
-    <row r="268" spans="1:16" ht="12.75">
+    <row r="268" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14099,7 +14105,7 @@
       <c r="O268" s="16"/>
       <c r="P268" s="9"/>
     </row>
-    <row r="269" spans="1:16" ht="12.75">
+    <row r="269" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="55"/>
@@ -14117,7 +14123,7 @@
       <c r="O269" s="2"/>
       <c r="P269" s="20"/>
     </row>
-    <row r="270" spans="1:16" ht="12.75">
+    <row r="270" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="55"/>
@@ -14135,7 +14141,7 @@
       <c r="O270" s="2"/>
       <c r="P270" s="20"/>
     </row>
-    <row r="271" spans="1:16" ht="12.75">
+    <row r="271" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="55"/>
@@ -14153,7 +14159,7 @@
       <c r="O271" s="2"/>
       <c r="P271" s="20"/>
     </row>
-    <row r="272" spans="1:16" ht="12.75">
+    <row r="272" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14171,7 +14177,7 @@
       <c r="O272" s="41"/>
       <c r="P272" s="41"/>
     </row>
-    <row r="273" spans="1:16" ht="12.75">
+    <row r="273" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A273" s="59"/>
       <c r="B273" s="59"/>
       <c r="C273" s="59"/>
@@ -14189,7 +14195,7 @@
       <c r="O273" s="63"/>
       <c r="P273" s="61"/>
     </row>
-    <row r="274" spans="1:16" ht="12.75">
+    <row r="274" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A274" s="59"/>
       <c r="B274" s="59"/>
       <c r="C274" s="59"/>
@@ -14207,7 +14213,7 @@
       <c r="O274" s="63"/>
       <c r="P274" s="61"/>
     </row>
-    <row r="275" spans="1:16" ht="12.75">
+    <row r="275" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A275" s="59"/>
       <c r="B275" s="59"/>
       <c r="C275" s="59"/>
@@ -14225,7 +14231,7 @@
       <c r="O275" s="63"/>
       <c r="P275" s="61"/>
     </row>
-    <row r="276" spans="1:16" ht="12.75">
+    <row r="276" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A276" s="59"/>
       <c r="B276" s="59"/>
       <c r="C276" s="59"/>
@@ -14243,7 +14249,7 @@
       <c r="O276" s="63"/>
       <c r="P276" s="61"/>
     </row>
-    <row r="277" spans="1:16" ht="12.75">
+    <row r="277" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A277" s="59"/>
       <c r="B277" s="59"/>
       <c r="C277" s="59"/>
@@ -14261,7 +14267,7 @@
       <c r="O277" s="63"/>
       <c r="P277" s="61"/>
     </row>
-    <row r="278" spans="1:16" ht="12.75">
+    <row r="278" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A278" s="59"/>
       <c r="B278" s="59"/>
       <c r="C278" s="59"/>
@@ -14279,7 +14285,7 @@
       <c r="O278" s="63"/>
       <c r="P278" s="61"/>
     </row>
-    <row r="279" spans="1:16" ht="12.75">
+    <row r="279" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A279" s="59"/>
       <c r="B279" s="59"/>
       <c r="C279" s="59"/>
@@ -14297,7 +14303,7 @@
       <c r="O279" s="63"/>
       <c r="P279" s="61"/>
     </row>
-    <row r="280" spans="1:16" ht="12.75">
+    <row r="280" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A280" s="59"/>
       <c r="B280" s="59"/>
       <c r="C280" s="59"/>
@@ -14315,7 +14321,7 @@
       <c r="O280" s="63"/>
       <c r="P280" s="61"/>
     </row>
-    <row r="281" spans="1:16" ht="12.75">
+    <row r="281" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A281" s="59"/>
       <c r="B281" s="59"/>
       <c r="C281" s="59"/>
@@ -14333,7 +14339,7 @@
       <c r="O281" s="63"/>
       <c r="P281" s="61"/>
     </row>
-    <row r="282" spans="1:16" ht="12.75">
+    <row r="282" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A282" s="59"/>
       <c r="B282" s="59"/>
       <c r="C282" s="59"/>
@@ -14351,7 +14357,7 @@
       <c r="O282" s="63"/>
       <c r="P282" s="61"/>
     </row>
-    <row r="283" spans="1:16" ht="12.75">
+    <row r="283" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A283" s="59"/>
       <c r="B283" s="59"/>
       <c r="C283" s="59"/>
@@ -14369,7 +14375,7 @@
       <c r="O283" s="63"/>
       <c r="P283" s="61"/>
     </row>
-    <row r="284" spans="1:16" ht="12.75">
+    <row r="284" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A284" s="59"/>
       <c r="B284" s="59"/>
       <c r="C284" s="59"/>
@@ -14387,7 +14393,7 @@
       <c r="O284" s="63"/>
       <c r="P284" s="61"/>
     </row>
-    <row r="285" spans="1:16" ht="12.75">
+    <row r="285" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A285" s="59"/>
       <c r="B285" s="59"/>
       <c r="C285" s="59"/>
@@ -14405,7 +14411,7 @@
       <c r="O285" s="63"/>
       <c r="P285" s="61"/>
     </row>
-    <row r="286" spans="1:16" ht="12.75">
+    <row r="286" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A286" s="59"/>
       <c r="B286" s="59"/>
       <c r="C286" s="59"/>
@@ -14423,7 +14429,7 @@
       <c r="O286" s="63"/>
       <c r="P286" s="61"/>
     </row>
-    <row r="287" spans="1:16" ht="12.75">
+    <row r="287" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A287" s="59"/>
       <c r="B287" s="59"/>
       <c r="C287" s="59"/>
@@ -14441,7 +14447,7 @@
       <c r="O287" s="63"/>
       <c r="P287" s="61"/>
     </row>
-    <row r="288" spans="1:16" ht="12.75">
+    <row r="288" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A288" s="59"/>
       <c r="B288" s="59"/>
       <c r="C288" s="59"/>
@@ -14459,7 +14465,7 @@
       <c r="O288" s="63"/>
       <c r="P288" s="61"/>
     </row>
-    <row r="289" spans="1:16" ht="12.75">
+    <row r="289" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A289" s="59"/>
       <c r="B289" s="59"/>
       <c r="C289" s="59"/>
@@ -14477,7 +14483,7 @@
       <c r="O289" s="63"/>
       <c r="P289" s="61"/>
     </row>
-    <row r="290" spans="1:16" ht="12.75">
+    <row r="290" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A290" s="59"/>
       <c r="B290" s="59"/>
       <c r="C290" s="59"/>
@@ -14495,7 +14501,7 @@
       <c r="O290" s="63"/>
       <c r="P290" s="61"/>
     </row>
-    <row r="291" spans="1:16" ht="12.75">
+    <row r="291" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A291" s="59"/>
       <c r="B291" s="59"/>
       <c r="C291" s="59"/>
@@ -14513,7 +14519,7 @@
       <c r="O291" s="63"/>
       <c r="P291" s="61"/>
     </row>
-    <row r="292" spans="1:16" ht="12.75">
+    <row r="292" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A292" s="59"/>
       <c r="B292" s="59"/>
       <c r="C292" s="59"/>
@@ -14531,7 +14537,7 @@
       <c r="O292" s="63"/>
       <c r="P292" s="61"/>
     </row>
-    <row r="293" spans="1:16" ht="12.75">
+    <row r="293" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A293" s="59"/>
       <c r="B293" s="59"/>
       <c r="C293" s="59"/>
@@ -14549,7 +14555,7 @@
       <c r="O293" s="63"/>
       <c r="P293" s="61"/>
     </row>
-    <row r="294" spans="1:16" ht="12.75">
+    <row r="294" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A294" s="59"/>
       <c r="B294" s="59"/>
       <c r="C294" s="59"/>
@@ -14567,7 +14573,7 @@
       <c r="O294" s="63"/>
       <c r="P294" s="61"/>
     </row>
-    <row r="295" spans="1:16" ht="12.75">
+    <row r="295" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A295" s="59"/>
       <c r="B295" s="59"/>
       <c r="C295" s="59"/>
@@ -14585,7 +14591,7 @@
       <c r="O295" s="63"/>
       <c r="P295" s="61"/>
     </row>
-    <row r="296" spans="1:16" ht="12.75">
+    <row r="296" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A296" s="59"/>
       <c r="B296" s="59"/>
       <c r="C296" s="59"/>
@@ -14603,7 +14609,7 @@
       <c r="O296" s="63"/>
       <c r="P296" s="61"/>
     </row>
-    <row r="297" spans="1:16" ht="12.75">
+    <row r="297" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A297" s="59"/>
       <c r="B297" s="59"/>
       <c r="C297" s="59"/>
@@ -14621,7 +14627,7 @@
       <c r="O297" s="63"/>
       <c r="P297" s="61"/>
     </row>
-    <row r="298" spans="1:16" ht="12.75">
+    <row r="298" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A298" s="59"/>
       <c r="B298" s="59"/>
       <c r="C298" s="59"/>
@@ -14639,7 +14645,7 @@
       <c r="O298" s="63"/>
       <c r="P298" s="61"/>
     </row>
-    <row r="299" spans="1:16" ht="12.75">
+    <row r="299" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A299" s="59"/>
       <c r="B299" s="59"/>
       <c r="C299" s="59"/>
@@ -14657,7 +14663,7 @@
       <c r="O299" s="63"/>
       <c r="P299" s="61"/>
     </row>
-    <row r="300" spans="1:16" ht="12.75">
+    <row r="300" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A300" s="59"/>
       <c r="B300" s="59"/>
       <c r="C300" s="59"/>
@@ -14675,7 +14681,7 @@
       <c r="O300" s="63"/>
       <c r="P300" s="61"/>
     </row>
-    <row r="301" spans="1:16" ht="12.75">
+    <row r="301" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A301" s="59"/>
       <c r="B301" s="59"/>
       <c r="C301" s="59"/>
@@ -14693,7 +14699,7 @@
       <c r="O301" s="63"/>
       <c r="P301" s="61"/>
     </row>
-    <row r="302" spans="1:16" ht="12.75">
+    <row r="302" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A302" s="59"/>
       <c r="B302" s="59"/>
       <c r="C302" s="59"/>
@@ -14711,7 +14717,7 @@
       <c r="O302" s="63"/>
       <c r="P302" s="61"/>
     </row>
-    <row r="303" spans="1:16" ht="12.75">
+    <row r="303" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A303" s="59"/>
       <c r="B303" s="59"/>
       <c r="C303" s="59"/>
@@ -14729,7 +14735,7 @@
       <c r="O303" s="63"/>
       <c r="P303" s="61"/>
     </row>
-    <row r="304" spans="1:16" ht="12.75">
+    <row r="304" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A304" s="59"/>
       <c r="B304" s="59"/>
       <c r="C304" s="59"/>
@@ -14747,7 +14753,7 @@
       <c r="O304" s="63"/>
       <c r="P304" s="61"/>
     </row>
-    <row r="305" spans="1:16" ht="12.75">
+    <row r="305" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A305" s="59"/>
       <c r="B305" s="59"/>
       <c r="C305" s="59"/>
@@ -14765,7 +14771,7 @@
       <c r="O305" s="63"/>
       <c r="P305" s="61"/>
     </row>
-    <row r="306" spans="1:16" ht="12.75">
+    <row r="306" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A306" s="59"/>
       <c r="B306" s="59"/>
       <c r="C306" s="59"/>
@@ -14783,7 +14789,7 @@
       <c r="O306" s="63"/>
       <c r="P306" s="61"/>
     </row>
-    <row r="307" spans="1:16" ht="12.75">
+    <row r="307" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A307" s="59"/>
       <c r="B307" s="59"/>
       <c r="C307" s="59"/>
@@ -14801,7 +14807,7 @@
       <c r="O307" s="63"/>
       <c r="P307" s="61"/>
     </row>
-    <row r="308" spans="1:16" ht="12.75">
+    <row r="308" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A308" s="59"/>
       <c r="B308" s="59"/>
       <c r="C308" s="59"/>
@@ -14819,7 +14825,7 @@
       <c r="O308" s="63"/>
       <c r="P308" s="61"/>
     </row>
-    <row r="309" spans="1:16" ht="12.75">
+    <row r="309" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A309" s="59"/>
       <c r="B309" s="59"/>
       <c r="C309" s="59"/>
@@ -14837,7 +14843,7 @@
       <c r="O309" s="63"/>
       <c r="P309" s="61"/>
     </row>
-    <row r="310" spans="1:16" ht="12.75">
+    <row r="310" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A310" s="59"/>
       <c r="B310" s="59"/>
       <c r="C310" s="59"/>
@@ -14855,7 +14861,7 @@
       <c r="O310" s="63"/>
       <c r="P310" s="61"/>
     </row>
-    <row r="311" spans="1:16" ht="12.75">
+    <row r="311" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A311" s="59"/>
       <c r="B311" s="59"/>
       <c r="C311" s="59"/>
@@ -14873,7 +14879,7 @@
       <c r="O311" s="63"/>
       <c r="P311" s="61"/>
     </row>
-    <row r="312" spans="1:16" ht="12.75">
+    <row r="312" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A312" s="59"/>
       <c r="B312" s="59"/>
       <c r="C312" s="59"/>
@@ -14891,7 +14897,7 @@
       <c r="O312" s="63"/>
       <c r="P312" s="61"/>
     </row>
-    <row r="313" spans="1:16" ht="12.75">
+    <row r="313" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A313" s="59"/>
       <c r="B313" s="59"/>
       <c r="C313" s="59"/>
@@ -14909,7 +14915,7 @@
       <c r="O313" s="63"/>
       <c r="P313" s="61"/>
     </row>
-    <row r="314" spans="1:16" ht="12.75">
+    <row r="314" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A314" s="59"/>
       <c r="B314" s="59"/>
       <c r="C314" s="59"/>
@@ -14944,7 +14950,7 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
@@ -14957,7 +14963,7 @@
     <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -14986,7 +14992,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12">
+    <row r="2" spans="1:9" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A2" s="32" t="s">
         <v>316</v>
       </c>
@@ -15016,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="32" t="s">
         <v>317</v>
       </c>
@@ -15046,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="32" t="s">
         <v>318</v>
       </c>
@@ -15076,7 +15082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="32" t="s">
         <v>319</v>
       </c>
@@ -15106,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="32" t="s">
         <v>320</v>
       </c>
@@ -15136,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="32" t="s">
         <v>321</v>
       </c>
@@ -15166,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="32" t="s">
         <v>322</v>
       </c>
@@ -15196,7 +15202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="32" t="s">
         <v>323</v>
       </c>
@@ -15226,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="32" t="s">
         <v>324</v>
       </c>
@@ -15256,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="32" t="s">
         <v>325</v>
       </c>
@@ -15286,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="32" t="s">
         <v>326</v>
       </c>
@@ -15316,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="32" t="s">
         <v>327</v>
       </c>
@@ -15346,7 +15352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="32" t="s">
         <v>328</v>
       </c>
@@ -15376,7 +15382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="32" t="s">
         <v>329</v>
       </c>
@@ -15406,7 +15412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="32" t="s">
         <v>330</v>
       </c>
@@ -15436,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="32" t="s">
         <v>239</v>
       </c>
@@ -15466,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="32" t="s">
         <v>240</v>
       </c>
@@ -15496,7 +15502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="32" t="s">
         <v>241</v>
       </c>
@@ -15526,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="32" t="s">
         <v>242</v>
       </c>
@@ -15556,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="32" t="s">
         <v>243</v>
       </c>
@@ -15586,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -15616,7 +15622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="32" t="s">
         <v>245</v>
       </c>
@@ -15646,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="32" t="s">
         <v>246</v>
       </c>
@@ -15676,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="32" t="s">
         <v>247</v>
       </c>
@@ -15706,7 +15712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="32" t="s">
         <v>248</v>
       </c>
@@ -15736,7 +15742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="32" t="s">
         <v>249</v>
       </c>
@@ -15766,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="32" t="s">
         <v>250</v>
       </c>
@@ -15796,7 +15802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="32" t="s">
         <v>251</v>
       </c>
@@ -15826,7 +15832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="32" t="s">
         <v>252</v>
       </c>
@@ -15856,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="32" t="s">
         <v>197</v>
       </c>
@@ -15886,7 +15892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="32" t="s">
         <v>198</v>
       </c>
@@ -15916,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="32" t="s">
         <v>199</v>
       </c>
@@ -15946,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="32" t="s">
         <v>200</v>
       </c>
@@ -15976,7 +15982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="32" t="s">
         <v>201</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="32" t="s">
         <v>202</v>
       </c>
@@ -16036,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="32" t="s">
         <v>203</v>
       </c>
@@ -16066,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="32" t="s">
         <v>204</v>
       </c>
@@ -16096,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="32" t="s">
         <v>205</v>
       </c>
@@ -16126,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="32" t="s">
         <v>206</v>
       </c>
@@ -16156,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="32" t="s">
         <v>207</v>
       </c>
@@ -16186,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="32" t="s">
         <v>208</v>
       </c>
@@ -16216,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="32" t="s">
         <v>209</v>
       </c>
@@ -16246,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="32" t="s">
         <v>210</v>
       </c>
@@ -16276,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="32" t="s">
         <v>211</v>
       </c>
@@ -16306,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="32" t="s">
         <v>212</v>
       </c>
@@ -16336,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="32" t="s">
         <v>213</v>
       </c>
@@ -16366,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="32" t="s">
         <v>214</v>
       </c>
@@ -16396,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="32" t="s">
         <v>215</v>
       </c>
@@ -16426,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="32" t="s">
         <v>216</v>
       </c>
@@ -16456,7 +16462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="32" t="s">
         <v>217</v>
       </c>
@@ -16486,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="32" t="s">
         <v>218</v>
       </c>
@@ -16516,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="32" t="s">
         <v>219</v>
       </c>
@@ -16546,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="32" t="s">
         <v>220</v>
       </c>
@@ -16576,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="32" t="s">
         <v>221</v>
       </c>
@@ -16606,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="32" t="s">
         <v>222</v>
       </c>
@@ -16636,7 +16642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="32" t="s">
         <v>223</v>
       </c>
@@ -16666,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="32" t="s">
         <v>224</v>
       </c>
@@ -16696,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="32" t="s">
         <v>225</v>
       </c>
@@ -16726,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="32" t="s">
         <v>226</v>
       </c>
@@ -16756,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="32" t="s">
         <v>227</v>
       </c>
@@ -16786,7 +16792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A62" s="32" t="s">
         <v>228</v>
       </c>
@@ -16816,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A63" s="32" t="s">
         <v>229</v>
       </c>
@@ -16846,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A64" s="32" t="s">
         <v>230</v>
       </c>
@@ -16876,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A65" s="32" t="s">
         <v>231</v>
       </c>
@@ -16906,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A66" s="32" t="s">
         <v>232</v>
       </c>
@@ -16936,7 +16942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A67" s="32" t="s">
         <v>233</v>
       </c>
@@ -16966,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A68" s="32" t="s">
         <v>234</v>
       </c>
@@ -16996,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A69" s="32" t="s">
         <v>508</v>
       </c>
@@ -17026,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A70" s="32" t="s">
         <v>509</v>
       </c>
@@ -17056,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="32" t="s">
         <v>510</v>
       </c>
@@ -17086,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A72" s="32" t="s">
         <v>511</v>
       </c>
@@ -17116,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A73" s="32" t="s">
         <v>512</v>
       </c>
@@ -17146,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74" s="32" t="s">
         <v>513</v>
       </c>
@@ -17176,7 +17182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A75" s="32" t="s">
         <v>514</v>
       </c>
@@ -17206,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A76" s="32" t="s">
         <v>515</v>
       </c>
@@ -17236,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A77" s="32" t="s">
         <v>516</v>
       </c>
@@ -17266,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A78" s="32" t="s">
         <v>517</v>
       </c>
@@ -17296,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A79" s="32" t="s">
         <v>518</v>
       </c>
@@ -17326,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A80" s="32" t="s">
         <v>519</v>
       </c>
@@ -17356,7 +17362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A81" s="32" t="s">
         <v>520</v>
       </c>
@@ -17386,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A82" s="32" t="s">
         <v>521</v>
       </c>
@@ -17416,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A83" s="32" t="s">
         <v>522</v>
       </c>
@@ -17446,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A84" s="32" t="s">
         <v>282</v>
       </c>
@@ -17476,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="32" t="s">
         <v>283</v>
       </c>
@@ -17506,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A86" s="32" t="s">
         <v>284</v>
       </c>
@@ -17536,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A87" s="32" t="s">
         <v>285</v>
       </c>
@@ -17566,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A88" s="32" t="s">
         <v>286</v>
       </c>
@@ -17596,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A89" s="32" t="s">
         <v>287</v>
       </c>
@@ -17626,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A90" s="32" t="s">
         <v>288</v>
       </c>
@@ -17656,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A91" s="32" t="s">
         <v>289</v>
       </c>
@@ -17686,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A92" s="32" t="s">
         <v>290</v>
       </c>
@@ -17716,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A93" s="32" t="s">
         <v>291</v>
       </c>
@@ -17746,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A94" s="32" t="s">
         <v>292</v>
       </c>
@@ -17776,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A95" s="32" t="s">
         <v>293</v>
       </c>
@@ -17806,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A96" s="32" t="s">
         <v>294</v>
       </c>
@@ -17836,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A97" s="32" t="s">
         <v>295</v>
       </c>
@@ -17866,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A98" s="32" t="s">
         <v>296</v>
       </c>
@@ -17896,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99" s="32" t="s">
         <v>301</v>
       </c>
@@ -17926,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A100" s="32" t="s">
         <v>302</v>
       </c>
@@ -17956,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A101" s="32" t="s">
         <v>303</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A102" s="32" t="s">
         <v>304</v>
       </c>
@@ -18016,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A103" s="32" t="s">
         <v>305</v>
       </c>
@@ -18046,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A104" s="32" t="s">
         <v>306</v>
       </c>
@@ -18076,7 +18082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A105" s="32" t="s">
         <v>307</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A106" s="32" t="s">
         <v>308</v>
       </c>
@@ -18136,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A107" s="32" t="s">
         <v>309</v>
       </c>
@@ -18166,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A108" s="32" t="s">
         <v>310</v>
       </c>
@@ -18196,7 +18202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A109" s="32" t="s">
         <v>311</v>
       </c>
@@ -18226,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A110" s="32" t="s">
         <v>312</v>
       </c>
@@ -18256,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A111" s="32" t="s">
         <v>313</v>
       </c>
@@ -18286,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A112" s="32" t="s">
         <v>314</v>
       </c>
@@ -18316,7 +18322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113" s="32" t="s">
         <v>315</v>
       </c>
@@ -18346,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A114" s="32" t="s">
         <v>265</v>
       </c>
@@ -18376,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A115" s="32" t="s">
         <v>266</v>
       </c>
@@ -18406,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A116" s="32" t="s">
         <v>267</v>
       </c>
@@ -18436,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A117" s="32" t="s">
         <v>268</v>
       </c>
@@ -18466,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A118" s="32" t="s">
         <v>269</v>
       </c>
@@ -18496,7 +18502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A119" s="32" t="s">
         <v>270</v>
       </c>
@@ -18526,7 +18532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A120" s="32" t="s">
         <v>271</v>
       </c>
@@ -18556,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A121" s="32" t="s">
         <v>272</v>
       </c>
@@ -18586,7 +18592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A122" s="32" t="s">
         <v>273</v>
       </c>
@@ -18616,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A123" s="32" t="s">
         <v>274</v>
       </c>
@@ -18646,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A124" s="32" t="s">
         <v>275</v>
       </c>
@@ -18676,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A125" s="32" t="s">
         <v>276</v>
       </c>
@@ -18706,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A126" s="32" t="s">
         <v>277</v>
       </c>
@@ -18736,7 +18742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A127" s="32" t="s">
         <v>278</v>
       </c>
@@ -18766,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A128" s="32" t="s">
         <v>279</v>
       </c>
@@ -18796,7 +18802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A129" s="32" t="s">
         <v>352</v>
       </c>
@@ -18826,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A130" s="32" t="s">
         <v>353</v>
       </c>
@@ -18856,7 +18862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A131" s="32" t="s">
         <v>354</v>
       </c>
@@ -18886,7 +18892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A132" s="32" t="s">
         <v>355</v>
       </c>
@@ -18916,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A133" s="32" t="s">
         <v>356</v>
       </c>
@@ -18946,7 +18952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A134" s="32" t="s">
         <v>357</v>
       </c>
@@ -18976,7 +18982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A135" s="32" t="s">
         <v>358</v>
       </c>
@@ -19006,7 +19012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A136" s="32" t="s">
         <v>359</v>
       </c>
@@ -19036,7 +19042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A137" s="32" t="s">
         <v>360</v>
       </c>
@@ -19066,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A138" s="32" t="s">
         <v>361</v>
       </c>
@@ -19096,7 +19102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A139" s="32" t="s">
         <v>362</v>
       </c>
@@ -19126,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A140" s="32" t="s">
         <v>363</v>
       </c>
@@ -19156,7 +19162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A141" s="32" t="s">
         <v>364</v>
       </c>
@@ -19186,7 +19192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A142" s="32" t="s">
         <v>365</v>
       </c>
@@ -19216,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A143" s="32" t="s">
         <v>366</v>
       </c>
@@ -19246,7 +19252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A144" s="32" t="s">
         <v>333</v>
       </c>
@@ -19276,7 +19282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A145" s="32" t="s">
         <v>334</v>
       </c>
@@ -19306,7 +19312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A146" s="32" t="s">
         <v>335</v>
       </c>
@@ -19336,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A147" s="32" t="s">
         <v>336</v>
       </c>
@@ -19366,7 +19372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A148" s="32" t="s">
         <v>337</v>
       </c>
@@ -19396,7 +19402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A149" s="32" t="s">
         <v>338</v>
       </c>
@@ -19426,7 +19432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A150" s="32" t="s">
         <v>339</v>
       </c>
@@ -19456,7 +19462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A151" s="32" t="s">
         <v>340</v>
       </c>
@@ -19486,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A152" s="32" t="s">
         <v>341</v>
       </c>
@@ -19516,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A153" s="32" t="s">
         <v>342</v>
       </c>
@@ -19546,7 +19552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" customHeight="1">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A154" s="32" t="s">
         <v>343</v>
       </c>
@@ -19576,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A155" s="32" t="s">
         <v>344</v>
       </c>
@@ -19606,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75" customHeight="1">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A156" s="32" t="s">
         <v>345</v>
       </c>
@@ -19636,7 +19642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" customHeight="1">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A157" s="32" t="s">
         <v>346</v>
       </c>
@@ -19666,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" customHeight="1">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A158" s="32" t="s">
         <v>347</v>
       </c>
@@ -19696,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A159" s="32" t="s">
         <v>367</v>
       </c>
@@ -19726,7 +19732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" customHeight="1">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A160" s="32" t="s">
         <v>368</v>
       </c>
@@ -19756,7 +19762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A161" s="32" t="s">
         <v>369</v>
       </c>
@@ -19786,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A162" s="32" t="s">
         <v>370</v>
       </c>
@@ -19816,7 +19822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A163" s="32" t="s">
         <v>371</v>
       </c>
@@ -19846,7 +19852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A164" s="32" t="s">
         <v>372</v>
       </c>
@@ -19876,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A165" s="32" t="s">
         <v>373</v>
       </c>
@@ -19906,7 +19912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A166" s="32" t="s">
         <v>374</v>
       </c>
@@ -19936,7 +19942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A167" s="32" t="s">
         <v>375</v>
       </c>
@@ -19966,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A168" s="32" t="s">
         <v>376</v>
       </c>
@@ -19996,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A169" s="32" t="s">
         <v>377</v>
       </c>
@@ -20026,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A170" s="32" t="s">
         <v>378</v>
       </c>
@@ -20056,7 +20062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A171" s="32" t="s">
         <v>379</v>
       </c>
@@ -20086,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A172" s="32" t="s">
         <v>380</v>
       </c>
@@ -20116,7 +20122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A173" s="32" t="s">
         <v>381</v>
       </c>
@@ -20146,7 +20152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18.75" customHeight="1">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A174" s="32" t="s">
         <v>135</v>
       </c>
@@ -20176,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18.75" customHeight="1">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A175" s="32" t="s">
         <v>137</v>
       </c>
@@ -20206,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" customHeight="1">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A176" s="32" t="s">
         <v>136</v>
       </c>
@@ -20236,7 +20242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" customHeight="1">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A177" s="32" t="s">
         <v>138</v>
       </c>
@@ -20266,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18.75" customHeight="1">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A178" s="32" t="s">
         <v>139</v>
       </c>
@@ -20296,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" customHeight="1">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A179" s="32" t="s">
         <v>140</v>
       </c>
@@ -20326,7 +20332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18.75" customHeight="1">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A180" s="32" t="s">
         <v>141</v>
       </c>
@@ -20356,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18.75" customHeight="1">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A181" s="32" t="s">
         <v>142</v>
       </c>
@@ -20386,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.75" customHeight="1">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A182" s="32" t="s">
         <v>143</v>
       </c>
@@ -20416,7 +20422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75" customHeight="1">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A183" s="32" t="s">
         <v>144</v>
       </c>
@@ -20446,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18.75" customHeight="1">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A184" s="32" t="s">
         <v>146</v>
       </c>
@@ -20476,7 +20482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18.75" customHeight="1">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A185" s="32" t="s">
         <v>148</v>
       </c>
@@ -20506,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18.75" customHeight="1">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A186" s="32" t="s">
         <v>153</v>
       </c>
@@ -20536,7 +20542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18.75" customHeight="1">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A187" s="32" t="s">
         <v>145</v>
       </c>
@@ -20566,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18.75" customHeight="1">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A188" s="32" t="s">
         <v>149</v>
       </c>
@@ -20596,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18.75" customHeight="1">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A189" s="32" t="s">
         <v>147</v>
       </c>
@@ -20626,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18.75" customHeight="1">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A190" s="32" t="s">
         <v>150</v>
       </c>
@@ -20656,7 +20662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18.75" customHeight="1">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A191" s="32" t="s">
         <v>151</v>
       </c>
@@ -20686,7 +20692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18.75" customHeight="1">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A192" s="32" t="s">
         <v>152</v>
       </c>
@@ -20716,7 +20722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18.75" customHeight="1">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A193" s="32" t="s">
         <v>386</v>
       </c>
@@ -20746,7 +20752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18.75" customHeight="1">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A194" s="32" t="s">
         <v>387</v>
       </c>
@@ -20776,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75" customHeight="1">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A195" s="32" t="s">
         <v>388</v>
       </c>
@@ -20806,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18.75" customHeight="1">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A196" s="32" t="s">
         <v>389</v>
       </c>
@@ -20836,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" customHeight="1">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A197" s="32" t="s">
         <v>390</v>
       </c>
@@ -20866,7 +20872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18.75" customHeight="1">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A198" s="32" t="s">
         <v>391</v>
       </c>
@@ -20896,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18.75" customHeight="1">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A199" s="32" t="s">
         <v>392</v>
       </c>
@@ -20926,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18.75" customHeight="1">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A200" s="32" t="s">
         <v>393</v>
       </c>
@@ -20956,7 +20962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18.75" customHeight="1">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A201" s="32" t="s">
         <v>394</v>
       </c>
@@ -20986,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A202" s="32" t="s">
         <v>395</v>
       </c>
@@ -21016,7 +21022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A203" s="32" t="s">
         <v>396</v>
       </c>
@@ -21046,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A204" s="32" t="s">
         <v>397</v>
       </c>
@@ -21076,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A205" s="32" t="s">
         <v>398</v>
       </c>
@@ -21106,7 +21112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A206" s="32" t="s">
         <v>399</v>
       </c>
@@ -21136,7 +21142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A207" s="32" t="s">
         <v>400</v>
       </c>
@@ -21166,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A208" s="32" t="s">
         <v>403</v>
       </c>
@@ -21196,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18.75" customHeight="1">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A209" s="32" t="s">
         <v>404</v>
       </c>
@@ -21226,7 +21232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18.75" customHeight="1">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A210" s="32" t="s">
         <v>405</v>
       </c>
@@ -21256,7 +21262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18.75" customHeight="1">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A211" s="32" t="s">
         <v>406</v>
       </c>
@@ -21286,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18.75" customHeight="1">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A212" s="32" t="s">
         <v>407</v>
       </c>
@@ -21316,7 +21322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18.75" customHeight="1">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A213" s="32" t="s">
         <v>408</v>
       </c>
@@ -21346,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18.75" customHeight="1">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A214" s="32" t="s">
         <v>409</v>
       </c>
@@ -21376,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18.75" customHeight="1">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A215" s="32" t="s">
         <v>410</v>
       </c>
@@ -21406,7 +21412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" customHeight="1">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A216" s="32" t="s">
         <v>411</v>
       </c>
@@ -21436,7 +21442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18.75" customHeight="1">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A217" s="32" t="s">
         <v>412</v>
       </c>
@@ -21466,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18.75" customHeight="1">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A218" s="32" t="s">
         <v>413</v>
       </c>
@@ -21496,7 +21502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18.75" customHeight="1">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A219" s="32" t="s">
         <v>414</v>
       </c>
@@ -21526,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18.75" customHeight="1">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A220" s="32" t="s">
         <v>415</v>
       </c>
@@ -21556,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18.75" customHeight="1">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A221" s="32" t="s">
         <v>416</v>
       </c>
@@ -21586,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18.75" customHeight="1">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A222" s="32" t="s">
         <v>417</v>
       </c>
@@ -21616,7 +21622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18.75" customHeight="1">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A223" s="32"/>
       <c r="B223" s="26"/>
       <c r="C223" s="26"/>
@@ -21626,7 +21632,7 @@
       <c r="G223" s="43"/>
       <c r="H223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" customHeight="1">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A224" s="32"/>
       <c r="B224" s="26"/>
       <c r="C224" s="26"/>
@@ -21636,7 +21642,7 @@
       <c r="G224" s="43"/>
       <c r="H224" s="32"/>
     </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1">
+    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A225" s="32"/>
       <c r="B225" s="26"/>
       <c r="C225" s="26"/>
@@ -21646,7 +21652,7 @@
       <c r="G225" s="43"/>
       <c r="H225" s="32"/>
     </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1">
+    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A226" s="32"/>
       <c r="B226" s="26"/>
       <c r="C226" s="26"/>
@@ -21656,7 +21662,7 @@
       <c r="G226" s="43"/>
       <c r="H226" s="32"/>
     </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1">
+    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A227" s="32"/>
       <c r="B227" s="26"/>
       <c r="C227" s="26"/>
@@ -21666,7 +21672,7 @@
       <c r="G227" s="43"/>
       <c r="H227" s="32"/>
     </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1">
+    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A228" s="32"/>
       <c r="B228" s="26"/>
       <c r="C228" s="26"/>
@@ -21676,7 +21682,7 @@
       <c r="G228" s="43"/>
       <c r="H228" s="32"/>
     </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1">
+    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A229" s="32"/>
       <c r="B229" s="26"/>
       <c r="C229" s="26"/>
@@ -21686,7 +21692,7 @@
       <c r="G229" s="43"/>
       <c r="H229" s="32"/>
     </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1">
+    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A230" s="32"/>
       <c r="B230" s="26"/>
       <c r="C230" s="26"/>
@@ -21696,7 +21702,7 @@
       <c r="G230" s="43"/>
       <c r="H230" s="32"/>
     </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1">
+    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A231" s="32"/>
       <c r="B231" s="26"/>
       <c r="C231" s="26"/>
@@ -21706,7 +21712,7 @@
       <c r="G231" s="43"/>
       <c r="H231" s="32"/>
     </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1">
+    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -21716,7 +21722,7 @@
       <c r="G232" s="43"/>
       <c r="H232" s="32"/>
     </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1">
+    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A233" s="32"/>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -21726,7 +21732,7 @@
       <c r="G233" s="43"/>
       <c r="H233" s="32"/>
     </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1">
+    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A234" s="32"/>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -21736,7 +21742,7 @@
       <c r="G234" s="43"/>
       <c r="H234" s="32"/>
     </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1">
+    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A235" s="32"/>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -21746,7 +21752,7 @@
       <c r="G235" s="43"/>
       <c r="H235" s="32"/>
     </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1">
+    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A236" s="32"/>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -21756,7 +21762,7 @@
       <c r="G236" s="43"/>
       <c r="H236" s="32"/>
     </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1">
+    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A237" s="32"/>
       <c r="B237" s="26"/>
       <c r="C237" s="26"/>
@@ -21766,7 +21772,7 @@
       <c r="G237" s="43"/>
       <c r="H237" s="32"/>
     </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1">
+    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A238" s="32"/>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
@@ -21776,7 +21782,7 @@
       <c r="G238" s="43"/>
       <c r="H238" s="32"/>
     </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1">
+    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A239" s="32"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -21786,7 +21792,7 @@
       <c r="G239" s="43"/>
       <c r="H239" s="32"/>
     </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1">
+    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A240" s="32"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -21796,7 +21802,7 @@
       <c r="G240" s="43"/>
       <c r="H240" s="32"/>
     </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1">
+    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A241" s="32"/>
       <c r="B241" s="26"/>
       <c r="C241" s="26"/>
@@ -21806,7 +21812,7 @@
       <c r="G241" s="43"/>
       <c r="H241" s="32"/>
     </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1">
+    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -21816,7 +21822,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1">
+    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -21826,7 +21832,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1">
+    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -21836,7 +21842,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1">
+    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -21846,7 +21852,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1">
+    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -21856,7 +21862,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1">
+    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -21866,7 +21872,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1">
+    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -21876,7 +21882,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1">
+    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -21886,7 +21892,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1">
+    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -21896,7 +21902,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1">
+    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -21906,7 +21912,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1">
+    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -21916,7 +21922,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1">
+    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -21926,7 +21932,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1">
+    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -21936,7 +21942,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1">
+    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -21946,7 +21952,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1">
+    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -21956,7 +21962,7 @@
       <c r="G256" s="43"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1">
+    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A257" s="32"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -21966,7 +21972,7 @@
       <c r="G257" s="43"/>
       <c r="H257" s="32"/>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1">
+    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A258" s="32"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -21976,7 +21982,7 @@
       <c r="G258" s="43"/>
       <c r="H258" s="32"/>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1">
+    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A259" s="32"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -21986,7 +21992,7 @@
       <c r="G259" s="43"/>
       <c r="H259" s="32"/>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1">
+    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A260" s="32"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -21996,7 +22002,7 @@
       <c r="G260" s="43"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1">
+    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A261" s="32"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -22006,7 +22012,7 @@
       <c r="G261" s="43"/>
       <c r="H261" s="32"/>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1">
+    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A262" s="32"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -22016,7 +22022,7 @@
       <c r="G262" s="43"/>
       <c r="H262" s="32"/>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1">
+    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A263" s="32"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -22026,7 +22032,7 @@
       <c r="G263" s="43"/>
       <c r="H263" s="32"/>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1">
+    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A264" s="32"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -22036,7 +22042,7 @@
       <c r="G264" s="43"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1">
+    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A265" s="32"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -22046,7 +22052,7 @@
       <c r="G265" s="43"/>
       <c r="H265" s="32"/>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1">
+    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A266" s="32"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -22056,7 +22062,7 @@
       <c r="G266" s="43"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1">
+    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A267" s="32"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -22066,7 +22072,7 @@
       <c r="G267" s="43"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1">
+    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -22076,7 +22082,7 @@
       <c r="G268" s="43"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1">
+    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A269" s="32"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -22086,7 +22092,7 @@
       <c r="G269" s="43"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1">
+    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A270" s="32"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -22096,7 +22102,7 @@
       <c r="G270" s="43"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1">
+    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A271" s="32"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -22106,7 +22112,7 @@
       <c r="G271" s="43"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1">
+    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A272" s="32"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -22116,7 +22122,7 @@
       <c r="G272" s="43"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="18.75" customHeight="1">
+    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A273" s="32"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -22126,7 +22132,7 @@
       <c r="G273" s="43"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" ht="18.75" customHeight="1">
+    <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A274" s="32"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -22136,7 +22142,7 @@
       <c r="G274" s="43"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" ht="18.75" customHeight="1">
+    <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A275" s="32"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -22146,7 +22152,7 @@
       <c r="G275" s="43"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" ht="18.75" customHeight="1">
+    <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A276" s="32"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -22156,7 +22162,7 @@
       <c r="G276" s="43"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="18.75" customHeight="1">
+    <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A277" s="32"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -22166,7 +22172,7 @@
       <c r="G277" s="43"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" ht="18.75" customHeight="1">
+    <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A278" s="32"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -22176,7 +22182,7 @@
       <c r="G278" s="43"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" ht="18.75" customHeight="1">
+    <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A279" s="32"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -22186,7 +22192,7 @@
       <c r="G279" s="43"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" ht="18.75" customHeight="1">
+    <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -22196,7 +22202,7 @@
       <c r="G280" s="43"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75" customHeight="1">
+    <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -22206,7 +22212,7 @@
       <c r="G281" s="43"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" ht="18.75" customHeight="1">
+    <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -22216,7 +22222,7 @@
       <c r="G282" s="43"/>
       <c r="H282" s="32"/>
     </row>
-    <row r="283" spans="1:8" ht="18.75" customHeight="1">
+    <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A283" s="32"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -22226,7 +22232,7 @@
       <c r="G283" s="43"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" ht="18.75" customHeight="1">
+    <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A284" s="32"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -22236,7 +22242,7 @@
       <c r="G284" s="43"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="18.75" customHeight="1">
+    <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A285" s="32"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -22246,7 +22252,7 @@
       <c r="G285" s="43"/>
       <c r="H285" s="32"/>
     </row>
-    <row r="286" spans="1:8" ht="18.75" customHeight="1">
+    <row r="286" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A286" s="32"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -22269,12 +22275,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051AA2F-ED82-497D-A0D7-BA51300AC6DC}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -22283,7 +22289,7 @@
     <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -22309,7 +22315,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -22337,7 +22343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -22365,7 +22371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -22393,7 +22399,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -22421,7 +22427,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -22449,7 +22455,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -22477,7 +22483,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -22505,7 +22511,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -22533,7 +22539,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -22561,7 +22567,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -22589,7 +22595,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -22617,7 +22623,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -22645,7 +22651,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -22673,7 +22679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -22701,7 +22707,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -22729,7 +22735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -22757,7 +22763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -22785,7 +22791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -22813,7 +22819,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -22841,7 +22847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -22869,7 +22875,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -22897,7 +22903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -22925,7 +22931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -22953,7 +22959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -22981,7 +22987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>299</v>
       </c>
@@ -23009,7 +23015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -23037,7 +23043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -23065,7 +23071,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -23093,7 +23099,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -23121,7 +23127,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>350</v>
       </c>
@@ -23149,7 +23155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>351</v>
       </c>
@@ -23177,7 +23183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>349</v>
       </c>
@@ -23205,7 +23211,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>382</v>
       </c>
@@ -23233,7 +23239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>383</v>
       </c>
@@ -23261,7 +23267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -23289,7 +23295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -23317,7 +23323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -23345,7 +23351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>529</v>
       </c>
@@ -23373,7 +23379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -23401,7 +23407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -23429,7 +23435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -23457,7 +23463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -23485,7 +23491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -23513,7 +23519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -23541,7 +23547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -23569,7 +23575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -23597,7 +23603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -23625,7 +23631,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -23653,7 +23659,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -23681,7 +23687,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -23709,7 +23715,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>449</v>
       </c>
@@ -23737,7 +23743,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>451</v>
       </c>
@@ -23765,7 +23771,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>464</v>
       </c>
@@ -23793,7 +23799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -23821,7 +23827,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>470</v>
       </c>
@@ -23849,7 +23855,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>553</v>
       </c>
@@ -23877,7 +23883,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>471</v>
       </c>
@@ -23905,7 +23911,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>472</v>
       </c>
@@ -23933,7 +23939,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>536</v>
       </c>
@@ -23962,7 +23968,7 @@
       </c>
       <c r="J60" s="69"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>544</v>
       </c>
@@ -23991,7 +23997,7 @@
       </c>
       <c r="J61" s="69"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -24020,7 +24026,7 @@
       </c>
       <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>473</v>
       </c>
@@ -24049,7 +24055,7 @@
       </c>
       <c r="J63" s="69"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>552</v>
       </c>
@@ -24078,7 +24084,7 @@
       </c>
       <c r="J64" s="69"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -24107,7 +24113,7 @@
       </c>
       <c r="J65" s="69"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>551</v>
       </c>
@@ -24136,7 +24142,7 @@
       </c>
       <c r="J66" s="69"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>475</v>
       </c>
@@ -24165,7 +24171,7 @@
       </c>
       <c r="J67" s="69"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -24193,7 +24199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -24221,7 +24227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -24249,7 +24255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -24277,7 +24283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="B72" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24302,7 +24308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="B73" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24327,7 +24333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="B74" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24369,7 +24375,7 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -24380,7 +24386,7 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -24406,7 +24412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>176</v>
       </c>
@@ -24433,7 +24439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>177</v>
       </c>
@@ -24477,7 +24483,7 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -24486,7 +24492,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -24509,7 +24515,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>179</v>
       </c>
@@ -24533,7 +24539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>180</v>
       </c>
@@ -24574,7 +24580,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -24583,7 +24589,7 @@
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -24596,7 +24602,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A59">_xlfn.UNIQUE(_xlfn._xlws.SORT((HearingAids[haModel])))</f>
         <v>Beltone BTE Digital Achieve 17 86DWC</v>
@@ -24609,7 +24615,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <v>Beltone BTE Digital Achieve 6 86DWC</v>
       </c>
@@ -24620,7 +24626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <v>Beltone BTE Digital Achieve 9 86DWC</v>
       </c>
@@ -24631,7 +24637,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
       </c>
@@ -24642,7 +24648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 95DWT</v>
       </c>
@@ -24653,7 +24659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 86DWHT</v>
       </c>
@@ -24661,7 +24667,7 @@
         <v>HearUSA Competitive</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 95DWT</v>
       </c>
@@ -24669,7 +24675,7 @@
         <v>Humana</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 86DWHT</v>
       </c>
@@ -24677,7 +24683,7 @@
         <v>Martins Point Competitive</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 95DWT</v>
       </c>
@@ -24685,7 +24691,7 @@
         <v>Nations Hearing Competitive</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <v>Beltone BTE Digital Rely 2 66DW</v>
       </c>
@@ -24693,7 +24699,7 @@
         <v>Open House Special</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
@@ -24701,7 +24707,7 @@
         <v>Regular</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
@@ -24709,7 +24715,7 @@
         <v>Tri-Care</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
@@ -24717,7 +24723,7 @@
         <v>TruHearing Competitive</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
@@ -24725,7 +24731,7 @@
         <v>Veterans Discount</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
@@ -24733,212 +24739,212 @@
         <v>WellCare Competitive</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <v>Beltone CIC Digital Achieve 17 CIC</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <v>Beltone CIC Digital Achieve 6 CIC</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <v>Beltone CIC Digital Achieve 9 CIC</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <v>Beltone ITC Digital Achieve 17 ITC-DWC</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <v>Beltone ITC Digital Achieve 6 ITC-DWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <v>Beltone ITC Digital Achieve 9 ITC-DWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <v>Beltone ITE Digital Achieve 17 ITE-DWC</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <v>Beltone ITE Digital Achieve 6 ITE-DWC</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <v>Beltone ITE Digital Achieve 9 ITE-DWC</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <v>Beltone RIE Digital Achieve 6 62DRWC</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <v>Beltone RIE Digital Achieve 9 62DRWC</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <v>Beltone RIE Digital Envision 6 62S-DRWC</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <v>Beltone RIE Digital Envision 9 62S-DRWC</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <v>Beltone RIE Digital Rely 2 63DRW</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <v>Beltone RIE Digital Rely 2 64DRW</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <v>Beltone RIE Digital Rely 3 63DRW</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <v>Beltone RIE Digital Rely 3 63DRWC</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <v>Beltone RIE Digital Rely 3 64DRW</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <v>Beltone RIE Digital Rely 4 63DRWC</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <v>Beltone RIE Digital Rely 4 64DRW</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <v>Beltone RIE Digital Serene 6 62SDRWC</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <v>Beltone RIE Digital Serene 9 62SDRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3160" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{314656C6-ACBF-48BC-95AF-878685C4B9B2}"/>
+  <xr:revisionPtr revIDLastSave="3161" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EE5CE4-AC76-44F9-98C8-2E98CF791CFD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="32520" yWindow="825" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2509,37 +2509,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2587,6 +2556,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3326,7 +3326,7 @@
   <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Beltone RIE Digital Envision 4 62S-DRWC"/>
+        <filter val="Beltone RIE Digital Envision 9 62S-DRWC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3761,33 +3761,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="87"/>
+      <c r="B5" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="103"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="90"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="100" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="92"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
@@ -3812,10 +3812,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="104"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3825,27 +3825,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="105" t="str">
+      <c r="B11" s="96" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3858,28 +3858,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="94" t="str" cm="1">
+      <c r="J11" s="85" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-ACH17-62DRWC)</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="87"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="105" t="str">
+      <c r="B12" s="96" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3892,25 +3892,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="105" t="str" cm="1">
+      <c r="B13" s="96" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3923,26 +3923,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="105" t="str" cm="1">
+      <c r="B14" s="96" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3952,26 +3952,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="105" t="str">
+      <c r="B15" s="96" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3981,46 +3981,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="102" t="str" cm="1">
+      <c r="J16" s="93" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-ACH17-62DRWC</v>
       </c>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="104"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="101" t="str" cm="1">
+      <c r="B17" s="92" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4033,11 +4033,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4047,9 +4047,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4061,12 +4061,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="94" t="e" cm="1" vm="1">
+      <c r="L20" s="85" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="95"/>
-      <c r="N20" s="96"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4080,9 +4080,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="99"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4100,9 +4100,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="99"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="90"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4118,9 +4118,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="99"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4139,9 +4139,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4149,9 +4149,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4178,6 +4178,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4192,11 +4197,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4240,10 +4240,10 @@
   <dimension ref="A1:Q314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K147" sqref="J63:K147"/>
+      <selection pane="bottomRight" activeCell="K146" sqref="K146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4568,7 +4568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A7" s="71" t="s">
         <v>576</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
         <v>576</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A91" s="71" t="s">
         <v>576</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3161" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EE5CE4-AC76-44F9-98C8-2E98CF791CFD}"/>
+  <xr:revisionPtr revIDLastSave="3166" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D910AFA-64C7-4F32-9E22-3A419292FFC1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="604">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1878,6 +1878,18 @@
   </si>
   <si>
     <t>Beltone Envision 4 62S-DRWC Digital RIE</t>
+  </si>
+  <si>
+    <t>Beltone Envision 17 62S-DRWC RIE Digital</t>
+  </si>
+  <si>
+    <t>Beltone Envision 9 62S-DRWC RIE Digital</t>
+  </si>
+  <si>
+    <t>Beltone Envision 6 62S-DRWC RIE Digital</t>
+  </si>
+  <si>
+    <t>Beltone Envision 4 62S-DRWC RIE Digital</t>
   </si>
 </sst>
 </file>
@@ -2509,6 +2521,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2556,37 +2599,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3323,13 +3335,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P165" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Beltone RIE Digital Envision 9 62S-DRWC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P165">
     <sortCondition ref="E2:E165"/>
   </sortState>
@@ -3761,33 +3767,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="103"/>
+      <c r="B5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="87"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
@@ -3812,10 +3818,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="88"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3825,27 +3831,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="96" t="str">
+      <c r="B11" s="105" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3858,28 +3864,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="85" t="str" cm="1">
+      <c r="J11" s="94" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-ACH17-62DRWC)</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="87"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="96"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="96" t="str">
+      <c r="B12" s="105" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3892,25 +3898,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="96" t="str" cm="1">
+      <c r="B13" s="105" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3923,26 +3929,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="96" t="str" cm="1">
+      <c r="B14" s="105" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3952,26 +3958,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="96" t="str">
+      <c r="B15" s="105" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3981,46 +3987,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="93" t="str" cm="1">
+      <c r="J16" s="102" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-ACH17-62DRWC</v>
       </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="104"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="92" t="str" cm="1">
+      <c r="B17" s="101" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4033,11 +4039,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4047,9 +4053,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4061,12 +4067,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="85" t="e" cm="1" vm="1">
+      <c r="L20" s="94" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="87"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4080,9 +4086,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4100,9 +4106,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4118,9 +4124,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="90"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4139,9 +4145,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="99"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4149,9 +4155,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4178,11 +4184,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4197,6 +4198,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4240,10 +4246,10 @@
   <dimension ref="A1:Q314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K146" sqref="K146"/>
+      <selection pane="bottomRight" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4318,7 +4324,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4471,7 +4477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4519,7 +4525,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A6" s="71" t="s">
         <v>575</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4713,7 +4719,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4760,7 +4766,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4807,7 +4813,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4854,7 +4860,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4901,7 +4907,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4948,7 +4954,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -4995,7 +5001,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5042,7 +5048,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5089,7 +5095,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5140,7 +5146,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5191,7 +5197,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5242,7 +5248,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5293,7 +5299,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5478,7 +5484,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5525,7 +5531,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5572,7 +5578,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5666,7 +5672,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5713,7 +5719,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5760,7 +5766,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5807,7 +5813,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5854,7 +5860,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5901,7 +5907,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5948,7 +5954,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -5995,7 +6001,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6042,7 +6048,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6089,7 +6095,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6136,7 +6142,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6181,7 +6187,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6228,7 +6234,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6275,7 +6281,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6322,7 +6328,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6367,7 +6373,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6412,7 +6418,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6457,7 +6463,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6508,7 +6514,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6559,7 +6565,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6610,7 +6616,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6655,7 +6661,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6700,7 +6706,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6745,7 +6751,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6790,7 +6796,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6837,7 +6843,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6884,7 +6890,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6931,7 +6937,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6981,7 +6987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
         <v>575</v>
       </c>
@@ -7129,7 +7135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
@@ -7225,7 +7231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
@@ -7267,7 +7273,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7308,7 +7314,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7349,7 +7355,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7399,7 +7405,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7449,7 +7455,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7499,7 +7505,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7547,7 +7553,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7598,7 +7604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7701,7 +7707,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7753,7 +7759,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7805,7 +7811,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7857,7 +7863,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7909,7 +7915,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7961,7 +7967,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -8013,7 +8019,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8065,7 +8071,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8117,7 +8123,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8169,7 +8175,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8221,7 +8227,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8273,7 +8279,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8325,7 +8331,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8377,7 +8383,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8429,7 +8435,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8481,7 +8487,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8533,7 +8539,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8585,7 +8591,7 @@
       </c>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A90" s="71" t="s">
         <v>575</v>
       </c>
@@ -8685,7 +8691,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A92" s="71" t="s">
         <v>577</v>
       </c>
@@ -8735,7 +8741,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8783,7 +8789,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8831,7 +8837,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8879,7 +8885,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8927,7 +8933,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8975,7 +8981,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -9023,7 +9029,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9071,7 +9077,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9119,7 +9125,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9167,7 +9173,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9219,7 +9225,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9271,7 +9277,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9323,7 +9329,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9375,7 +9381,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9423,7 +9429,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9471,7 +9477,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9519,7 +9525,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9613,7 +9619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9660,7 +9666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9707,7 +9713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9754,7 +9760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9801,7 +9807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9848,7 +9854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9942,7 +9948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9989,7 +9995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -10036,7 +10042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10083,7 +10089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10130,7 +10136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10177,7 +10183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10224,7 +10230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10269,7 +10275,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10363,7 +10369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10410,7 +10416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10455,7 +10461,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10500,7 +10506,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10545,7 +10551,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10596,7 +10602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10647,7 +10653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10698,7 +10704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10743,7 +10749,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10788,7 +10794,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10833,7 +10839,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10878,7 +10884,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10925,7 +10931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10972,7 +10978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -11019,7 +11025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11070,7 +11076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11121,7 +11127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11172,12 +11178,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A144" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B144" s="80" t="s">
-        <v>594</v>
+      <c r="B144" s="83" t="s">
+        <v>600</v>
       </c>
       <c r="C144" s="71"/>
       <c r="D144" s="26" t="str">
@@ -11221,12 +11227,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B145" s="80" t="s">
-        <v>595</v>
+      <c r="B145" s="83" t="s">
+        <v>601</v>
       </c>
       <c r="C145" s="71"/>
       <c r="D145" s="26" t="str">
@@ -11274,8 +11280,8 @@
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B146" s="80" t="s">
-        <v>596</v>
+      <c r="B146" s="83" t="s">
+        <v>602</v>
       </c>
       <c r="C146" s="71"/>
       <c r="D146" s="26" t="str">
@@ -11319,12 +11325,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
       <c r="B147" s="83" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C147" s="71"/>
       <c r="D147" s="26" t="str">
@@ -11362,7 +11368,7 @@
       <c r="O147" s="77"/>
       <c r="P147" s="73"/>
     </row>
-    <row r="148" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
@@ -11405,7 +11411,7 @@
       <c r="O148" s="77"/>
       <c r="P148" s="73"/>
     </row>
-    <row r="149" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
@@ -11448,7 +11454,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11499,7 +11505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11550,7 +11556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11601,7 +11607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11648,7 +11654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11699,7 +11705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11750,7 +11756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11801,7 +11807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11848,7 +11854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11899,7 +11905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11950,7 +11956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -12001,7 +12007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12048,7 +12054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12099,7 +12105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12201,7 +12207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3166" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D910AFA-64C7-4F32-9E22-3A419292FFC1}"/>
+  <xr:revisionPtr revIDLastSave="3169" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B3BF62-FDAB-4057-A6A7-86552C43E478}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="602">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1884,12 +1884,6 @@
   </si>
   <si>
     <t>Beltone Envision 9 62S-DRWC RIE Digital</t>
-  </si>
-  <si>
-    <t>Beltone Envision 6 62S-DRWC RIE Digital</t>
-  </si>
-  <si>
-    <t>Beltone Envision 4 62S-DRWC RIE Digital</t>
   </si>
 </sst>
 </file>
@@ -4249,7 +4243,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomRight" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11281,7 +11275,7 @@
         <v>576</v>
       </c>
       <c r="B146" s="83" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C146" s="71"/>
       <c r="D146" s="26" t="str">
@@ -11330,7 +11324,7 @@
         <v>578</v>
       </c>
       <c r="B147" s="83" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C147" s="71"/>
       <c r="D147" s="26" t="str">

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3169" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B3BF62-FDAB-4057-A6A7-86552C43E478}"/>
+  <xr:revisionPtr revIDLastSave="3175" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F17070-4BD3-405D-B839-7B70FC5E42B0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="604">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1884,6 +1884,12 @@
   </si>
   <si>
     <t>Beltone Envision 9 62S-DRWC RIE Digital</t>
+  </si>
+  <si>
+    <t>Beltone Commence 3 62S-DRWC Digital RIE</t>
+  </si>
+  <si>
+    <t>Beltone Commence 2 63S-DRWC Digital RIE</t>
   </si>
 </sst>
 </file>
@@ -2515,37 +2521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2593,6 +2568,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3761,33 +3767,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="87"/>
+      <c r="B5" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="103"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="90"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="100" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="92"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
@@ -3812,10 +3818,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="104"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3825,27 +3831,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="105" t="str">
+      <c r="B11" s="96" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3858,28 +3864,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="94" t="str" cm="1">
+      <c r="J11" s="85" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-ACH17-62DRWC)</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="87"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="105" t="str">
+      <c r="B12" s="96" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3892,25 +3898,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="105" t="str" cm="1">
+      <c r="B13" s="96" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3923,26 +3929,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="105" t="str" cm="1">
+      <c r="B14" s="96" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3952,26 +3958,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="105" t="str">
+      <c r="B15" s="96" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3981,46 +3987,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="102" t="str" cm="1">
+      <c r="J16" s="93" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-ACH17-62DRWC</v>
       </c>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="104"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="101" t="str" cm="1">
+      <c r="B17" s="92" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4033,11 +4039,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4047,9 +4053,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4061,12 +4067,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="94" t="e" cm="1" vm="1">
+      <c r="L20" s="85" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="95"/>
-      <c r="N20" s="96"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4080,9 +4086,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="99"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4100,9 +4106,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="99"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="90"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4118,9 +4124,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="99"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4139,9 +4145,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4149,9 +4155,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4178,6 +4184,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4192,11 +4203,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -11225,8 +11231,8 @@
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B145" s="83" t="s">
-        <v>601</v>
+      <c r="B145" s="80" t="s">
+        <v>596</v>
       </c>
       <c r="C145" s="71"/>
       <c r="D145" s="26" t="str">
@@ -11275,7 +11281,7 @@
         <v>576</v>
       </c>
       <c r="B146" s="83" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C146" s="71"/>
       <c r="D146" s="26" t="str">
@@ -11366,8 +11372,8 @@
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
-      <c r="B148" s="80" t="s">
-        <v>595</v>
+      <c r="B148" s="83" t="s">
+        <v>602</v>
       </c>
       <c r="C148" s="71"/>
       <c r="D148" s="26" t="str">
@@ -11409,8 +11415,8 @@
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
-      <c r="B149" s="80" t="s">
-        <v>596</v>
+      <c r="B149" s="83" t="s">
+        <v>603</v>
       </c>
       <c r="C149" s="71"/>
       <c r="D149" s="26" t="str">

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/achirico_beltonene_com/Documents/Chrome Extension/public-assets-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3175" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F17070-4BD3-405D-B839-7B70FC5E42B0}"/>
+  <xr:revisionPtr revIDLastSave="3177" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9974DB61-F4A6-445B-9E69-B0AC11063800}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="602">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1878,12 +1878,6 @@
   </si>
   <si>
     <t>Beltone Envision 4 62S-DRWC Digital RIE</t>
-  </si>
-  <si>
-    <t>Beltone Envision 17 62S-DRWC RIE Digital</t>
-  </si>
-  <si>
-    <t>Beltone Envision 9 62S-DRWC RIE Digital</t>
   </si>
   <si>
     <t>Beltone Commence 3 62S-DRWC Digital RIE</t>
@@ -3318,8 +3312,8 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
-    <v>9</v>
-    <v>0</v>
+    <v>10</v>
+    <v>12</v>
   </rv>
 </rvData>
 </file>
@@ -4249,7 +4243,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B148" sqref="B148"/>
+      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11183,7 +11177,7 @@
         <v>575</v>
       </c>
       <c r="B144" s="83" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C144" s="71"/>
       <c r="D144" s="26" t="str">
@@ -11281,7 +11275,7 @@
         <v>576</v>
       </c>
       <c r="B146" s="83" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C146" s="71"/>
       <c r="D146" s="26" t="str">
@@ -11373,7 +11367,7 @@
         <v>579</v>
       </c>
       <c r="B148" s="83" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C148" s="71"/>
       <c r="D148" s="26" t="str">
@@ -11416,7 +11410,7 @@
         <v>580</v>
       </c>
       <c r="B149" s="83" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C149" s="71"/>
       <c r="D149" s="26" t="str">

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/achirico_beltonene_com/Documents/Chrome Extension/public-assets-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3177" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9974DB61-F4A6-445B-9E69-B0AC11063800}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28500" yWindow="690" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -3312,8 +3312,8 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
-    <v>10</v>
-    <v>12</v>
+    <v>9</v>
+    <v>0</v>
   </rv>
 </rvData>
 </file>
@@ -4243,7 +4243,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
+      <selection pane="bottomRight" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3177" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9974DB61-F4A6-445B-9E69-B0AC11063800}"/>
+  <xr:revisionPtr revIDLastSave="3182" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264C9757-7175-4634-BE14-4A73EB7E00B5}"/>
   <bookViews>
-    <workbookView xWindow="28500" yWindow="690" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -1880,10 +1880,10 @@
     <t>Beltone Envision 4 62S-DRWC Digital RIE</t>
   </si>
   <si>
-    <t>Beltone Commence 3 62S-DRWC Digital RIE</t>
-  </si>
-  <si>
-    <t>Beltone Commence 2 63S-DRWC Digital RIE</t>
+    <t>Beltone Commence 3 62-DRWC Digital RIE</t>
+  </si>
+  <si>
+    <t>Beltone Commence 2 63-DRW Digital RIE</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2369,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2515,6 +2515,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2563,36 +2594,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3329,7 +3332,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P165" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
+  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Beltone Commence 2 63S-DRWC Digital RIE"/>
+        <filter val="Beltone Commence 3 62S-DRWC Digital RIE"/>
+        <filter val="Beltone Envision 17 62S-DRWC Digital RIE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P165">
     <sortCondition ref="E2:E165"/>
   </sortState>
@@ -3761,33 +3772,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="103"/>
+      <c r="B5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="87"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
@@ -3812,10 +3823,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="88"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3825,27 +3836,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="96" t="str">
+      <c r="B11" s="105" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3858,28 +3869,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="85" t="str" cm="1">
+      <c r="J11" s="94" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-ACH17-62DRWC)</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="87"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="96"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="96" t="str">
+      <c r="B12" s="105" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3892,25 +3903,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="96" t="str" cm="1">
+      <c r="B13" s="105" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3923,26 +3934,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="96" t="str" cm="1">
+      <c r="B14" s="105" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3952,26 +3963,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="96" t="str">
+      <c r="B15" s="105" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3981,46 +3992,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="93" t="str" cm="1">
+      <c r="J16" s="102" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-ACH17-62DRWC</v>
       </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="104"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="92" t="str" cm="1">
+      <c r="B17" s="101" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4033,11 +4044,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4047,9 +4058,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4061,12 +4072,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="85" t="e" cm="1" vm="1">
+      <c r="L20" s="94" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="87"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4080,9 +4091,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4100,9 +4111,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4118,9 +4129,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="90"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4139,9 +4150,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="99"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4149,9 +4160,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4178,11 +4189,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4197,6 +4203,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4240,10 +4251,10 @@
   <dimension ref="A1:Q314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B148" sqref="B148"/>
+      <selection pane="bottomRight" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4318,7 +4329,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4369,7 +4380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4420,7 +4431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4471,7 +4482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4568,7 +4579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A7" s="71" t="s">
         <v>576</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
@@ -4666,7 +4677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4713,7 +4724,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4760,7 +4771,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4807,7 +4818,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4854,7 +4865,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4901,7 +4912,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4948,7 +4959,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -4995,7 +5006,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5042,7 +5053,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5089,7 +5100,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5140,7 +5151,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5191,7 +5202,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5242,7 +5253,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5293,7 +5304,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5339,7 +5350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5385,7 +5396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5431,7 +5442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5478,7 +5489,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5525,7 +5536,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5572,7 +5583,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5619,7 +5630,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5666,7 +5677,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5713,7 +5724,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5760,7 +5771,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5807,7 +5818,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5854,7 +5865,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5901,7 +5912,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5948,7 +5959,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -5995,7 +6006,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6042,7 +6053,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6089,7 +6100,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6136,7 +6147,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6181,7 +6192,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6228,7 +6239,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6275,7 +6286,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6322,7 +6333,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6367,7 +6378,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6412,7 +6423,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6457,7 +6468,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6508,7 +6519,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6559,7 +6570,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6610,7 +6621,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6655,7 +6666,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6700,7 +6711,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6745,7 +6756,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6790,7 +6801,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6837,7 +6848,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6884,7 +6895,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6931,7 +6942,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6981,7 +6992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -7031,7 +7042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7129,7 +7140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
@@ -7177,7 +7188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
         <v>576</v>
       </c>
@@ -7225,7 +7236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
@@ -7267,7 +7278,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7308,7 +7319,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7349,7 +7360,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7399,7 +7410,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7449,7 +7460,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7499,7 +7510,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7547,7 +7558,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7598,7 +7609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7649,7 +7660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7701,7 +7712,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7753,7 +7764,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7805,7 +7816,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7857,7 +7868,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7909,7 +7920,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7961,7 +7972,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -8013,7 +8024,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8065,7 +8076,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8117,7 +8128,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8169,7 +8180,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8221,7 +8232,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8273,7 +8284,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8325,7 +8336,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8377,7 +8388,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8429,7 +8440,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8481,7 +8492,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8533,7 +8544,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8635,7 +8646,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A91" s="71" t="s">
         <v>576</v>
       </c>
@@ -8685,7 +8696,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A92" s="71" t="s">
         <v>577</v>
       </c>
@@ -8735,7 +8746,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8783,7 +8794,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8831,7 +8842,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8879,7 +8890,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8927,7 +8938,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8975,7 +8986,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -9023,7 +9034,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9071,7 +9082,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9119,7 +9130,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9167,7 +9178,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9219,7 +9230,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9271,7 +9282,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9323,7 +9334,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9375,7 +9386,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9423,7 +9434,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9471,7 +9482,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9519,7 +9530,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9566,7 +9577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9613,7 +9624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9660,7 +9671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9707,7 +9718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9754,7 +9765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9801,7 +9812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9848,7 +9859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9895,7 +9906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9942,7 +9953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9989,7 +10000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -10036,7 +10047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10083,7 +10094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10130,7 +10141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10177,7 +10188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10224,7 +10235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10269,7 +10280,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10316,7 +10327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10363,7 +10374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10410,7 +10421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10455,7 +10466,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10500,7 +10511,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10545,7 +10556,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10596,7 +10607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10647,7 +10658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10698,7 +10709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10743,7 +10754,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10788,7 +10799,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10833,7 +10844,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10878,7 +10889,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10925,7 +10936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10972,7 +10983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -11019,7 +11030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11070,7 +11081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11121,7 +11132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11184,7 +11195,7 @@
         <f t="shared" si="8"/>
         <v>()</v>
       </c>
-      <c r="E144" s="72" t="s">
+      <c r="E144" s="109" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="73">
@@ -11221,7 +11232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
@@ -11270,7 +11281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
@@ -11319,7 +11330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
@@ -11448,7 +11459,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11499,7 +11510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11550,7 +11561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11601,7 +11612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11648,7 +11659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11699,7 +11710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11750,7 +11761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11801,7 +11812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11848,7 +11859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11899,7 +11910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11950,7 +11961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -12001,7 +12012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12048,7 +12059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12099,7 +12110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12150,7 +12161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12201,7 +12212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3264" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D79CF15B-5702-4837-805F-B60401C91B70}"/>
+  <xr:revisionPtr revIDLastSave="3280" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718C460B-C6D9-4226-9AEE-DC00303CBD63}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="608">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1884,6 +1884,9 @@
   </si>
   <si>
     <t>Beltone Rely 4 95DW Digital BTE</t>
+  </si>
+  <si>
+    <t>Volume Discount</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1896,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2369,7 +2372,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2518,6 +2521,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2566,37 +2600,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3273,15 +3290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P135" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P135" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Nations Hearing Competitive"/>
-        <filter val="Regular"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P177" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:P177" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P131">
     <sortCondition ref="B1:B135"/>
   </sortState>
@@ -3700,46 +3710,46 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.4"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="104"/>
+    <row r="4" spans="1:20" ht="12" thickBot="1"/>
+    <row r="5" spans="1:20" ht="13.8" thickBot="1">
+      <c r="B5" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="88"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="82" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="101" t="s">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B6" s="85" t="s">
         <v>424</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="109"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="81" t="s">
         <v>574</v>
       </c>
@@ -3751,7 +3761,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -3763,11 +3773,11 @@
       <c r="G9" s="19"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105" t="s">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1">
+      <c r="B10" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="105"/>
+      <c r="C10" s="89"/>
       <c r="E10" s="12" t="s">
         <v>431</v>
       </c>
@@ -3777,27 +3787,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="97" t="str">
+      <c r="B11" s="106" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="50" t="e" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>#N/A</v>
@@ -3810,28 +3820,28 @@
         <f>E11-F11</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="86" t="e" cm="1">
+      <c r="J11" s="95" t="e" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>#N/A</v>
       </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="97" t="str">
+      <c r="B12" s="106" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="64" t="e" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>#N/A</v>
@@ -3844,25 +3854,25 @@
         <f>E12-F12</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+    </row>
+    <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="97" t="e" cm="1">
+      <c r="B13" s="106" t="e" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>#N/A</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="13" t="e" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>#N/A</v>
@@ -3875,26 +3885,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="97" t="e" cm="1">
+      <c r="B14" s="106" t="e" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="e" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3904,26 +3914,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="97" t="e">
+      <c r="B15" s="106" t="e">
         <f>IF($D$6=1,"",B14)</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="e" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3933,46 +3943,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-    </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="s">
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="B16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13" t="e">
         <f>SUM(G11:G15)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="94" t="e" cm="1">
+      <c r="J16" s="103" t="e" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-    </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="93" t="e" cm="1">
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
+    </row>
+    <row r="17" spans="2:19" ht="18" customHeight="1">
+      <c r="B17" s="102" t="e" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" t="e" cm="1">
@@ -3984,12 +3994,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="s">
+    <row r="18" spans="2:19" ht="18" customHeight="1">
+      <c r="B18" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14" t="e">
@@ -3998,50 +4008,50 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
+    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="86" t="e" cm="1">
+      <c r="L20" s="95" t="e" cm="1">
         <f t="array" ref="L20">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="87"/>
-      <c r="N20" s="88"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="54"/>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="91"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
+    <row r="22" spans="2:19" ht="18" customHeight="1">
       <c r="F22" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter deductible amount not met ---&gt;","")</f>
         <v/>
@@ -4052,16 +4062,16 @@
       <c r="H22" t="s">
         <v>432</v>
       </c>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="100"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
+    <row r="23" spans="2:19" ht="18" customHeight="1">
       <c r="F23" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter Coinsurance % ---&gt;","")</f>
         <v/>
@@ -4070,16 +4080,16 @@
       <c r="H23" t="s">
         <v>432</v>
       </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="47"/>
@@ -4091,19 +4101,19 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="98"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="100"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4114,7 +4124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="47"/>
@@ -4130,11 +4140,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4149,6 +4154,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4189,37 +4199,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
-  <dimension ref="A1:Q284"/>
+  <dimension ref="A1:Q282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:E1048576"/>
+      <selection pane="bottomRight" activeCell="E137" sqref="E137:E177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="12" width="23.875" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -4270,7 +4280,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="13.2">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -4318,7 +4328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="13.2">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -4368,7 +4378,7 @@
       </c>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="13.2">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -4417,7 +4427,7 @@
       </c>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="13.2">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
@@ -4467,7 +4477,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="13.2">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -4516,7 +4526,7 @@
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="13.2">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -4566,7 +4576,7 @@
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="13.2">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -4615,7 +4625,7 @@
       </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="13.2">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4665,7 +4675,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="13.2">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -4714,7 +4724,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="13.2">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -4764,7 +4774,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="13.2">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -4813,7 +4823,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="13.2">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -4863,7 +4873,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="13.2">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4912,7 +4922,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="13.2">
       <c r="A15" s="71" t="s">
         <v>559</v>
       </c>
@@ -4956,7 +4966,7 @@
       <c r="P15" s="73"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="13.2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="13.2">
       <c r="A17" s="71" t="s">
         <v>558</v>
       </c>
@@ -5047,7 +5057,7 @@
       <c r="O17" s="77"/>
       <c r="P17" s="73"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="13.2">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -5095,7 +5105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="13.2">
       <c r="A19" s="71" t="s">
         <v>554</v>
       </c>
@@ -5145,7 +5155,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="13.2">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -5194,7 +5204,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="13.2">
       <c r="A21" s="71" t="s">
         <v>557</v>
       </c>
@@ -5238,7 +5248,7 @@
       <c r="P21" s="73"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="13.2">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -5287,7 +5297,7 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="13.2">
       <c r="A23" s="71" t="s">
         <v>556</v>
       </c>
@@ -5337,7 +5347,7 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="13.2">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -5386,7 +5396,7 @@
       </c>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="13.2">
       <c r="A25" s="71" t="s">
         <v>555</v>
       </c>
@@ -5436,7 +5446,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="13.2">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5485,7 +5495,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="13.2">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -5537,7 +5547,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="13.2">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5586,7 +5596,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="13.2">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -5636,7 +5646,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="13.2">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -5685,7 +5695,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="13.2">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -5735,7 +5745,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="13.2">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -5784,7 +5794,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="13.2">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -5834,7 +5844,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="13.2">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5883,7 +5893,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="13.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -5933,7 +5943,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="13.2">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -5982,7 +5992,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="13.2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -6032,7 +6042,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="13.2">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -6079,7 +6089,7 @@
       <c r="P38" s="2"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="13.2">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -6127,7 +6137,7 @@
       <c r="P39" s="2"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="13.2">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -6174,7 +6184,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="13.2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -6222,7 +6232,7 @@
       <c r="P41" s="2"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="13.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -6268,7 +6278,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="13.2">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -6320,7 +6330,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="13.2">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -6367,7 +6377,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="13.2">
       <c r="A45" s="4" t="s">
         <v>421</v>
       </c>
@@ -6419,7 +6429,7 @@
       </c>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="13.2">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -6466,7 +6476,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="13.2">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
@@ -6516,7 +6526,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="13.2">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -6563,7 +6573,7 @@
       <c r="P48" s="2"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="13.2">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
@@ -6613,7 +6623,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="13.2">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -6660,7 +6670,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="13.2">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -6710,7 +6720,7 @@
       </c>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="13.2">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
@@ -6757,7 +6767,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="13.2">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -6807,7 +6817,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="13.2">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
@@ -6857,7 +6867,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="13.2">
       <c r="A55" s="71" t="s">
         <v>559</v>
       </c>
@@ -6900,7 +6910,7 @@
       <c r="P55" s="73"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="13.2">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
@@ -6948,7 +6958,7 @@
       <c r="P56" s="2"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="13.2">
       <c r="A57" s="71" t="s">
         <v>558</v>
       </c>
@@ -7000,7 +7010,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="13.2">
       <c r="A58" s="71" t="s">
         <v>558</v>
       </c>
@@ -7052,7 +7062,7 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="13.2">
       <c r="A59" s="71" t="s">
         <v>558</v>
       </c>
@@ -7104,7 +7114,7 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="13.2">
       <c r="A60" s="71" t="s">
         <v>558</v>
       </c>
@@ -7156,7 +7166,7 @@
       </c>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="13.2">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
@@ -7204,7 +7214,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="13.2">
       <c r="A62" s="71" t="s">
         <v>558</v>
       </c>
@@ -7254,7 +7264,7 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="13.2">
       <c r="A63" s="71" t="s">
         <v>558</v>
       </c>
@@ -7297,7 +7307,7 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="13.2">
       <c r="A64" s="71" t="s">
         <v>558</v>
       </c>
@@ -7347,7 +7357,7 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="13.2">
       <c r="A65" s="71" t="s">
         <v>558</v>
       </c>
@@ -7397,7 +7407,7 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="13.2">
       <c r="A66" s="71" t="s">
         <v>558</v>
       </c>
@@ -7447,7 +7457,7 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="13.2">
       <c r="A67" s="71" t="s">
         <v>558</v>
       </c>
@@ -7497,7 +7507,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="13.2">
       <c r="A68" s="71" t="s">
         <v>558</v>
       </c>
@@ -7547,7 +7557,7 @@
       </c>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="13.2">
       <c r="A69" s="71" t="s">
         <v>554</v>
       </c>
@@ -7597,7 +7607,7 @@
       </c>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="13.2">
       <c r="A70" s="71" t="s">
         <v>554</v>
       </c>
@@ -7646,7 +7656,7 @@
       </c>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="13.2">
       <c r="A71" s="71" t="s">
         <v>554</v>
       </c>
@@ -7696,7 +7706,7 @@
       </c>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="13.2">
       <c r="A72" s="4" t="s">
         <v>48</v>
       </c>
@@ -7744,7 +7754,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="13.2">
       <c r="A73" s="71" t="s">
         <v>557</v>
       </c>
@@ -7787,7 +7797,7 @@
       <c r="P73" s="73"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="13.2">
       <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
@@ -7839,7 +7849,7 @@
       </c>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="13.2">
       <c r="A75" s="71" t="s">
         <v>556</v>
       </c>
@@ -7889,7 +7899,7 @@
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="13.2">
       <c r="A76" s="71" t="s">
         <v>556</v>
       </c>
@@ -7939,7 +7949,7 @@
       </c>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="13.2">
       <c r="A77" s="4" t="s">
         <v>34</v>
       </c>
@@ -7989,7 +7999,7 @@
       </c>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="13.2">
       <c r="A78" s="71" t="s">
         <v>556</v>
       </c>
@@ -8038,7 +8048,7 @@
       </c>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="13.2">
       <c r="A79" s="71" t="s">
         <v>555</v>
       </c>
@@ -8087,7 +8097,7 @@
       </c>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="13.2">
       <c r="A80" s="71" t="s">
         <v>555</v>
       </c>
@@ -8137,7 +8147,7 @@
       </c>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="13.2">
       <c r="A81" s="71" t="s">
         <v>555</v>
       </c>
@@ -8187,7 +8197,7 @@
       </c>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="13.2">
       <c r="A82" s="4" t="s">
         <v>22</v>
       </c>
@@ -8236,7 +8246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="13.2">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -8286,7 +8296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="13.2">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
@@ -8335,7 +8345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="13.2">
       <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
@@ -8383,7 +8393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="13.2">
       <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
@@ -8432,7 +8442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="13.2">
       <c r="A87" s="4" t="s">
         <v>51</v>
       </c>
@@ -8482,7 +8492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="13.2">
       <c r="A88" s="4" t="s">
         <v>28</v>
       </c>
@@ -8531,7 +8541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="13.2">
       <c r="A89" s="4" t="s">
         <v>421</v>
       </c>
@@ -8581,7 +8591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="13.2">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -8628,7 +8638,7 @@
       </c>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="13.2">
       <c r="A91" s="4" t="s">
         <v>52</v>
       </c>
@@ -8676,7 +8686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="13.2">
       <c r="A92" s="4" t="s">
         <v>30</v>
       </c>
@@ -8723,7 +8733,7 @@
       </c>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="13.2">
       <c r="A93" s="4" t="s">
         <v>32</v>
       </c>
@@ -8773,7 +8783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="13.2">
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
@@ -8820,7 +8830,7 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="13.2">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
@@ -8868,7 +8878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="13.2">
       <c r="A96" s="71" t="s">
         <v>558</v>
       </c>
@@ -8919,7 +8929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:16" ht="13.2">
       <c r="A97" s="4" t="s">
         <v>433</v>
       </c>
@@ -8970,7 +8980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:16" ht="13.2">
       <c r="A98" s="4" t="s">
         <v>433</v>
       </c>
@@ -9020,7 +9030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:16" ht="13.2">
       <c r="A99" s="4" t="s">
         <v>433</v>
       </c>
@@ -9069,7 +9079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:16" ht="13.2">
       <c r="A100" s="4" t="s">
         <v>433</v>
       </c>
@@ -9120,7 +9130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:16" ht="13.2">
       <c r="A101" s="4" t="s">
         <v>433</v>
       </c>
@@ -9171,7 +9181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:16" ht="13.2">
       <c r="A102" s="4" t="s">
         <v>433</v>
       </c>
@@ -9222,7 +9232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:16" ht="13.2">
       <c r="A103" s="4" t="s">
         <v>433</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:16" ht="13.2">
       <c r="A104" s="4" t="s">
         <v>433</v>
       </c>
@@ -9324,7 +9334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:16" ht="13.2">
       <c r="A105" s="4" t="s">
         <v>433</v>
       </c>
@@ -9375,7 +9385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:16" ht="13.2">
       <c r="A106" s="4" t="s">
         <v>433</v>
       </c>
@@ -9426,7 +9436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:16" ht="13.2">
       <c r="A107" s="4" t="s">
         <v>433</v>
       </c>
@@ -9477,7 +9487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:16" ht="13.2">
       <c r="A108" s="4" t="s">
         <v>433</v>
       </c>
@@ -9528,7 +9538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:16" ht="13.2">
       <c r="A109" s="4" t="s">
         <v>433</v>
       </c>
@@ -9579,7 +9589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:16" ht="13.2">
       <c r="A110" s="4" t="s">
         <v>434</v>
       </c>
@@ -9630,7 +9640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:16" ht="13.2">
       <c r="A111" s="4" t="s">
         <v>434</v>
       </c>
@@ -9680,7 +9690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:16" ht="13.2">
       <c r="A112" s="4" t="s">
         <v>434</v>
       </c>
@@ -9729,7 +9739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="13.2">
       <c r="A113" s="4" t="s">
         <v>434</v>
       </c>
@@ -9780,7 +9790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="13.2">
       <c r="A114" s="4" t="s">
         <v>434</v>
       </c>
@@ -9831,7 +9841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="13.2">
       <c r="A115" s="4" t="s">
         <v>434</v>
       </c>
@@ -9882,7 +9892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="13.2">
       <c r="A116" s="4" t="s">
         <v>434</v>
       </c>
@@ -9933,7 +9943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="13.2">
       <c r="A117" s="4" t="s">
         <v>434</v>
       </c>
@@ -9984,7 +9994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="13.2">
       <c r="A118" s="4" t="s">
         <v>434</v>
       </c>
@@ -10035,7 +10045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="13.2">
       <c r="A119" s="4" t="s">
         <v>434</v>
       </c>
@@ -10086,7 +10096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="13.2">
       <c r="A120" s="4" t="s">
         <v>434</v>
       </c>
@@ -10137,7 +10147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="13.2">
       <c r="A121" s="4" t="s">
         <v>434</v>
       </c>
@@ -10188,7 +10198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="13.2">
       <c r="A122" s="4" t="s">
         <v>434</v>
       </c>
@@ -10239,7 +10249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="13.2">
       <c r="A123" s="4" t="s">
         <v>435</v>
       </c>
@@ -10290,7 +10300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="13.2">
       <c r="A124" s="4" t="s">
         <v>435</v>
       </c>
@@ -10340,7 +10350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="13.2">
       <c r="A125" s="4" t="s">
         <v>435</v>
       </c>
@@ -10389,7 +10399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="13.2">
       <c r="A126" s="4" t="s">
         <v>435</v>
       </c>
@@ -10440,7 +10450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="13.2">
       <c r="A127" s="4" t="s">
         <v>435</v>
       </c>
@@ -10491,7 +10501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="13.2">
       <c r="A128" s="4" t="s">
         <v>435</v>
       </c>
@@ -10542,7 +10552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:17" ht="13.2">
       <c r="A129" s="4" t="s">
         <v>435</v>
       </c>
@@ -10593,7 +10603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="13.2">
       <c r="A130" s="4" t="s">
         <v>435</v>
       </c>
@@ -10644,7 +10654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:17" ht="13.2">
       <c r="A131" s="4" t="s">
         <v>435</v>
       </c>
@@ -10671,11 +10681,11 @@
         <v>250</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" ref="I131:I162" si="15">F131-J131</f>
+        <f t="shared" ref="I131" si="15">F131-J131</f>
         <v>479</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" ref="J131:J162" si="16">(K131-H131-O131)/2</f>
+        <f t="shared" ref="J131" si="16">(K131-H131-O131)/2</f>
         <v>4200</v>
       </c>
       <c r="K131" s="2">
@@ -10695,7 +10705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:17" ht="13.2">
       <c r="A132" s="4" t="s">
         <v>435</v>
       </c>
@@ -10746,7 +10756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:17" ht="13.2">
       <c r="A133" s="4" t="s">
         <v>435</v>
       </c>
@@ -10797,7 +10807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:17" ht="13.2">
       <c r="A134" s="4" t="s">
         <v>435</v>
       </c>
@@ -10848,7 +10858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:17" ht="13.2">
       <c r="A135" s="4" t="s">
         <v>435</v>
       </c>
@@ -10899,763 +10909,1950 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="28"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="9"/>
-    </row>
-    <row r="137" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="28"/>
-      <c r="N137" s="16"/>
-      <c r="O137" s="16"/>
-      <c r="P137" s="2"/>
-    </row>
-    <row r="138" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="28"/>
-      <c r="N138" s="16"/>
-      <c r="O138" s="16"/>
-      <c r="P138" s="2"/>
-    </row>
-    <row r="139" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="28"/>
-      <c r="N139" s="16"/>
-      <c r="O139" s="16"/>
-      <c r="P139" s="9"/>
-    </row>
-    <row r="140" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="28"/>
-      <c r="N140" s="16"/>
-      <c r="O140" s="16"/>
-      <c r="P140" s="9"/>
-    </row>
-    <row r="141" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="28"/>
-      <c r="N141" s="16"/>
-      <c r="O141" s="16"/>
-      <c r="P141" s="2"/>
-    </row>
-    <row r="142" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="28"/>
-      <c r="N142" s="16"/>
-      <c r="O142" s="16"/>
-      <c r="P142" s="2"/>
-    </row>
-    <row r="143" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="28"/>
-      <c r="N143" s="16"/>
-      <c r="O143" s="16"/>
-      <c r="P143" s="2"/>
-    </row>
-    <row r="144" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="28"/>
-      <c r="N144" s="16"/>
-      <c r="O144" s="16"/>
-      <c r="P144" s="2"/>
-    </row>
-    <row r="145" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="28"/>
-      <c r="N145" s="16"/>
-      <c r="O145" s="16"/>
-      <c r="P145" s="2"/>
-    </row>
-    <row r="146" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="28"/>
-      <c r="N146" s="16"/>
-      <c r="O146" s="16"/>
-      <c r="P146" s="2"/>
-    </row>
-    <row r="147" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="28"/>
-      <c r="N147" s="36"/>
-      <c r="O147" s="16"/>
-      <c r="P147" s="9"/>
-    </row>
-    <row r="148" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="28"/>
-      <c r="N148" s="36"/>
-      <c r="O148" s="16"/>
-      <c r="P148" s="9"/>
-    </row>
-    <row r="149" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="28"/>
-      <c r="N149" s="36"/>
-      <c r="O149" s="16"/>
-      <c r="P149" s="9"/>
-    </row>
-    <row r="150" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="28"/>
-      <c r="N150" s="16"/>
-      <c r="O150" s="16"/>
-      <c r="P150" s="9"/>
-    </row>
-    <row r="151" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="28"/>
-      <c r="N151" s="16"/>
-      <c r="O151" s="16"/>
-      <c r="P151" s="9"/>
-    </row>
-    <row r="152" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="28"/>
-      <c r="N152" s="16"/>
-      <c r="O152" s="16"/>
-      <c r="P152" s="9"/>
-    </row>
-    <row r="153" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="28"/>
-      <c r="N153" s="16"/>
-      <c r="O153" s="16"/>
-      <c r="P153" s="9"/>
-    </row>
-    <row r="154" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="55"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="28"/>
-      <c r="N154" s="17"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="20"/>
-    </row>
-    <row r="155" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="55"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="28"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="20"/>
-    </row>
-    <row r="156" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="28"/>
-      <c r="N156" s="17"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="20"/>
-    </row>
-    <row r="157" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="28"/>
-      <c r="N157" s="16"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="20"/>
-    </row>
-    <row r="158" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="28"/>
-      <c r="N158" s="16"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="20"/>
-    </row>
-    <row r="159" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="38"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="28"/>
-      <c r="N159" s="16"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="20"/>
-    </row>
-    <row r="160" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="28"/>
-      <c r="N160" s="16"/>
-      <c r="O160" s="16"/>
-      <c r="P160" s="9"/>
-    </row>
-    <row r="161" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="28"/>
-      <c r="N161" s="16"/>
-      <c r="O161" s="16"/>
-      <c r="P161" s="9"/>
-    </row>
-    <row r="162" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="28"/>
-      <c r="N162" s="16"/>
-      <c r="O162" s="16"/>
-      <c r="P162" s="9"/>
-    </row>
-    <row r="163" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="28"/>
-      <c r="N163" s="16"/>
-      <c r="O163" s="16"/>
-      <c r="P163" s="9"/>
-    </row>
-    <row r="164" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="28"/>
-      <c r="N164" s="16"/>
-      <c r="O164" s="16"/>
-      <c r="P164" s="9"/>
-    </row>
-    <row r="165" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="28"/>
-      <c r="N165" s="16"/>
-      <c r="O165" s="16"/>
-      <c r="P165" s="9"/>
-    </row>
-    <row r="166" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="28"/>
-      <c r="N166" s="16"/>
-      <c r="O166" s="16"/>
-      <c r="P166" s="2"/>
-    </row>
-    <row r="167" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="16"/>
-      <c r="O167" s="16"/>
-      <c r="P167" s="2"/>
-    </row>
-    <row r="168" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="28"/>
-      <c r="N168" s="16"/>
-      <c r="O168" s="16"/>
-      <c r="P168" s="9"/>
-    </row>
-    <row r="169" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="28"/>
-      <c r="N169" s="16"/>
-      <c r="O169" s="16"/>
-      <c r="P169" s="9"/>
-    </row>
-    <row r="170" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="28"/>
-      <c r="N170" s="16"/>
-      <c r="O170" s="16"/>
-      <c r="P170" s="2"/>
-    </row>
-    <row r="171" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="28"/>
-      <c r="N171" s="16"/>
-      <c r="O171" s="16"/>
-      <c r="P171" s="2"/>
-    </row>
-    <row r="172" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="28"/>
-      <c r="N172" s="16"/>
-      <c r="O172" s="16"/>
-      <c r="P172" s="9"/>
-    </row>
-    <row r="173" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="28"/>
-      <c r="N173" s="16"/>
-      <c r="O173" s="16"/>
-      <c r="P173" s="9"/>
-    </row>
-    <row r="174" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="28"/>
-      <c r="N174" s="16"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="20"/>
-    </row>
-    <row r="175" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="28"/>
-      <c r="N175" s="16"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="20"/>
-    </row>
-    <row r="176" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="28"/>
-      <c r="N176" s="16"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="20"/>
-    </row>
-    <row r="177" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="28"/>
-      <c r="N177" s="16"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="2"/>
-    </row>
-    <row r="178" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:17" ht="13.2">
+      <c r="A136" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136" s="111" t="s">
+        <v>589</v>
+      </c>
+      <c r="C136" s="83"/>
+      <c r="D136" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E136" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F136" s="114">
+        <v>5819</v>
+      </c>
+      <c r="G136" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="115">
+        <v>0</v>
+      </c>
+      <c r="I136" s="115">
+        <v>894</v>
+      </c>
+      <c r="J136" s="115">
+        <v>4925</v>
+      </c>
+      <c r="K136" s="115">
+        <v>9850</v>
+      </c>
+      <c r="L136" s="115"/>
+      <c r="M136" s="116">
+        <v>1</v>
+      </c>
+      <c r="N136" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O136" s="118">
+        <v>0</v>
+      </c>
+      <c r="P136" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q136"/>
+    </row>
+    <row r="137" spans="1:17" ht="13.2">
+      <c r="A137" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" s="111" t="s">
+        <v>601</v>
+      </c>
+      <c r="C137" s="83"/>
+      <c r="D137" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E137" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F137" s="114">
+        <v>5819</v>
+      </c>
+      <c r="G137" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H137" s="115">
+        <v>0</v>
+      </c>
+      <c r="I137" s="115">
+        <v>894</v>
+      </c>
+      <c r="J137" s="115">
+        <v>4925</v>
+      </c>
+      <c r="K137" s="115">
+        <v>9850</v>
+      </c>
+      <c r="L137" s="115"/>
+      <c r="M137" s="116">
+        <v>1</v>
+      </c>
+      <c r="N137" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O137" s="118">
+        <v>0</v>
+      </c>
+      <c r="P137" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q137"/>
+    </row>
+    <row r="138" spans="1:17" ht="13.2">
+      <c r="A138" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="C138" s="83"/>
+      <c r="D138" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E138" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F138" s="114">
+        <v>3689</v>
+      </c>
+      <c r="G138" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H138" s="115">
+        <v>0</v>
+      </c>
+      <c r="I138" s="115">
+        <v>94</v>
+      </c>
+      <c r="J138" s="115">
+        <v>3595</v>
+      </c>
+      <c r="K138" s="115">
+        <v>7190</v>
+      </c>
+      <c r="L138" s="115"/>
+      <c r="M138" s="116">
+        <v>1</v>
+      </c>
+      <c r="N138" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O138" s="118">
+        <v>0</v>
+      </c>
+      <c r="P138" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q138"/>
+    </row>
+    <row r="139" spans="1:17" ht="13.2">
+      <c r="A139" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B139" s="111" t="s">
+        <v>603</v>
+      </c>
+      <c r="C139" s="83"/>
+      <c r="D139" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E139" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F139" s="114">
+        <v>3689</v>
+      </c>
+      <c r="G139" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" s="115">
+        <v>0</v>
+      </c>
+      <c r="I139" s="115">
+        <v>94</v>
+      </c>
+      <c r="J139" s="115">
+        <v>3595</v>
+      </c>
+      <c r="K139" s="115">
+        <v>7190</v>
+      </c>
+      <c r="L139" s="115"/>
+      <c r="M139" s="116">
+        <v>1</v>
+      </c>
+      <c r="N139" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O139" s="118">
+        <v>0</v>
+      </c>
+      <c r="P139" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q139"/>
+    </row>
+    <row r="140" spans="1:17" ht="13.2">
+      <c r="A140" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" s="111" t="s">
+        <v>604</v>
+      </c>
+      <c r="C140" s="83"/>
+      <c r="D140" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E140" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F140" s="114">
+        <v>4679</v>
+      </c>
+      <c r="G140" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" s="115">
+        <v>0</v>
+      </c>
+      <c r="I140" s="115">
+        <v>354</v>
+      </c>
+      <c r="J140" s="115">
+        <v>4325</v>
+      </c>
+      <c r="K140" s="115">
+        <v>8650</v>
+      </c>
+      <c r="L140" s="115"/>
+      <c r="M140" s="116">
+        <v>1</v>
+      </c>
+      <c r="N140" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O140" s="118">
+        <v>0</v>
+      </c>
+      <c r="P140" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q140"/>
+    </row>
+    <row r="141" spans="1:17" ht="13.2">
+      <c r="A141" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B141" s="111" t="s">
+        <v>605</v>
+      </c>
+      <c r="C141" s="83"/>
+      <c r="D141" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E141" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F141" s="114">
+        <v>4679</v>
+      </c>
+      <c r="G141" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" s="115">
+        <v>0</v>
+      </c>
+      <c r="I141" s="115">
+        <v>354</v>
+      </c>
+      <c r="J141" s="115">
+        <v>4325</v>
+      </c>
+      <c r="K141" s="115">
+        <v>8650</v>
+      </c>
+      <c r="L141" s="115"/>
+      <c r="M141" s="116">
+        <v>1</v>
+      </c>
+      <c r="N141" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O141" s="118">
+        <v>0</v>
+      </c>
+      <c r="P141" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q141"/>
+    </row>
+    <row r="142" spans="1:17" ht="13.2">
+      <c r="A142" s="110" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" s="111" t="s">
+        <v>577</v>
+      </c>
+      <c r="C142" s="83"/>
+      <c r="D142" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E142" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F142" s="114">
+        <v>1859</v>
+      </c>
+      <c r="G142" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" s="115">
+        <v>0</v>
+      </c>
+      <c r="I142" s="115">
+        <v>309</v>
+      </c>
+      <c r="J142" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K142" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L142" s="115"/>
+      <c r="M142" s="116">
+        <v>1</v>
+      </c>
+      <c r="N142" s="118"/>
+      <c r="O142" s="118"/>
+      <c r="P142" s="114"/>
+      <c r="Q142"/>
+    </row>
+    <row r="143" spans="1:17" ht="13.2">
+      <c r="A143" s="110" t="s">
+        <v>558</v>
+      </c>
+      <c r="B143" s="111" t="s">
+        <v>576</v>
+      </c>
+      <c r="C143" s="83"/>
+      <c r="D143" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E143" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F143" s="114">
+        <v>2339</v>
+      </c>
+      <c r="G143" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="115">
+        <v>200</v>
+      </c>
+      <c r="I143" s="115">
+        <v>689</v>
+      </c>
+      <c r="J143" s="115">
+        <v>1650</v>
+      </c>
+      <c r="K143" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L143" s="115"/>
+      <c r="M143" s="116">
+        <v>1</v>
+      </c>
+      <c r="N143" s="118"/>
+      <c r="O143" s="118"/>
+      <c r="P143" s="114"/>
+    </row>
+    <row r="144" spans="1:17" ht="13.2">
+      <c r="A144" s="110" t="s">
+        <v>554</v>
+      </c>
+      <c r="B144" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="C144" s="83"/>
+      <c r="D144" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E144" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F144" s="114">
+        <v>5819</v>
+      </c>
+      <c r="G144" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" s="115">
+        <v>250</v>
+      </c>
+      <c r="I144" s="115">
+        <v>1019</v>
+      </c>
+      <c r="J144" s="115">
+        <v>4800</v>
+      </c>
+      <c r="K144" s="115">
+        <v>9850</v>
+      </c>
+      <c r="L144" s="115"/>
+      <c r="M144" s="116">
+        <v>1</v>
+      </c>
+      <c r="N144" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="O144" s="118">
+        <v>0</v>
+      </c>
+      <c r="P144" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q144"/>
+    </row>
+    <row r="145" spans="1:17" ht="13.2">
+      <c r="A145" s="110" t="s">
+        <v>557</v>
+      </c>
+      <c r="B145" s="111" t="s">
+        <v>575</v>
+      </c>
+      <c r="C145" s="83"/>
+      <c r="D145" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E145" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F145" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G145" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="115">
+        <v>200</v>
+      </c>
+      <c r="I145" s="115">
+        <v>804</v>
+      </c>
+      <c r="J145" s="115">
+        <v>2225</v>
+      </c>
+      <c r="K145" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L145" s="115"/>
+      <c r="M145" s="116">
+        <v>1</v>
+      </c>
+      <c r="N145" s="118"/>
+      <c r="O145" s="118"/>
+      <c r="P145" s="114"/>
+      <c r="Q145"/>
+    </row>
+    <row r="146" spans="1:17" ht="13.2">
+      <c r="A146" s="110" t="s">
+        <v>556</v>
+      </c>
+      <c r="B146" s="111" t="s">
+        <v>572</v>
+      </c>
+      <c r="C146" s="83"/>
+      <c r="D146" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E146" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F146" s="114">
+        <v>3689</v>
+      </c>
+      <c r="G146" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" s="115">
+        <v>250</v>
+      </c>
+      <c r="I146" s="115">
+        <v>219</v>
+      </c>
+      <c r="J146" s="115">
+        <v>3470</v>
+      </c>
+      <c r="K146" s="115">
+        <v>7190</v>
+      </c>
+      <c r="L146" s="115"/>
+      <c r="M146" s="116">
+        <v>1</v>
+      </c>
+      <c r="N146" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="O146" s="118">
+        <v>0</v>
+      </c>
+      <c r="P146" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q146"/>
+    </row>
+    <row r="147" spans="1:17" ht="13.2">
+      <c r="A147" s="110" t="s">
+        <v>555</v>
+      </c>
+      <c r="B147" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="C147" s="83"/>
+      <c r="D147" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E147" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F147" s="114">
+        <v>4679</v>
+      </c>
+      <c r="G147" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" s="115">
+        <v>250</v>
+      </c>
+      <c r="I147" s="115">
+        <v>479</v>
+      </c>
+      <c r="J147" s="115">
+        <v>4200</v>
+      </c>
+      <c r="K147" s="115">
+        <v>8650</v>
+      </c>
+      <c r="L147" s="115"/>
+      <c r="M147" s="116">
+        <v>1</v>
+      </c>
+      <c r="N147" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="O147" s="118">
+        <v>0</v>
+      </c>
+      <c r="P147" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q147"/>
+    </row>
+    <row r="148" spans="1:17" ht="13.2">
+      <c r="A148" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C148" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="D148" s="112" t="s">
+        <v>562</v>
+      </c>
+      <c r="E148" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F148" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G148" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="115">
+        <v>0</v>
+      </c>
+      <c r="I148" s="115">
+        <v>410</v>
+      </c>
+      <c r="J148" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K148" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L148" s="115"/>
+      <c r="M148" s="116">
+        <v>1</v>
+      </c>
+      <c r="N148" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O148" s="118">
+        <v>0</v>
+      </c>
+      <c r="P148" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q148"/>
+    </row>
+    <row r="149" spans="1:17" ht="13.2">
+      <c r="A149" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" s="111" t="s">
+        <v>578</v>
+      </c>
+      <c r="C149" s="83"/>
+      <c r="D149" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E149" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F149" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G149" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" s="115">
+        <v>0</v>
+      </c>
+      <c r="I149" s="115">
+        <v>410</v>
+      </c>
+      <c r="J149" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K149" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L149" s="115"/>
+      <c r="M149" s="116">
+        <v>1</v>
+      </c>
+      <c r="N149" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O149" s="118">
+        <v>0</v>
+      </c>
+      <c r="P149" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q149"/>
+    </row>
+    <row r="150" spans="1:17" ht="13.2">
+      <c r="A150" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" s="111" t="s">
+        <v>590</v>
+      </c>
+      <c r="C150" s="83"/>
+      <c r="D150" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E150" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F150" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G150" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" s="115">
+        <v>0</v>
+      </c>
+      <c r="I150" s="115">
+        <v>410</v>
+      </c>
+      <c r="J150" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K150" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L150" s="115"/>
+      <c r="M150" s="116">
+        <v>1</v>
+      </c>
+      <c r="N150" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O150" s="118">
+        <v>0</v>
+      </c>
+      <c r="P150" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q150"/>
+    </row>
+    <row r="151" spans="1:17" ht="13.2">
+      <c r="A151" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="111" t="s">
+        <v>591</v>
+      </c>
+      <c r="C151" s="83"/>
+      <c r="D151" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E151" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F151" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G151" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H151" s="115">
+        <v>0</v>
+      </c>
+      <c r="I151" s="115">
+        <v>410</v>
+      </c>
+      <c r="J151" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K151" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L151" s="115"/>
+      <c r="M151" s="116">
+        <v>1</v>
+      </c>
+      <c r="N151" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O151" s="118">
+        <v>0</v>
+      </c>
+      <c r="P151" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q151"/>
+    </row>
+    <row r="152" spans="1:17" ht="13.2">
+      <c r="A152" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="B152" s="111" t="s">
+        <v>592</v>
+      </c>
+      <c r="C152" s="83"/>
+      <c r="D152" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E152" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F152" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G152" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152" s="115">
+        <v>0</v>
+      </c>
+      <c r="I152" s="115">
+        <v>410</v>
+      </c>
+      <c r="J152" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K152" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L152" s="115"/>
+      <c r="M152" s="116">
+        <v>1</v>
+      </c>
+      <c r="N152" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O152" s="118">
+        <v>0</v>
+      </c>
+      <c r="P152" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q152"/>
+    </row>
+    <row r="153" spans="1:17" ht="13.2">
+      <c r="A153" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="111" t="s">
+        <v>593</v>
+      </c>
+      <c r="C153" s="83"/>
+      <c r="D153" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E153" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F153" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G153" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" s="115">
+        <v>0</v>
+      </c>
+      <c r="I153" s="115">
+        <v>410</v>
+      </c>
+      <c r="J153" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K153" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L153" s="115"/>
+      <c r="M153" s="116">
+        <v>1</v>
+      </c>
+      <c r="N153" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O153" s="118">
+        <v>0</v>
+      </c>
+      <c r="P153" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q153"/>
+    </row>
+    <row r="154" spans="1:17" ht="13.2">
+      <c r="A154" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B154" s="111" t="s">
+        <v>584</v>
+      </c>
+      <c r="C154" s="83"/>
+      <c r="D154" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E154" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F154" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G154" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H154" s="115">
+        <v>0</v>
+      </c>
+      <c r="I154" s="115">
+        <v>410</v>
+      </c>
+      <c r="J154" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K154" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L154" s="115"/>
+      <c r="M154" s="116">
+        <v>1</v>
+      </c>
+      <c r="N154" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O154" s="118">
+        <v>0</v>
+      </c>
+      <c r="P154" s="115"/>
+      <c r="Q154"/>
+    </row>
+    <row r="155" spans="1:17" ht="13.2">
+      <c r="A155" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155" s="111" t="s">
+        <v>587</v>
+      </c>
+      <c r="C155" s="83"/>
+      <c r="D155" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E155" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F155" s="114">
+        <v>1960</v>
+      </c>
+      <c r="G155" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" s="115">
+        <v>0</v>
+      </c>
+      <c r="I155" s="115">
+        <v>410</v>
+      </c>
+      <c r="J155" s="115">
+        <v>1550</v>
+      </c>
+      <c r="K155" s="115">
+        <v>3100</v>
+      </c>
+      <c r="L155" s="115"/>
+      <c r="M155" s="116">
+        <v>1</v>
+      </c>
+      <c r="N155" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O155" s="118">
+        <v>0</v>
+      </c>
+      <c r="P155" s="115"/>
+      <c r="Q155"/>
+    </row>
+    <row r="156" spans="1:17" ht="13.2">
+      <c r="A156" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" s="83" t="s">
+        <v>418</v>
+      </c>
+      <c r="D156" s="112" t="s">
+        <v>563</v>
+      </c>
+      <c r="E156" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F156" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G156" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H156" s="115">
+        <v>0</v>
+      </c>
+      <c r="I156" s="115">
+        <v>595</v>
+      </c>
+      <c r="J156" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K156" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L156" s="115"/>
+      <c r="M156" s="116">
+        <v>1</v>
+      </c>
+      <c r="N156" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O156" s="118">
+        <v>0</v>
+      </c>
+      <c r="P156" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q156"/>
+    </row>
+    <row r="157" spans="1:17" ht="13.2">
+      <c r="A157" s="110" t="s">
+        <v>421</v>
+      </c>
+      <c r="B157" s="111" t="s">
+        <v>422</v>
+      </c>
+      <c r="C157" s="83" t="s">
+        <v>423</v>
+      </c>
+      <c r="D157" s="112" t="s">
+        <v>564</v>
+      </c>
+      <c r="E157" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F157" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G157" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" s="114">
+        <v>200</v>
+      </c>
+      <c r="I157" s="115">
+        <v>695</v>
+      </c>
+      <c r="J157" s="115">
+        <v>1650</v>
+      </c>
+      <c r="K157" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L157" s="115"/>
+      <c r="M157" s="117">
+        <v>1</v>
+      </c>
+      <c r="N157" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="O157" s="119">
+        <v>0</v>
+      </c>
+      <c r="P157" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q157"/>
+    </row>
+    <row r="158" spans="1:17" ht="13.2">
+      <c r="A158" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="111" t="s">
+        <v>579</v>
+      </c>
+      <c r="C158" s="83"/>
+      <c r="D158" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E158" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F158" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G158" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H158" s="115">
+        <v>0</v>
+      </c>
+      <c r="I158" s="115">
+        <v>595</v>
+      </c>
+      <c r="J158" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K158" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L158" s="115"/>
+      <c r="M158" s="116">
+        <v>1</v>
+      </c>
+      <c r="N158" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O158" s="118">
+        <v>0</v>
+      </c>
+      <c r="P158" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q158"/>
+    </row>
+    <row r="159" spans="1:17" ht="13.2">
+      <c r="A159" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="C159" s="83"/>
+      <c r="D159" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E159" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F159" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G159" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" s="115">
+        <v>0</v>
+      </c>
+      <c r="I159" s="115">
+        <v>595</v>
+      </c>
+      <c r="J159" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K159" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L159" s="115"/>
+      <c r="M159" s="116">
+        <v>1</v>
+      </c>
+      <c r="N159" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O159" s="118">
+        <v>0</v>
+      </c>
+      <c r="P159" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q159"/>
+    </row>
+    <row r="160" spans="1:17" ht="13.2">
+      <c r="A160" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" s="111" t="s">
+        <v>595</v>
+      </c>
+      <c r="C160" s="83"/>
+      <c r="D160" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E160" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F160" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G160" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H160" s="115">
+        <v>0</v>
+      </c>
+      <c r="I160" s="115">
+        <v>595</v>
+      </c>
+      <c r="J160" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K160" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L160" s="115"/>
+      <c r="M160" s="116">
+        <v>1</v>
+      </c>
+      <c r="N160" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O160" s="118">
+        <v>0</v>
+      </c>
+      <c r="P160" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q160"/>
+    </row>
+    <row r="161" spans="1:17" ht="13.2">
+      <c r="A161" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B161" s="111" t="s">
+        <v>596</v>
+      </c>
+      <c r="C161" s="83"/>
+      <c r="D161" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E161" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F161" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G161" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" s="115">
+        <v>0</v>
+      </c>
+      <c r="I161" s="115">
+        <v>595</v>
+      </c>
+      <c r="J161" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K161" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L161" s="115"/>
+      <c r="M161" s="116">
+        <v>1</v>
+      </c>
+      <c r="N161" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O161" s="118">
+        <v>0</v>
+      </c>
+      <c r="P161" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q161"/>
+    </row>
+    <row r="162" spans="1:17" ht="13.2">
+      <c r="A162" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" s="111" t="s">
+        <v>597</v>
+      </c>
+      <c r="C162" s="83"/>
+      <c r="D162" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E162" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F162" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G162" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H162" s="115">
+        <v>0</v>
+      </c>
+      <c r="I162" s="115">
+        <v>595</v>
+      </c>
+      <c r="J162" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K162" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L162" s="115"/>
+      <c r="M162" s="116">
+        <v>1</v>
+      </c>
+      <c r="N162" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O162" s="118">
+        <v>0</v>
+      </c>
+      <c r="P162" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q162"/>
+    </row>
+    <row r="163" spans="1:17" ht="13.2">
+      <c r="A163" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="111" t="s">
+        <v>581</v>
+      </c>
+      <c r="C163" s="83"/>
+      <c r="D163" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E163" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F163" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G163" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H163" s="115">
+        <v>0</v>
+      </c>
+      <c r="I163" s="115">
+        <v>595</v>
+      </c>
+      <c r="J163" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K163" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L163" s="115"/>
+      <c r="M163" s="116">
+        <v>1</v>
+      </c>
+      <c r="N163" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O163" s="118">
+        <v>0</v>
+      </c>
+      <c r="P163" s="115"/>
+      <c r="Q163"/>
+    </row>
+    <row r="164" spans="1:17" ht="13.2">
+      <c r="A164" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164" s="111" t="s">
+        <v>585</v>
+      </c>
+      <c r="C164" s="83"/>
+      <c r="D164" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E164" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F164" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G164" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H164" s="115">
+        <v>0</v>
+      </c>
+      <c r="I164" s="115">
+        <v>595</v>
+      </c>
+      <c r="J164" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K164" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L164" s="115"/>
+      <c r="M164" s="116">
+        <v>1</v>
+      </c>
+      <c r="N164" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O164" s="118">
+        <v>0</v>
+      </c>
+      <c r="P164" s="115"/>
+      <c r="Q164" s="2"/>
+    </row>
+    <row r="165" spans="1:17" ht="13.2">
+      <c r="A165" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B165" s="111" t="s">
+        <v>588</v>
+      </c>
+      <c r="C165" s="83"/>
+      <c r="D165" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E165" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F165" s="114">
+        <v>2345</v>
+      </c>
+      <c r="G165" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" s="115">
+        <v>0</v>
+      </c>
+      <c r="I165" s="115">
+        <v>595</v>
+      </c>
+      <c r="J165" s="115">
+        <v>1750</v>
+      </c>
+      <c r="K165" s="115">
+        <v>3500</v>
+      </c>
+      <c r="L165" s="115"/>
+      <c r="M165" s="116">
+        <v>1</v>
+      </c>
+      <c r="N165" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O165" s="118">
+        <v>0</v>
+      </c>
+      <c r="P165" s="115"/>
+      <c r="Q165" s="2"/>
+    </row>
+    <row r="166" spans="1:17" ht="13.2">
+      <c r="A166" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="D166" s="112" t="s">
+        <v>565</v>
+      </c>
+      <c r="E166" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F166" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G166" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="115">
+        <v>200</v>
+      </c>
+      <c r="I166" s="115">
+        <v>804</v>
+      </c>
+      <c r="J166" s="115">
+        <v>2225</v>
+      </c>
+      <c r="K166" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L166" s="115"/>
+      <c r="M166" s="116">
+        <v>1</v>
+      </c>
+      <c r="N166" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O166" s="118">
+        <v>0</v>
+      </c>
+      <c r="P166" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q166" s="2"/>
+    </row>
+    <row r="167" spans="1:17" ht="13.2">
+      <c r="A167" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="111" t="s">
+        <v>580</v>
+      </c>
+      <c r="C167" s="83"/>
+      <c r="D167" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E167" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F167" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G167" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H167" s="115">
+        <v>0</v>
+      </c>
+      <c r="I167" s="115">
+        <v>704</v>
+      </c>
+      <c r="J167" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K167" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L167" s="115"/>
+      <c r="M167" s="116">
+        <v>1</v>
+      </c>
+      <c r="N167" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O167" s="118">
+        <v>0</v>
+      </c>
+      <c r="P167" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q167" s="2"/>
+    </row>
+    <row r="168" spans="1:17" ht="13.2">
+      <c r="A168" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="111" t="s">
+        <v>598</v>
+      </c>
+      <c r="C168" s="83"/>
+      <c r="D168" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E168" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F168" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G168" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H168" s="115">
+        <v>0</v>
+      </c>
+      <c r="I168" s="115">
+        <v>704</v>
+      </c>
+      <c r="J168" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K168" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L168" s="115"/>
+      <c r="M168" s="116">
+        <v>1</v>
+      </c>
+      <c r="N168" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O168" s="118">
+        <v>0</v>
+      </c>
+      <c r="P168" s="115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="13.2">
+      <c r="A169" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B169" s="111" t="s">
+        <v>599</v>
+      </c>
+      <c r="C169" s="83"/>
+      <c r="D169" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E169" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F169" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G169" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H169" s="115">
+        <v>0</v>
+      </c>
+      <c r="I169" s="115">
+        <v>704</v>
+      </c>
+      <c r="J169" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K169" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L169" s="115"/>
+      <c r="M169" s="116">
+        <v>1</v>
+      </c>
+      <c r="N169" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O169" s="118">
+        <v>0</v>
+      </c>
+      <c r="P169" s="115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="13.2">
+      <c r="A170" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="111" t="s">
+        <v>600</v>
+      </c>
+      <c r="C170" s="83"/>
+      <c r="D170" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E170" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F170" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G170" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H170" s="115">
+        <v>0</v>
+      </c>
+      <c r="I170" s="115">
+        <v>704</v>
+      </c>
+      <c r="J170" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K170" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L170" s="115"/>
+      <c r="M170" s="116">
+        <v>1</v>
+      </c>
+      <c r="N170" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O170" s="118">
+        <v>0</v>
+      </c>
+      <c r="P170" s="114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="13.2">
+      <c r="A171" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" s="111" t="s">
+        <v>606</v>
+      </c>
+      <c r="C171" s="83"/>
+      <c r="D171" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E171" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F171" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G171" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H171" s="115">
+        <v>0</v>
+      </c>
+      <c r="I171" s="115">
+        <v>704</v>
+      </c>
+      <c r="J171" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K171" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L171" s="115"/>
+      <c r="M171" s="116">
+        <v>1</v>
+      </c>
+      <c r="N171" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="O171" s="118">
+        <v>0</v>
+      </c>
+      <c r="P171" s="114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="13.2">
+      <c r="A172" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B172" s="111" t="s">
+        <v>582</v>
+      </c>
+      <c r="C172" s="83"/>
+      <c r="D172" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E172" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F172" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G172" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H172" s="115">
+        <v>0</v>
+      </c>
+      <c r="I172" s="115">
+        <v>704</v>
+      </c>
+      <c r="J172" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K172" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L172" s="115"/>
+      <c r="M172" s="116">
+        <v>1</v>
+      </c>
+      <c r="N172" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O172" s="118">
+        <v>0</v>
+      </c>
+      <c r="P172" s="115"/>
+    </row>
+    <row r="173" spans="1:17" ht="13.2">
+      <c r="A173" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" s="111" t="s">
+        <v>583</v>
+      </c>
+      <c r="C173" s="83"/>
+      <c r="D173" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E173" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F173" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G173" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H173" s="115">
+        <v>0</v>
+      </c>
+      <c r="I173" s="115">
+        <v>704</v>
+      </c>
+      <c r="J173" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K173" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L173" s="115"/>
+      <c r="M173" s="116">
+        <v>1</v>
+      </c>
+      <c r="N173" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O173" s="118">
+        <v>0</v>
+      </c>
+      <c r="P173" s="115"/>
+    </row>
+    <row r="174" spans="1:17" ht="13.2">
+      <c r="A174" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174" s="111" t="s">
+        <v>586</v>
+      </c>
+      <c r="C174" s="83"/>
+      <c r="D174" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E174" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F174" s="114">
+        <v>3029</v>
+      </c>
+      <c r="G174" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H174" s="115">
+        <v>0</v>
+      </c>
+      <c r="I174" s="115">
+        <v>704</v>
+      </c>
+      <c r="J174" s="115">
+        <v>2325</v>
+      </c>
+      <c r="K174" s="115">
+        <v>4650</v>
+      </c>
+      <c r="L174" s="115"/>
+      <c r="M174" s="116">
+        <v>1</v>
+      </c>
+      <c r="N174" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="O174" s="118">
+        <v>0</v>
+      </c>
+      <c r="P174" s="115"/>
+    </row>
+    <row r="175" spans="1:17" ht="13.2">
+      <c r="A175" s="110" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="C175" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="D175" s="112" t="s">
+        <v>566</v>
+      </c>
+      <c r="E175" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F175" s="114">
+        <v>5819</v>
+      </c>
+      <c r="G175" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" s="115">
+        <v>250</v>
+      </c>
+      <c r="I175" s="115">
+        <v>1019</v>
+      </c>
+      <c r="J175" s="115">
+        <v>4800</v>
+      </c>
+      <c r="K175" s="115">
+        <v>9850</v>
+      </c>
+      <c r="L175" s="115"/>
+      <c r="M175" s="116">
+        <v>1</v>
+      </c>
+      <c r="N175" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="O175" s="118">
+        <v>0</v>
+      </c>
+      <c r="P175" s="114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" ht="13.2">
+      <c r="A176" s="110" t="s">
+        <v>434</v>
+      </c>
+      <c r="B176" s="111" t="s">
+        <v>440</v>
+      </c>
+      <c r="C176" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="D176" s="112" t="s">
+        <v>567</v>
+      </c>
+      <c r="E176" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F176" s="114">
+        <v>3689</v>
+      </c>
+      <c r="G176" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" s="115">
+        <v>250</v>
+      </c>
+      <c r="I176" s="115">
+        <v>219</v>
+      </c>
+      <c r="J176" s="115">
+        <v>3470</v>
+      </c>
+      <c r="K176" s="115">
+        <v>7190</v>
+      </c>
+      <c r="L176" s="115"/>
+      <c r="M176" s="116">
+        <v>1</v>
+      </c>
+      <c r="N176" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="O176" s="118">
+        <v>0</v>
+      </c>
+      <c r="P176" s="114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="13.2">
+      <c r="A177" s="110" t="s">
+        <v>435</v>
+      </c>
+      <c r="B177" s="111" t="s">
+        <v>441</v>
+      </c>
+      <c r="C177" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="D177" s="112" t="s">
+        <v>568</v>
+      </c>
+      <c r="E177" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F177" s="114">
+        <v>4679</v>
+      </c>
+      <c r="G177" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="115">
+        <v>250</v>
+      </c>
+      <c r="I177" s="115">
+        <v>479</v>
+      </c>
+      <c r="J177" s="115">
+        <v>4200</v>
+      </c>
+      <c r="K177" s="115">
+        <v>8650</v>
+      </c>
+      <c r="L177" s="115"/>
+      <c r="M177" s="116">
+        <v>1</v>
+      </c>
+      <c r="N177" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="O177" s="118">
+        <v>0</v>
+      </c>
+      <c r="P177" s="114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="13.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -11670,10 +12867,10 @@
       <c r="L178" s="2"/>
       <c r="M178" s="28"/>
       <c r="N178" s="16"/>
-      <c r="O178" s="16"/>
-      <c r="P178" s="2"/>
-    </row>
-    <row r="179" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O178" s="2"/>
+      <c r="P178" s="20"/>
+    </row>
+    <row r="179" spans="1:16" ht="13.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -11691,7 +12888,7 @@
       <c r="O179" s="2"/>
       <c r="P179" s="20"/>
     </row>
-    <row r="180" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:16" ht="13.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -11706,10 +12903,10 @@
       <c r="L180" s="2"/>
       <c r="M180" s="28"/>
       <c r="N180" s="16"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="20"/>
-    </row>
-    <row r="181" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O180" s="16"/>
+      <c r="P180" s="2"/>
+    </row>
+    <row r="181" spans="1:16" ht="13.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -11724,10 +12921,10 @@
       <c r="L181" s="2"/>
       <c r="M181" s="28"/>
       <c r="N181" s="16"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="20"/>
-    </row>
-    <row r="182" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O181" s="16"/>
+      <c r="P181" s="2"/>
+    </row>
+    <row r="182" spans="1:16" ht="13.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -11742,10 +12939,10 @@
       <c r="L182" s="2"/>
       <c r="M182" s="28"/>
       <c r="N182" s="16"/>
-      <c r="O182" s="16"/>
-      <c r="P182" s="2"/>
-    </row>
-    <row r="183" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O182" s="2"/>
+      <c r="P182" s="20"/>
+    </row>
+    <row r="183" spans="1:16" ht="13.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -11760,10 +12957,10 @@
       <c r="L183" s="2"/>
       <c r="M183" s="28"/>
       <c r="N183" s="16"/>
-      <c r="O183" s="16"/>
-      <c r="P183" s="2"/>
-    </row>
-    <row r="184" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O183" s="2"/>
+      <c r="P183" s="20"/>
+    </row>
+    <row r="184" spans="1:16" ht="13.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -11781,7 +12978,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="20"/>
     </row>
-    <row r="185" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:16" ht="13.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -11796,10 +12993,10 @@
       <c r="L185" s="2"/>
       <c r="M185" s="28"/>
       <c r="N185" s="16"/>
-      <c r="O185" s="2"/>
-      <c r="P185" s="20"/>
-    </row>
-    <row r="186" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O185" s="16"/>
+      <c r="P185" s="2"/>
+    </row>
+    <row r="186" spans="1:16" ht="13.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -11814,10 +13011,10 @@
       <c r="L186" s="2"/>
       <c r="M186" s="28"/>
       <c r="N186" s="16"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="20"/>
-    </row>
-    <row r="187" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O186" s="16"/>
+      <c r="P186" s="2"/>
+    </row>
+    <row r="187" spans="1:16" ht="13.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -11831,11 +13028,11 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="28"/>
-      <c r="N187" s="16"/>
+      <c r="N187" s="36"/>
       <c r="O187" s="16"/>
-      <c r="P187" s="2"/>
-    </row>
-    <row r="188" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P187" s="9"/>
+    </row>
+    <row r="188" spans="1:16" ht="13.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -11849,11 +13046,11 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="28"/>
-      <c r="N188" s="16"/>
+      <c r="N188" s="36"/>
       <c r="O188" s="16"/>
-      <c r="P188" s="2"/>
-    </row>
-    <row r="189" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P188" s="9"/>
+    </row>
+    <row r="189" spans="1:16" ht="13.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -11871,7 +13068,7 @@
       <c r="O189" s="16"/>
       <c r="P189" s="9"/>
     </row>
-    <row r="190" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:16" ht="13.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -11885,11 +13082,11 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="28"/>
-      <c r="N190" s="36"/>
+      <c r="N190" s="16"/>
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:16" ht="13.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -11903,11 +13100,11 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="28"/>
-      <c r="N191" s="36"/>
+      <c r="N191" s="16"/>
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:16" ht="13.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -11925,7 +13122,7 @@
       <c r="O192" s="16"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:17" ht="13.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -11942,11 +13139,12 @@
       <c r="N193" s="16"/>
       <c r="O193" s="16"/>
       <c r="P193" s="9"/>
-    </row>
-    <row r="194" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="Q193" s="41"/>
+    </row>
+    <row r="194" spans="1:17" ht="13.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="C194" s="55"/>
       <c r="D194" s="26"/>
       <c r="E194" s="5"/>
       <c r="F194" s="9"/>
@@ -11957,14 +13155,15 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="28"/>
-      <c r="N194" s="16"/>
-      <c r="O194" s="16"/>
-      <c r="P194" s="9"/>
-    </row>
-    <row r="195" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="N194" s="17"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="20"/>
+      <c r="Q194" s="41"/>
+    </row>
+    <row r="195" spans="1:17" ht="13.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="C195" s="55"/>
       <c r="D195" s="26"/>
       <c r="E195" s="5"/>
       <c r="F195" s="9"/>
@@ -11975,12 +13174,12 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="28"/>
-      <c r="N195" s="16"/>
-      <c r="O195" s="16"/>
-      <c r="P195" s="9"/>
+      <c r="N195" s="17"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="20"/>
       <c r="Q195" s="41"/>
     </row>
-    <row r="196" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:17" ht="13.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="55"/>
@@ -11997,46 +13196,44 @@
       <c r="N196" s="17"/>
       <c r="O196" s="2"/>
       <c r="P196" s="20"/>
-      <c r="Q196" s="41"/>
-    </row>
-    <row r="197" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    </row>
+    <row r="197" spans="1:17" ht="13.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="55"/>
+      <c r="C197" s="4"/>
       <c r="D197" s="26"/>
       <c r="E197" s="5"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="2"/>
+      <c r="G197" s="38"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="28"/>
-      <c r="N197" s="17"/>
+      <c r="N197" s="16"/>
       <c r="O197" s="2"/>
       <c r="P197" s="20"/>
-      <c r="Q197" s="41"/>
-    </row>
-    <row r="198" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    </row>
+    <row r="198" spans="1:17" ht="13.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="55"/>
+      <c r="C198" s="4"/>
       <c r="D198" s="26"/>
       <c r="E198" s="5"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="2"/>
+      <c r="G198" s="38"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="28"/>
-      <c r="N198" s="17"/>
+      <c r="N198" s="16"/>
       <c r="O198" s="2"/>
       <c r="P198" s="20"/>
     </row>
-    <row r="199" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:17" ht="13.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -12054,14 +13251,14 @@
       <c r="O199" s="2"/>
       <c r="P199" s="20"/>
     </row>
-    <row r="200" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:17" ht="13.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="26"/>
       <c r="E200" s="5"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="38"/>
+      <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -12069,17 +13266,17 @@
       <c r="L200" s="2"/>
       <c r="M200" s="28"/>
       <c r="N200" s="16"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="20"/>
-    </row>
-    <row r="201" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O200" s="16"/>
+      <c r="P200" s="9"/>
+    </row>
+    <row r="201" spans="1:17" ht="13.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="26"/>
       <c r="E201" s="5"/>
       <c r="F201" s="9"/>
-      <c r="G201" s="38"/>
+      <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -12087,10 +13284,10 @@
       <c r="L201" s="2"/>
       <c r="M201" s="28"/>
       <c r="N201" s="16"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="20"/>
-    </row>
-    <row r="202" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O201" s="16"/>
+      <c r="P201" s="9"/>
+    </row>
+    <row r="202" spans="1:17" ht="13.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -12108,7 +13305,7 @@
       <c r="O202" s="16"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:17" ht="13.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -12126,7 +13323,7 @@
       <c r="O203" s="16"/>
       <c r="P203" s="9"/>
     </row>
-    <row r="204" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:17" ht="13.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -12144,7 +13341,7 @@
       <c r="O204" s="16"/>
       <c r="P204" s="9"/>
     </row>
-    <row r="205" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:17" ht="13.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12162,7 +13359,7 @@
       <c r="O205" s="16"/>
       <c r="P205" s="9"/>
     </row>
-    <row r="206" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:17" ht="13.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12178,9 +13375,9 @@
       <c r="M206" s="28"/>
       <c r="N206" s="16"/>
       <c r="O206" s="16"/>
-      <c r="P206" s="9"/>
-    </row>
-    <row r="207" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P206" s="2"/>
+    </row>
+    <row r="207" spans="1:17" ht="13.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12196,9 +13393,9 @@
       <c r="M207" s="28"/>
       <c r="N207" s="16"/>
       <c r="O207" s="16"/>
-      <c r="P207" s="9"/>
-    </row>
-    <row r="208" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P207" s="2"/>
+    </row>
+    <row r="208" spans="1:17" ht="13.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12214,9 +13411,9 @@
       <c r="M208" s="28"/>
       <c r="N208" s="16"/>
       <c r="O208" s="16"/>
-      <c r="P208" s="2"/>
-    </row>
-    <row r="209" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P208" s="9"/>
+    </row>
+    <row r="209" spans="1:16" ht="13.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -12232,9 +13429,9 @@
       <c r="M209" s="28"/>
       <c r="N209" s="16"/>
       <c r="O209" s="16"/>
-      <c r="P209" s="2"/>
-    </row>
-    <row r="210" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P209" s="9"/>
+    </row>
+    <row r="210" spans="1:16" ht="13.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -12250,9 +13447,9 @@
       <c r="M210" s="28"/>
       <c r="N210" s="16"/>
       <c r="O210" s="16"/>
-      <c r="P210" s="9"/>
-    </row>
-    <row r="211" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P210" s="2"/>
+    </row>
+    <row r="211" spans="1:16" ht="13.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -12268,9 +13465,9 @@
       <c r="M211" s="28"/>
       <c r="N211" s="16"/>
       <c r="O211" s="16"/>
-      <c r="P211" s="9"/>
-    </row>
-    <row r="212" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P211" s="2"/>
+    </row>
+    <row r="212" spans="1:16" ht="13.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -12286,9 +13483,9 @@
       <c r="M212" s="28"/>
       <c r="N212" s="16"/>
       <c r="O212" s="16"/>
-      <c r="P212" s="2"/>
-    </row>
-    <row r="213" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P212" s="9"/>
+    </row>
+    <row r="213" spans="1:16" ht="13.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -12304,9 +13501,9 @@
       <c r="M213" s="28"/>
       <c r="N213" s="16"/>
       <c r="O213" s="16"/>
-      <c r="P213" s="2"/>
-    </row>
-    <row r="214" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P213" s="9"/>
+    </row>
+    <row r="214" spans="1:16" ht="13.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -12321,10 +13518,10 @@
       <c r="L214" s="2"/>
       <c r="M214" s="28"/>
       <c r="N214" s="16"/>
-      <c r="O214" s="16"/>
-      <c r="P214" s="9"/>
-    </row>
-    <row r="215" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O214" s="2"/>
+      <c r="P214" s="20"/>
+    </row>
+    <row r="215" spans="1:16" ht="13.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -12339,10 +13536,10 @@
       <c r="L215" s="2"/>
       <c r="M215" s="28"/>
       <c r="N215" s="16"/>
-      <c r="O215" s="16"/>
-      <c r="P215" s="9"/>
-    </row>
-    <row r="216" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O215" s="2"/>
+      <c r="P215" s="20"/>
+    </row>
+    <row r="216" spans="1:16" ht="13.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -12360,7 +13557,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:16" ht="13.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -12375,10 +13572,10 @@
       <c r="L217" s="2"/>
       <c r="M217" s="28"/>
       <c r="N217" s="16"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="20"/>
-    </row>
-    <row r="218" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O217" s="16"/>
+      <c r="P217" s="2"/>
+    </row>
+    <row r="218" spans="1:16" ht="13.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -12393,10 +13590,10 @@
       <c r="L218" s="2"/>
       <c r="M218" s="28"/>
       <c r="N218" s="16"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="20"/>
-    </row>
-    <row r="219" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O218" s="16"/>
+      <c r="P218" s="2"/>
+    </row>
+    <row r="219" spans="1:16" ht="13.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -12411,10 +13608,10 @@
       <c r="L219" s="2"/>
       <c r="M219" s="28"/>
       <c r="N219" s="16"/>
-      <c r="O219" s="16"/>
-      <c r="P219" s="2"/>
-    </row>
-    <row r="220" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O219" s="2"/>
+      <c r="P219" s="20"/>
+    </row>
+    <row r="220" spans="1:16" ht="13.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -12429,10 +13626,10 @@
       <c r="L220" s="2"/>
       <c r="M220" s="28"/>
       <c r="N220" s="16"/>
-      <c r="O220" s="16"/>
-      <c r="P220" s="2"/>
-    </row>
-    <row r="221" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O220" s="2"/>
+      <c r="P220" s="20"/>
+    </row>
+    <row r="221" spans="1:16" ht="13.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -12450,7 +13647,7 @@
       <c r="O221" s="2"/>
       <c r="P221" s="20"/>
     </row>
-    <row r="222" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:16" ht="13.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -12465,10 +13662,10 @@
       <c r="L222" s="2"/>
       <c r="M222" s="28"/>
       <c r="N222" s="16"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="20"/>
-    </row>
-    <row r="223" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O222" s="16"/>
+      <c r="P222" s="2"/>
+    </row>
+    <row r="223" spans="1:16" ht="13.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -12483,10 +13680,10 @@
       <c r="L223" s="2"/>
       <c r="M223" s="28"/>
       <c r="N223" s="16"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="20"/>
-    </row>
-    <row r="224" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O223" s="16"/>
+      <c r="P223" s="2"/>
+    </row>
+    <row r="224" spans="1:16" ht="13.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -12501,10 +13698,10 @@
       <c r="L224" s="2"/>
       <c r="M224" s="28"/>
       <c r="N224" s="16"/>
-      <c r="O224" s="16"/>
-      <c r="P224" s="2"/>
-    </row>
-    <row r="225" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O224" s="2"/>
+      <c r="P224" s="20"/>
+    </row>
+    <row r="225" spans="1:16" ht="13.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -12519,10 +13716,10 @@
       <c r="L225" s="2"/>
       <c r="M225" s="28"/>
       <c r="N225" s="16"/>
-      <c r="O225" s="16"/>
-      <c r="P225" s="2"/>
-    </row>
-    <row r="226" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O225" s="2"/>
+      <c r="P225" s="20"/>
+    </row>
+    <row r="226" spans="1:16" ht="13.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -12540,7 +13737,7 @@
       <c r="O226" s="2"/>
       <c r="P226" s="20"/>
     </row>
-    <row r="227" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:16" ht="13.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -12555,10 +13752,10 @@
       <c r="L227" s="2"/>
       <c r="M227" s="28"/>
       <c r="N227" s="16"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="20"/>
-    </row>
-    <row r="228" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O227" s="16"/>
+      <c r="P227" s="2"/>
+    </row>
+    <row r="228" spans="1:16" ht="13.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -12573,10 +13770,10 @@
       <c r="L228" s="2"/>
       <c r="M228" s="28"/>
       <c r="N228" s="16"/>
-      <c r="O228" s="2"/>
-      <c r="P228" s="20"/>
-    </row>
-    <row r="229" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O228" s="16"/>
+      <c r="P228" s="2"/>
+    </row>
+    <row r="229" spans="1:16" ht="13.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -12590,11 +13787,11 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="28"/>
-      <c r="N229" s="16"/>
+      <c r="N229" s="36"/>
       <c r="O229" s="16"/>
-      <c r="P229" s="2"/>
-    </row>
-    <row r="230" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P229" s="9"/>
+    </row>
+    <row r="230" spans="1:16" ht="13.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -12608,11 +13805,11 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="28"/>
-      <c r="N230" s="16"/>
+      <c r="N230" s="36"/>
       <c r="O230" s="16"/>
-      <c r="P230" s="2"/>
-    </row>
-    <row r="231" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P230" s="9"/>
+    </row>
+    <row r="231" spans="1:16" ht="13.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -12630,7 +13827,7 @@
       <c r="O231" s="16"/>
       <c r="P231" s="9"/>
     </row>
-    <row r="232" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:16" ht="13.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -12644,11 +13841,11 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="28"/>
-      <c r="N232" s="36"/>
+      <c r="N232" s="16"/>
       <c r="O232" s="16"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:16" ht="13.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -12662,11 +13859,11 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="28"/>
-      <c r="N233" s="36"/>
+      <c r="N233" s="16"/>
       <c r="O233" s="16"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:16" ht="13.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -12684,7 +13881,7 @@
       <c r="O234" s="16"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:16" ht="13.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -12702,7 +13899,7 @@
       <c r="O235" s="16"/>
       <c r="P235" s="9"/>
     </row>
-    <row r="236" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:16" ht="13.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -12720,10 +13917,10 @@
       <c r="O236" s="16"/>
       <c r="P236" s="9"/>
     </row>
-    <row r="237" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:16" ht="13.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
+      <c r="C237" s="55"/>
       <c r="D237" s="26"/>
       <c r="E237" s="5"/>
       <c r="F237" s="9"/>
@@ -12734,14 +13931,14 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="28"/>
-      <c r="N237" s="16"/>
-      <c r="O237" s="16"/>
-      <c r="P237" s="9"/>
-    </row>
-    <row r="238" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="N237" s="17"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="20"/>
+    </row>
+    <row r="238" spans="1:16" ht="13.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
+      <c r="C238" s="55"/>
       <c r="D238" s="26"/>
       <c r="E238" s="5"/>
       <c r="F238" s="9"/>
@@ -12752,11 +13949,11 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="28"/>
-      <c r="N238" s="16"/>
-      <c r="O238" s="16"/>
-      <c r="P238" s="9"/>
-    </row>
-    <row r="239" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="N238" s="17"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="20"/>
+    </row>
+    <row r="239" spans="1:16" ht="13.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="55"/>
@@ -12774,61 +13971,61 @@
       <c r="O239" s="2"/>
       <c r="P239" s="20"/>
     </row>
-    <row r="240" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:16" ht="13.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="55"/>
+      <c r="C240" s="4"/>
       <c r="D240" s="26"/>
       <c r="E240" s="5"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="28"/>
-      <c r="N240" s="17"/>
-      <c r="O240" s="2"/>
-      <c r="P240" s="20"/>
-    </row>
-    <row r="241" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="55"/>
+      <c r="F240" s="38"/>
+      <c r="G240" s="38"/>
+      <c r="H240" s="38"/>
+      <c r="I240" s="38"/>
+      <c r="J240" s="38"/>
+      <c r="K240" s="38"/>
+      <c r="L240" s="38"/>
+      <c r="M240" s="39"/>
+      <c r="N240" s="40"/>
+      <c r="O240" s="41"/>
+      <c r="P240" s="41"/>
+    </row>
+    <row r="241" spans="1:16" ht="13.2">
+      <c r="A241" s="59"/>
+      <c r="B241" s="59"/>
+      <c r="C241" s="59"/>
       <c r="D241" s="26"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="28"/>
-      <c r="N241" s="17"/>
-      <c r="O241" s="2"/>
-      <c r="P241" s="20"/>
-    </row>
-    <row r="242" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
+      <c r="E241" s="60"/>
+      <c r="F241" s="61"/>
+      <c r="G241" s="61"/>
+      <c r="H241" s="61"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="61"/>
+      <c r="K241" s="61"/>
+      <c r="L241" s="61"/>
+      <c r="M241" s="62"/>
+      <c r="N241" s="63"/>
+      <c r="O241" s="63"/>
+      <c r="P241" s="61"/>
+    </row>
+    <row r="242" spans="1:16" ht="13.2">
+      <c r="A242" s="59"/>
+      <c r="B242" s="59"/>
+      <c r="C242" s="59"/>
       <c r="D242" s="26"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="38"/>
-      <c r="G242" s="38"/>
-      <c r="H242" s="38"/>
-      <c r="I242" s="38"/>
-      <c r="J242" s="38"/>
-      <c r="K242" s="38"/>
-      <c r="L242" s="38"/>
-      <c r="M242" s="39"/>
-      <c r="N242" s="40"/>
-      <c r="O242" s="41"/>
-      <c r="P242" s="41"/>
-    </row>
-    <row r="243" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="E242" s="60"/>
+      <c r="F242" s="61"/>
+      <c r="G242" s="61"/>
+      <c r="H242" s="61"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="61"/>
+      <c r="K242" s="61"/>
+      <c r="L242" s="61"/>
+      <c r="M242" s="62"/>
+      <c r="N242" s="63"/>
+      <c r="O242" s="63"/>
+      <c r="P242" s="61"/>
+    </row>
+    <row r="243" spans="1:16" ht="13.2">
       <c r="A243" s="59"/>
       <c r="B243" s="59"/>
       <c r="C243" s="59"/>
@@ -12846,7 +14043,7 @@
       <c r="O243" s="63"/>
       <c r="P243" s="61"/>
     </row>
-    <row r="244" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:16" ht="13.2">
       <c r="A244" s="59"/>
       <c r="B244" s="59"/>
       <c r="C244" s="59"/>
@@ -12864,7 +14061,7 @@
       <c r="O244" s="63"/>
       <c r="P244" s="61"/>
     </row>
-    <row r="245" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:16" ht="13.2">
       <c r="A245" s="59"/>
       <c r="B245" s="59"/>
       <c r="C245" s="59"/>
@@ -12882,7 +14079,7 @@
       <c r="O245" s="63"/>
       <c r="P245" s="61"/>
     </row>
-    <row r="246" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:16" ht="13.2">
       <c r="A246" s="59"/>
       <c r="B246" s="59"/>
       <c r="C246" s="59"/>
@@ -12900,7 +14097,7 @@
       <c r="O246" s="63"/>
       <c r="P246" s="61"/>
     </row>
-    <row r="247" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:16" ht="13.2">
       <c r="A247" s="59"/>
       <c r="B247" s="59"/>
       <c r="C247" s="59"/>
@@ -12918,7 +14115,7 @@
       <c r="O247" s="63"/>
       <c r="P247" s="61"/>
     </row>
-    <row r="248" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:16" ht="13.2">
       <c r="A248" s="59"/>
       <c r="B248" s="59"/>
       <c r="C248" s="59"/>
@@ -12936,7 +14133,7 @@
       <c r="O248" s="63"/>
       <c r="P248" s="61"/>
     </row>
-    <row r="249" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:16" ht="13.2">
       <c r="A249" s="59"/>
       <c r="B249" s="59"/>
       <c r="C249" s="59"/>
@@ -12954,7 +14151,7 @@
       <c r="O249" s="63"/>
       <c r="P249" s="61"/>
     </row>
-    <row r="250" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:16" ht="13.2">
       <c r="A250" s="59"/>
       <c r="B250" s="59"/>
       <c r="C250" s="59"/>
@@ -12972,7 +14169,7 @@
       <c r="O250" s="63"/>
       <c r="P250" s="61"/>
     </row>
-    <row r="251" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:16" ht="13.2">
       <c r="A251" s="59"/>
       <c r="B251" s="59"/>
       <c r="C251" s="59"/>
@@ -12990,7 +14187,7 @@
       <c r="O251" s="63"/>
       <c r="P251" s="61"/>
     </row>
-    <row r="252" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:16" ht="13.2">
       <c r="A252" s="59"/>
       <c r="B252" s="59"/>
       <c r="C252" s="59"/>
@@ -13008,7 +14205,7 @@
       <c r="O252" s="63"/>
       <c r="P252" s="61"/>
     </row>
-    <row r="253" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:16" ht="13.2">
       <c r="A253" s="59"/>
       <c r="B253" s="59"/>
       <c r="C253" s="59"/>
@@ -13026,7 +14223,7 @@
       <c r="O253" s="63"/>
       <c r="P253" s="61"/>
     </row>
-    <row r="254" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:16" ht="13.2">
       <c r="A254" s="59"/>
       <c r="B254" s="59"/>
       <c r="C254" s="59"/>
@@ -13044,7 +14241,7 @@
       <c r="O254" s="63"/>
       <c r="P254" s="61"/>
     </row>
-    <row r="255" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:16" ht="13.2">
       <c r="A255" s="59"/>
       <c r="B255" s="59"/>
       <c r="C255" s="59"/>
@@ -13062,7 +14259,7 @@
       <c r="O255" s="63"/>
       <c r="P255" s="61"/>
     </row>
-    <row r="256" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:16" ht="13.2">
       <c r="A256" s="59"/>
       <c r="B256" s="59"/>
       <c r="C256" s="59"/>
@@ -13080,7 +14277,7 @@
       <c r="O256" s="63"/>
       <c r="P256" s="61"/>
     </row>
-    <row r="257" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:16" ht="13.2">
       <c r="A257" s="59"/>
       <c r="B257" s="59"/>
       <c r="C257" s="59"/>
@@ -13098,7 +14295,7 @@
       <c r="O257" s="63"/>
       <c r="P257" s="61"/>
     </row>
-    <row r="258" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:16" ht="13.2">
       <c r="A258" s="59"/>
       <c r="B258" s="59"/>
       <c r="C258" s="59"/>
@@ -13116,7 +14313,7 @@
       <c r="O258" s="63"/>
       <c r="P258" s="61"/>
     </row>
-    <row r="259" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:16" ht="13.2">
       <c r="A259" s="59"/>
       <c r="B259" s="59"/>
       <c r="C259" s="59"/>
@@ -13134,7 +14331,7 @@
       <c r="O259" s="63"/>
       <c r="P259" s="61"/>
     </row>
-    <row r="260" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:16" ht="13.2">
       <c r="A260" s="59"/>
       <c r="B260" s="59"/>
       <c r="C260" s="59"/>
@@ -13152,7 +14349,7 @@
       <c r="O260" s="63"/>
       <c r="P260" s="61"/>
     </row>
-    <row r="261" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:16" ht="13.2">
       <c r="A261" s="59"/>
       <c r="B261" s="59"/>
       <c r="C261" s="59"/>
@@ -13170,7 +14367,7 @@
       <c r="O261" s="63"/>
       <c r="P261" s="61"/>
     </row>
-    <row r="262" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:16" ht="13.2">
       <c r="A262" s="59"/>
       <c r="B262" s="59"/>
       <c r="C262" s="59"/>
@@ -13188,7 +14385,7 @@
       <c r="O262" s="63"/>
       <c r="P262" s="61"/>
     </row>
-    <row r="263" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:16" ht="13.2">
       <c r="A263" s="59"/>
       <c r="B263" s="59"/>
       <c r="C263" s="59"/>
@@ -13206,7 +14403,7 @@
       <c r="O263" s="63"/>
       <c r="P263" s="61"/>
     </row>
-    <row r="264" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:16" ht="13.2">
       <c r="A264" s="59"/>
       <c r="B264" s="59"/>
       <c r="C264" s="59"/>
@@ -13224,7 +14421,7 @@
       <c r="O264" s="63"/>
       <c r="P264" s="61"/>
     </row>
-    <row r="265" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:16" ht="13.2">
       <c r="A265" s="59"/>
       <c r="B265" s="59"/>
       <c r="C265" s="59"/>
@@ -13242,7 +14439,7 @@
       <c r="O265" s="63"/>
       <c r="P265" s="61"/>
     </row>
-    <row r="266" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:16" ht="13.2">
       <c r="A266" s="59"/>
       <c r="B266" s="59"/>
       <c r="C266" s="59"/>
@@ -13260,7 +14457,7 @@
       <c r="O266" s="63"/>
       <c r="P266" s="61"/>
     </row>
-    <row r="267" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:16" ht="13.2">
       <c r="A267" s="59"/>
       <c r="B267" s="59"/>
       <c r="C267" s="59"/>
@@ -13278,7 +14475,7 @@
       <c r="O267" s="63"/>
       <c r="P267" s="61"/>
     </row>
-    <row r="268" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:16" ht="13.2">
       <c r="A268" s="59"/>
       <c r="B268" s="59"/>
       <c r="C268" s="59"/>
@@ -13296,7 +14493,7 @@
       <c r="O268" s="63"/>
       <c r="P268" s="61"/>
     </row>
-    <row r="269" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:16" ht="13.2">
       <c r="A269" s="59"/>
       <c r="B269" s="59"/>
       <c r="C269" s="59"/>
@@ -13314,7 +14511,7 @@
       <c r="O269" s="63"/>
       <c r="P269" s="61"/>
     </row>
-    <row r="270" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:16" ht="13.2">
       <c r="A270" s="59"/>
       <c r="B270" s="59"/>
       <c r="C270" s="59"/>
@@ -13332,7 +14529,7 @@
       <c r="O270" s="63"/>
       <c r="P270" s="61"/>
     </row>
-    <row r="271" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:16" ht="13.2">
       <c r="A271" s="59"/>
       <c r="B271" s="59"/>
       <c r="C271" s="59"/>
@@ -13350,7 +14547,7 @@
       <c r="O271" s="63"/>
       <c r="P271" s="61"/>
     </row>
-    <row r="272" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:16" ht="13.2">
       <c r="A272" s="59"/>
       <c r="B272" s="59"/>
       <c r="C272" s="59"/>
@@ -13368,7 +14565,7 @@
       <c r="O272" s="63"/>
       <c r="P272" s="61"/>
     </row>
-    <row r="273" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:16" ht="13.2">
       <c r="A273" s="59"/>
       <c r="B273" s="59"/>
       <c r="C273" s="59"/>
@@ -13386,7 +14583,7 @@
       <c r="O273" s="63"/>
       <c r="P273" s="61"/>
     </row>
-    <row r="274" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:16" ht="13.2">
       <c r="A274" s="59"/>
       <c r="B274" s="59"/>
       <c r="C274" s="59"/>
@@ -13404,7 +14601,7 @@
       <c r="O274" s="63"/>
       <c r="P274" s="61"/>
     </row>
-    <row r="275" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:16" ht="13.2">
       <c r="A275" s="59"/>
       <c r="B275" s="59"/>
       <c r="C275" s="59"/>
@@ -13422,7 +14619,7 @@
       <c r="O275" s="63"/>
       <c r="P275" s="61"/>
     </row>
-    <row r="276" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:16" ht="13.2">
       <c r="A276" s="59"/>
       <c r="B276" s="59"/>
       <c r="C276" s="59"/>
@@ -13440,7 +14637,7 @@
       <c r="O276" s="63"/>
       <c r="P276" s="61"/>
     </row>
-    <row r="277" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:16" ht="13.2">
       <c r="A277" s="59"/>
       <c r="B277" s="59"/>
       <c r="C277" s="59"/>
@@ -13458,7 +14655,7 @@
       <c r="O277" s="63"/>
       <c r="P277" s="61"/>
     </row>
-    <row r="278" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:16" ht="13.2">
       <c r="A278" s="59"/>
       <c r="B278" s="59"/>
       <c r="C278" s="59"/>
@@ -13476,7 +14673,7 @@
       <c r="O278" s="63"/>
       <c r="P278" s="61"/>
     </row>
-    <row r="279" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:16" ht="13.2">
       <c r="A279" s="59"/>
       <c r="B279" s="59"/>
       <c r="C279" s="59"/>
@@ -13494,7 +14691,7 @@
       <c r="O279" s="63"/>
       <c r="P279" s="61"/>
     </row>
-    <row r="280" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:16" ht="13.2">
       <c r="A280" s="59"/>
       <c r="B280" s="59"/>
       <c r="C280" s="59"/>
@@ -13512,7 +14709,7 @@
       <c r="O280" s="63"/>
       <c r="P280" s="61"/>
     </row>
-    <row r="281" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:16" ht="13.2">
       <c r="A281" s="59"/>
       <c r="B281" s="59"/>
       <c r="C281" s="59"/>
@@ -13530,7 +14727,7 @@
       <c r="O281" s="63"/>
       <c r="P281" s="61"/>
     </row>
-    <row r="282" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:16" ht="13.2">
       <c r="A282" s="59"/>
       <c r="B282" s="59"/>
       <c r="C282" s="59"/>
@@ -13547,42 +14744,6 @@
       <c r="N282" s="63"/>
       <c r="O282" s="63"/>
       <c r="P282" s="61"/>
-    </row>
-    <row r="283" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A283" s="59"/>
-      <c r="B283" s="59"/>
-      <c r="C283" s="59"/>
-      <c r="D283" s="26"/>
-      <c r="E283" s="60"/>
-      <c r="F283" s="61"/>
-      <c r="G283" s="61"/>
-      <c r="H283" s="61"/>
-      <c r="I283" s="9"/>
-      <c r="J283" s="61"/>
-      <c r="K283" s="61"/>
-      <c r="L283" s="61"/>
-      <c r="M283" s="62"/>
-      <c r="N283" s="63"/>
-      <c r="O283" s="63"/>
-      <c r="P283" s="61"/>
-    </row>
-    <row r="284" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A284" s="59"/>
-      <c r="B284" s="59"/>
-      <c r="C284" s="59"/>
-      <c r="D284" s="26"/>
-      <c r="E284" s="60"/>
-      <c r="F284" s="61"/>
-      <c r="G284" s="61"/>
-      <c r="H284" s="61"/>
-      <c r="I284" s="9"/>
-      <c r="J284" s="61"/>
-      <c r="K284" s="61"/>
-      <c r="L284" s="61"/>
-      <c r="M284" s="62"/>
-      <c r="N284" s="63"/>
-      <c r="O284" s="63"/>
-      <c r="P284" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13601,20 +14762,20 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -13643,7 +14804,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="11.4">
       <c r="A2" s="32" t="s">
         <v>315</v>
       </c>
@@ -13673,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>316</v>
       </c>
@@ -13703,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>317</v>
       </c>
@@ -13733,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>318</v>
       </c>
@@ -13763,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>319</v>
       </c>
@@ -13793,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>320</v>
       </c>
@@ -13823,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>321</v>
       </c>
@@ -13853,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>322</v>
       </c>
@@ -13883,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>323</v>
       </c>
@@ -13913,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>324</v>
       </c>
@@ -13943,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>325</v>
       </c>
@@ -13973,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>326</v>
       </c>
@@ -14003,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>327</v>
       </c>
@@ -14033,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1">
       <c r="A15" s="32" t="s">
         <v>328</v>
       </c>
@@ -14063,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1">
       <c r="A16" s="32" t="s">
         <v>329</v>
       </c>
@@ -14093,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>238</v>
       </c>
@@ -14123,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>239</v>
       </c>
@@ -14153,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
       <c r="A19" s="32" t="s">
         <v>240</v>
       </c>
@@ -14183,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="32" t="s">
         <v>241</v>
       </c>
@@ -14213,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
       <c r="A21" s="32" t="s">
         <v>242</v>
       </c>
@@ -14243,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1">
       <c r="A22" s="32" t="s">
         <v>243</v>
       </c>
@@ -14273,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1">
       <c r="A23" s="32" t="s">
         <v>244</v>
       </c>
@@ -14303,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="32" t="s">
         <v>245</v>
       </c>
@@ -14333,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>246</v>
       </c>
@@ -14363,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="32" t="s">
         <v>247</v>
       </c>
@@ -14393,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1">
       <c r="A27" s="32" t="s">
         <v>248</v>
       </c>
@@ -14423,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1">
       <c r="A28" s="32" t="s">
         <v>249</v>
       </c>
@@ -14453,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1">
       <c r="A29" s="32" t="s">
         <v>250</v>
       </c>
@@ -14483,7 +15644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="32" t="s">
         <v>251</v>
       </c>
@@ -14513,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
       <c r="A31" s="32" t="s">
         <v>196</v>
       </c>
@@ -14543,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
       <c r="A32" s="32" t="s">
         <v>197</v>
       </c>
@@ -14573,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
       <c r="A33" s="32" t="s">
         <v>198</v>
       </c>
@@ -14603,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="32" t="s">
         <v>199</v>
       </c>
@@ -14633,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1">
       <c r="A35" s="32" t="s">
         <v>200</v>
       </c>
@@ -14663,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="32" t="s">
         <v>201</v>
       </c>
@@ -14693,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="32" t="s">
         <v>202</v>
       </c>
@@ -14723,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
       <c r="A38" s="32" t="s">
         <v>203</v>
       </c>
@@ -14753,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="32" t="s">
         <v>204</v>
       </c>
@@ -14783,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
       <c r="A40" s="32" t="s">
         <v>205</v>
       </c>
@@ -14813,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1">
       <c r="A41" s="32" t="s">
         <v>206</v>
       </c>
@@ -14843,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>207</v>
       </c>
@@ -14873,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>208</v>
       </c>
@@ -14903,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1">
       <c r="A44" s="32" t="s">
         <v>209</v>
       </c>
@@ -14933,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1">
       <c r="A45" s="32" t="s">
         <v>210</v>
       </c>
@@ -14963,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1">
       <c r="A46" s="32" t="s">
         <v>211</v>
       </c>
@@ -14993,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1">
       <c r="A47" s="32" t="s">
         <v>212</v>
       </c>
@@ -15023,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1">
       <c r="A48" s="32" t="s">
         <v>213</v>
       </c>
@@ -15053,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1">
       <c r="A49" s="32" t="s">
         <v>214</v>
       </c>
@@ -15083,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1">
       <c r="A50" s="32" t="s">
         <v>215</v>
       </c>
@@ -15113,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1">
       <c r="A51" s="32" t="s">
         <v>216</v>
       </c>
@@ -15143,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1">
       <c r="A52" s="32" t="s">
         <v>217</v>
       </c>
@@ -15173,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
       <c r="A53" s="32" t="s">
         <v>218</v>
       </c>
@@ -15203,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1">
       <c r="A54" s="32" t="s">
         <v>219</v>
       </c>
@@ -15233,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1">
       <c r="A55" s="32" t="s">
         <v>220</v>
       </c>
@@ -15263,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1">
       <c r="A56" s="32" t="s">
         <v>221</v>
       </c>
@@ -15293,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1">
       <c r="A57" s="32" t="s">
         <v>222</v>
       </c>
@@ -15323,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1">
       <c r="A58" s="32" t="s">
         <v>223</v>
       </c>
@@ -15353,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1">
       <c r="A59" s="32" t="s">
         <v>224</v>
       </c>
@@ -15383,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1">
       <c r="A60" s="32" t="s">
         <v>225</v>
       </c>
@@ -15413,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1">
       <c r="A61" s="32" t="s">
         <v>226</v>
       </c>
@@ -15443,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1">
       <c r="A62" s="32" t="s">
         <v>227</v>
       </c>
@@ -15473,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1">
       <c r="A63" s="32" t="s">
         <v>228</v>
       </c>
@@ -15503,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1">
       <c r="A64" s="32" t="s">
         <v>229</v>
       </c>
@@ -15533,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1">
       <c r="A65" s="32" t="s">
         <v>230</v>
       </c>
@@ -15563,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1">
       <c r="A66" s="32" t="s">
         <v>231</v>
       </c>
@@ -15593,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1">
       <c r="A67" s="32" t="s">
         <v>232</v>
       </c>
@@ -15623,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1">
       <c r="A68" s="32" t="s">
         <v>233</v>
       </c>
@@ -15653,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1">
       <c r="A69" s="32" t="s">
         <v>487</v>
       </c>
@@ -15683,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="32" t="s">
         <v>488</v>
       </c>
@@ -15713,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
       <c r="A71" s="32" t="s">
         <v>489</v>
       </c>
@@ -15743,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1">
       <c r="A72" s="32" t="s">
         <v>490</v>
       </c>
@@ -15773,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
       <c r="A73" s="32" t="s">
         <v>491</v>
       </c>
@@ -15803,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="32" t="s">
         <v>492</v>
       </c>
@@ -15833,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="32" t="s">
         <v>493</v>
       </c>
@@ -15863,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="32" t="s">
         <v>494</v>
       </c>
@@ -15893,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="32" t="s">
         <v>495</v>
       </c>
@@ -15923,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="32" t="s">
         <v>496</v>
       </c>
@@ -15953,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="32" t="s">
         <v>497</v>
       </c>
@@ -15983,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="32" t="s">
         <v>498</v>
       </c>
@@ -16013,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1">
       <c r="A81" s="32" t="s">
         <v>499</v>
       </c>
@@ -16043,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="32" t="s">
         <v>500</v>
       </c>
@@ -16073,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="32" t="s">
         <v>501</v>
       </c>
@@ -16103,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1">
       <c r="A84" s="32" t="s">
         <v>281</v>
       </c>
@@ -16133,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="32" t="s">
         <v>282</v>
       </c>
@@ -16163,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="32" t="s">
         <v>283</v>
       </c>
@@ -16193,7 +17354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="32" t="s">
         <v>284</v>
       </c>
@@ -16223,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="32" t="s">
         <v>285</v>
       </c>
@@ -16253,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="32" t="s">
         <v>286</v>
       </c>
@@ -16283,7 +17444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1">
       <c r="A90" s="32" t="s">
         <v>287</v>
       </c>
@@ -16313,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="32" t="s">
         <v>288</v>
       </c>
@@ -16343,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
       <c r="A92" s="32" t="s">
         <v>289</v>
       </c>
@@ -16373,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="32" t="s">
         <v>290</v>
       </c>
@@ -16403,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="32" t="s">
         <v>291</v>
       </c>
@@ -16433,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="32" t="s">
         <v>292</v>
       </c>
@@ -16463,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="32" t="s">
         <v>293</v>
       </c>
@@ -16493,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
       <c r="A97" s="32" t="s">
         <v>294</v>
       </c>
@@ -16523,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="32" t="s">
         <v>295</v>
       </c>
@@ -16553,7 +17714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="32" t="s">
         <v>300</v>
       </c>
@@ -16583,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="32" t="s">
         <v>301</v>
       </c>
@@ -16613,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="32" t="s">
         <v>302</v>
       </c>
@@ -16643,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="32" t="s">
         <v>303</v>
       </c>
@@ -16673,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
       <c r="A103" s="32" t="s">
         <v>304</v>
       </c>
@@ -16703,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1">
       <c r="A104" s="32" t="s">
         <v>305</v>
       </c>
@@ -16733,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
       <c r="A105" s="32" t="s">
         <v>306</v>
       </c>
@@ -16763,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
       <c r="A106" s="32" t="s">
         <v>307</v>
       </c>
@@ -16793,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
       <c r="A107" s="32" t="s">
         <v>308</v>
       </c>
@@ -16823,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="32" t="s">
         <v>309</v>
       </c>
@@ -16853,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
       <c r="A109" s="32" t="s">
         <v>310</v>
       </c>
@@ -16883,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
       <c r="A110" s="32" t="s">
         <v>311</v>
       </c>
@@ -16913,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1">
       <c r="A111" s="32" t="s">
         <v>312</v>
       </c>
@@ -16943,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
       <c r="A112" s="32" t="s">
         <v>313</v>
       </c>
@@ -16973,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1">
       <c r="A113" s="32" t="s">
         <v>314</v>
       </c>
@@ -17003,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
       <c r="A114" s="32" t="s">
         <v>264</v>
       </c>
@@ -17033,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1">
       <c r="A115" s="32" t="s">
         <v>265</v>
       </c>
@@ -17063,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1">
       <c r="A116" s="32" t="s">
         <v>266</v>
       </c>
@@ -17093,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
       <c r="A117" s="32" t="s">
         <v>267</v>
       </c>
@@ -17123,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
       <c r="A118" s="32" t="s">
         <v>268</v>
       </c>
@@ -17153,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
       <c r="A119" s="32" t="s">
         <v>269</v>
       </c>
@@ -17183,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1">
       <c r="A120" s="32" t="s">
         <v>270</v>
       </c>
@@ -17213,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1">
       <c r="A121" s="32" t="s">
         <v>271</v>
       </c>
@@ -17243,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1">
       <c r="A122" s="32" t="s">
         <v>272</v>
       </c>
@@ -17273,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1">
       <c r="A123" s="32" t="s">
         <v>273</v>
       </c>
@@ -17303,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1">
       <c r="A124" s="32" t="s">
         <v>274</v>
       </c>
@@ -17333,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1">
       <c r="A125" s="32" t="s">
         <v>275</v>
       </c>
@@ -17363,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1">
       <c r="A126" s="32" t="s">
         <v>276</v>
       </c>
@@ -17393,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1">
       <c r="A127" s="32" t="s">
         <v>277</v>
       </c>
@@ -17423,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1">
       <c r="A128" s="32" t="s">
         <v>278</v>
       </c>
@@ -17453,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1">
       <c r="A129" s="32" t="s">
         <v>351</v>
       </c>
@@ -17483,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
       <c r="A130" s="32" t="s">
         <v>352</v>
       </c>
@@ -17513,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
       <c r="A131" s="32" t="s">
         <v>353</v>
       </c>
@@ -17543,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
       <c r="A132" s="32" t="s">
         <v>354</v>
       </c>
@@ -17573,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
       <c r="A133" s="32" t="s">
         <v>355</v>
       </c>
@@ -17603,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
       <c r="A134" s="32" t="s">
         <v>356</v>
       </c>
@@ -17633,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1">
       <c r="A135" s="32" t="s">
         <v>357</v>
       </c>
@@ -17663,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1">
       <c r="A136" s="32" t="s">
         <v>358</v>
       </c>
@@ -17693,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
       <c r="A137" s="32" t="s">
         <v>359</v>
       </c>
@@ -17723,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
       <c r="A138" s="32" t="s">
         <v>360</v>
       </c>
@@ -17753,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1">
       <c r="A139" s="32" t="s">
         <v>361</v>
       </c>
@@ -17783,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1">
       <c r="A140" s="32" t="s">
         <v>362</v>
       </c>
@@ -17813,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1">
       <c r="A141" s="32" t="s">
         <v>363</v>
       </c>
@@ -17843,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
       <c r="A142" s="32" t="s">
         <v>364</v>
       </c>
@@ -17873,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1">
       <c r="A143" s="32" t="s">
         <v>365</v>
       </c>
@@ -17903,7 +19064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1">
       <c r="A144" s="32" t="s">
         <v>332</v>
       </c>
@@ -17933,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
       <c r="A145" s="32" t="s">
         <v>333</v>
       </c>
@@ -17963,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
       <c r="A146" s="32" t="s">
         <v>334</v>
       </c>
@@ -17993,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1">
       <c r="A147" s="32" t="s">
         <v>335</v>
       </c>
@@ -18023,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1">
       <c r="A148" s="32" t="s">
         <v>336</v>
       </c>
@@ -18053,7 +19214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1">
       <c r="A149" s="32" t="s">
         <v>337</v>
       </c>
@@ -18083,7 +19244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1">
       <c r="A150" s="32" t="s">
         <v>338</v>
       </c>
@@ -18113,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1">
       <c r="A151" s="32" t="s">
         <v>339</v>
       </c>
@@ -18143,7 +19304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1">
       <c r="A152" s="32" t="s">
         <v>340</v>
       </c>
@@ -18173,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1">
       <c r="A153" s="32" t="s">
         <v>341</v>
       </c>
@@ -18203,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1">
       <c r="A154" s="32" t="s">
         <v>342</v>
       </c>
@@ -18233,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1">
       <c r="A155" s="32" t="s">
         <v>343</v>
       </c>
@@ -18263,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1">
       <c r="A156" s="32" t="s">
         <v>344</v>
       </c>
@@ -18293,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1">
       <c r="A157" s="32" t="s">
         <v>345</v>
       </c>
@@ -18323,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1">
       <c r="A158" s="32" t="s">
         <v>346</v>
       </c>
@@ -18353,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1">
       <c r="A159" s="32" t="s">
         <v>366</v>
       </c>
@@ -18383,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1">
       <c r="A160" s="32" t="s">
         <v>367</v>
       </c>
@@ -18413,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1">
       <c r="A161" s="32" t="s">
         <v>368</v>
       </c>
@@ -18443,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1">
       <c r="A162" s="32" t="s">
         <v>369</v>
       </c>
@@ -18473,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1">
       <c r="A163" s="32" t="s">
         <v>370</v>
       </c>
@@ -18503,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1">
       <c r="A164" s="32" t="s">
         <v>371</v>
       </c>
@@ -18533,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1">
       <c r="A165" s="32" t="s">
         <v>372</v>
       </c>
@@ -18563,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1">
       <c r="A166" s="32" t="s">
         <v>373</v>
       </c>
@@ -18593,7 +19754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1">
       <c r="A167" s="32" t="s">
         <v>374</v>
       </c>
@@ -18623,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1">
       <c r="A168" s="32" t="s">
         <v>375</v>
       </c>
@@ -18653,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1">
       <c r="A169" s="32" t="s">
         <v>376</v>
       </c>
@@ -18683,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1">
       <c r="A170" s="32" t="s">
         <v>377</v>
       </c>
@@ -18713,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1">
       <c r="A171" s="32" t="s">
         <v>378</v>
       </c>
@@ -18743,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1">
       <c r="A172" s="32" t="s">
         <v>379</v>
       </c>
@@ -18773,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1">
       <c r="A173" s="32" t="s">
         <v>380</v>
       </c>
@@ -18803,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1">
       <c r="A174" s="32" t="s">
         <v>134</v>
       </c>
@@ -18833,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1">
       <c r="A175" s="32" t="s">
         <v>136</v>
       </c>
@@ -18863,7 +20024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1">
       <c r="A176" s="32" t="s">
         <v>135</v>
       </c>
@@ -18893,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1">
       <c r="A177" s="32" t="s">
         <v>137</v>
       </c>
@@ -18923,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1">
       <c r="A178" s="32" t="s">
         <v>138</v>
       </c>
@@ -18953,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1">
       <c r="A179" s="32" t="s">
         <v>139</v>
       </c>
@@ -18983,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1">
       <c r="A180" s="32" t="s">
         <v>140</v>
       </c>
@@ -19013,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1">
       <c r="A181" s="32" t="s">
         <v>141</v>
       </c>
@@ -19043,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1">
       <c r="A182" s="32" t="s">
         <v>142</v>
       </c>
@@ -19073,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1">
       <c r="A183" s="32" t="s">
         <v>143</v>
       </c>
@@ -19103,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1">
       <c r="A184" s="32" t="s">
         <v>145</v>
       </c>
@@ -19133,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1">
       <c r="A185" s="32" t="s">
         <v>147</v>
       </c>
@@ -19163,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1">
       <c r="A186" s="32" t="s">
         <v>152</v>
       </c>
@@ -19193,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1">
       <c r="A187" s="32" t="s">
         <v>144</v>
       </c>
@@ -19223,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1">
       <c r="A188" s="32" t="s">
         <v>148</v>
       </c>
@@ -19253,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1">
       <c r="A189" s="32" t="s">
         <v>146</v>
       </c>
@@ -19283,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1">
       <c r="A190" s="32" t="s">
         <v>149</v>
       </c>
@@ -19313,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1">
       <c r="A191" s="32" t="s">
         <v>150</v>
       </c>
@@ -19343,7 +20504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1">
       <c r="A192" s="32" t="s">
         <v>151</v>
       </c>
@@ -19373,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1">
       <c r="A193" s="32" t="s">
         <v>385</v>
       </c>
@@ -19403,7 +20564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1">
       <c r="A194" s="32" t="s">
         <v>386</v>
       </c>
@@ -19433,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1">
       <c r="A195" s="32" t="s">
         <v>387</v>
       </c>
@@ -19463,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1">
       <c r="A196" s="32" t="s">
         <v>388</v>
       </c>
@@ -19493,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1">
       <c r="A197" s="32" t="s">
         <v>389</v>
       </c>
@@ -19523,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1">
       <c r="A198" s="32" t="s">
         <v>390</v>
       </c>
@@ -19553,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1">
       <c r="A199" s="32" t="s">
         <v>391</v>
       </c>
@@ -19583,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1">
       <c r="A200" s="32" t="s">
         <v>392</v>
       </c>
@@ -19613,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1">
       <c r="A201" s="32" t="s">
         <v>393</v>
       </c>
@@ -19643,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1">
       <c r="A202" s="32" t="s">
         <v>394</v>
       </c>
@@ -19673,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1">
       <c r="A203" s="32" t="s">
         <v>395</v>
       </c>
@@ -19703,7 +20864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1">
       <c r="A204" s="32" t="s">
         <v>396</v>
       </c>
@@ -19733,7 +20894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1">
       <c r="A205" s="32" t="s">
         <v>397</v>
       </c>
@@ -19763,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1">
       <c r="A206" s="32" t="s">
         <v>398</v>
       </c>
@@ -19793,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1">
       <c r="A207" s="32" t="s">
         <v>399</v>
       </c>
@@ -19823,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1">
       <c r="A208" s="32" t="s">
         <v>402</v>
       </c>
@@ -19853,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1">
       <c r="A209" s="32" t="s">
         <v>403</v>
       </c>
@@ -19883,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1">
       <c r="A210" s="32" t="s">
         <v>404</v>
       </c>
@@ -19913,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1">
       <c r="A211" s="32" t="s">
         <v>405</v>
       </c>
@@ -19943,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1">
       <c r="A212" s="32" t="s">
         <v>406</v>
       </c>
@@ -19973,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1">
       <c r="A213" s="32" t="s">
         <v>407</v>
       </c>
@@ -20003,7 +21164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1">
       <c r="A214" s="32" t="s">
         <v>408</v>
       </c>
@@ -20033,7 +21194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1">
       <c r="A215" s="32" t="s">
         <v>409</v>
       </c>
@@ -20063,7 +21224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1">
       <c r="A216" s="32" t="s">
         <v>410</v>
       </c>
@@ -20093,7 +21254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1">
       <c r="A217" s="32" t="s">
         <v>411</v>
       </c>
@@ -20123,7 +21284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1">
       <c r="A218" s="32" t="s">
         <v>412</v>
       </c>
@@ -20153,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1">
       <c r="A219" s="32" t="s">
         <v>413</v>
       </c>
@@ -20183,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1">
       <c r="A220" s="32" t="s">
         <v>414</v>
       </c>
@@ -20213,7 +21374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1">
       <c r="A221" s="32" t="s">
         <v>415</v>
       </c>
@@ -20243,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1">
       <c r="A222" s="32" t="s">
         <v>416</v>
       </c>
@@ -20273,7 +21434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1">
       <c r="A223" s="32"/>
       <c r="B223" s="26"/>
       <c r="C223" s="26"/>
@@ -20283,7 +21444,7 @@
       <c r="G223" s="43"/>
       <c r="H223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1">
       <c r="A224" s="32"/>
       <c r="B224" s="26"/>
       <c r="C224" s="26"/>
@@ -20293,7 +21454,7 @@
       <c r="G224" s="43"/>
       <c r="H224" s="32"/>
     </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:8" ht="18.75" customHeight="1">
       <c r="A225" s="32"/>
       <c r="B225" s="26"/>
       <c r="C225" s="26"/>
@@ -20303,7 +21464,7 @@
       <c r="G225" s="43"/>
       <c r="H225" s="32"/>
     </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:8" ht="18.75" customHeight="1">
       <c r="A226" s="32"/>
       <c r="B226" s="26"/>
       <c r="C226" s="26"/>
@@ -20313,7 +21474,7 @@
       <c r="G226" s="43"/>
       <c r="H226" s="32"/>
     </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:8" ht="18.75" customHeight="1">
       <c r="A227" s="32"/>
       <c r="B227" s="26"/>
       <c r="C227" s="26"/>
@@ -20323,7 +21484,7 @@
       <c r="G227" s="43"/>
       <c r="H227" s="32"/>
     </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:8" ht="18.75" customHeight="1">
       <c r="A228" s="32"/>
       <c r="B228" s="26"/>
       <c r="C228" s="26"/>
@@ -20333,7 +21494,7 @@
       <c r="G228" s="43"/>
       <c r="H228" s="32"/>
     </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:8" ht="18.75" customHeight="1">
       <c r="A229" s="32"/>
       <c r="B229" s="26"/>
       <c r="C229" s="26"/>
@@ -20343,7 +21504,7 @@
       <c r="G229" s="43"/>
       <c r="H229" s="32"/>
     </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:8" ht="18.75" customHeight="1">
       <c r="A230" s="32"/>
       <c r="B230" s="26"/>
       <c r="C230" s="26"/>
@@ -20353,7 +21514,7 @@
       <c r="G230" s="43"/>
       <c r="H230" s="32"/>
     </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:8" ht="18.75" customHeight="1">
       <c r="A231" s="32"/>
       <c r="B231" s="26"/>
       <c r="C231" s="26"/>
@@ -20363,7 +21524,7 @@
       <c r="G231" s="43"/>
       <c r="H231" s="32"/>
     </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:8" ht="18.75" customHeight="1">
       <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -20373,7 +21534,7 @@
       <c r="G232" s="43"/>
       <c r="H232" s="32"/>
     </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:8" ht="18.75" customHeight="1">
       <c r="A233" s="32"/>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -20383,7 +21544,7 @@
       <c r="G233" s="43"/>
       <c r="H233" s="32"/>
     </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:8" ht="18.75" customHeight="1">
       <c r="A234" s="32"/>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -20393,7 +21554,7 @@
       <c r="G234" s="43"/>
       <c r="H234" s="32"/>
     </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:8" ht="18.75" customHeight="1">
       <c r="A235" s="32"/>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -20403,7 +21564,7 @@
       <c r="G235" s="43"/>
       <c r="H235" s="32"/>
     </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:8" ht="18.75" customHeight="1">
       <c r="A236" s="32"/>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -20413,7 +21574,7 @@
       <c r="G236" s="43"/>
       <c r="H236" s="32"/>
     </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:8" ht="18.75" customHeight="1">
       <c r="A237" s="32"/>
       <c r="B237" s="26"/>
       <c r="C237" s="26"/>
@@ -20423,7 +21584,7 @@
       <c r="G237" s="43"/>
       <c r="H237" s="32"/>
     </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:8" ht="18.75" customHeight="1">
       <c r="A238" s="32"/>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
@@ -20433,7 +21594,7 @@
       <c r="G238" s="43"/>
       <c r="H238" s="32"/>
     </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:8" ht="18.75" customHeight="1">
       <c r="A239" s="32"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -20443,7 +21604,7 @@
       <c r="G239" s="43"/>
       <c r="H239" s="32"/>
     </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:8" ht="18.75" customHeight="1">
       <c r="A240" s="32"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -20453,7 +21614,7 @@
       <c r="G240" s="43"/>
       <c r="H240" s="32"/>
     </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:8" ht="18.75" customHeight="1">
       <c r="A241" s="32"/>
       <c r="B241" s="26"/>
       <c r="C241" s="26"/>
@@ -20463,7 +21624,7 @@
       <c r="G241" s="43"/>
       <c r="H241" s="32"/>
     </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:8" ht="18.75" customHeight="1">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -20473,7 +21634,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:8" ht="18.75" customHeight="1">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -20483,7 +21644,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:8" ht="18.75" customHeight="1">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -20493,7 +21654,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:8" ht="18.75" customHeight="1">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -20503,7 +21664,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:8" ht="18.75" customHeight="1">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -20513,7 +21674,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:8" ht="18.75" customHeight="1">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -20523,7 +21684,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:8" ht="18.75" customHeight="1">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -20533,7 +21694,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:8" ht="18.75" customHeight="1">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -20543,7 +21704,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:8" ht="18.75" customHeight="1">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -20553,7 +21714,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:8" ht="18.75" customHeight="1">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -20563,7 +21724,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:8" ht="18.75" customHeight="1">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -20573,7 +21734,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:8" ht="18.75" customHeight="1">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -20583,7 +21744,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:8" ht="18.75" customHeight="1">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -20593,7 +21754,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:8" ht="18.75" customHeight="1">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -20603,7 +21764,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:8" ht="18.75" customHeight="1">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -20613,7 +21774,7 @@
       <c r="G256" s="43"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:8" ht="18.75" customHeight="1">
       <c r="A257" s="32"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -20623,7 +21784,7 @@
       <c r="G257" s="43"/>
       <c r="H257" s="32"/>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:8" ht="18.75" customHeight="1">
       <c r="A258" s="32"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -20633,7 +21794,7 @@
       <c r="G258" s="43"/>
       <c r="H258" s="32"/>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:8" ht="18.75" customHeight="1">
       <c r="A259" s="32"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -20643,7 +21804,7 @@
       <c r="G259" s="43"/>
       <c r="H259" s="32"/>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:8" ht="18.75" customHeight="1">
       <c r="A260" s="32"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -20653,7 +21814,7 @@
       <c r="G260" s="43"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:8" ht="18.75" customHeight="1">
       <c r="A261" s="32"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -20663,7 +21824,7 @@
       <c r="G261" s="43"/>
       <c r="H261" s="32"/>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:8" ht="18.75" customHeight="1">
       <c r="A262" s="32"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -20673,7 +21834,7 @@
       <c r="G262" s="43"/>
       <c r="H262" s="32"/>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:8" ht="18.75" customHeight="1">
       <c r="A263" s="32"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -20683,7 +21844,7 @@
       <c r="G263" s="43"/>
       <c r="H263" s="32"/>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:8" ht="18.75" customHeight="1">
       <c r="A264" s="32"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -20693,7 +21854,7 @@
       <c r="G264" s="43"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:8" ht="18.75" customHeight="1">
       <c r="A265" s="32"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -20703,7 +21864,7 @@
       <c r="G265" s="43"/>
       <c r="H265" s="32"/>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:8" ht="18.75" customHeight="1">
       <c r="A266" s="32"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -20713,7 +21874,7 @@
       <c r="G266" s="43"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:8" ht="18.75" customHeight="1">
       <c r="A267" s="32"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -20723,7 +21884,7 @@
       <c r="G267" s="43"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:8" ht="18.75" customHeight="1">
       <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -20733,7 +21894,7 @@
       <c r="G268" s="43"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:8" ht="18.75" customHeight="1">
       <c r="A269" s="32"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -20743,7 +21904,7 @@
       <c r="G269" s="43"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:8" ht="18.75" customHeight="1">
       <c r="A270" s="32"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -20753,7 +21914,7 @@
       <c r="G270" s="43"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:8" ht="18.75" customHeight="1">
       <c r="A271" s="32"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -20763,7 +21924,7 @@
       <c r="G271" s="43"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:8" ht="18.75" customHeight="1">
       <c r="A272" s="32"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -20773,7 +21934,7 @@
       <c r="G272" s="43"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:8" ht="18.75" customHeight="1">
       <c r="A273" s="32"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -20783,7 +21944,7 @@
       <c r="G273" s="43"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:8" ht="18.75" customHeight="1">
       <c r="A274" s="32"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -20793,7 +21954,7 @@
       <c r="G274" s="43"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:8" ht="18.75" customHeight="1">
       <c r="A275" s="32"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -20803,7 +21964,7 @@
       <c r="G275" s="43"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:8" ht="18.75" customHeight="1">
       <c r="A276" s="32"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -20813,7 +21974,7 @@
       <c r="G276" s="43"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:8" ht="18.75" customHeight="1">
       <c r="A277" s="32"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -20823,7 +21984,7 @@
       <c r="G277" s="43"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:8" ht="18.75" customHeight="1">
       <c r="A278" s="32"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -20833,7 +21994,7 @@
       <c r="G278" s="43"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:8" ht="18.75" customHeight="1">
       <c r="A279" s="32"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -20843,7 +22004,7 @@
       <c r="G279" s="43"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:8" ht="18.75" customHeight="1">
       <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -20853,7 +22014,7 @@
       <c r="G280" s="43"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:8" ht="18.75" customHeight="1">
       <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -20863,7 +22024,7 @@
       <c r="G281" s="43"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:8" ht="18.75" customHeight="1">
       <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -20873,7 +22034,7 @@
       <c r="G282" s="43"/>
       <c r="H282" s="32"/>
     </row>
-    <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:8" ht="18.75" customHeight="1">
       <c r="A283" s="32"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -20883,7 +22044,7 @@
       <c r="G283" s="43"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:8" ht="18.75" customHeight="1">
       <c r="A284" s="32"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -20893,7 +22054,7 @@
       <c r="G284" s="43"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:8" ht="18.75" customHeight="1">
       <c r="A285" s="32"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -20903,7 +22064,7 @@
       <c r="G285" s="43"/>
       <c r="H285" s="32"/>
     </row>
-    <row r="286" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:8" ht="18.75" customHeight="1">
       <c r="A286" s="32"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -20931,16 +22092,16 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="A9:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -20966,7 +22127,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -20994,7 +22155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -21022,7 +22183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -21050,7 +22211,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -21078,7 +22239,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -21106,7 +22267,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -21134,7 +22295,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -21162,7 +22323,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -21190,7 +22351,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -21218,7 +22379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -21246,7 +22407,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -21274,7 +22435,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -21302,7 +22463,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>256</v>
       </c>
@@ -21330,7 +22491,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -21358,7 +22519,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -21386,7 +22547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -21414,7 +22575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -21442,7 +22603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -21470,7 +22631,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -21498,7 +22659,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -21526,7 +22687,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>296</v>
       </c>
@@ -21554,7 +22715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>297</v>
       </c>
@@ -21582,7 +22743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -21610,7 +22771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>280</v>
       </c>
@@ -21638,7 +22799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>298</v>
       </c>
@@ -21666,7 +22827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>299</v>
       </c>
@@ -21694,7 +22855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>261</v>
       </c>
@@ -21722,7 +22883,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -21750,7 +22911,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>263</v>
       </c>
@@ -21778,7 +22939,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>349</v>
       </c>
@@ -21806,7 +22967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>350</v>
       </c>
@@ -21834,7 +22995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>348</v>
       </c>
@@ -21862,7 +23023,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -21890,7 +23051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>382</v>
       </c>
@@ -21918,7 +23079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -21946,7 +23107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -21974,7 +23135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -22002,7 +23163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -22030,7 +23191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -22058,7 +23219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -22086,7 +23247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -22114,7 +23275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -22142,7 +23303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -22170,7 +23331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -22198,7 +23359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>383</v>
       </c>
@@ -22226,7 +23387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>384</v>
       </c>
@@ -22254,7 +23415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>400</v>
       </c>
@@ -22282,7 +23443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>401</v>
       </c>
@@ -22310,7 +23471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>427</v>
       </c>
@@ -22338,7 +23499,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>429</v>
       </c>
@@ -22366,7 +23527,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>428</v>
       </c>
@@ -22394,7 +23555,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>430</v>
       </c>
@@ -22422,7 +23583,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>443</v>
       </c>
@@ -22450,7 +23611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>447</v>
       </c>
@@ -22478,7 +23639,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>449</v>
       </c>
@@ -22506,7 +23667,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>532</v>
       </c>
@@ -22534,7 +23695,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>450</v>
       </c>
@@ -22562,7 +23723,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>451</v>
       </c>
@@ -22590,7 +23751,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>515</v>
       </c>
@@ -22619,7 +23780,7 @@
       </c>
       <c r="J60" s="69"/>
     </row>
-    <row r="61" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>523</v>
       </c>
@@ -22648,7 +23809,7 @@
       </c>
       <c r="J61" s="69"/>
     </row>
-    <row r="62" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>524</v>
       </c>
@@ -22677,7 +23838,7 @@
       </c>
       <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>452</v>
       </c>
@@ -22706,7 +23867,7 @@
       </c>
       <c r="J63" s="69"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>531</v>
       </c>
@@ -22735,7 +23896,7 @@
       </c>
       <c r="J64" s="69"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>453</v>
       </c>
@@ -22764,7 +23925,7 @@
       </c>
       <c r="J65" s="69"/>
     </row>
-    <row r="66" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>530</v>
       </c>
@@ -22793,7 +23954,7 @@
       </c>
       <c r="J66" s="69"/>
     </row>
-    <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>454</v>
       </c>
@@ -22822,7 +23983,7 @@
       </c>
       <c r="J67" s="69"/>
     </row>
-    <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>443</v>
       </c>
@@ -22850,7 +24011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -22878,7 +24039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -22906,7 +24067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>529</v>
       </c>
@@ -22934,7 +24095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="B72" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -22959,7 +24120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="B73" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -22984,7 +24145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="B74" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -23026,18 +24187,18 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -23063,7 +24224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>175</v>
       </c>
@@ -23090,7 +24251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>176</v>
       </c>
@@ -23134,16 +24295,16 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -23166,7 +24327,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>178</v>
       </c>
@@ -23190,7 +24351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>179</v>
       </c>
@@ -23231,16 +24392,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -23253,20 +24414,20 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A44">_xlfn.UNIQUE(_xlfn._xlws.SORT((HearingAids[haModel])))</f>
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:B17">_xlfn.UNIQUE(_xlfn._xlws.SORT(HearingAids[haDiscountDescription]))</f>
+        <f t="array" ref="B3:B18">_xlfn.UNIQUE(_xlfn._xlws.SORT(HearingAids[haDiscountDescription]))</f>
         <v>Amplifon Competitive</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12">
       <c r="A4" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 95DWT</v>
       </c>
@@ -23277,7 +24438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="12">
       <c r="A5" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 86DWHT</v>
       </c>
@@ -23288,7 +24449,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12">
       <c r="A6" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 95DWT</v>
       </c>
@@ -23299,7 +24460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="12">
       <c r="A7" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 86DWHT</v>
       </c>
@@ -23310,7 +24471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12">
       <c r="A8" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 95DWT</v>
       </c>
@@ -23318,7 +24479,7 @@
         <v>HearUSA Competitive</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12">
       <c r="A9" t="str">
         <v>Beltone BTE Digital Rely 2 66DW</v>
       </c>
@@ -23326,7 +24487,7 @@
         <v>Humana</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="12">
       <c r="A10" t="str">
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
@@ -23334,7 +24495,7 @@
         <v>Martins Point Competitive</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="12">
       <c r="A11" t="str">
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
@@ -23342,7 +24503,7 @@
         <v>Nations Hearing Competitive</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="12">
       <c r="A12" t="str">
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
@@ -23350,7 +24511,7 @@
         <v>Open House Special</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="12">
       <c r="A13" t="str">
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
@@ -23358,7 +24519,7 @@
         <v>Regular</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="12">
       <c r="A14" t="str">
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
@@ -23366,7 +24527,7 @@
         <v>Tri-Care</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="12">
       <c r="A15" t="str">
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
@@ -23374,7 +24535,7 @@
         <v>TruHearing Competitive</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="12">
       <c r="A16" t="str">
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
@@ -23382,145 +24543,148 @@
         <v>Veterans Discount</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
       <c r="B17" t="str">
-        <v>WellCare Competitive</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>Volume Discount</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="12">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <v>WellCare Competitive</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="12">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12">
       <c r="A21" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12">
       <c r="A22" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12">
       <c r="A23" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12">
       <c r="A24" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12">
       <c r="A25" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12">
       <c r="A26" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="12">
       <c r="A27" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="12">
       <c r="A28" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="12">
       <c r="A29" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="12">
       <c r="A30" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12">
       <c r="A31" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="12">
       <c r="A32" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="12">
       <c r="A33" t="str">
         <v>Beltone RIE Digital Envision 6 62S-DRWC</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="12">
       <c r="A34" t="str">
         <v>Beltone RIE Digital Envision 9 62S-DRWC</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="12">
       <c r="A35" t="str">
         <v>Beltone RIE Digital Rely 2 63DRW</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="str">
         <v>Beltone RIE Digital Rely 2 64DRW</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="str">
         <v>Beltone RIE Digital Rely 3 63DRW</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <v>Beltone RIE Digital Rely 3 63DRWC</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <v>Beltone RIE Digital Rely 3 64DRW</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <v>Beltone RIE Digital Rely 4 63DRWC</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="str">
         <v>Beltone RIE Digital Rely 4 64DRW</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="str">
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="str">
         <v>Beltone RIE Digital Serene 6 62SDRWC</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="str">
         <v>Beltone RIE Digital Serene 9 62SDRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3283" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C4443D-3A3C-442E-9F2F-08AB6E3478B3}"/>
+  <xr:revisionPtr revIDLastSave="3293" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F561A36D-5477-42BD-AC14-D4937AD5C332}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="608">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1899,6 +1899,9 @@
   </si>
   <si>
     <t>Volume Discount</t>
+  </si>
+  <si>
+    <t>Marketing Offer</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2387,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2539,37 +2542,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2616,6 +2588,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3352,8 +3363,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P177" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P177" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P181" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:P181" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Beltone Envision 17 62S-DRWC Digital RIE"/>
+        <filter val="Beltone Envision 4 62S-DRWC Digital RIE"/>
+        <filter val="Beltone Envision 6 62S-DRWC Digital RIE"/>
+        <filter val="Beltone Envision 9 62S-DRWC Digital RIE"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="Nations Hearing Competitive"/>
@@ -3792,33 +3811,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="94"/>
+      <c r="B5" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="110"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3843,10 +3862,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="111"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3856,27 +3875,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="112" t="str">
+      <c r="B11" s="103" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3889,28 +3908,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="101" t="str" cm="1">
+      <c r="J11" s="92" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="112" t="str">
+      <c r="B12" s="103" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3923,25 +3942,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="112" t="str" cm="1">
+      <c r="B13" s="103" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3954,26 +3973,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="112" t="str" cm="1">
+      <c r="B14" s="103" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3983,26 +4002,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="112" t="str">
+      <c r="B15" s="103" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4012,46 +4031,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="109" t="str" cm="1">
+      <c r="J16" s="100" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="108" t="str" cm="1">
+      <c r="B17" s="99" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4064,11 +4083,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4078,9 +4097,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4092,12 +4111,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="101" t="e" cm="1" vm="1">
+      <c r="L20" s="92" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4111,9 +4130,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="106"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="97"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4131,9 +4150,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4149,9 +4168,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="106"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4170,9 +4189,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="106"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4180,9 +4199,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4209,6 +4228,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4223,11 +4247,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4271,10 +4290,10 @@
   <dimension ref="A1:Q282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B104" sqref="B104:I104"/>
+      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8947,7 +8966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96" s="71" t="s">
         <v>557</v>
       </c>
@@ -9352,7 +9371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>432</v>
       </c>
@@ -10012,7 +10031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>433</v>
       </c>
@@ -10672,7 +10691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>434</v>
       </c>
@@ -10978,7 +10997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A136" s="83" t="s">
         <v>58</v>
       </c>
@@ -11025,7 +11044,7 @@
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A137" s="83" t="s">
         <v>59</v>
       </c>
@@ -11072,7 +11091,7 @@
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A138" s="83" t="s">
         <v>60</v>
       </c>
@@ -11119,7 +11138,7 @@
       </c>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A139" s="83" t="s">
         <v>61</v>
       </c>
@@ -11166,7 +11185,7 @@
       </c>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A140" s="83" t="s">
         <v>62</v>
       </c>
@@ -11213,7 +11232,7 @@
       </c>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A141" s="83" t="s">
         <v>63</v>
       </c>
@@ -11260,7 +11279,7 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142" s="83" t="s">
         <v>558</v>
       </c>
@@ -11301,7 +11320,7 @@
       <c r="P142" s="85"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143" s="83" t="s">
         <v>557</v>
       </c>
@@ -11523,7 +11542,7 @@
       </c>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A148" s="83" t="s">
         <v>49</v>
       </c>
@@ -11572,7 +11591,7 @@
       </c>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A149" s="83" t="s">
         <v>50</v>
       </c>
@@ -11619,7 +11638,7 @@
       </c>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A150" s="83" t="s">
         <v>36</v>
       </c>
@@ -11666,7 +11685,7 @@
       </c>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A151" s="83" t="s">
         <v>37</v>
       </c>
@@ -11713,7 +11732,7 @@
       </c>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A152" s="83" t="s">
         <v>38</v>
       </c>
@@ -11760,7 +11779,7 @@
       </c>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A153" s="83" t="s">
         <v>39</v>
       </c>
@@ -11807,7 +11826,7 @@
       </c>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A154" s="83" t="s">
         <v>45</v>
       </c>
@@ -11852,7 +11871,7 @@
       <c r="P154" s="86"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A155" s="83" t="s">
         <v>47</v>
       </c>
@@ -11897,7 +11916,7 @@
       <c r="P155" s="86"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A156" s="83" t="s">
         <v>51</v>
       </c>
@@ -11946,7 +11965,7 @@
       </c>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A157" s="83" t="s">
         <v>421</v>
       </c>
@@ -11995,7 +12014,7 @@
       </c>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A158" s="83" t="s">
         <v>52</v>
       </c>
@@ -12042,7 +12061,7 @@
       </c>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A159" s="83" t="s">
         <v>40</v>
       </c>
@@ -12089,7 +12108,7 @@
       </c>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A160" s="83" t="s">
         <v>41</v>
       </c>
@@ -12136,7 +12155,7 @@
       </c>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A161" s="83" t="s">
         <v>42</v>
       </c>
@@ -12183,7 +12202,7 @@
       </c>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A162" s="83" t="s">
         <v>43</v>
       </c>
@@ -12230,7 +12249,7 @@
       </c>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A163" s="83" t="s">
         <v>44</v>
       </c>
@@ -12275,7 +12294,7 @@
       <c r="P163" s="86"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A164" s="83" t="s">
         <v>46</v>
       </c>
@@ -12320,7 +12339,7 @@
       <c r="P164" s="86"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A165" s="83" t="s">
         <v>48</v>
       </c>
@@ -12365,7 +12384,7 @@
       <c r="P165" s="86"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A166" s="83" t="s">
         <v>32</v>
       </c>
@@ -12414,7 +12433,7 @@
       </c>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A167" s="83" t="s">
         <v>34</v>
       </c>
@@ -12461,7 +12480,7 @@
       </c>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A168" s="83" t="s">
         <v>22</v>
       </c>
@@ -12507,7 +12526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A169" s="83" t="s">
         <v>26</v>
       </c>
@@ -12553,7 +12572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A170" s="83" t="s">
         <v>27</v>
       </c>
@@ -12599,7 +12618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A171" s="83" t="s">
         <v>28</v>
       </c>
@@ -12645,7 +12664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A172" s="83" t="s">
         <v>29</v>
       </c>
@@ -12689,7 +12708,7 @@
       </c>
       <c r="P172" s="86"/>
     </row>
-    <row r="173" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A173" s="83" t="s">
         <v>30</v>
       </c>
@@ -12733,7 +12752,7 @@
       </c>
       <c r="P173" s="86"/>
     </row>
-    <row r="174" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A174" s="83" t="s">
         <v>31</v>
       </c>
@@ -12777,7 +12796,7 @@
       </c>
       <c r="P174" s="86"/>
     </row>
-    <row r="175" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A175" s="83" t="s">
         <v>432</v>
       </c>
@@ -12825,7 +12844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A176" s="83" t="s">
         <v>433</v>
       </c>
@@ -12873,7 +12892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>
@@ -12922,76 +12941,186 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="28"/>
-      <c r="N178" s="16"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="20"/>
+      <c r="A178" s="116" t="s">
+        <v>553</v>
+      </c>
+      <c r="B178" s="117" t="s">
+        <v>569</v>
+      </c>
+      <c r="C178" s="83"/>
+      <c r="D178" s="118" t="s">
+        <v>560</v>
+      </c>
+      <c r="E178" s="119" t="s">
+        <v>607</v>
+      </c>
+      <c r="F178" s="85">
+        <v>5819</v>
+      </c>
+      <c r="G178" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" s="86">
+        <v>250</v>
+      </c>
+      <c r="I178" s="86">
+        <f>1019+500</f>
+        <v>1519</v>
+      </c>
+      <c r="J178" s="86">
+        <v>4800</v>
+      </c>
+      <c r="K178" s="86">
+        <v>9850</v>
+      </c>
+      <c r="L178" s="86"/>
+      <c r="M178" s="87">
+        <v>1</v>
+      </c>
+      <c r="N178" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O178" s="89">
+        <v>0</v>
+      </c>
+      <c r="P178" s="85" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="179" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="28"/>
-      <c r="N179" s="16"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="20"/>
+      <c r="A179" s="116" t="s">
+        <v>556</v>
+      </c>
+      <c r="B179" s="117" t="s">
+        <v>574</v>
+      </c>
+      <c r="C179" s="83"/>
+      <c r="D179" s="118" t="s">
+        <v>560</v>
+      </c>
+      <c r="E179" s="119" t="s">
+        <v>607</v>
+      </c>
+      <c r="F179" s="85">
+        <v>3029</v>
+      </c>
+      <c r="G179" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" s="86">
+        <v>200</v>
+      </c>
+      <c r="I179" s="86">
+        <f>804+500</f>
+        <v>1304</v>
+      </c>
+      <c r="J179" s="86">
+        <v>2225</v>
+      </c>
+      <c r="K179" s="86">
+        <v>4650</v>
+      </c>
+      <c r="L179" s="86"/>
+      <c r="M179" s="87">
+        <v>1</v>
+      </c>
+      <c r="N179" s="89"/>
+      <c r="O179" s="89"/>
+      <c r="P179" s="85"/>
     </row>
     <row r="180" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="28"/>
-      <c r="N180" s="16"/>
-      <c r="O180" s="16"/>
-      <c r="P180" s="2"/>
+      <c r="A180" s="116" t="s">
+        <v>555</v>
+      </c>
+      <c r="B180" s="117" t="s">
+        <v>571</v>
+      </c>
+      <c r="C180" s="83"/>
+      <c r="D180" s="118" t="s">
+        <v>560</v>
+      </c>
+      <c r="E180" s="119" t="s">
+        <v>607</v>
+      </c>
+      <c r="F180" s="85">
+        <v>3689</v>
+      </c>
+      <c r="G180" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" s="86">
+        <v>250</v>
+      </c>
+      <c r="I180" s="86">
+        <f>219+500</f>
+        <v>719</v>
+      </c>
+      <c r="J180" s="86">
+        <v>3470</v>
+      </c>
+      <c r="K180" s="86">
+        <v>7190</v>
+      </c>
+      <c r="L180" s="86"/>
+      <c r="M180" s="87">
+        <v>1</v>
+      </c>
+      <c r="N180" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O180" s="89">
+        <v>0</v>
+      </c>
+      <c r="P180" s="85" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="181" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="28"/>
-      <c r="N181" s="16"/>
-      <c r="O181" s="16"/>
-      <c r="P181" s="2"/>
+      <c r="A181" s="116" t="s">
+        <v>554</v>
+      </c>
+      <c r="B181" s="117" t="s">
+        <v>570</v>
+      </c>
+      <c r="C181" s="83"/>
+      <c r="D181" s="118" t="s">
+        <v>560</v>
+      </c>
+      <c r="E181" s="119" t="s">
+        <v>607</v>
+      </c>
+      <c r="F181" s="85">
+        <v>4679</v>
+      </c>
+      <c r="G181" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" s="86">
+        <v>250</v>
+      </c>
+      <c r="I181" s="86">
+        <f>479+500</f>
+        <v>979</v>
+      </c>
+      <c r="J181" s="86">
+        <v>4200</v>
+      </c>
+      <c r="K181" s="86">
+        <v>8650</v>
+      </c>
+      <c r="L181" s="86"/>
+      <c r="M181" s="87">
+        <v>1</v>
+      </c>
+      <c r="N181" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O181" s="89">
+        <v>0</v>
+      </c>
+      <c r="P181" s="85" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="182" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A182" s="4"/>
@@ -24489,7 +24618,7 @@
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:B18">_xlfn.UNIQUE(_xlfn._xlws.SORT(HearingAids[haDiscountDescription]))</f>
+        <f t="array" ref="B3:B19">_xlfn.UNIQUE(_xlfn._xlws.SORT(HearingAids[haDiscountDescription]))</f>
         <v>Amplifon Competitive</v>
       </c>
       <c r="C3" t="s">
@@ -24561,7 +24690,7 @@
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
       <c r="B10" t="str">
-        <v>Martins Point Competitive</v>
+        <v>Marketing Offer</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -24569,7 +24698,7 @@
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
       <c r="B11" t="str">
-        <v>Nations Hearing Competitive</v>
+        <v>Martins Point Competitive</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -24577,7 +24706,7 @@
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
       <c r="B12" t="str">
-        <v>Open House Special</v>
+        <v>Nations Hearing Competitive</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -24585,7 +24714,7 @@
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
       <c r="B13" t="str">
-        <v>Regular</v>
+        <v>Open House Special</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -24593,7 +24722,7 @@
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
       <c r="B14" t="str">
-        <v>Tri-Care</v>
+        <v>Regular</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -24601,7 +24730,7 @@
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
       <c r="B15" t="str">
-        <v>TruHearing Competitive</v>
+        <v>Tri-Care</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -24609,7 +24738,7 @@
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
       <c r="B16" t="str">
-        <v>Veterans Discount</v>
+        <v>TruHearing Competitive</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -24617,7 +24746,7 @@
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
       <c r="B17" t="str">
-        <v>Volume Discount</v>
+        <v>Veterans Discount</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -24625,12 +24754,15 @@
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
       <c r="B18" t="str">
-        <v>WellCare Competitive</v>
+        <v>Volume Discount</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
+      </c>
+      <c r="B19" t="str">
+        <v>WellCare Competitive</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3293" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F561A36D-5477-42BD-AC14-D4937AD5C332}"/>
+  <xr:revisionPtr revIDLastSave="3299" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB98749-76CD-4EB7-A043-2AD3E78BAE70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="608">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -2387,7 +2387,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2542,6 +2542,37 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2588,45 +2619,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3363,8 +3355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P181" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P181" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P180" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
     <filterColumn colId="1">
       <filters>
         <filter val="Beltone Envision 17 62S-DRWC Digital RIE"/>
@@ -3811,33 +3803,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="110"/>
+      <c r="B5" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="94"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="91" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3862,10 +3854,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="95"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3875,27 +3867,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="103" t="str">
+      <c r="B11" s="112" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3908,28 +3900,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="92" t="str" cm="1">
+      <c r="J11" s="101" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="103" t="str">
+      <c r="B12" s="112" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3942,25 +3934,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="103" t="str" cm="1">
+      <c r="B13" s="112" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3973,26 +3965,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="103" t="str" cm="1">
+      <c r="B14" s="112" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4002,26 +3994,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="106"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="103" t="str">
+      <c r="B15" s="112" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4031,46 +4023,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="100" t="str" cm="1">
+      <c r="J16" s="109" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="111"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="99" t="str" cm="1">
+      <c r="B17" s="108" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4083,11 +4075,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4097,9 +4089,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4111,12 +4103,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="92" t="e" cm="1" vm="1">
+      <c r="L20" s="101" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4130,9 +4122,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="106"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4150,9 +4142,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="106"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4168,9 +4160,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="106"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4189,9 +4181,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4199,9 +4191,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4228,11 +4220,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4247,6 +4234,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4287,13 +4279,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
-  <dimension ref="A1:Q282"/>
+  <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
+      <selection pane="bottomRight" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -12892,7 +12884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>
@@ -12940,18 +12932,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A178" s="116" t="s">
+    <row r="178" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="A178" s="83" t="s">
         <v>553</v>
       </c>
-      <c r="B178" s="117" t="s">
+      <c r="B178" s="83" t="s">
         <v>569</v>
       </c>
       <c r="C178" s="83"/>
-      <c r="D178" s="118" t="s">
+      <c r="D178" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="E178" s="119" t="s">
+      <c r="E178" s="84" t="s">
         <v>607</v>
       </c>
       <c r="F178" s="85">
@@ -12964,8 +12956,7 @@
         <v>250</v>
       </c>
       <c r="I178" s="86">
-        <f>1019+500</f>
-        <v>1519</v>
+        <v>250</v>
       </c>
       <c r="J178" s="86">
         <v>4800</v>
@@ -12987,63 +12978,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A179" s="116" t="s">
-        <v>556</v>
-      </c>
-      <c r="B179" s="117" t="s">
-        <v>574</v>
+    <row r="179" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="A179" s="83" t="s">
+        <v>555</v>
+      </c>
+      <c r="B179" s="83" t="s">
+        <v>571</v>
       </c>
       <c r="C179" s="83"/>
-      <c r="D179" s="118" t="s">
+      <c r="D179" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="E179" s="119" t="s">
+      <c r="E179" s="84" t="s">
         <v>607</v>
       </c>
       <c r="F179" s="85">
-        <v>3029</v>
+        <v>3689</v>
       </c>
       <c r="G179" s="86" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H179" s="86">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I179" s="86">
-        <f>804+500</f>
-        <v>1304</v>
+        <v>250</v>
       </c>
       <c r="J179" s="86">
-        <v>2225</v>
+        <v>3470</v>
       </c>
       <c r="K179" s="86">
-        <v>4650</v>
+        <v>7190</v>
       </c>
       <c r="L179" s="86"/>
       <c r="M179" s="87">
         <v>1</v>
       </c>
-      <c r="N179" s="89"/>
-      <c r="O179" s="89"/>
-      <c r="P179" s="85"/>
-    </row>
-    <row r="180" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A180" s="116" t="s">
-        <v>555</v>
-      </c>
-      <c r="B180" s="117" t="s">
-        <v>571</v>
+      <c r="N179" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O179" s="89">
+        <v>0</v>
+      </c>
+      <c r="P179" s="85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="A180" s="83" t="s">
+        <v>554</v>
+      </c>
+      <c r="B180" s="83" t="s">
+        <v>570</v>
       </c>
       <c r="C180" s="83"/>
-      <c r="D180" s="118" t="s">
+      <c r="D180" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="E180" s="119" t="s">
+      <c r="E180" s="84" t="s">
         <v>607</v>
       </c>
       <c r="F180" s="85">
-        <v>3689</v>
+        <v>4679</v>
       </c>
       <c r="G180" s="86" t="s">
         <v>20</v>
@@ -13052,14 +13048,13 @@
         <v>250</v>
       </c>
       <c r="I180" s="86">
-        <f>219+500</f>
-        <v>719</v>
+        <v>250</v>
       </c>
       <c r="J180" s="86">
-        <v>3470</v>
+        <v>4200</v>
       </c>
       <c r="K180" s="86">
-        <v>7190</v>
+        <v>8650</v>
       </c>
       <c r="L180" s="86"/>
       <c r="M180" s="87">
@@ -13075,54 +13070,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A181" s="116" t="s">
-        <v>554</v>
-      </c>
-      <c r="B181" s="117" t="s">
-        <v>570</v>
-      </c>
-      <c r="C181" s="83"/>
-      <c r="D181" s="118" t="s">
-        <v>560</v>
-      </c>
-      <c r="E181" s="119" t="s">
-        <v>607</v>
-      </c>
-      <c r="F181" s="85">
-        <v>4679</v>
-      </c>
-      <c r="G181" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="H181" s="86">
-        <v>250</v>
-      </c>
-      <c r="I181" s="86">
-        <f>479+500</f>
-        <v>979</v>
-      </c>
-      <c r="J181" s="86">
-        <v>4200</v>
-      </c>
-      <c r="K181" s="86">
-        <v>8650</v>
-      </c>
-      <c r="L181" s="86"/>
-      <c r="M181" s="87">
-        <v>1</v>
-      </c>
-      <c r="N181" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="O181" s="89">
-        <v>0</v>
-      </c>
-      <c r="P181" s="85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="28"/>
+      <c r="N181" s="16"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="20"/>
+    </row>
+    <row r="182" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -13140,7 +13106,7 @@
       <c r="O182" s="2"/>
       <c r="P182" s="20"/>
     </row>
-    <row r="183" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -13158,7 +13124,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="20"/>
     </row>
-    <row r="184" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -13173,10 +13139,10 @@
       <c r="L184" s="2"/>
       <c r="M184" s="28"/>
       <c r="N184" s="16"/>
-      <c r="O184" s="2"/>
-      <c r="P184" s="20"/>
-    </row>
-    <row r="185" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="O184" s="16"/>
+      <c r="P184" s="2"/>
+    </row>
+    <row r="185" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -13194,7 +13160,7 @@
       <c r="O185" s="16"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -13208,11 +13174,11 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="28"/>
-      <c r="N186" s="16"/>
+      <c r="N186" s="36"/>
       <c r="O186" s="16"/>
-      <c r="P186" s="2"/>
-    </row>
-    <row r="187" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+      <c r="P186" s="9"/>
+    </row>
+    <row r="187" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -13230,7 +13196,7 @@
       <c r="O187" s="16"/>
       <c r="P187" s="9"/>
     </row>
-    <row r="188" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -13248,7 +13214,7 @@
       <c r="O188" s="16"/>
       <c r="P188" s="9"/>
     </row>
-    <row r="189" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -13262,11 +13228,11 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="28"/>
-      <c r="N189" s="36"/>
+      <c r="N189" s="16"/>
       <c r="O189" s="16"/>
       <c r="P189" s="9"/>
     </row>
-    <row r="190" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -13284,7 +13250,7 @@
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -13302,7 +13268,7 @@
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -13319,11 +13285,12 @@
       <c r="N192" s="16"/>
       <c r="O192" s="16"/>
       <c r="P192" s="9"/>
+      <c r="Q192" s="41"/>
     </row>
     <row r="193" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="C193" s="55"/>
       <c r="D193" s="26"/>
       <c r="E193" s="5"/>
       <c r="F193" s="9"/>
@@ -13334,9 +13301,9 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="28"/>
-      <c r="N193" s="16"/>
-      <c r="O193" s="16"/>
-      <c r="P193" s="9"/>
+      <c r="N193" s="17"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="20"/>
       <c r="Q193" s="41"/>
     </row>
     <row r="194" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
@@ -13375,23 +13342,22 @@
       <c r="N195" s="17"/>
       <c r="O195" s="2"/>
       <c r="P195" s="20"/>
-      <c r="Q195" s="41"/>
     </row>
     <row r="196" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="55"/>
+      <c r="C196" s="4"/>
       <c r="D196" s="26"/>
       <c r="E196" s="5"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="2"/>
+      <c r="G196" s="38"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="28"/>
-      <c r="N196" s="17"/>
+      <c r="N196" s="16"/>
       <c r="O196" s="2"/>
       <c r="P196" s="20"/>
     </row>
@@ -13438,7 +13404,7 @@
       <c r="D199" s="26"/>
       <c r="E199" s="5"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="38"/>
+      <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
@@ -13446,8 +13412,8 @@
       <c r="L199" s="2"/>
       <c r="M199" s="28"/>
       <c r="N199" s="16"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="20"/>
+      <c r="O199" s="16"/>
+      <c r="P199" s="9"/>
     </row>
     <row r="200" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A200" s="4"/>
@@ -13555,7 +13521,7 @@
       <c r="M205" s="28"/>
       <c r="N205" s="16"/>
       <c r="O205" s="16"/>
-      <c r="P205" s="9"/>
+      <c r="P205" s="2"/>
     </row>
     <row r="206" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A206" s="4"/>
@@ -13591,7 +13557,7 @@
       <c r="M207" s="28"/>
       <c r="N207" s="16"/>
       <c r="O207" s="16"/>
-      <c r="P207" s="2"/>
+      <c r="P207" s="9"/>
     </row>
     <row r="208" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A208" s="4"/>
@@ -13627,7 +13593,7 @@
       <c r="M209" s="28"/>
       <c r="N209" s="16"/>
       <c r="O209" s="16"/>
-      <c r="P209" s="9"/>
+      <c r="P209" s="2"/>
     </row>
     <row r="210" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A210" s="4"/>
@@ -13663,7 +13629,7 @@
       <c r="M211" s="28"/>
       <c r="N211" s="16"/>
       <c r="O211" s="16"/>
-      <c r="P211" s="2"/>
+      <c r="P211" s="9"/>
     </row>
     <row r="212" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A212" s="4"/>
@@ -13698,8 +13664,8 @@
       <c r="L213" s="2"/>
       <c r="M213" s="28"/>
       <c r="N213" s="16"/>
-      <c r="O213" s="16"/>
-      <c r="P213" s="9"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="20"/>
     </row>
     <row r="214" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A214" s="4"/>
@@ -13752,8 +13718,8 @@
       <c r="L216" s="2"/>
       <c r="M216" s="28"/>
       <c r="N216" s="16"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="20"/>
+      <c r="O216" s="16"/>
+      <c r="P216" s="2"/>
     </row>
     <row r="217" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A217" s="4"/>
@@ -13788,8 +13754,8 @@
       <c r="L218" s="2"/>
       <c r="M218" s="28"/>
       <c r="N218" s="16"/>
-      <c r="O218" s="16"/>
-      <c r="P218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="20"/>
     </row>
     <row r="219" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A219" s="4"/>
@@ -13842,8 +13808,8 @@
       <c r="L221" s="2"/>
       <c r="M221" s="28"/>
       <c r="N221" s="16"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="20"/>
+      <c r="O221" s="16"/>
+      <c r="P221" s="2"/>
     </row>
     <row r="222" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A222" s="4"/>
@@ -13878,8 +13844,8 @@
       <c r="L223" s="2"/>
       <c r="M223" s="28"/>
       <c r="N223" s="16"/>
-      <c r="O223" s="16"/>
-      <c r="P223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="20"/>
     </row>
     <row r="224" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A224" s="4"/>
@@ -13932,8 +13898,8 @@
       <c r="L226" s="2"/>
       <c r="M226" s="28"/>
       <c r="N226" s="16"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="20"/>
+      <c r="O226" s="16"/>
+      <c r="P226" s="2"/>
     </row>
     <row r="227" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A227" s="4"/>
@@ -13967,9 +13933,9 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="28"/>
-      <c r="N228" s="16"/>
+      <c r="N228" s="36"/>
       <c r="O228" s="16"/>
-      <c r="P228" s="2"/>
+      <c r="P228" s="9"/>
     </row>
     <row r="229" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A229" s="4"/>
@@ -14021,7 +13987,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="28"/>
-      <c r="N231" s="36"/>
+      <c r="N231" s="16"/>
       <c r="O231" s="16"/>
       <c r="P231" s="9"/>
     </row>
@@ -14100,7 +14066,7 @@
     <row r="236" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
+      <c r="C236" s="55"/>
       <c r="D236" s="26"/>
       <c r="E236" s="5"/>
       <c r="F236" s="9"/>
@@ -14111,9 +14077,9 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="28"/>
-      <c r="N236" s="16"/>
-      <c r="O236" s="16"/>
-      <c r="P236" s="9"/>
+      <c r="N236" s="17"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="20"/>
     </row>
     <row r="237" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A237" s="4"/>
@@ -14154,38 +14120,38 @@
     <row r="239" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="55"/>
+      <c r="C239" s="4"/>
       <c r="D239" s="26"/>
       <c r="E239" s="5"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="28"/>
-      <c r="N239" s="17"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="20"/>
+      <c r="F239" s="38"/>
+      <c r="G239" s="38"/>
+      <c r="H239" s="38"/>
+      <c r="I239" s="38"/>
+      <c r="J239" s="38"/>
+      <c r="K239" s="38"/>
+      <c r="L239" s="38"/>
+      <c r="M239" s="39"/>
+      <c r="N239" s="40"/>
+      <c r="O239" s="41"/>
+      <c r="P239" s="41"/>
     </row>
     <row r="240" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+      <c r="A240" s="59"/>
+      <c r="B240" s="59"/>
+      <c r="C240" s="59"/>
       <c r="D240" s="26"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="38"/>
-      <c r="G240" s="38"/>
-      <c r="H240" s="38"/>
-      <c r="I240" s="38"/>
-      <c r="J240" s="38"/>
-      <c r="K240" s="38"/>
-      <c r="L240" s="38"/>
-      <c r="M240" s="39"/>
-      <c r="N240" s="40"/>
-      <c r="O240" s="41"/>
-      <c r="P240" s="41"/>
+      <c r="E240" s="60"/>
+      <c r="F240" s="61"/>
+      <c r="G240" s="61"/>
+      <c r="H240" s="61"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="61"/>
+      <c r="K240" s="61"/>
+      <c r="L240" s="61"/>
+      <c r="M240" s="62"/>
+      <c r="N240" s="63"/>
+      <c r="O240" s="63"/>
+      <c r="P240" s="61"/>
     </row>
     <row r="241" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A241" s="59"/>
@@ -14924,24 +14890,6 @@
       <c r="N281" s="63"/>
       <c r="O281" s="63"/>
       <c r="P281" s="61"/>
-    </row>
-    <row r="282" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
-      <c r="A282" s="59"/>
-      <c r="B282" s="59"/>
-      <c r="C282" s="59"/>
-      <c r="D282" s="26"/>
-      <c r="E282" s="60"/>
-      <c r="F282" s="61"/>
-      <c r="G282" s="61"/>
-      <c r="H282" s="61"/>
-      <c r="I282" s="9"/>
-      <c r="J282" s="61"/>
-      <c r="K282" s="61"/>
-      <c r="L282" s="61"/>
-      <c r="M282" s="62"/>
-      <c r="N282" s="63"/>
-      <c r="O282" s="63"/>
-      <c r="P282" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3299" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB98749-76CD-4EB7-A043-2AD3E78BAE70}"/>
+  <xr:revisionPtr revIDLastSave="3301" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D34B46-3A4E-4B6A-9CE7-2F8166A3FD21}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="30465" yWindow="480" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2542,37 +2542,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2620,6 +2589,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3356,22 +3356,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P180" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Beltone Envision 17 62S-DRWC Digital RIE"/>
-        <filter val="Beltone Envision 4 62S-DRWC Digital RIE"/>
-        <filter val="Beltone Envision 6 62S-DRWC Digital RIE"/>
-        <filter val="Beltone Envision 9 62S-DRWC Digital RIE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Nations Hearing Competitive"/>
-        <filter val="Volume Discount"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P131">
     <sortCondition ref="B1:B135"/>
   </sortState>
@@ -3803,33 +3788,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="94"/>
+      <c r="B5" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="110"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3854,10 +3839,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="111"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3867,27 +3852,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="112" t="str">
+      <c r="B11" s="103" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3900,28 +3885,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="101" t="str" cm="1">
+      <c r="J11" s="92" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="112" t="str">
+      <c r="B12" s="103" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3934,25 +3919,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="112" t="str" cm="1">
+      <c r="B13" s="103" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3965,26 +3950,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="112" t="str" cm="1">
+      <c r="B14" s="103" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3994,26 +3979,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="112" t="str">
+      <c r="B15" s="103" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4023,46 +4008,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="109" t="str" cm="1">
+      <c r="J16" s="100" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="108" t="str" cm="1">
+      <c r="B17" s="99" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4075,11 +4060,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4089,9 +4074,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4103,12 +4088,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="101" t="e" cm="1" vm="1">
+      <c r="L20" s="92" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4122,9 +4107,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="106"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="97"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4142,9 +4127,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4160,9 +4145,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="106"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4181,9 +4166,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="106"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4191,9 +4176,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4220,6 +4205,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4234,11 +4224,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4285,7 +4270,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I180" sqref="I180"/>
+      <selection pane="bottomRight" activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4360,7 +4345,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -4408,7 +4393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -4458,7 +4443,7 @@
       </c>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -4507,7 +4492,7 @@
       </c>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
@@ -4557,7 +4542,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -4606,7 +4591,7 @@
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -4656,7 +4641,7 @@
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -4705,7 +4690,7 @@
       </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4755,7 +4740,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -4804,7 +4789,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -4854,7 +4839,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -4903,7 +4888,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -4953,7 +4938,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5002,7 +4987,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A15" s="71" t="s">
         <v>558</v>
       </c>
@@ -5046,7 +5031,7 @@
       <c r="P15" s="73"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -5094,7 +5079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A17" s="71" t="s">
         <v>557</v>
       </c>
@@ -5137,7 +5122,7 @@
       <c r="O17" s="77"/>
       <c r="P17" s="73"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -5185,7 +5170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A19" s="71" t="s">
         <v>553</v>
       </c>
@@ -5235,7 +5220,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -5284,7 +5269,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A21" s="71" t="s">
         <v>556</v>
       </c>
@@ -5328,7 +5313,7 @@
       <c r="P21" s="73"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -5377,7 +5362,7 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A23" s="71" t="s">
         <v>555</v>
       </c>
@@ -5427,7 +5412,7 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -5476,7 +5461,7 @@
       </c>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A25" s="71" t="s">
         <v>554</v>
       </c>
@@ -5526,7 +5511,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5575,7 +5560,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -5627,7 +5612,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5676,7 +5661,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -5726,7 +5711,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -5775,7 +5760,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -5825,7 +5810,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -5874,7 +5859,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -5924,7 +5909,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5973,7 +5958,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -6023,7 +6008,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -6072,7 +6057,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -6122,7 +6107,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -6169,7 +6154,7 @@
       <c r="P38" s="2"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -6217,7 +6202,7 @@
       <c r="P39" s="2"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -6264,7 +6249,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -6312,7 +6297,7 @@
       <c r="P41" s="2"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -6358,7 +6343,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -6410,7 +6395,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -6457,7 +6442,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>421</v>
       </c>
@@ -6509,7 +6494,7 @@
       </c>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -6556,7 +6541,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
@@ -6606,7 +6591,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -6653,7 +6638,7 @@
       <c r="P48" s="2"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
@@ -6703,7 +6688,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -6750,7 +6735,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -6800,7 +6785,7 @@
       </c>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
@@ -6847,7 +6832,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -6897,7 +6882,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
@@ -6947,7 +6932,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A55" s="71" t="s">
         <v>558</v>
       </c>
@@ -6990,7 +6975,7 @@
       <c r="P55" s="73"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
@@ -7038,7 +7023,7 @@
       <c r="P56" s="2"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A57" s="71" t="s">
         <v>557</v>
       </c>
@@ -7090,7 +7075,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A58" s="71" t="s">
         <v>557</v>
       </c>
@@ -7142,7 +7127,7 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A59" s="71" t="s">
         <v>557</v>
       </c>
@@ -7194,7 +7179,7 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
         <v>557</v>
       </c>
@@ -7246,7 +7231,7 @@
       </c>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
@@ -7294,7 +7279,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
         <v>557</v>
       </c>
@@ -7344,7 +7329,7 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>557</v>
       </c>
@@ -7387,7 +7372,7 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>557</v>
       </c>
@@ -7437,7 +7422,7 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>557</v>
       </c>
@@ -7487,7 +7472,7 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A66" s="71" t="s">
         <v>557</v>
       </c>
@@ -7537,7 +7522,7 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A67" s="71" t="s">
         <v>557</v>
       </c>
@@ -7587,7 +7572,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A68" s="71" t="s">
         <v>557</v>
       </c>
@@ -7637,7 +7622,7 @@
       </c>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
         <v>553</v>
       </c>
@@ -7687,7 +7672,7 @@
       </c>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A70" s="71" t="s">
         <v>553</v>
       </c>
@@ -7736,7 +7721,7 @@
       </c>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A71" s="71" t="s">
         <v>553</v>
       </c>
@@ -7786,7 +7771,7 @@
       </c>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A72" s="4" t="s">
         <v>48</v>
       </c>
@@ -7834,7 +7819,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
         <v>556</v>
       </c>
@@ -7877,7 +7862,7 @@
       <c r="P73" s="73"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
@@ -7929,7 +7914,7 @@
       </c>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A75" s="71" t="s">
         <v>555</v>
       </c>
@@ -7979,7 +7964,7 @@
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A76" s="71" t="s">
         <v>555</v>
       </c>
@@ -8029,7 +8014,7 @@
       </c>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A77" s="4" t="s">
         <v>34</v>
       </c>
@@ -8079,7 +8064,7 @@
       </c>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A78" s="71" t="s">
         <v>555</v>
       </c>
@@ -8128,7 +8113,7 @@
       </c>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A79" s="71" t="s">
         <v>554</v>
       </c>
@@ -8177,7 +8162,7 @@
       </c>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A80" s="71" t="s">
         <v>554</v>
       </c>
@@ -8227,7 +8212,7 @@
       </c>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A81" s="71" t="s">
         <v>554</v>
       </c>
@@ -8277,7 +8262,7 @@
       </c>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A82" s="4" t="s">
         <v>22</v>
       </c>
@@ -8326,7 +8311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -8376,7 +8361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
@@ -8425,7 +8410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
@@ -8473,7 +8458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
@@ -8522,7 +8507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A87" s="4" t="s">
         <v>51</v>
       </c>
@@ -8572,7 +8557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A88" s="4" t="s">
         <v>28</v>
       </c>
@@ -8621,7 +8606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A89" s="4" t="s">
         <v>421</v>
       </c>
@@ -8671,7 +8656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -8718,7 +8703,7 @@
       </c>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A91" s="4" t="s">
         <v>52</v>
       </c>
@@ -8766,7 +8751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A92" s="4" t="s">
         <v>30</v>
       </c>
@@ -8813,7 +8798,7 @@
       </c>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A93" s="4" t="s">
         <v>32</v>
       </c>
@@ -8863,7 +8848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
@@ -8910,7 +8895,7 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
@@ -8958,7 +8943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A96" s="71" t="s">
         <v>557</v>
       </c>
@@ -9009,7 +8994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A97" s="4" t="s">
         <v>432</v>
       </c>
@@ -9060,7 +9045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>432</v>
       </c>
@@ -9110,7 +9095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A99" s="4" t="s">
         <v>432</v>
       </c>
@@ -9159,7 +9144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A100" s="4" t="s">
         <v>432</v>
       </c>
@@ -9210,7 +9195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A101" s="4" t="s">
         <v>432</v>
       </c>
@@ -9261,7 +9246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A102" s="4" t="s">
         <v>432</v>
       </c>
@@ -9312,7 +9297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A103" s="4" t="s">
         <v>432</v>
       </c>
@@ -9363,7 +9348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>432</v>
       </c>
@@ -9414,7 +9399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A105" s="4" t="s">
         <v>432</v>
       </c>
@@ -9465,7 +9450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A106" s="4" t="s">
         <v>432</v>
       </c>
@@ -9516,7 +9501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A107" s="4" t="s">
         <v>432</v>
       </c>
@@ -9567,7 +9552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A108" s="4" t="s">
         <v>432</v>
       </c>
@@ -9618,7 +9603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A109" s="4" t="s">
         <v>432</v>
       </c>
@@ -9669,7 +9654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A110" s="4" t="s">
         <v>433</v>
       </c>
@@ -9720,7 +9705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A111" s="4" t="s">
         <v>433</v>
       </c>
@@ -9770,7 +9755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A112" s="4" t="s">
         <v>433</v>
       </c>
@@ -9819,7 +9804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A113" s="4" t="s">
         <v>433</v>
       </c>
@@ -9870,7 +9855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A114" s="4" t="s">
         <v>433</v>
       </c>
@@ -9921,7 +9906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A115" s="4" t="s">
         <v>433</v>
       </c>
@@ -9972,7 +9957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A116" s="4" t="s">
         <v>433</v>
       </c>
@@ -10023,7 +10008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>433</v>
       </c>
@@ -10074,7 +10059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A118" s="4" t="s">
         <v>433</v>
       </c>
@@ -10125,7 +10110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A119" s="4" t="s">
         <v>433</v>
       </c>
@@ -10176,7 +10161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A120" s="4" t="s">
         <v>433</v>
       </c>
@@ -10227,7 +10212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A121" s="4" t="s">
         <v>433</v>
       </c>
@@ -10278,7 +10263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A122" s="4" t="s">
         <v>433</v>
       </c>
@@ -10329,7 +10314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>434</v>
       </c>
@@ -10380,7 +10365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>434</v>
       </c>
@@ -10430,7 +10415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>434</v>
       </c>
@@ -10479,7 +10464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>434</v>
       </c>
@@ -10530,7 +10515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>434</v>
       </c>
@@ -10581,7 +10566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>434</v>
       </c>
@@ -10632,7 +10617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>434</v>
       </c>
@@ -10683,7 +10668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>434</v>
       </c>
@@ -10734,7 +10719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>434</v>
       </c>
@@ -10785,7 +10770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>434</v>
       </c>
@@ -10836,7 +10821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>434</v>
       </c>
@@ -10887,7 +10872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>434</v>
       </c>
@@ -10938,7 +10923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>434</v>
       </c>
@@ -10989,7 +10974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A136" s="83" t="s">
         <v>58</v>
       </c>
@@ -11036,7 +11021,7 @@
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A137" s="83" t="s">
         <v>59</v>
       </c>
@@ -11083,7 +11068,7 @@
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A138" s="83" t="s">
         <v>60</v>
       </c>
@@ -11130,7 +11115,7 @@
       </c>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A139" s="83" t="s">
         <v>61</v>
       </c>
@@ -11177,7 +11162,7 @@
       </c>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A140" s="83" t="s">
         <v>62</v>
       </c>
@@ -11224,7 +11209,7 @@
       </c>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A141" s="83" t="s">
         <v>63</v>
       </c>
@@ -11271,7 +11256,7 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A142" s="83" t="s">
         <v>558</v>
       </c>
@@ -11312,7 +11297,7 @@
       <c r="P142" s="85"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A143" s="83" t="s">
         <v>557</v>
       </c>
@@ -11534,7 +11519,7 @@
       </c>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A148" s="83" t="s">
         <v>49</v>
       </c>
@@ -11583,7 +11568,7 @@
       </c>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A149" s="83" t="s">
         <v>50</v>
       </c>
@@ -11630,7 +11615,7 @@
       </c>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A150" s="83" t="s">
         <v>36</v>
       </c>
@@ -11677,7 +11662,7 @@
       </c>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A151" s="83" t="s">
         <v>37</v>
       </c>
@@ -11724,7 +11709,7 @@
       </c>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A152" s="83" t="s">
         <v>38</v>
       </c>
@@ -11771,7 +11756,7 @@
       </c>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A153" s="83" t="s">
         <v>39</v>
       </c>
@@ -11818,7 +11803,7 @@
       </c>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A154" s="83" t="s">
         <v>45</v>
       </c>
@@ -11863,7 +11848,7 @@
       <c r="P154" s="86"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A155" s="83" t="s">
         <v>47</v>
       </c>
@@ -11908,7 +11893,7 @@
       <c r="P155" s="86"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A156" s="83" t="s">
         <v>51</v>
       </c>
@@ -11957,7 +11942,7 @@
       </c>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A157" s="83" t="s">
         <v>421</v>
       </c>
@@ -12006,7 +11991,7 @@
       </c>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A158" s="83" t="s">
         <v>52</v>
       </c>
@@ -12053,7 +12038,7 @@
       </c>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A159" s="83" t="s">
         <v>40</v>
       </c>
@@ -12100,7 +12085,7 @@
       </c>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A160" s="83" t="s">
         <v>41</v>
       </c>
@@ -12147,7 +12132,7 @@
       </c>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A161" s="83" t="s">
         <v>42</v>
       </c>
@@ -12194,7 +12179,7 @@
       </c>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A162" s="83" t="s">
         <v>43</v>
       </c>
@@ -12241,7 +12226,7 @@
       </c>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A163" s="83" t="s">
         <v>44</v>
       </c>
@@ -12286,7 +12271,7 @@
       <c r="P163" s="86"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A164" s="83" t="s">
         <v>46</v>
       </c>
@@ -12331,7 +12316,7 @@
       <c r="P164" s="86"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A165" s="83" t="s">
         <v>48</v>
       </c>
@@ -12376,7 +12361,7 @@
       <c r="P165" s="86"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A166" s="83" t="s">
         <v>32</v>
       </c>
@@ -12425,7 +12410,7 @@
       </c>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A167" s="83" t="s">
         <v>34</v>
       </c>
@@ -12472,7 +12457,7 @@
       </c>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A168" s="83" t="s">
         <v>22</v>
       </c>
@@ -12518,7 +12503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A169" s="83" t="s">
         <v>26</v>
       </c>
@@ -12564,7 +12549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A170" s="83" t="s">
         <v>27</v>
       </c>
@@ -12610,7 +12595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A171" s="83" t="s">
         <v>28</v>
       </c>
@@ -12656,7 +12641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A172" s="83" t="s">
         <v>29</v>
       </c>
@@ -12700,7 +12685,7 @@
       </c>
       <c r="P172" s="86"/>
     </row>
-    <row r="173" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A173" s="83" t="s">
         <v>30</v>
       </c>
@@ -12744,7 +12729,7 @@
       </c>
       <c r="P173" s="86"/>
     </row>
-    <row r="174" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A174" s="83" t="s">
         <v>31</v>
       </c>
@@ -12788,7 +12773,7 @@
       </c>
       <c r="P174" s="86"/>
     </row>
-    <row r="175" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A175" s="83" t="s">
         <v>432</v>
       </c>
@@ -12836,7 +12821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A176" s="83" t="s">
         <v>433</v>
       </c>
@@ -12884,7 +12869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3301" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D34B46-3A4E-4B6A-9CE7-2F8166A3FD21}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="480" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2542,6 +2542,37 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2589,37 +2620,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3788,33 +3788,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="110"/>
+      <c r="B5" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="94"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="91" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3839,10 +3839,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="95"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3852,27 +3852,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="103" t="str">
+      <c r="B11" s="112" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3885,28 +3885,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="92" t="str" cm="1">
+      <c r="J11" s="101" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="103" t="str">
+      <c r="B12" s="112" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3919,25 +3919,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="103" t="str" cm="1">
+      <c r="B13" s="112" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3950,26 +3950,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="103" t="str" cm="1">
+      <c r="B14" s="112" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3979,26 +3979,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="106"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="103" t="str">
+      <c r="B15" s="112" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4008,46 +4008,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="100" t="str" cm="1">
+      <c r="J16" s="109" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="111"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="99" t="str" cm="1">
+      <c r="B17" s="108" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4060,11 +4060,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4074,9 +4074,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4088,12 +4088,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="92" t="e" cm="1" vm="1">
+      <c r="L20" s="101" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4107,9 +4107,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="106"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4127,9 +4127,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="106"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4145,9 +4145,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="106"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4166,9 +4166,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4176,9 +4176,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4205,11 +4205,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4224,6 +4219,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4267,10 +4267,10 @@
   <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B155" sqref="B155"/>
+      <selection pane="bottomRight" activeCell="L179" sqref="C178:L179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3301" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D34B46-3A4E-4B6A-9CE7-2F8166A3FD21}"/>
+  <xr:revisionPtr revIDLastSave="3304" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C52FFF-E62E-43C8-8906-B717A331E207}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="608">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -2387,7 +2387,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2542,37 +2542,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2620,6 +2589,43 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3389,8 +3395,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}" name="Table3" displayName="Table3" ref="A1:I222" totalsRowShown="0" dataDxfId="35">
-  <autoFilter ref="A1:I222" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}" name="Table3" displayName="Table3" ref="A1:I241" totalsRowShown="0" dataDxfId="35">
+  <autoFilter ref="A1:I241" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H286">
     <sortCondition ref="H1:H286"/>
   </sortState>
@@ -3788,33 +3794,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="94"/>
+      <c r="B5" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="110"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3839,10 +3845,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="111"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3852,27 +3858,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="112" t="str">
+      <c r="B11" s="103" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3885,28 +3891,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="101" t="str" cm="1">
+      <c r="J11" s="92" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="112" t="str">
+      <c r="B12" s="103" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3919,25 +3925,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="112" t="str" cm="1">
+      <c r="B13" s="103" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3950,26 +3956,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="112" t="str" cm="1">
+      <c r="B14" s="103" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3979,26 +3985,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="112" t="str">
+      <c r="B15" s="103" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4008,46 +4014,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="109" t="str" cm="1">
+      <c r="J16" s="100" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="108" t="str" cm="1">
+      <c r="B17" s="99" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4060,11 +4066,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4074,9 +4080,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4088,12 +4094,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="101" t="e" cm="1" vm="1">
+      <c r="L20" s="92" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4107,9 +4113,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="106"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="97"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4127,9 +4133,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4145,9 +4151,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="106"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4166,9 +4172,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="106"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4176,9 +4182,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4205,6 +4211,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4219,11 +4230,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4266,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14889,8 +14895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D837ECC3-A09E-4C86-AA3E-B9664769F460}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20700,7 +20706,7 @@
         <v>386</v>
       </c>
       <c r="B194" s="26" t="str">
-        <f t="shared" ref="B194:B222" si="3">"("&amp;A194&amp;")"</f>
+        <f t="shared" ref="B194:B241" si="3">"("&amp;A194&amp;")"</f>
         <v>(CTH-REC-SF3-HP1)</v>
       </c>
       <c r="C194" s="32" t="s">
@@ -21566,196 +21572,576 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A223" s="32"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="43"/>
-      <c r="H223" s="32"/>
+      <c r="A223" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B223" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-MM-1)</v>
+      </c>
+      <c r="C223" s="117" t="s">
+        <v>549</v>
+      </c>
+      <c r="D223" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E223" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F223" s="43">
+        <v>150</v>
+      </c>
+      <c r="G223" s="43">
+        <v>0</v>
+      </c>
+      <c r="H223" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I223" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A224" s="32"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="32"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="43"/>
-      <c r="H224" s="32"/>
-    </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A225" s="32"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="32"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="43"/>
-      <c r="H225" s="32"/>
-    </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A226" s="32"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="32"/>
-      <c r="E226" s="32"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="43"/>
-      <c r="H226" s="32"/>
-    </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A227" s="32"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="32"/>
-      <c r="E227" s="32"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="43"/>
-      <c r="H227" s="32"/>
-    </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A228" s="32"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="32"/>
-      <c r="E228" s="32"/>
-      <c r="F228" s="32"/>
-      <c r="G228" s="43"/>
-      <c r="H228" s="32"/>
-    </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A229" s="32"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="32"/>
-      <c r="E229" s="32"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="43"/>
-      <c r="H229" s="32"/>
-    </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A230" s="32"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="43"/>
-      <c r="H230" s="32"/>
-    </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A231" s="32"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="43"/>
-      <c r="H231" s="32"/>
-    </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A232" s="32"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32"/>
-      <c r="G232" s="43"/>
-      <c r="H232" s="32"/>
-    </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A233" s="32"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="43"/>
-      <c r="H233" s="32"/>
-    </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A234" s="32"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="43"/>
-      <c r="H234" s="32"/>
-    </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A235" s="32"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="43"/>
-      <c r="H235" s="32"/>
-    </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A236" s="32"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="43"/>
-      <c r="H236" s="32"/>
-    </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A237" s="32"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="43"/>
-      <c r="H237" s="32"/>
-    </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A238" s="32"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="43"/>
-      <c r="H238" s="32"/>
-    </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A239" s="32"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="43"/>
-      <c r="H239" s="32"/>
-    </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A240" s="32"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="32"/>
-      <c r="E240" s="32"/>
-      <c r="F240" s="32"/>
-      <c r="G240" s="43"/>
-      <c r="H240" s="32"/>
-    </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A241" s="32"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="32"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="32"/>
-      <c r="G241" s="43"/>
-      <c r="H241" s="32"/>
-    </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A224" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B224" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-MM-2)</v>
+      </c>
+      <c r="C224" s="117" t="s">
+        <v>550</v>
+      </c>
+      <c r="D224" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F224" s="43">
+        <v>150</v>
+      </c>
+      <c r="G224" s="43">
+        <v>0</v>
+      </c>
+      <c r="H224" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I224" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A225" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B225" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-MM-3)</v>
+      </c>
+      <c r="C225" s="117" t="s">
+        <v>551</v>
+      </c>
+      <c r="D225" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E225" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F225" s="43">
+        <v>150</v>
+      </c>
+      <c r="G225" s="43">
+        <v>0</v>
+      </c>
+      <c r="H225" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I225" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A226" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B226" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-MM-4)</v>
+      </c>
+      <c r="C226" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="D226" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E226" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F226" s="43">
+        <v>150</v>
+      </c>
+      <c r="G226" s="43">
+        <v>0</v>
+      </c>
+      <c r="H226" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I226" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A227" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B227" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-HP0)</v>
+      </c>
+      <c r="C227" s="117" t="s">
+        <v>534</v>
+      </c>
+      <c r="D227" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E227" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F227" s="43">
+        <v>150</v>
+      </c>
+      <c r="G227" s="43">
+        <v>150</v>
+      </c>
+      <c r="H227" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I227" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A228" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B228" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-HP1)</v>
+      </c>
+      <c r="C228" s="117" t="s">
+        <v>535</v>
+      </c>
+      <c r="D228" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E228" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F228" s="43">
+        <v>150</v>
+      </c>
+      <c r="G228" s="43">
+        <v>150</v>
+      </c>
+      <c r="H228" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I228" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A229" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B229" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-HP2)</v>
+      </c>
+      <c r="C229" s="117" t="s">
+        <v>536</v>
+      </c>
+      <c r="D229" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E229" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F229" s="43">
+        <v>150</v>
+      </c>
+      <c r="G229" s="43">
+        <v>150</v>
+      </c>
+      <c r="H229" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I229" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A230" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B230" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-HP3)</v>
+      </c>
+      <c r="C230" s="117" t="s">
+        <v>537</v>
+      </c>
+      <c r="D230" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E230" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F230" s="43">
+        <v>150</v>
+      </c>
+      <c r="G230" s="43">
+        <v>150</v>
+      </c>
+      <c r="H230" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I230" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A231" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B231" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-HP4)</v>
+      </c>
+      <c r="C231" s="117" t="s">
+        <v>538</v>
+      </c>
+      <c r="D231" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E231" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F231" s="43">
+        <v>150</v>
+      </c>
+      <c r="G231" s="43">
+        <v>150</v>
+      </c>
+      <c r="H231" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I231" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A232" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B232" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-LP0)</v>
+      </c>
+      <c r="C232" s="117" t="s">
+        <v>539</v>
+      </c>
+      <c r="D232" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E232" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F232" s="43">
+        <v>150</v>
+      </c>
+      <c r="G232" s="43">
+        <v>150</v>
+      </c>
+      <c r="H232" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I232" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A233" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B233" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-LP1)</v>
+      </c>
+      <c r="C233" s="117" t="s">
+        <v>540</v>
+      </c>
+      <c r="D233" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E233" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F233" s="43">
+        <v>150</v>
+      </c>
+      <c r="G233" s="43">
+        <v>150</v>
+      </c>
+      <c r="H233" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I233" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A234" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B234" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-LP2)</v>
+      </c>
+      <c r="C234" s="117" t="s">
+        <v>541</v>
+      </c>
+      <c r="D234" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E234" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F234" s="43">
+        <v>150</v>
+      </c>
+      <c r="G234" s="43">
+        <v>150</v>
+      </c>
+      <c r="H234" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I234" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A235" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B235" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-LP3)</v>
+      </c>
+      <c r="C235" s="117" t="s">
+        <v>542</v>
+      </c>
+      <c r="D235" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E235" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F235" s="43">
+        <v>150</v>
+      </c>
+      <c r="G235" s="43">
+        <v>150</v>
+      </c>
+      <c r="H235" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I235" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A236" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B236" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-LP4)</v>
+      </c>
+      <c r="C236" s="117" t="s">
+        <v>543</v>
+      </c>
+      <c r="D236" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E236" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F236" s="43">
+        <v>150</v>
+      </c>
+      <c r="G236" s="43">
+        <v>150</v>
+      </c>
+      <c r="H236" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I236" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A237" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B237" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-MP0)</v>
+      </c>
+      <c r="C237" s="117" t="s">
+        <v>544</v>
+      </c>
+      <c r="D237" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E237" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F237" s="43">
+        <v>150</v>
+      </c>
+      <c r="G237" s="43">
+        <v>150</v>
+      </c>
+      <c r="H237" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I237" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A238" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B238" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-MP1)</v>
+      </c>
+      <c r="C238" s="117" t="s">
+        <v>545</v>
+      </c>
+      <c r="D238" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E238" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F238" s="43">
+        <v>150</v>
+      </c>
+      <c r="G238" s="43">
+        <v>150</v>
+      </c>
+      <c r="H238" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I238" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A239" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B239" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-MP2)</v>
+      </c>
+      <c r="C239" s="117" t="s">
+        <v>546</v>
+      </c>
+      <c r="D239" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E239" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F239" s="43">
+        <v>150</v>
+      </c>
+      <c r="G239" s="43">
+        <v>150</v>
+      </c>
+      <c r="H239" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I239" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A240" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B240" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-MP3)</v>
+      </c>
+      <c r="C240" s="117" t="s">
+        <v>547</v>
+      </c>
+      <c r="D240" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E240" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F240" s="43">
+        <v>150</v>
+      </c>
+      <c r="G240" s="43">
+        <v>150</v>
+      </c>
+      <c r="H240" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I240" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A241" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B241" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v>(REG-REC-SF3-MP4)</v>
+      </c>
+      <c r="C241" s="117" t="s">
+        <v>548</v>
+      </c>
+      <c r="D241" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E241" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F241" s="43">
+        <v>150</v>
+      </c>
+      <c r="G241" s="43">
+        <v>150</v>
+      </c>
+      <c r="H241" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I241" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -21765,7 +22151,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -21775,7 +22161,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -21785,7 +22171,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -21795,7 +22181,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -21805,7 +22191,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -21815,7 +22201,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -21825,7 +22211,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -21835,7 +22221,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -21845,7 +22231,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -21855,7 +22241,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -21865,7 +22251,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -21875,7 +22261,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -21885,7 +22271,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -21895,7 +22281,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3304" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C52FFF-E62E-43C8-8906-B717A331E207}"/>
+  <xr:revisionPtr revIDLastSave="3308" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76BB3BCC-4043-484E-9432-1D27CF8CD6EA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="608">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1908,8 +1908,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2089,7 +2090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2381,13 +2382,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2542,6 +2552,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2621,12 +2634,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3418,10 +3433,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H74" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:H74" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-    <sortCondition ref="H1:H49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H92" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:H92" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
+    <sortCondition ref="H1:H74"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FDC3E4DD-A231-46DD-8097-7C0DC18260BD}" name="barcodeName"/>
@@ -3794,33 +3809,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="110"/>
+      <c r="B5" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="111"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="108" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3845,10 +3860,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="112"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3858,27 +3873,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="103" t="str">
+      <c r="B11" s="104" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3891,28 +3906,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="92" t="str" cm="1">
+      <c r="J11" s="93" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="103" t="str">
+      <c r="B12" s="104" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3925,25 +3940,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="103" t="str" cm="1">
+      <c r="B13" s="104" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3956,26 +3971,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="103" t="str" cm="1">
+      <c r="B14" s="104" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3985,26 +4000,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="103" t="str">
+      <c r="B15" s="104" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4014,46 +4029,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="100" t="str" cm="1">
+      <c r="J16" s="101" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="103"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="99" t="str" cm="1">
+      <c r="B17" s="100" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4066,11 +4081,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4080,9 +4095,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4094,12 +4109,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="92" t="e" cm="1" vm="1">
+      <c r="L20" s="93" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4113,9 +4128,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="98"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4133,9 +4148,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="98"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4151,9 +4166,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="98"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4172,9 +4187,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4182,9 +4197,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -14895,8 +14910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D837ECC3-A09E-4C86-AA3E-B9664769F460}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F237" sqref="F237"/>
+    <sheetView topLeftCell="A228" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21575,11 +21590,11 @@
       <c r="A223" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B223" s="116" t="str">
+      <c r="B223" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-MM-1)</v>
       </c>
-      <c r="C223" s="117" t="s">
+      <c r="C223" s="91" t="s">
         <v>549</v>
       </c>
       <c r="D223" s="32" t="s">
@@ -21605,11 +21620,11 @@
       <c r="A224" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B224" s="116" t="str">
+      <c r="B224" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-MM-2)</v>
       </c>
-      <c r="C224" s="117" t="s">
+      <c r="C224" s="91" t="s">
         <v>550</v>
       </c>
       <c r="D224" s="32" t="s">
@@ -21635,11 +21650,11 @@
       <c r="A225" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B225" s="116" t="str">
+      <c r="B225" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-MM-3)</v>
       </c>
-      <c r="C225" s="117" t="s">
+      <c r="C225" s="91" t="s">
         <v>551</v>
       </c>
       <c r="D225" s="32" t="s">
@@ -21665,11 +21680,11 @@
       <c r="A226" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B226" s="116" t="str">
+      <c r="B226" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-MM-4)</v>
       </c>
-      <c r="C226" s="117" t="s">
+      <c r="C226" s="91" t="s">
         <v>552</v>
       </c>
       <c r="D226" s="32" t="s">
@@ -21695,11 +21710,11 @@
       <c r="A227" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B227" s="116" t="str">
+      <c r="B227" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-HP0)</v>
       </c>
-      <c r="C227" s="117" t="s">
+      <c r="C227" s="91" t="s">
         <v>534</v>
       </c>
       <c r="D227" s="32" t="s">
@@ -21725,11 +21740,11 @@
       <c r="A228" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B228" s="116" t="str">
+      <c r="B228" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-HP1)</v>
       </c>
-      <c r="C228" s="117" t="s">
+      <c r="C228" s="91" t="s">
         <v>535</v>
       </c>
       <c r="D228" s="32" t="s">
@@ -21755,11 +21770,11 @@
       <c r="A229" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B229" s="116" t="str">
+      <c r="B229" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-HP2)</v>
       </c>
-      <c r="C229" s="117" t="s">
+      <c r="C229" s="91" t="s">
         <v>536</v>
       </c>
       <c r="D229" s="32" t="s">
@@ -21785,11 +21800,11 @@
       <c r="A230" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B230" s="116" t="str">
+      <c r="B230" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-HP3)</v>
       </c>
-      <c r="C230" s="117" t="s">
+      <c r="C230" s="91" t="s">
         <v>537</v>
       </c>
       <c r="D230" s="32" t="s">
@@ -21815,11 +21830,11 @@
       <c r="A231" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B231" s="116" t="str">
+      <c r="B231" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-HP4)</v>
       </c>
-      <c r="C231" s="117" t="s">
+      <c r="C231" s="91" t="s">
         <v>538</v>
       </c>
       <c r="D231" s="32" t="s">
@@ -21845,11 +21860,11 @@
       <c r="A232" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B232" s="116" t="str">
+      <c r="B232" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-LP0)</v>
       </c>
-      <c r="C232" s="117" t="s">
+      <c r="C232" s="91" t="s">
         <v>539</v>
       </c>
       <c r="D232" s="32" t="s">
@@ -21875,11 +21890,11 @@
       <c r="A233" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B233" s="116" t="str">
+      <c r="B233" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-LP1)</v>
       </c>
-      <c r="C233" s="117" t="s">
+      <c r="C233" s="91" t="s">
         <v>540</v>
       </c>
       <c r="D233" s="32" t="s">
@@ -21905,11 +21920,11 @@
       <c r="A234" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B234" s="116" t="str">
+      <c r="B234" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-LP2)</v>
       </c>
-      <c r="C234" s="117" t="s">
+      <c r="C234" s="91" t="s">
         <v>541</v>
       </c>
       <c r="D234" s="32" t="s">
@@ -21935,11 +21950,11 @@
       <c r="A235" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B235" s="116" t="str">
+      <c r="B235" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-LP3)</v>
       </c>
-      <c r="C235" s="117" t="s">
+      <c r="C235" s="91" t="s">
         <v>542</v>
       </c>
       <c r="D235" s="32" t="s">
@@ -21965,11 +21980,11 @@
       <c r="A236" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B236" s="116" t="str">
+      <c r="B236" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-LP4)</v>
       </c>
-      <c r="C236" s="117" t="s">
+      <c r="C236" s="91" t="s">
         <v>543</v>
       </c>
       <c r="D236" s="32" t="s">
@@ -21995,11 +22010,11 @@
       <c r="A237" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B237" s="116" t="str">
+      <c r="B237" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-MP0)</v>
       </c>
-      <c r="C237" s="117" t="s">
+      <c r="C237" s="91" t="s">
         <v>544</v>
       </c>
       <c r="D237" s="32" t="s">
@@ -22025,11 +22040,11 @@
       <c r="A238" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B238" s="116" t="str">
+      <c r="B238" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-MP1)</v>
       </c>
-      <c r="C238" s="117" t="s">
+      <c r="C238" s="91" t="s">
         <v>545</v>
       </c>
       <c r="D238" s="32" t="s">
@@ -22055,11 +22070,11 @@
       <c r="A239" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B239" s="116" t="str">
+      <c r="B239" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-MP2)</v>
       </c>
-      <c r="C239" s="117" t="s">
+      <c r="C239" s="91" t="s">
         <v>546</v>
       </c>
       <c r="D239" s="32" t="s">
@@ -22085,11 +22100,11 @@
       <c r="A240" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B240" s="116" t="str">
+      <c r="B240" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-MP3)</v>
       </c>
-      <c r="C240" s="117" t="s">
+      <c r="C240" s="91" t="s">
         <v>547</v>
       </c>
       <c r="D240" s="32" t="s">
@@ -22115,11 +22130,11 @@
       <c r="A241" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B241" s="116" t="str">
+      <c r="B241" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(REG-REC-SF3-MP4)</v>
       </c>
-      <c r="C241" s="117" t="s">
+      <c r="C241" s="91" t="s">
         <v>548</v>
       </c>
       <c r="D241" s="32" t="s">
@@ -22602,11 +22617,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051AA2F-ED82-497D-A0D7-BA51300AC6DC}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22646,739 +22661,739 @@
     </row>
     <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="B2" s="31" t="str">
-        <f t="shared" ref="B2:B33" si="0">"("&amp;A2&amp;")"</f>
-        <v>(CAM-CHGR-DT)</v>
+        <f>"("&amp;A2&amp;")"</f>
+        <v>(AS-CHGR-PREM)</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F2" s="41">
         <v>0</v>
       </c>
       <c r="G2" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="B3" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CAM-CHGR-STD)</v>
+        <f>"("&amp;A3&amp;")"</f>
+        <v>(AS-REM-MYPALMICRO)</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E3" s="41">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F3" s="41">
         <v>0</v>
       </c>
       <c r="G3" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>427</v>
       </c>
       <c r="B4" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(ABC-CHGR-DT)</v>
+        <f>"("&amp;A4&amp;")"</f>
+        <v>(AS-REM-MYPALPRO)</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E4" s="41">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="F4" s="41">
         <v>0</v>
       </c>
       <c r="G4" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="B5" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(ABC-CHGR-STD)</v>
+        <f>"("&amp;A5&amp;")"</f>
+        <v>(AS-REM-TVLINK2)</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E5" s="41">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="F5" s="41">
         <v>0</v>
       </c>
       <c r="G5" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="B6" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(ABC-CHGR-PREM)</v>
+        <f>"("&amp;A6&amp;")"</f>
+        <v>(CAM-CHGR-DT)</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="41">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F6" s="41">
         <v>0</v>
       </c>
       <c r="G6" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="B7" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(AND-CHGR-DT)</v>
+        <f>"("&amp;A7&amp;")"</f>
+        <v>(CAM-CHGR-STD)</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F7" s="41">
         <v>0</v>
       </c>
       <c r="G7" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B8" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(AND-CHGR-STD)</v>
+        <f>"("&amp;A8&amp;")"</f>
+        <v>(ABC-CHGR-DT)</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F8" s="41">
         <v>0</v>
       </c>
       <c r="G8" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B9" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(AND-CHGR-PREM)</v>
+        <f>"("&amp;A9&amp;")"</f>
+        <v>(ABC-CHGR-STD)</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F9" s="41">
         <v>0</v>
       </c>
       <c r="G9" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B10" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(BCF-CHGR-DT)</v>
+        <f>"("&amp;A10&amp;")"</f>
+        <v>(ABC-CHGR-PREM)</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F10" s="41">
         <v>0</v>
       </c>
       <c r="G10" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B11" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(BCF-CHGR-STD)</v>
+        <f>"("&amp;A11&amp;")"</f>
+        <v>(AND-CHGR-DT)</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F11" s="41">
         <v>0</v>
       </c>
       <c r="G11" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B12" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(BCF-CHGR-PREM)</v>
+        <f>"("&amp;A12&amp;")"</f>
+        <v>(AND-CHGR-STD)</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F12" s="41">
         <v>0</v>
       </c>
       <c r="G12" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(B36-CHGR-DT)</v>
+        <f>"("&amp;A13&amp;")"</f>
+        <v>(AND-CHGR-PREM)</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F13" s="41">
         <v>0</v>
       </c>
       <c r="G13" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B14" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(B36-CHGR-STD)</v>
+        <f>"("&amp;A14&amp;")"</f>
+        <v>(BCF-CHGR-DT)</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E14" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F14" s="41">
         <v>0</v>
       </c>
       <c r="G14" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B15" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(B36-CHGR-PREM)</v>
+        <f>"("&amp;A15&amp;")"</f>
+        <v>(BCF-CHGR-STD)</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F15" s="41">
         <v>0</v>
       </c>
       <c r="G15" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="B16" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(ELU-CHGR-DT)</v>
+        <f>"("&amp;A16&amp;")"</f>
+        <v>(BCF-CHGR-PREM)</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E16" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F16" s="41">
         <v>0</v>
       </c>
       <c r="G16" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="B17" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(ELU-CHGR-STD)</v>
+        <f>"("&amp;A17&amp;")"</f>
+        <v>(B36-CHGR-DT)</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E17" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F17" s="41">
         <v>0</v>
       </c>
       <c r="G17" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="B18" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(ELU-CHGR-PREM)</v>
+        <f>"("&amp;A18&amp;")"</f>
+        <v>(B36-CHGR-STD)</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E18" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F18" s="41">
         <v>0</v>
       </c>
       <c r="G18" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="B19" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(FAF-CHGR-DT)</v>
+        <f>"("&amp;A19&amp;")"</f>
+        <v>(B36-CHGR-PREM)</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E19" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F19" s="41">
         <v>0</v>
       </c>
       <c r="G19" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B20" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(FAF-CHGR-STD)</v>
+        <f>"("&amp;A20&amp;")"</f>
+        <v>(ELU-CHGR-DT)</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E20" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F20" s="41">
         <v>0</v>
       </c>
       <c r="G20" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B21" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(FAF-CHGR-PREM)</v>
+        <f>"("&amp;A21&amp;")"</f>
+        <v>(ELU-CHGR-STD)</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F21" s="41">
         <v>0</v>
       </c>
       <c r="G21" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="B22" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CHA-CHGR-DT)</v>
+        <f>"("&amp;A22&amp;")"</f>
+        <v>(ELU-CHGR-PREM)</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E22" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F22" s="41">
         <v>0</v>
       </c>
       <c r="G22" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="B23" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CHA-CHGR-STD)</v>
+        <f>"("&amp;A23&amp;")"</f>
+        <v>(FAF-CHGR-DT)</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F23" s="41">
         <v>0</v>
       </c>
       <c r="G23" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="B24" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CHS-CHGR-DT)</v>
+        <f>"("&amp;A24&amp;")"</f>
+        <v>(FAF-CHGR-STD)</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F24" s="41">
         <v>0</v>
       </c>
       <c r="G24" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="B25" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CHS-CHGR-STD)</v>
+        <f>"("&amp;A25&amp;")"</f>
+        <v>(FAF-CHGR-PREM)</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E25" s="41">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F25" s="41">
         <v>0</v>
       </c>
       <c r="G25" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="B26" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CHU-CHGR-DT)</v>
+        <f>"("&amp;A26&amp;")"</f>
+        <v>(GB-REM-PERFCLEAN)</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E26" s="41">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F26" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G26" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>514</v>
       </c>
       <c r="B27" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CHU-CHGR-STD)</v>
+        <f>"("&amp;A27&amp;")"</f>
+        <v>(GB-REM-TVSTRPL)</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>520</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>520</v>
       </c>
       <c r="E27" s="41">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="F27" s="41">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G27" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="B28" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(HUM-CHGR-DT)</v>
+        <f>"("&amp;A28&amp;")"</f>
+        <v>(CHA-CHGR-DT)</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -23397,16 +23412,16 @@
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="B29" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(HUM-CHGR-STD)</v>
+        <f>"("&amp;A29&amp;")"</f>
+        <v>(CHA-CHGR-STD)</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -23425,128 +23440,128 @@
         <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(HUM-CHGR-PREM)</v>
+        <f>"("&amp;A30&amp;")"</f>
+        <v>(CHS-CHGR-DT)</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="41">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F30" s="41">
         <v>0</v>
       </c>
       <c r="G30" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="B31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CMP-CHGR-DT)</v>
+        <f>"("&amp;A31&amp;")"</f>
+        <v>(CHS-CHGR-STD)</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F31" s="41">
         <v>0</v>
       </c>
       <c r="G31" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="B32" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(CMP-CHGR-STD)</v>
+        <f>"("&amp;A32&amp;")"</f>
+        <v>(CHU-CHGR-DT)</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F32" s="41">
         <v>0</v>
       </c>
       <c r="G32" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="B33" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>(MLA-CHGR-DT)</v>
+        <f>"("&amp;A33&amp;")"</f>
+        <v>(CHU-CHGR-STD)</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F33" s="41">
         <v>0</v>
       </c>
       <c r="G33" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="B34" s="31" t="str">
-        <f t="shared" ref="B34:B50" si="1">"("&amp;A34&amp;")"</f>
-        <v>(CNH-CHGR-DT)</v>
+        <f>"("&amp;A34&amp;")"</f>
+        <v>(HUM-CHGR-DT)</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -23565,16 +23580,16 @@
         <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="B35" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(CNH-CHGR-STD)</v>
+        <f>"("&amp;A35&amp;")"</f>
+        <v>(HUM-CHGR-STD)</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -23593,380 +23608,380 @@
         <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B36" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-CHGR-DT)</v>
+        <f>"("&amp;A36&amp;")"</f>
+        <v>(HUM-CHGR-PREM)</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F36" s="41">
         <v>0</v>
       </c>
       <c r="G36" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H36" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="B37" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-CHGR-STD)</v>
+        <f>"("&amp;A37&amp;")"</f>
+        <v>(CMP-CHGR-DT)</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E37" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F37" s="41">
         <v>0</v>
       </c>
       <c r="G37" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="B38" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-CHGR-PREM)</v>
+        <f>"("&amp;A38&amp;")"</f>
+        <v>(CMP-CHGR-STD)</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F38" s="41">
         <v>0</v>
       </c>
       <c r="G38" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H38" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>507</v>
+        <v>348</v>
       </c>
       <c r="B39" s="31" t="str">
-        <f t="shared" ref="B39" si="2">"("&amp;A39&amp;")"</f>
-        <v>(REG-REM-REMOTE2)</v>
+        <f>"("&amp;A39&amp;")"</f>
+        <v>(MLA-CHGR-DT)</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>508</v>
+        <v>156</v>
       </c>
       <c r="E39" s="41">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F39" s="41">
         <v>0</v>
       </c>
       <c r="G39" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>2</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="B40" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-REM-REMOTE3)</v>
+        <f>"("&amp;A40&amp;")"</f>
+        <v>(CNH-CHGR-DT)</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E40" s="41">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F40" s="41">
         <v>0</v>
       </c>
       <c r="G40" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H40" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="B41" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-REM-MYPALMICRO)</v>
+        <f>"("&amp;A41&amp;")"</f>
+        <v>(CNH-CHGR-STD)</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E41" s="41">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="F41" s="41">
         <v>0</v>
       </c>
       <c r="G41" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>451</v>
       </c>
       <c r="B42" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-REM-MYPALPRO)</v>
+        <f>"("&amp;A42&amp;")"</f>
+        <v>(OHGB-REM-PERFCLEAN)</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E42" s="41">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="F42" s="41">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G42" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="H42" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>530</v>
       </c>
       <c r="B43" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-REM-PHONELINK2)</v>
+        <f>"("&amp;A43&amp;")"</f>
+        <v>(OHGB-REM-MULTIMIC)</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>526</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>527</v>
       </c>
       <c r="E43" s="41">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="F43" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G43" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H43" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>452</v>
       </c>
       <c r="B44" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-REM-TVLINK2)</v>
+        <f>"("&amp;A44&amp;")"</f>
+        <v>(OHPB-REM-PERFCLEAN)</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E44" s="41">
-        <v>340</v>
+        <v>185</v>
       </c>
       <c r="F44" s="41">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G44" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="H44" t="s">
-        <v>2</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="B45" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(REG-REM-PERFCLEAN)</v>
+        <f>"("&amp;A45&amp;")"</f>
+        <v>(OHPB-REM-MULTIMIC)</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>526</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>527</v>
       </c>
       <c r="E45" s="41">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="F45" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G45" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>2</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="B46" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(CTH-CHGR-DT)</v>
+        <f>"("&amp;A46&amp;")"</f>
+        <v>(OHPB-REM-TVSTRPL)</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>520</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="E46" s="41">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="F46" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G46" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>384</v>
+        <v>522</v>
       </c>
       <c r="B47" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(CTH-CHGR-STD)</v>
+        <f>"("&amp;A47&amp;")"</f>
+        <v>(OHSB-REM-PERFCLEAN)</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E47" s="41">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="F47" s="41">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G47" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="B48" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(CWC-CHGR-DT)</v>
+        <f>"("&amp;A48&amp;")"</f>
+        <v>(OHSB-REM-TVSTRPL)</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>520</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="E48" s="41">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="F48" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G48" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B49" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(CWC-CHGR-STD)</v>
+        <f>"("&amp;A49&amp;")"</f>
+        <v>(OH-CHGR-STD)</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -23985,144 +24000,144 @@
         <v>250</v>
       </c>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="B50" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>(AS-CHGR-PREM)</v>
+        <f>"("&amp;A50&amp;")"</f>
+        <v>(PB-REM-PERFCLEAN)</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E50" s="41">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="F50" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G50" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="B51" s="31" t="str">
-        <f t="shared" ref="B51:B58" si="3">"("&amp;A51&amp;")"</f>
-        <v>(AS-REM-MYPALMICRO)</v>
+        <f>"("&amp;A51&amp;")"</f>
+        <v>(PB-REM-MULTIMIC)</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>526</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>527</v>
       </c>
       <c r="E51" s="41">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="F51" s="41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G51" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="H51" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="B52" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(AS-REM-MYPALPRO)</v>
+        <f>"("&amp;A52&amp;")"</f>
+        <v>(PB-REM-TVSTRPL)</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>520</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>520</v>
       </c>
       <c r="E52" s="41">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="F52" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G52" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="H52" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>429</v>
+        <v>158</v>
       </c>
       <c r="B53" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(AS-REM-TVLINK2)</v>
+        <f>"("&amp;A53&amp;")"</f>
+        <v>(REG-CHGR-DT)</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E53" s="41">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="F53" s="41">
         <v>0</v>
       </c>
       <c r="G53" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="H53" t="s">
-        <v>420</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
       <c r="B54" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(REG-REM-TVSTRPL)</v>
+        <f>"("&amp;A54&amp;")"</f>
+        <v>(REG-CHGR-STD)</v>
       </c>
       <c r="C54" t="s">
-        <v>441</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="E54" s="41">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="F54" s="41">
         <v>0</v>
       </c>
       <c r="G54" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="H54" t="s">
         <v>2</v>
@@ -24130,389 +24145,386 @@
     </row>
     <row r="55" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>159</v>
       </c>
       <c r="B55" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(OH-CHGR-STD)</v>
+        <f>"("&amp;A55&amp;")"</f>
+        <v>(REG-CHGR-PREM)</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E55" s="41">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F55" s="41">
         <v>0</v>
       </c>
       <c r="G55" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H55" t="s">
-        <v>443</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="B56" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(PB-REM-PERFCLEAN)</v>
+        <f>"("&amp;A56&amp;")"</f>
+        <v>(REG-REM-REMOTE2)</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>508</v>
       </c>
       <c r="E56" s="41">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="F56" s="41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G56" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>531</v>
+        <v>161</v>
       </c>
       <c r="B57" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(PB-REM-MULTIMIC)</v>
+        <f>"("&amp;A57&amp;")"</f>
+        <v>(REG-REM-REMOTE3)</v>
       </c>
       <c r="C57" t="s">
-        <v>526</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>527</v>
+        <v>167</v>
       </c>
       <c r="E57" s="41">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F57" s="41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G57" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>449</v>
+        <v>162</v>
       </c>
       <c r="B58" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(PB-REM-TVSTRPL)</v>
+        <f>"("&amp;A58&amp;")"</f>
+        <v>(REG-REM-MYPALMICRO)</v>
       </c>
       <c r="C58" t="s">
-        <v>520</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>520</v>
+        <v>168</v>
       </c>
       <c r="E58" s="41">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="F58" s="41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G58" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>450</v>
+        <v>163</v>
       </c>
       <c r="B59" s="31" t="str">
-        <f t="shared" ref="B59:B60" si="4">"("&amp;A59&amp;")"</f>
-        <v>(GB-REM-PERFCLEAN)</v>
+        <f>"("&amp;A59&amp;")"</f>
+        <v>(REG-REM-MYPALPRO)</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E59" s="41">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="F59" s="41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G59" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="H59" t="s">
-        <v>445</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>514</v>
+        <v>164</v>
       </c>
       <c r="B60" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v>(GB-REM-TVSTRPL)</v>
+        <f>"("&amp;A60&amp;")"</f>
+        <v>(REG-REM-PHONELINK2)</v>
       </c>
       <c r="C60" t="s">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="E60" s="41">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="F60" s="41">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G60" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="H60" t="s">
-        <v>445</v>
+        <v>2</v>
       </c>
       <c r="J60" s="69"/>
     </row>
     <row r="61" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>522</v>
+        <v>165</v>
       </c>
       <c r="B61" s="31" t="str">
         <f>"("&amp;A61&amp;")"</f>
-        <v>(OHSB-REM-PERFCLEAN)</v>
+        <v>(REG-REM-TVLINK2)</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="41">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="F61" s="41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G61" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="H61" t="s">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="J61" s="69"/>
     </row>
     <row r="62" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>523</v>
+        <v>166</v>
       </c>
       <c r="B62" s="31" t="str">
         <f>"("&amp;A62&amp;")"</f>
-        <v>(OHSB-REM-TVSTRPL)</v>
+        <v>(REG-REM-PERFCLEAN)</v>
       </c>
       <c r="C62" t="s">
-        <v>520</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>520</v>
+        <v>172</v>
       </c>
       <c r="E62" s="41">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="F62" s="41">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G62" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="H62" t="s">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="J62" s="69"/>
     </row>
     <row r="63" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B63" s="31" t="str">
         <f>"("&amp;A63&amp;")"</f>
-        <v>(OHGB-REM-PERFCLEAN)</v>
+        <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="E63" s="41">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="F63" s="41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G63" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="H63" t="s">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="B64" s="31" t="str">
         <f>"("&amp;A64&amp;")"</f>
-        <v>(OHGB-REM-MULTIMIC)</v>
+        <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C64" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D64" t="s">
-        <v>527</v>
-      </c>
-      <c r="E64" s="41">
+        <v>520</v>
+      </c>
+      <c r="E64" s="68">
         <v>425</v>
       </c>
       <c r="F64" s="41">
-        <v>75</v>
-      </c>
-      <c r="G64" s="41">
+        <v>0</v>
+      </c>
+      <c r="G64" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="H64" t="s">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>452</v>
+        <v>165</v>
       </c>
       <c r="B65" s="31" t="str">
-        <f t="shared" ref="B65:B67" si="5">"("&amp;A65&amp;")"</f>
-        <v>(OHPB-REM-PERFCLEAN)</v>
+        <f>"("&amp;A65&amp;")"</f>
+        <v>(REG-REM-TVLINK2)</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>508</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
-      </c>
-      <c r="E65" s="41">
-        <v>185</v>
+        <v>508</v>
+      </c>
+      <c r="E65" s="68">
+        <v>300</v>
       </c>
       <c r="F65" s="41">
-        <v>35</v>
-      </c>
-      <c r="G65" s="41">
+        <v>0</v>
+      </c>
+      <c r="G65" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H65" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="J65" s="69"/>
     </row>
     <row r="66" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>529</v>
+        <v>161</v>
       </c>
       <c r="B66" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v>(OHPB-REM-MULTIMIC)</v>
+        <f>"("&amp;A66&amp;")"</f>
+        <v>(REG-REM-REMOTE3)</v>
       </c>
       <c r="C66" t="s">
-        <v>526</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>527</v>
-      </c>
-      <c r="E66" s="41">
-        <v>425</v>
+        <v>167</v>
+      </c>
+      <c r="E66" s="68">
+        <v>300</v>
       </c>
       <c r="F66" s="41">
-        <v>75</v>
-      </c>
-      <c r="G66" s="41">
+        <v>0</v>
+      </c>
+      <c r="G66" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H66" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="J66" s="69"/>
     </row>
     <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="B67" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v>(OHPB-REM-TVSTRPL)</v>
+        <f>"("&amp;A67&amp;")"</f>
+        <v>(REG-REM-MULTIMIC)</v>
       </c>
       <c r="C67" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D67" t="s">
-        <v>520</v>
-      </c>
-      <c r="E67" s="41">
+        <v>527</v>
+      </c>
+      <c r="E67" s="68">
         <v>425</v>
       </c>
       <c r="F67" s="41">
-        <v>75</v>
-      </c>
-      <c r="G67" s="41">
+        <v>0</v>
+      </c>
+      <c r="G67" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="H67" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="J67" s="69"/>
     </row>
     <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>442</v>
-      </c>
       <c r="B68" s="31" t="str">
-        <f t="shared" ref="B68" si="6">"("&amp;A68&amp;")"</f>
-        <v>(REG-REM-TVSTRPL)</v>
+        <f>"("&amp;A68&amp;")"</f>
+        <v>()</v>
       </c>
       <c r="C68" t="s">
-        <v>520</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>520</v>
+        <v>171</v>
       </c>
       <c r="E68" s="68">
         <v>425</v>
@@ -24529,56 +24541,50 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>165</v>
-      </c>
       <c r="B69" s="31" t="str">
-        <f t="shared" ref="B69:B74" si="7">"("&amp;A69&amp;")"</f>
-        <v>(REG-REM-TVLINK2)</v>
+        <f>"("&amp;A69&amp;")"</f>
+        <v>()</v>
       </c>
       <c r="C69" t="s">
-        <v>508</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>508</v>
+        <v>168</v>
       </c>
       <c r="E69" s="68">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F69" s="41">
         <v>0</v>
       </c>
       <c r="G69" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="H69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>161</v>
-      </c>
       <c r="B70" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>(REG-REM-REMOTE3)</v>
+        <f>"("&amp;A70&amp;")"</f>
+        <v>()</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E70" s="68">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F70" s="41">
         <v>0</v>
       </c>
       <c r="G70" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
         <v>2</v>
@@ -24586,105 +24592,612 @@
     </row>
     <row r="71" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>528</v>
+        <v>383</v>
       </c>
       <c r="B71" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>(REG-REM-MULTIMIC)</v>
+        <f>"("&amp;A71&amp;")"</f>
+        <v>(CTH-CHGR-DT)</v>
       </c>
       <c r="C71" t="s">
-        <v>526</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>527</v>
-      </c>
-      <c r="E71" s="68">
-        <v>425</v>
+        <v>156</v>
+      </c>
+      <c r="E71" s="41">
+        <v>200</v>
       </c>
       <c r="F71" s="41">
         <v>0</v>
       </c>
       <c r="G71" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="H71" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>384</v>
+      </c>
       <c r="B72" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>()</v>
+        <f>"("&amp;A72&amp;")"</f>
+        <v>(CTH-CHGR-STD)</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" s="68">
-        <v>425</v>
+        <v>155</v>
+      </c>
+      <c r="E72" s="41">
+        <v>250</v>
       </c>
       <c r="F72" s="41">
         <v>0</v>
       </c>
       <c r="G72" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="H72" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>400</v>
+      </c>
       <c r="B73" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>()</v>
+        <f>"("&amp;A73&amp;")"</f>
+        <v>(CWC-CHGR-DT)</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="68">
-        <v>325</v>
+        <v>156</v>
+      </c>
+      <c r="E73" s="41">
+        <v>200</v>
       </c>
       <c r="F73" s="41">
         <v>0</v>
       </c>
       <c r="G73" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="H73" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>401</v>
+      </c>
       <c r="B74" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>()</v>
+        <f>"("&amp;A74&amp;")"</f>
+        <v>(CWC-CHGR-STD)</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" s="68">
-        <v>325</v>
+        <v>155</v>
+      </c>
+      <c r="E74" s="41">
+        <v>250</v>
       </c>
       <c r="F74" s="41">
         <v>0</v>
       </c>
       <c r="G74" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>250</v>
+      </c>
+      <c r="H74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="120" t="str">
+        <f>"("&amp;A75&amp;")"</f>
+        <v>(REG-CHGR-DT)</v>
+      </c>
+      <c r="C75" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="68">
+        <v>200</v>
+      </c>
+      <c r="F75" s="121">
+        <v>0</v>
+      </c>
+      <c r="G75" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>200</v>
+      </c>
+      <c r="H75" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="120" t="str">
+        <f>"("&amp;A76&amp;")"</f>
+        <v>(REG-CHGR-STD)</v>
+      </c>
+      <c r="C76" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="68">
+        <v>250</v>
+      </c>
+      <c r="F76" s="121">
+        <v>0</v>
+      </c>
+      <c r="G76" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>250</v>
+      </c>
+      <c r="H76" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="120" t="str">
+        <f>"("&amp;A77&amp;")"</f>
+        <v>(REG-CHGR-PREM)</v>
+      </c>
+      <c r="C77" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="68">
+        <v>450</v>
+      </c>
+      <c r="F77" s="121">
+        <v>0</v>
+      </c>
+      <c r="G77" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>450</v>
+      </c>
+      <c r="H77" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="119" t="s">
+        <v>507</v>
+      </c>
+      <c r="B78" s="120" t="str">
+        <f>"("&amp;A78&amp;")"</f>
+        <v>(REG-REM-REMOTE2)</v>
+      </c>
+      <c r="C78" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="E78" s="68">
+        <v>225</v>
+      </c>
+      <c r="F78" s="121">
+        <v>0</v>
+      </c>
+      <c r="G78" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>225</v>
+      </c>
+      <c r="H78" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="120" t="str">
+        <f>"("&amp;A79&amp;")"</f>
+        <v>(REG-REM-REMOTE3)</v>
+      </c>
+      <c r="C79" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="68">
+        <v>225</v>
+      </c>
+      <c r="F79" s="121">
+        <v>0</v>
+      </c>
+      <c r="G79" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>225</v>
+      </c>
+      <c r="H79" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="120" t="str">
+        <f>"("&amp;A80&amp;")"</f>
+        <v>(REG-REM-MYPALMICRO)</v>
+      </c>
+      <c r="C80" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="68">
+        <v>225</v>
+      </c>
+      <c r="F80" s="121">
+        <v>0</v>
+      </c>
+      <c r="G80" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>225</v>
+      </c>
+      <c r="H80" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="120" t="str">
+        <f>"("&amp;A81&amp;")"</f>
+        <v>(REG-REM-MYPALPRO)</v>
+      </c>
+      <c r="C81" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="68">
+        <v>315</v>
+      </c>
+      <c r="F81" s="121">
+        <v>0</v>
+      </c>
+      <c r="G81" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>315</v>
+      </c>
+      <c r="H81" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="120" t="str">
+        <f>"("&amp;A82&amp;")"</f>
+        <v>(REG-REM-PHONELINK2)</v>
+      </c>
+      <c r="C82" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="68">
+        <v>200</v>
+      </c>
+      <c r="F82" s="121">
+        <v>0</v>
+      </c>
+      <c r="G82" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>200</v>
+      </c>
+      <c r="H82" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="120" t="str">
+        <f>"("&amp;A83&amp;")"</f>
+        <v>(REG-REM-TVLINK2)</v>
+      </c>
+      <c r="C83" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" s="68">
+        <v>340</v>
+      </c>
+      <c r="F83" s="121">
+        <v>0</v>
+      </c>
+      <c r="G83" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>340</v>
+      </c>
+      <c r="H83" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="120" t="str">
+        <f>"("&amp;A84&amp;")"</f>
+        <v>(REG-REM-PERFCLEAN)</v>
+      </c>
+      <c r="C84" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="68">
+        <v>185</v>
+      </c>
+      <c r="F84" s="121">
+        <v>0</v>
+      </c>
+      <c r="G84" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>185</v>
+      </c>
+      <c r="H84" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="119" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" s="120" t="str">
+        <f>"("&amp;A85&amp;")"</f>
+        <v>(REG-REM-TVSTRPL)</v>
+      </c>
+      <c r="C85" s="119" t="s">
+        <v>441</v>
+      </c>
+      <c r="D85" s="119" t="s">
+        <v>441</v>
+      </c>
+      <c r="E85" s="68">
+        <v>365</v>
+      </c>
+      <c r="F85" s="121">
+        <v>0</v>
+      </c>
+      <c r="G85" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>365</v>
+      </c>
+      <c r="H85" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="119" t="s">
+        <v>442</v>
+      </c>
+      <c r="B86" s="120" t="str">
+        <f>"("&amp;A86&amp;")"</f>
+        <v>(REG-REM-TVSTRPL)</v>
+      </c>
+      <c r="C86" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="D86" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="E86" s="68">
+        <v>425</v>
+      </c>
+      <c r="F86" s="121">
+        <v>0</v>
+      </c>
+      <c r="G86" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>425</v>
+      </c>
+      <c r="H86" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="120" t="str">
+        <f>"("&amp;A87&amp;")"</f>
+        <v>(REG-REM-TVLINK2)</v>
+      </c>
+      <c r="C87" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="D87" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="E87" s="68">
+        <v>300</v>
+      </c>
+      <c r="F87" s="121">
+        <v>0</v>
+      </c>
+      <c r="G87" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>300</v>
+      </c>
+      <c r="H87" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="120" t="str">
+        <f>"("&amp;A88&amp;")"</f>
+        <v>(REG-REM-REMOTE3)</v>
+      </c>
+      <c r="C88" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="68">
+        <v>300</v>
+      </c>
+      <c r="F88" s="121">
+        <v>0</v>
+      </c>
+      <c r="G88" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>300</v>
+      </c>
+      <c r="H88" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="119" t="s">
+        <v>528</v>
+      </c>
+      <c r="B89" s="120" t="str">
+        <f>"("&amp;A89&amp;")"</f>
+        <v>(REG-REM-MULTIMIC)</v>
+      </c>
+      <c r="C89" s="119" t="s">
+        <v>526</v>
+      </c>
+      <c r="D89" s="119" t="s">
+        <v>527</v>
+      </c>
+      <c r="E89" s="68">
+        <v>425</v>
+      </c>
+      <c r="F89" s="121">
+        <v>0</v>
+      </c>
+      <c r="G89" s="117">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>425</v>
+      </c>
+      <c r="H89" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="119"/>
+      <c r="B90" s="120" t="str">
+        <f>"("&amp;A90&amp;")"</f>
+        <v>()</v>
+      </c>
+      <c r="C90" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="68">
+        <v>425</v>
+      </c>
+      <c r="F90" s="121">
+        <v>0</v>
+      </c>
+      <c r="G90" s="118">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>425</v>
+      </c>
+      <c r="H90" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="119"/>
+      <c r="B91" s="120" t="str">
+        <f>"("&amp;A91&amp;")"</f>
+        <v>()</v>
+      </c>
+      <c r="C91" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="68">
         <v>325</v>
       </c>
-      <c r="H74" t="s">
-        <v>2</v>
+      <c r="F91" s="121">
+        <v>0</v>
+      </c>
+      <c r="G91" s="118">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>325</v>
+      </c>
+      <c r="H91" s="119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="119"/>
+      <c r="B92" s="120" t="str">
+        <f>"("&amp;A92&amp;")"</f>
+        <v>()</v>
+      </c>
+      <c r="C92" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="68">
+        <v>325</v>
+      </c>
+      <c r="F92" s="121">
+        <v>0</v>
+      </c>
+      <c r="G92" s="122">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>325</v>
+      </c>
+      <c r="H92" s="119" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3308" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76BB3BCC-4043-484E-9432-1D27CF8CD6EA}"/>
+  <xr:revisionPtr revIDLastSave="3319" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D382CE8C-909E-487D-9EDD-F157D6439663}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="623">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1902,6 +1902,51 @@
   </si>
   <si>
     <t>Marketing Offer</t>
+  </si>
+  <si>
+    <t>VOL-CHGR-DT</t>
+  </si>
+  <si>
+    <t>VOL-CHGR-STD</t>
+  </si>
+  <si>
+    <t>VOL-CHGR-PREM</t>
+  </si>
+  <si>
+    <t>VOL-REM-REMOTE2</t>
+  </si>
+  <si>
+    <t>VOL-REM-REMOTE3</t>
+  </si>
+  <si>
+    <t>VOL-REM-MYPALMICRO</t>
+  </si>
+  <si>
+    <t>VOL-REM-MYPALPRO</t>
+  </si>
+  <si>
+    <t>VOL-REM-PHONELINK2</t>
+  </si>
+  <si>
+    <t>VOL-REM-TVLINK2</t>
+  </si>
+  <si>
+    <t>VOL-REM-PERFCLEAN</t>
+  </si>
+  <si>
+    <t>VOL-REM-TVSTRPL</t>
+  </si>
+  <si>
+    <t>VOL-REM-MULTIMIC</t>
+  </si>
+  <si>
+    <t>VOL-REM-TVLINK2ONLY</t>
+  </si>
+  <si>
+    <t>VOL-REM-MYPALMICROONLY</t>
+  </si>
+  <si>
+    <t>VOL-REM-PHONELINK2ONLY</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2442,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2555,6 +2600,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2603,45 +2681,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2649,6 +2688,86 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="54">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="4"/>
+        <color theme="1"/>
+        <name val="IDAutomationHC39M Free Version"/>
+        <family val="1"/>
+        <charset val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2737,86 +2856,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="7" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="4"/>
-        <color theme="1"/>
-        <name val="IDAutomationHC39M Free Version"/>
-        <family val="1"/>
-        <charset val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="7" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3433,21 +3472,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H92" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H92" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="A1:H92" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
     <sortCondition ref="H1:H74"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FDC3E4DD-A231-46DD-8097-7C0DC18260BD}" name="barcodeName"/>
-    <tableColumn id="2" xr3:uid="{AFC95F79-8083-447B-A914-1EBAAA27B722}" name="barcode" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{AFC95F79-8083-447B-A914-1EBAAA27B722}" name="barcode" dataDxfId="2">
       <calculatedColumnFormula>"("&amp;A2&amp;")"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D0382781-2AC8-4DE6-BF59-9B38B78B1184}" name="remoteModel"/>
     <tableColumn id="4" xr3:uid="{9B080694-7BEA-4586-AA70-DDEC1D67D699}" name="remoteType"/>
     <tableColumn id="7" xr3:uid="{CCB41D66-8697-4FAF-A74F-5F54F6CCA4F8}" name="remoteListAmount"/>
-    <tableColumn id="5" xr3:uid="{1CE35D6A-9428-4732-9735-D4D6A26B1AB4}" name="remoteDiscountAmount" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{D7583571-F6BF-4E66-B4FE-1F6C0658D1E4}" name="remoteAmount" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{1CE35D6A-9428-4732-9735-D4D6A26B1AB4}" name="remoteDiscountAmount" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D7583571-F6BF-4E66-B4FE-1F6C0658D1E4}" name="remoteAmount" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{435AFC97-0382-475D-9332-93EDAB756C8B}" name="remoteDiscountDescription"/>
@@ -3457,37 +3496,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E35851D-E21C-4957-852B-C619133CF977}" name="Table4" displayName="Table4" ref="A1:H3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E35851D-E21C-4957-852B-C619133CF977}" name="Table4" displayName="Table4" ref="A1:H3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A1:H3" xr:uid="{9E35851D-E21C-4957-852B-C619133CF977}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9C5C5DE5-EA97-4EF1-8892-EBFCAC4443EA}" name="barcodeName" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{3987A654-3331-4022-95F5-BEF488FDFD5D}" name="barcode" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{9C5C5DE5-EA97-4EF1-8892-EBFCAC4443EA}" name="barcodeName" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{3987A654-3331-4022-95F5-BEF488FDFD5D}" name="barcode" dataDxfId="20">
       <calculatedColumnFormula>"("&amp;A2&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B575D7DB-8A17-44F2-812F-84D8DF10D3DD}" name="serviceDescription" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{1E8BF5D4-6F7F-4C9F-B1C6-A5382AB6523A}" name="serviceDiscountDescription" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A104B7ED-7164-4645-80F4-4FB3B815FA1C}" name="serviceListAmount" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FA21F863-CA81-4450-AB48-77E6CBCB2D99}" name="serviceDiscountAmount" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{0C0AAA86-C611-4A7B-8F6A-7547563ECBBB}" name="serviceAmount" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{BA455156-79BF-4EC7-BA14-3484B2B4810B}" name="paFittingFee" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B575D7DB-8A17-44F2-812F-84D8DF10D3DD}" name="serviceDescription" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{1E8BF5D4-6F7F-4C9F-B1C6-A5382AB6523A}" name="serviceDiscountDescription" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A104B7ED-7164-4645-80F4-4FB3B815FA1C}" name="serviceListAmount" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FA21F863-CA81-4450-AB48-77E6CBCB2D99}" name="serviceDiscountAmount" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{0C0AAA86-C611-4A7B-8F6A-7547563ECBBB}" name="serviceAmount" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{BA455156-79BF-4EC7-BA14-3484B2B4810B}" name="paFittingFee" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{06EED7A3-D2B4-46BC-8F41-FB11FC20F42F}" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{06EED7A3-D2B4-46BC-8F41-FB11FC20F42F}" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:G3" xr:uid="{06EED7A3-D2B4-46BC-8F41-FB11FC20F42F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EA5C7967-7D68-4146-84DE-1135A119CC3D}" name="barcodeName" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C49A42F5-93EA-4670-959A-42455600C7C8}" name="barcode" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{EA5C7967-7D68-4146-84DE-1135A119CC3D}" name="barcodeName" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C49A42F5-93EA-4670-959A-42455600C7C8}" name="barcode" dataDxfId="11">
       <calculatedColumnFormula>"("&amp;A2&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2609A236-2D4A-49A0-BD07-CC9B0426F536}" name="accessoryDescription" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9F5155AE-6C5F-4BA4-AD9F-DAE0C8053CCF}" name="accessoryDiscountDescription" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{CE967C46-B3C7-4797-BD2D-C5D197F6260B}" name="accessoryListAmount" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{CAA4A522-ACE9-4EE8-A795-EFB2F9D3E99B}" name="accessoryDiscountAmount" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{C6197BEF-5482-4860-814F-46EEEB1E034B}" name="accessoryAmount" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2609A236-2D4A-49A0-BD07-CC9B0426F536}" name="accessoryDescription" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9F5155AE-6C5F-4BA4-AD9F-DAE0C8053CCF}" name="accessoryDiscountDescription" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CE967C46-B3C7-4797-BD2D-C5D197F6260B}" name="accessoryListAmount" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{CAA4A522-ACE9-4EE8-A795-EFB2F9D3E99B}" name="accessoryDiscountAmount" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{C6197BEF-5482-4860-814F-46EEEB1E034B}" name="accessoryAmount" dataDxfId="6" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3809,33 +3848,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="111"/>
+      <c r="B5" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="97"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="94" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="109"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="116"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3860,10 +3899,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="112"/>
+      <c r="C10" s="98"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3873,27 +3912,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="92" t="s">
+      <c r="J10" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="104" t="str">
+      <c r="B11" s="115" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3906,28 +3945,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="93" t="str" cm="1">
+      <c r="J11" s="104" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="104" t="str">
+      <c r="B12" s="115" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3940,25 +3979,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="98"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="104" t="str" cm="1">
+      <c r="B13" s="115" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3971,26 +4010,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="98"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="104" t="str" cm="1">
+      <c r="B14" s="115" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4000,26 +4039,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="104" t="str">
+      <c r="B15" s="115" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4029,46 +4068,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="101" t="str" cm="1">
+      <c r="J16" s="112" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="103"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="100" t="str" cm="1">
+      <c r="B17" s="111" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4081,11 +4120,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4095,9 +4134,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4109,12 +4148,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="93" t="e" cm="1" vm="1">
+      <c r="L20" s="104" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="95"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="106"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4128,9 +4167,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="96"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4148,9 +4187,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="96"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="98"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4166,9 +4205,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="96"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="98"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="109"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4187,9 +4226,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4197,9 +4236,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4226,11 +4265,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4245,6 +4279,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -22620,8 +22659,8 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22664,7 +22703,7 @@
         <v>426</v>
       </c>
       <c r="B2" s="31" t="str">
-        <f>"("&amp;A2&amp;")"</f>
+        <f t="shared" ref="B2:B33" si="0">"("&amp;A2&amp;")"</f>
         <v>(AS-CHGR-PREM)</v>
       </c>
       <c r="C2" t="s">
@@ -22692,7 +22731,7 @@
         <v>428</v>
       </c>
       <c r="B3" s="31" t="str">
-        <f>"("&amp;A3&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(AS-REM-MYPALMICRO)</v>
       </c>
       <c r="C3" t="s">
@@ -22720,7 +22759,7 @@
         <v>427</v>
       </c>
       <c r="B4" s="31" t="str">
-        <f>"("&amp;A4&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(AS-REM-MYPALPRO)</v>
       </c>
       <c r="C4" t="s">
@@ -22748,7 +22787,7 @@
         <v>429</v>
       </c>
       <c r="B5" s="31" t="str">
-        <f>"("&amp;A5&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(AS-REM-TVLINK2)</v>
       </c>
       <c r="C5" t="s">
@@ -22776,7 +22815,7 @@
         <v>330</v>
       </c>
       <c r="B6" s="31" t="str">
-        <f>"("&amp;A6&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CAM-CHGR-DT)</v>
       </c>
       <c r="C6" t="s">
@@ -22804,7 +22843,7 @@
         <v>331</v>
       </c>
       <c r="B7" s="31" t="str">
-        <f>"("&amp;A7&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CAM-CHGR-STD)</v>
       </c>
       <c r="C7" t="s">
@@ -22832,7 +22871,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="31" t="str">
-        <f>"("&amp;A8&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(ABC-CHGR-DT)</v>
       </c>
       <c r="C8" t="s">
@@ -22860,7 +22899,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="31" t="str">
-        <f>"("&amp;A9&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(ABC-CHGR-STD)</v>
       </c>
       <c r="C9" t="s">
@@ -22888,7 +22927,7 @@
         <v>237</v>
       </c>
       <c r="B10" s="31" t="str">
-        <f>"("&amp;A10&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(ABC-CHGR-PREM)</v>
       </c>
       <c r="C10" t="s">
@@ -22916,7 +22955,7 @@
         <v>252</v>
       </c>
       <c r="B11" s="31" t="str">
-        <f>"("&amp;A11&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(AND-CHGR-DT)</v>
       </c>
       <c r="C11" t="s">
@@ -22944,7 +22983,7 @@
         <v>253</v>
       </c>
       <c r="B12" s="31" t="str">
-        <f>"("&amp;A12&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(AND-CHGR-STD)</v>
       </c>
       <c r="C12" t="s">
@@ -22972,7 +23011,7 @@
         <v>254</v>
       </c>
       <c r="B13" s="31" t="str">
-        <f>"("&amp;A13&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(AND-CHGR-PREM)</v>
       </c>
       <c r="C13" t="s">
@@ -23000,7 +23039,7 @@
         <v>258</v>
       </c>
       <c r="B14" s="31" t="str">
-        <f>"("&amp;A14&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(BCF-CHGR-DT)</v>
       </c>
       <c r="C14" t="s">
@@ -23028,7 +23067,7 @@
         <v>259</v>
       </c>
       <c r="B15" s="31" t="str">
-        <f>"("&amp;A15&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(BCF-CHGR-STD)</v>
       </c>
       <c r="C15" t="s">
@@ -23056,7 +23095,7 @@
         <v>260</v>
       </c>
       <c r="B16" s="31" t="str">
-        <f>"("&amp;A16&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(BCF-CHGR-PREM)</v>
       </c>
       <c r="C16" t="s">
@@ -23084,7 +23123,7 @@
         <v>255</v>
       </c>
       <c r="B17" s="31" t="str">
-        <f>"("&amp;A17&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(B36-CHGR-DT)</v>
       </c>
       <c r="C17" t="s">
@@ -23112,7 +23151,7 @@
         <v>256</v>
       </c>
       <c r="B18" s="31" t="str">
-        <f>"("&amp;A18&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(B36-CHGR-STD)</v>
       </c>
       <c r="C18" t="s">
@@ -23140,7 +23179,7 @@
         <v>257</v>
       </c>
       <c r="B19" s="31" t="str">
-        <f>"("&amp;A19&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(B36-CHGR-PREM)</v>
       </c>
       <c r="C19" t="s">
@@ -23168,7 +23207,7 @@
         <v>193</v>
       </c>
       <c r="B20" s="31" t="str">
-        <f>"("&amp;A20&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(ELU-CHGR-DT)</v>
       </c>
       <c r="C20" t="s">
@@ -23196,7 +23235,7 @@
         <v>194</v>
       </c>
       <c r="B21" s="31" t="str">
-        <f>"("&amp;A21&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(ELU-CHGR-STD)</v>
       </c>
       <c r="C21" t="s">
@@ -23224,7 +23263,7 @@
         <v>195</v>
       </c>
       <c r="B22" s="31" t="str">
-        <f>"("&amp;A22&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(ELU-CHGR-PREM)</v>
       </c>
       <c r="C22" t="s">
@@ -23252,7 +23291,7 @@
         <v>190</v>
       </c>
       <c r="B23" s="31" t="str">
-        <f>"("&amp;A23&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(FAF-CHGR-DT)</v>
       </c>
       <c r="C23" t="s">
@@ -23280,7 +23319,7 @@
         <v>191</v>
       </c>
       <c r="B24" s="31" t="str">
-        <f>"("&amp;A24&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(FAF-CHGR-STD)</v>
       </c>
       <c r="C24" t="s">
@@ -23308,7 +23347,7 @@
         <v>192</v>
       </c>
       <c r="B25" s="31" t="str">
-        <f>"("&amp;A25&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(FAF-CHGR-PREM)</v>
       </c>
       <c r="C25" t="s">
@@ -23336,7 +23375,7 @@
         <v>450</v>
       </c>
       <c r="B26" s="31" t="str">
-        <f>"("&amp;A26&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(GB-REM-PERFCLEAN)</v>
       </c>
       <c r="C26" t="s">
@@ -23364,7 +23403,7 @@
         <v>514</v>
       </c>
       <c r="B27" s="31" t="str">
-        <f>"("&amp;A27&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(GB-REM-TVSTRPL)</v>
       </c>
       <c r="C27" t="s">
@@ -23392,7 +23431,7 @@
         <v>296</v>
       </c>
       <c r="B28" s="31" t="str">
-        <f>"("&amp;A28&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CHA-CHGR-DT)</v>
       </c>
       <c r="C28" t="s">
@@ -23420,7 +23459,7 @@
         <v>297</v>
       </c>
       <c r="B29" s="31" t="str">
-        <f>"("&amp;A29&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CHA-CHGR-STD)</v>
       </c>
       <c r="C29" t="s">
@@ -23448,7 +23487,7 @@
         <v>279</v>
       </c>
       <c r="B30" s="31" t="str">
-        <f>"("&amp;A30&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CHS-CHGR-DT)</v>
       </c>
       <c r="C30" t="s">
@@ -23476,7 +23515,7 @@
         <v>280</v>
       </c>
       <c r="B31" s="31" t="str">
-        <f>"("&amp;A31&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CHS-CHGR-STD)</v>
       </c>
       <c r="C31" t="s">
@@ -23504,7 +23543,7 @@
         <v>298</v>
       </c>
       <c r="B32" s="31" t="str">
-        <f>"("&amp;A32&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CHU-CHGR-DT)</v>
       </c>
       <c r="C32" t="s">
@@ -23532,7 +23571,7 @@
         <v>299</v>
       </c>
       <c r="B33" s="31" t="str">
-        <f>"("&amp;A33&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>(CHU-CHGR-STD)</v>
       </c>
       <c r="C33" t="s">
@@ -23560,7 +23599,7 @@
         <v>261</v>
       </c>
       <c r="B34" s="31" t="str">
-        <f>"("&amp;A34&amp;")"</f>
+        <f t="shared" ref="B34:B65" si="1">"("&amp;A34&amp;")"</f>
         <v>(HUM-CHGR-DT)</v>
       </c>
       <c r="C34" t="s">
@@ -23588,7 +23627,7 @@
         <v>262</v>
       </c>
       <c r="B35" s="31" t="str">
-        <f>"("&amp;A35&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(HUM-CHGR-STD)</v>
       </c>
       <c r="C35" t="s">
@@ -23616,7 +23655,7 @@
         <v>263</v>
       </c>
       <c r="B36" s="31" t="str">
-        <f>"("&amp;A36&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(HUM-CHGR-PREM)</v>
       </c>
       <c r="C36" t="s">
@@ -23644,7 +23683,7 @@
         <v>349</v>
       </c>
       <c r="B37" s="31" t="str">
-        <f>"("&amp;A37&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(CMP-CHGR-DT)</v>
       </c>
       <c r="C37" t="s">
@@ -23672,7 +23711,7 @@
         <v>350</v>
       </c>
       <c r="B38" s="31" t="str">
-        <f>"("&amp;A38&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(CMP-CHGR-STD)</v>
       </c>
       <c r="C38" t="s">
@@ -23700,7 +23739,7 @@
         <v>348</v>
       </c>
       <c r="B39" s="31" t="str">
-        <f>"("&amp;A39&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(MLA-CHGR-DT)</v>
       </c>
       <c r="C39" t="s">
@@ -23728,7 +23767,7 @@
         <v>381</v>
       </c>
       <c r="B40" s="31" t="str">
-        <f>"("&amp;A40&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(CNH-CHGR-DT)</v>
       </c>
       <c r="C40" t="s">
@@ -23756,7 +23795,7 @@
         <v>382</v>
       </c>
       <c r="B41" s="31" t="str">
-        <f>"("&amp;A41&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(CNH-CHGR-STD)</v>
       </c>
       <c r="C41" t="s">
@@ -23784,7 +23823,7 @@
         <v>451</v>
       </c>
       <c r="B42" s="31" t="str">
-        <f>"("&amp;A42&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OHGB-REM-PERFCLEAN)</v>
       </c>
       <c r="C42" t="s">
@@ -23812,7 +23851,7 @@
         <v>530</v>
       </c>
       <c r="B43" s="31" t="str">
-        <f>"("&amp;A43&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OHGB-REM-MULTIMIC)</v>
       </c>
       <c r="C43" t="s">
@@ -23840,7 +23879,7 @@
         <v>452</v>
       </c>
       <c r="B44" s="31" t="str">
-        <f>"("&amp;A44&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OHPB-REM-PERFCLEAN)</v>
       </c>
       <c r="C44" t="s">
@@ -23868,7 +23907,7 @@
         <v>529</v>
       </c>
       <c r="B45" s="31" t="str">
-        <f>"("&amp;A45&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OHPB-REM-MULTIMIC)</v>
       </c>
       <c r="C45" t="s">
@@ -23896,7 +23935,7 @@
         <v>453</v>
       </c>
       <c r="B46" s="31" t="str">
-        <f>"("&amp;A46&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OHPB-REM-TVSTRPL)</v>
       </c>
       <c r="C46" t="s">
@@ -23924,7 +23963,7 @@
         <v>522</v>
       </c>
       <c r="B47" s="31" t="str">
-        <f>"("&amp;A47&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OHSB-REM-PERFCLEAN)</v>
       </c>
       <c r="C47" t="s">
@@ -23952,7 +23991,7 @@
         <v>523</v>
       </c>
       <c r="B48" s="31" t="str">
-        <f>"("&amp;A48&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OHSB-REM-TVSTRPL)</v>
       </c>
       <c r="C48" t="s">
@@ -23980,7 +24019,7 @@
         <v>446</v>
       </c>
       <c r="B49" s="31" t="str">
-        <f>"("&amp;A49&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(OH-CHGR-STD)</v>
       </c>
       <c r="C49" t="s">
@@ -24008,7 +24047,7 @@
         <v>448</v>
       </c>
       <c r="B50" s="31" t="str">
-        <f>"("&amp;A50&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(PB-REM-PERFCLEAN)</v>
       </c>
       <c r="C50" t="s">
@@ -24036,7 +24075,7 @@
         <v>531</v>
       </c>
       <c r="B51" s="31" t="str">
-        <f>"("&amp;A51&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(PB-REM-MULTIMIC)</v>
       </c>
       <c r="C51" t="s">
@@ -24064,7 +24103,7 @@
         <v>449</v>
       </c>
       <c r="B52" s="31" t="str">
-        <f>"("&amp;A52&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(PB-REM-TVSTRPL)</v>
       </c>
       <c r="C52" t="s">
@@ -24092,7 +24131,7 @@
         <v>158</v>
       </c>
       <c r="B53" s="31" t="str">
-        <f>"("&amp;A53&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-CHGR-DT)</v>
       </c>
       <c r="C53" t="s">
@@ -24120,7 +24159,7 @@
         <v>160</v>
       </c>
       <c r="B54" s="31" t="str">
-        <f>"("&amp;A54&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-CHGR-STD)</v>
       </c>
       <c r="C54" t="s">
@@ -24148,7 +24187,7 @@
         <v>159</v>
       </c>
       <c r="B55" s="31" t="str">
-        <f>"("&amp;A55&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-CHGR-PREM)</v>
       </c>
       <c r="C55" t="s">
@@ -24176,7 +24215,7 @@
         <v>507</v>
       </c>
       <c r="B56" s="31" t="str">
-        <f>"("&amp;A56&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-REMOTE2)</v>
       </c>
       <c r="C56" t="s">
@@ -24204,7 +24243,7 @@
         <v>161</v>
       </c>
       <c r="B57" s="31" t="str">
-        <f>"("&amp;A57&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-REMOTE3)</v>
       </c>
       <c r="C57" t="s">
@@ -24232,7 +24271,7 @@
         <v>162</v>
       </c>
       <c r="B58" s="31" t="str">
-        <f>"("&amp;A58&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-MYPALMICRO)</v>
       </c>
       <c r="C58" t="s">
@@ -24260,7 +24299,7 @@
         <v>163</v>
       </c>
       <c r="B59" s="31" t="str">
-        <f>"("&amp;A59&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-MYPALPRO)</v>
       </c>
       <c r="C59" t="s">
@@ -24288,7 +24327,7 @@
         <v>164</v>
       </c>
       <c r="B60" s="31" t="str">
-        <f>"("&amp;A60&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-PHONELINK2)</v>
       </c>
       <c r="C60" t="s">
@@ -24317,7 +24356,7 @@
         <v>165</v>
       </c>
       <c r="B61" s="31" t="str">
-        <f>"("&amp;A61&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-TVLINK2)</v>
       </c>
       <c r="C61" t="s">
@@ -24346,7 +24385,7 @@
         <v>166</v>
       </c>
       <c r="B62" s="31" t="str">
-        <f>"("&amp;A62&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-PERFCLEAN)</v>
       </c>
       <c r="C62" t="s">
@@ -24375,7 +24414,7 @@
         <v>442</v>
       </c>
       <c r="B63" s="31" t="str">
-        <f>"("&amp;A63&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C63" t="s">
@@ -24404,7 +24443,7 @@
         <v>442</v>
       </c>
       <c r="B64" s="31" t="str">
-        <f>"("&amp;A64&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C64" t="s">
@@ -24433,7 +24472,7 @@
         <v>165</v>
       </c>
       <c r="B65" s="31" t="str">
-        <f>"("&amp;A65&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>(REG-REM-TVLINK2)</v>
       </c>
       <c r="C65" t="s">
@@ -24462,7 +24501,7 @@
         <v>161</v>
       </c>
       <c r="B66" s="31" t="str">
-        <f>"("&amp;A66&amp;")"</f>
+        <f t="shared" ref="B66:B91" si="2">"("&amp;A66&amp;")"</f>
         <v>(REG-REM-REMOTE3)</v>
       </c>
       <c r="C66" t="s">
@@ -24491,7 +24530,7 @@
         <v>528</v>
       </c>
       <c r="B67" s="31" t="str">
-        <f>"("&amp;A67&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>(REG-REM-MULTIMIC)</v>
       </c>
       <c r="C67" t="s">
@@ -24517,7 +24556,7 @@
     </row>
     <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="B68" s="31" t="str">
-        <f>"("&amp;A68&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>()</v>
       </c>
       <c r="C68" t="s">
@@ -24542,7 +24581,7 @@
     </row>
     <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="B69" s="31" t="str">
-        <f>"("&amp;A69&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>()</v>
       </c>
       <c r="C69" t="s">
@@ -24567,7 +24606,7 @@
     </row>
     <row r="70" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="B70" s="31" t="str">
-        <f>"("&amp;A70&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>()</v>
       </c>
       <c r="C70" t="s">
@@ -24595,7 +24634,7 @@
         <v>383</v>
       </c>
       <c r="B71" s="31" t="str">
-        <f>"("&amp;A71&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>(CTH-CHGR-DT)</v>
       </c>
       <c r="C71" t="s">
@@ -24623,7 +24662,7 @@
         <v>384</v>
       </c>
       <c r="B72" s="31" t="str">
-        <f>"("&amp;A72&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>(CTH-CHGR-STD)</v>
       </c>
       <c r="C72" t="s">
@@ -24651,7 +24690,7 @@
         <v>400</v>
       </c>
       <c r="B73" s="31" t="str">
-        <f>"("&amp;A73&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>(CWC-CHGR-DT)</v>
       </c>
       <c r="C73" t="s">
@@ -24679,7 +24718,7 @@
         <v>401</v>
       </c>
       <c r="B74" s="31" t="str">
-        <f>"("&amp;A74&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>(CWC-CHGR-STD)</v>
       </c>
       <c r="C74" t="s">
@@ -24703,500 +24742,506 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="B75" s="120" t="str">
-        <f>"("&amp;A75&amp;")"</f>
-        <v>(REG-CHGR-DT)</v>
-      </c>
-      <c r="C75" s="119" t="s">
+      <c r="A75" t="s">
+        <v>608</v>
+      </c>
+      <c r="B75" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-CHGR-DT)</v>
+      </c>
+      <c r="C75" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="119" t="s">
+      <c r="D75" t="s">
         <v>156</v>
       </c>
       <c r="E75" s="68">
         <v>200</v>
       </c>
-      <c r="F75" s="121">
-        <v>0</v>
-      </c>
-      <c r="G75" s="117">
+      <c r="F75" s="92">
+        <v>0</v>
+      </c>
+      <c r="G75" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>200</v>
       </c>
-      <c r="H75" s="119" t="s">
+      <c r="H75" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="120" t="str">
-        <f>"("&amp;A76&amp;")"</f>
-        <v>(REG-CHGR-STD)</v>
-      </c>
-      <c r="C76" s="119" t="s">
+      <c r="A76" t="s">
+        <v>609</v>
+      </c>
+      <c r="B76" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-CHGR-STD)</v>
+      </c>
+      <c r="C76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="119" t="s">
+      <c r="D76" t="s">
         <v>155</v>
       </c>
       <c r="E76" s="68">
         <v>250</v>
       </c>
-      <c r="F76" s="121">
-        <v>0</v>
-      </c>
-      <c r="G76" s="117">
+      <c r="F76" s="92">
+        <v>0</v>
+      </c>
+      <c r="G76" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>250</v>
       </c>
-      <c r="H76" s="119" t="s">
+      <c r="H76" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="119" t="s">
-        <v>159</v>
-      </c>
-      <c r="B77" s="120" t="str">
-        <f>"("&amp;A77&amp;")"</f>
-        <v>(REG-CHGR-PREM)</v>
-      </c>
-      <c r="C77" s="119" t="s">
+      <c r="A77" t="s">
+        <v>610</v>
+      </c>
+      <c r="B77" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-CHGR-PREM)</v>
+      </c>
+      <c r="C77" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="119" t="s">
+      <c r="D77" t="s">
         <v>157</v>
       </c>
       <c r="E77" s="68">
         <v>450</v>
       </c>
-      <c r="F77" s="121">
-        <v>0</v>
-      </c>
-      <c r="G77" s="117">
+      <c r="F77" s="92">
+        <v>0</v>
+      </c>
+      <c r="G77" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>450</v>
       </c>
-      <c r="H77" s="119" t="s">
+      <c r="H77" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="119" t="s">
-        <v>507</v>
-      </c>
-      <c r="B78" s="120" t="str">
-        <f>"("&amp;A78&amp;")"</f>
-        <v>(REG-REM-REMOTE2)</v>
-      </c>
-      <c r="C78" s="119" t="s">
+      <c r="A78" t="s">
+        <v>611</v>
+      </c>
+      <c r="B78" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-REMOTE2)</v>
+      </c>
+      <c r="C78" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="119" t="s">
+      <c r="D78" t="s">
         <v>508</v>
       </c>
       <c r="E78" s="68">
         <v>225</v>
       </c>
-      <c r="F78" s="121">
-        <v>0</v>
-      </c>
-      <c r="G78" s="117">
+      <c r="F78" s="92">
+        <v>0</v>
+      </c>
+      <c r="G78" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>225</v>
       </c>
-      <c r="H78" s="119" t="s">
+      <c r="H78" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="120" t="str">
-        <f>"("&amp;A79&amp;")"</f>
-        <v>(REG-REM-REMOTE3)</v>
-      </c>
-      <c r="C79" s="119" t="s">
+      <c r="A79" t="s">
+        <v>612</v>
+      </c>
+      <c r="B79" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-REMOTE3)</v>
+      </c>
+      <c r="C79" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="119" t="s">
+      <c r="D79" t="s">
         <v>167</v>
       </c>
       <c r="E79" s="68">
         <v>225</v>
       </c>
-      <c r="F79" s="121">
-        <v>0</v>
-      </c>
-      <c r="G79" s="117">
+      <c r="F79" s="92">
+        <v>0</v>
+      </c>
+      <c r="G79" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>225</v>
       </c>
-      <c r="H79" s="119" t="s">
+      <c r="H79" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="120" t="str">
-        <f>"("&amp;A80&amp;")"</f>
-        <v>(REG-REM-MYPALMICRO)</v>
-      </c>
-      <c r="C80" s="119" t="s">
+      <c r="A80" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MYPALMICRO)</v>
+      </c>
+      <c r="C80" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="119" t="s">
+      <c r="D80" t="s">
         <v>168</v>
       </c>
       <c r="E80" s="68">
         <v>225</v>
       </c>
-      <c r="F80" s="121">
-        <v>0</v>
-      </c>
-      <c r="G80" s="117">
+      <c r="F80" s="92">
+        <v>0</v>
+      </c>
+      <c r="G80" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>225</v>
       </c>
-      <c r="H80" s="119" t="s">
+      <c r="H80" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="120" t="str">
-        <f>"("&amp;A81&amp;")"</f>
-        <v>(REG-REM-MYPALPRO)</v>
-      </c>
-      <c r="C81" s="119" t="s">
+      <c r="A81" t="s">
+        <v>614</v>
+      </c>
+      <c r="B81" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MYPALPRO)</v>
+      </c>
+      <c r="C81" t="s">
         <v>169</v>
       </c>
-      <c r="D81" s="119" t="s">
+      <c r="D81" t="s">
         <v>169</v>
       </c>
       <c r="E81" s="68">
         <v>315</v>
       </c>
-      <c r="F81" s="121">
-        <v>0</v>
-      </c>
-      <c r="G81" s="117">
+      <c r="F81" s="92">
+        <v>0</v>
+      </c>
+      <c r="G81" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>315</v>
       </c>
-      <c r="H81" s="119" t="s">
+      <c r="H81" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="B82" s="120" t="str">
-        <f>"("&amp;A82&amp;")"</f>
-        <v>(REG-REM-PHONELINK2)</v>
-      </c>
-      <c r="C82" s="119" t="s">
+      <c r="A82" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-PHONELINK2)</v>
+      </c>
+      <c r="C82" t="s">
         <v>170</v>
       </c>
-      <c r="D82" s="119" t="s">
+      <c r="D82" t="s">
         <v>170</v>
       </c>
       <c r="E82" s="68">
         <v>200</v>
       </c>
-      <c r="F82" s="121">
-        <v>0</v>
-      </c>
-      <c r="G82" s="117">
+      <c r="F82" s="92">
+        <v>0</v>
+      </c>
+      <c r="G82" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>200</v>
       </c>
-      <c r="H82" s="119" t="s">
+      <c r="H82" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="120" t="str">
-        <f>"("&amp;A83&amp;")"</f>
-        <v>(REG-REM-TVLINK2)</v>
-      </c>
-      <c r="C83" s="119" t="s">
+      <c r="A83" t="s">
+        <v>616</v>
+      </c>
+      <c r="B83" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVLINK2)</v>
+      </c>
+      <c r="C83" t="s">
         <v>171</v>
       </c>
-      <c r="D83" s="119" t="s">
+      <c r="D83" t="s">
         <v>171</v>
       </c>
       <c r="E83" s="68">
         <v>340</v>
       </c>
-      <c r="F83" s="121">
-        <v>0</v>
-      </c>
-      <c r="G83" s="117">
+      <c r="F83" s="92">
+        <v>0</v>
+      </c>
+      <c r="G83" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>340</v>
       </c>
-      <c r="H83" s="119" t="s">
+      <c r="H83" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="120" t="str">
-        <f>"("&amp;A84&amp;")"</f>
-        <v>(REG-REM-PERFCLEAN)</v>
-      </c>
-      <c r="C84" s="119" t="s">
+      <c r="A84" t="s">
+        <v>617</v>
+      </c>
+      <c r="B84" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-PERFCLEAN)</v>
+      </c>
+      <c r="C84" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="119" t="s">
+      <c r="D84" t="s">
         <v>172</v>
       </c>
       <c r="E84" s="68">
         <v>185</v>
       </c>
-      <c r="F84" s="121">
-        <v>0</v>
-      </c>
-      <c r="G84" s="117">
+      <c r="F84" s="92">
+        <v>0</v>
+      </c>
+      <c r="G84" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>185</v>
       </c>
-      <c r="H84" s="119" t="s">
+      <c r="H84" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="119" t="s">
-        <v>442</v>
-      </c>
-      <c r="B85" s="120" t="str">
-        <f>"("&amp;A85&amp;")"</f>
-        <v>(REG-REM-TVSTRPL)</v>
-      </c>
-      <c r="C85" s="119" t="s">
+      <c r="A85" t="s">
+        <v>618</v>
+      </c>
+      <c r="B85" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVSTRPL)</v>
+      </c>
+      <c r="C85" t="s">
         <v>441</v>
       </c>
-      <c r="D85" s="119" t="s">
+      <c r="D85" t="s">
         <v>441</v>
       </c>
       <c r="E85" s="68">
         <v>365</v>
       </c>
-      <c r="F85" s="121">
-        <v>0</v>
-      </c>
-      <c r="G85" s="117">
+      <c r="F85" s="92">
+        <v>0</v>
+      </c>
+      <c r="G85" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>365</v>
       </c>
-      <c r="H85" s="119" t="s">
+      <c r="H85" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="119" t="s">
-        <v>442</v>
-      </c>
-      <c r="B86" s="120" t="str">
-        <f>"("&amp;A86&amp;")"</f>
-        <v>(REG-REM-TVSTRPL)</v>
-      </c>
-      <c r="C86" s="119" t="s">
+      <c r="A86" t="s">
+        <v>618</v>
+      </c>
+      <c r="B86" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVSTRPL)</v>
+      </c>
+      <c r="C86" t="s">
         <v>520</v>
       </c>
-      <c r="D86" s="119" t="s">
+      <c r="D86" t="s">
         <v>520</v>
       </c>
       <c r="E86" s="68">
         <v>425</v>
       </c>
-      <c r="F86" s="121">
-        <v>0</v>
-      </c>
-      <c r="G86" s="117">
+      <c r="F86" s="92">
+        <v>0</v>
+      </c>
+      <c r="G86" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>425</v>
       </c>
-      <c r="H86" s="119" t="s">
+      <c r="H86" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" s="120" t="str">
-        <f>"("&amp;A87&amp;")"</f>
-        <v>(REG-REM-TVLINK2)</v>
-      </c>
-      <c r="C87" s="119" t="s">
+      <c r="A87" t="s">
+        <v>616</v>
+      </c>
+      <c r="B87" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVLINK2)</v>
+      </c>
+      <c r="C87" t="s">
         <v>508</v>
       </c>
-      <c r="D87" s="119" t="s">
+      <c r="D87" t="s">
         <v>508</v>
       </c>
       <c r="E87" s="68">
         <v>300</v>
       </c>
-      <c r="F87" s="121">
-        <v>0</v>
-      </c>
-      <c r="G87" s="117">
+      <c r="F87" s="92">
+        <v>0</v>
+      </c>
+      <c r="G87" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>300</v>
       </c>
-      <c r="H87" s="119" t="s">
+      <c r="H87" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="120" t="str">
-        <f>"("&amp;A88&amp;")"</f>
-        <v>(REG-REM-REMOTE3)</v>
-      </c>
-      <c r="C88" s="119" t="s">
+      <c r="A88" t="s">
+        <v>612</v>
+      </c>
+      <c r="B88" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-REMOTE3)</v>
+      </c>
+      <c r="C88" t="s">
         <v>167</v>
       </c>
-      <c r="D88" s="119" t="s">
+      <c r="D88" t="s">
         <v>167</v>
       </c>
       <c r="E88" s="68">
         <v>300</v>
       </c>
-      <c r="F88" s="121">
-        <v>0</v>
-      </c>
-      <c r="G88" s="117">
+      <c r="F88" s="92">
+        <v>0</v>
+      </c>
+      <c r="G88" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>300</v>
       </c>
-      <c r="H88" s="119" t="s">
+      <c r="H88" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="119" t="s">
-        <v>528</v>
-      </c>
-      <c r="B89" s="120" t="str">
-        <f>"("&amp;A89&amp;")"</f>
-        <v>(REG-REM-MULTIMIC)</v>
-      </c>
-      <c r="C89" s="119" t="s">
+      <c r="A89" t="s">
+        <v>619</v>
+      </c>
+      <c r="B89" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MULTIMIC)</v>
+      </c>
+      <c r="C89" t="s">
         <v>526</v>
       </c>
-      <c r="D89" s="119" t="s">
+      <c r="D89" t="s">
         <v>527</v>
       </c>
       <c r="E89" s="68">
         <v>425</v>
       </c>
-      <c r="F89" s="121">
-        <v>0</v>
-      </c>
-      <c r="G89" s="117">
+      <c r="F89" s="92">
+        <v>0</v>
+      </c>
+      <c r="G89" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>425</v>
       </c>
-      <c r="H89" s="119" t="s">
+      <c r="H89" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="119"/>
-      <c r="B90" s="120" t="str">
-        <f>"("&amp;A90&amp;")"</f>
-        <v>()</v>
-      </c>
-      <c r="C90" s="119" t="s">
+      <c r="A90" t="s">
+        <v>620</v>
+      </c>
+      <c r="B90" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVLINK2ONLY)</v>
+      </c>
+      <c r="C90" t="s">
         <v>171</v>
       </c>
-      <c r="D90" s="119" t="s">
+      <c r="D90" t="s">
         <v>171</v>
       </c>
       <c r="E90" s="68">
         <v>425</v>
       </c>
-      <c r="F90" s="121">
-        <v>0</v>
-      </c>
-      <c r="G90" s="118">
+      <c r="F90" s="92">
+        <v>0</v>
+      </c>
+      <c r="G90" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>425</v>
       </c>
-      <c r="H90" s="119" t="s">
+      <c r="H90" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="119"/>
-      <c r="B91" s="120" t="str">
-        <f>"("&amp;A91&amp;")"</f>
-        <v>()</v>
-      </c>
-      <c r="C91" s="119" t="s">
+      <c r="A91" t="s">
+        <v>621</v>
+      </c>
+      <c r="B91" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MYPALMICROONLY)</v>
+      </c>
+      <c r="C91" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="119" t="s">
+      <c r="D91" t="s">
         <v>168</v>
       </c>
       <c r="E91" s="68">
         <v>325</v>
       </c>
-      <c r="F91" s="121">
-        <v>0</v>
-      </c>
-      <c r="G91" s="118">
+      <c r="F91" s="92">
+        <v>0</v>
+      </c>
+      <c r="G91" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>325</v>
       </c>
-      <c r="H91" s="119" t="s">
+      <c r="H91" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="119"/>
-      <c r="B92" s="120" t="str">
+      <c r="A92" t="s">
+        <v>622</v>
+      </c>
+      <c r="B92" s="31" t="str">
         <f>"("&amp;A92&amp;")"</f>
-        <v>()</v>
-      </c>
-      <c r="C92" s="119" t="s">
+        <v>(VOL-REM-PHONELINK2ONLY)</v>
+      </c>
+      <c r="C92" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="119" t="s">
+      <c r="D92" t="s">
         <v>170</v>
       </c>
       <c r="E92" s="68">
         <v>325</v>
       </c>
-      <c r="F92" s="121">
-        <v>0</v>
-      </c>
-      <c r="G92" s="122">
+      <c r="F92" s="92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="93">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
         <v>325</v>
       </c>
-      <c r="H92" s="119" t="s">
+      <c r="H92" t="s">
         <v>606</v>
       </c>
     </row>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3319" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D382CE8C-909E-487D-9EDD-F157D6439663}"/>
+  <xr:revisionPtr revIDLastSave="3320" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08ECB37-4192-4848-8778-FFFCC2B2F5BC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="642">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1947,6 +1947,63 @@
   </si>
   <si>
     <t>VOL-REM-PHONELINK2ONLY</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-1</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-2</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-3</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-4</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP0</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP1</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP2</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP3</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP4</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP0</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP1</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP2</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP3</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP4</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP0</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP1</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP2</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP3</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP4</t>
   </si>
 </sst>
 </file>
@@ -2602,37 +2659,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2681,6 +2707,37 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2688,86 +2745,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="54">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="4"/>
-        <color theme="1"/>
-        <name val="IDAutomationHC39M Free Version"/>
-        <family val="1"/>
-        <charset val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="7" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="7" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2856,6 +2833,86 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="4"/>
+        <color theme="1"/>
+        <name val="IDAutomationHC39M Free Version"/>
+        <family val="1"/>
+        <charset val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3472,21 +3529,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H92" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H92" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A1:H92" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
     <sortCondition ref="H1:H74"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FDC3E4DD-A231-46DD-8097-7C0DC18260BD}" name="barcodeName"/>
-    <tableColumn id="2" xr3:uid="{AFC95F79-8083-447B-A914-1EBAAA27B722}" name="barcode" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{AFC95F79-8083-447B-A914-1EBAAA27B722}" name="barcode" dataDxfId="22">
       <calculatedColumnFormula>"("&amp;A2&amp;")"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D0382781-2AC8-4DE6-BF59-9B38B78B1184}" name="remoteModel"/>
     <tableColumn id="4" xr3:uid="{9B080694-7BEA-4586-AA70-DDEC1D67D699}" name="remoteType"/>
     <tableColumn id="7" xr3:uid="{CCB41D66-8697-4FAF-A74F-5F54F6CCA4F8}" name="remoteListAmount"/>
-    <tableColumn id="5" xr3:uid="{1CE35D6A-9428-4732-9735-D4D6A26B1AB4}" name="remoteDiscountAmount" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D7583571-F6BF-4E66-B4FE-1F6C0658D1E4}" name="remoteAmount" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{1CE35D6A-9428-4732-9735-D4D6A26B1AB4}" name="remoteDiscountAmount" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{D7583571-F6BF-4E66-B4FE-1F6C0658D1E4}" name="remoteAmount" dataDxfId="20">
       <calculatedColumnFormula>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{435AFC97-0382-475D-9332-93EDAB756C8B}" name="remoteDiscountDescription"/>
@@ -3496,37 +3553,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E35851D-E21C-4957-852B-C619133CF977}" name="Table4" displayName="Table4" ref="A1:H3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E35851D-E21C-4957-852B-C619133CF977}" name="Table4" displayName="Table4" ref="A1:H3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A1:H3" xr:uid="{9E35851D-E21C-4957-852B-C619133CF977}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9C5C5DE5-EA97-4EF1-8892-EBFCAC4443EA}" name="barcodeName" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{3987A654-3331-4022-95F5-BEF488FDFD5D}" name="barcode" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{9C5C5DE5-EA97-4EF1-8892-EBFCAC4443EA}" name="barcodeName" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3987A654-3331-4022-95F5-BEF488FDFD5D}" name="barcode" dataDxfId="14">
       <calculatedColumnFormula>"("&amp;A2&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B575D7DB-8A17-44F2-812F-84D8DF10D3DD}" name="serviceDescription" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{1E8BF5D4-6F7F-4C9F-B1C6-A5382AB6523A}" name="serviceDiscountDescription" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{A104B7ED-7164-4645-80F4-4FB3B815FA1C}" name="serviceListAmount" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FA21F863-CA81-4450-AB48-77E6CBCB2D99}" name="serviceDiscountAmount" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{0C0AAA86-C611-4A7B-8F6A-7547563ECBBB}" name="serviceAmount" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{BA455156-79BF-4EC7-BA14-3484B2B4810B}" name="paFittingFee" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B575D7DB-8A17-44F2-812F-84D8DF10D3DD}" name="serviceDescription" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1E8BF5D4-6F7F-4C9F-B1C6-A5382AB6523A}" name="serviceDiscountDescription" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{A104B7ED-7164-4645-80F4-4FB3B815FA1C}" name="serviceListAmount" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FA21F863-CA81-4450-AB48-77E6CBCB2D99}" name="serviceDiscountAmount" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{0C0AAA86-C611-4A7B-8F6A-7547563ECBBB}" name="serviceAmount" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{BA455156-79BF-4EC7-BA14-3484B2B4810B}" name="paFittingFee" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{06EED7A3-D2B4-46BC-8F41-FB11FC20F42F}" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{06EED7A3-D2B4-46BC-8F41-FB11FC20F42F}" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:G3" xr:uid="{06EED7A3-D2B4-46BC-8F41-FB11FC20F42F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EA5C7967-7D68-4146-84DE-1135A119CC3D}" name="barcodeName" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C49A42F5-93EA-4670-959A-42455600C7C8}" name="barcode" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{EA5C7967-7D68-4146-84DE-1135A119CC3D}" name="barcodeName" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C49A42F5-93EA-4670-959A-42455600C7C8}" name="barcode" dataDxfId="5">
       <calculatedColumnFormula>"("&amp;A2&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2609A236-2D4A-49A0-BD07-CC9B0426F536}" name="accessoryDescription" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9F5155AE-6C5F-4BA4-AD9F-DAE0C8053CCF}" name="accessoryDiscountDescription" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{CE967C46-B3C7-4797-BD2D-C5D197F6260B}" name="accessoryListAmount" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{CAA4A522-ACE9-4EE8-A795-EFB2F9D3E99B}" name="accessoryDiscountAmount" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{C6197BEF-5482-4860-814F-46EEEB1E034B}" name="accessoryAmount" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2609A236-2D4A-49A0-BD07-CC9B0426F536}" name="accessoryDescription" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9F5155AE-6C5F-4BA4-AD9F-DAE0C8053CCF}" name="accessoryDiscountDescription" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CE967C46-B3C7-4797-BD2D-C5D197F6260B}" name="accessoryListAmount" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{CAA4A522-ACE9-4EE8-A795-EFB2F9D3E99B}" name="accessoryDiscountAmount" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{C6197BEF-5482-4860-814F-46EEEB1E034B}" name="accessoryAmount" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3848,33 +3905,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="97"/>
+      <c r="B5" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="113"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="110" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="102"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3899,10 +3956,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="114"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3912,27 +3969,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="115" t="str">
+      <c r="B11" s="106" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3945,28 +4002,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="104" t="str" cm="1">
+      <c r="J11" s="95" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="106"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="115" t="str">
+      <c r="B12" s="106" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3979,25 +4036,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="115" t="str" cm="1">
+      <c r="B13" s="106" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -4010,26 +4067,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="115" t="str" cm="1">
+      <c r="B14" s="106" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4039,26 +4096,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="115" t="str">
+      <c r="B15" s="106" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4068,46 +4125,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="112" t="str" cm="1">
+      <c r="J16" s="103" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="114"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="111" t="str" cm="1">
+      <c r="B17" s="102" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4120,11 +4177,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4134,9 +4191,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4148,12 +4205,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="104" t="e" cm="1" vm="1">
+      <c r="L20" s="95" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="106"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4167,9 +4224,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4187,9 +4244,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="109"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="100"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4205,9 +4262,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="109"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4226,9 +4283,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4236,9 +4293,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4265,6 +4322,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4279,11 +4341,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -14949,8 +15006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D837ECC3-A09E-4C86-AA3E-B9664769F460}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H241" sqref="H241"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21627,11 +21684,11 @@
     </row>
     <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A223" s="32" t="s">
-        <v>134</v>
+        <v>623</v>
       </c>
       <c r="B223" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-MM-1)</v>
+        <v>(VOL-REC-MM-1)</v>
       </c>
       <c r="C223" s="91" t="s">
         <v>549</v>
@@ -21657,11 +21714,11 @@
     </row>
     <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A224" s="32" t="s">
-        <v>136</v>
+        <v>624</v>
       </c>
       <c r="B224" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-MM-2)</v>
+        <v>(VOL-REC-MM-2)</v>
       </c>
       <c r="C224" s="91" t="s">
         <v>550</v>
@@ -21687,11 +21744,11 @@
     </row>
     <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A225" s="32" t="s">
-        <v>135</v>
+        <v>625</v>
       </c>
       <c r="B225" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-MM-3)</v>
+        <v>(VOL-REC-MM-3)</v>
       </c>
       <c r="C225" s="91" t="s">
         <v>551</v>
@@ -21717,11 +21774,11 @@
     </row>
     <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A226" s="32" t="s">
-        <v>137</v>
+        <v>626</v>
       </c>
       <c r="B226" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-MM-4)</v>
+        <v>(VOL-REC-MM-4)</v>
       </c>
       <c r="C226" s="91" t="s">
         <v>552</v>
@@ -21747,11 +21804,11 @@
     </row>
     <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A227" s="32" t="s">
-        <v>138</v>
+        <v>627</v>
       </c>
       <c r="B227" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-HP0)</v>
+        <v>(VOL-REC-SF3-HP0)</v>
       </c>
       <c r="C227" s="91" t="s">
         <v>534</v>
@@ -21777,11 +21834,11 @@
     </row>
     <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A228" s="32" t="s">
-        <v>139</v>
+        <v>628</v>
       </c>
       <c r="B228" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-HP1)</v>
+        <v>(VOL-REC-SF3-HP1)</v>
       </c>
       <c r="C228" s="91" t="s">
         <v>535</v>
@@ -21807,11 +21864,11 @@
     </row>
     <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A229" s="32" t="s">
-        <v>140</v>
+        <v>629</v>
       </c>
       <c r="B229" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-HP2)</v>
+        <v>(VOL-REC-SF3-HP2)</v>
       </c>
       <c r="C229" s="91" t="s">
         <v>536</v>
@@ -21837,11 +21894,11 @@
     </row>
     <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A230" s="32" t="s">
-        <v>141</v>
+        <v>630</v>
       </c>
       <c r="B230" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-HP3)</v>
+        <v>(VOL-REC-SF3-HP3)</v>
       </c>
       <c r="C230" s="91" t="s">
         <v>537</v>
@@ -21867,11 +21924,11 @@
     </row>
     <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A231" s="32" t="s">
-        <v>142</v>
+        <v>631</v>
       </c>
       <c r="B231" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-HP4)</v>
+        <v>(VOL-REC-SF3-HP4)</v>
       </c>
       <c r="C231" s="91" t="s">
         <v>538</v>
@@ -21897,11 +21954,11 @@
     </row>
     <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A232" s="32" t="s">
-        <v>143</v>
+        <v>632</v>
       </c>
       <c r="B232" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-LP0)</v>
+        <v>(VOL-REC-SF3-LP0)</v>
       </c>
       <c r="C232" s="91" t="s">
         <v>539</v>
@@ -21927,11 +21984,11 @@
     </row>
     <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A233" s="32" t="s">
-        <v>145</v>
+        <v>633</v>
       </c>
       <c r="B233" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-LP1)</v>
+        <v>(VOL-REC-SF3-LP1)</v>
       </c>
       <c r="C233" s="91" t="s">
         <v>540</v>
@@ -21957,11 +22014,11 @@
     </row>
     <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A234" s="32" t="s">
-        <v>147</v>
+        <v>634</v>
       </c>
       <c r="B234" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-LP2)</v>
+        <v>(VOL-REC-SF3-LP2)</v>
       </c>
       <c r="C234" s="91" t="s">
         <v>541</v>
@@ -21987,11 +22044,11 @@
     </row>
     <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A235" s="32" t="s">
-        <v>152</v>
+        <v>635</v>
       </c>
       <c r="B235" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-LP3)</v>
+        <v>(VOL-REC-SF3-LP3)</v>
       </c>
       <c r="C235" s="91" t="s">
         <v>542</v>
@@ -22017,11 +22074,11 @@
     </row>
     <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A236" s="32" t="s">
-        <v>144</v>
+        <v>636</v>
       </c>
       <c r="B236" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-LP4)</v>
+        <v>(VOL-REC-SF3-LP4)</v>
       </c>
       <c r="C236" s="91" t="s">
         <v>543</v>
@@ -22047,11 +22104,11 @@
     </row>
     <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A237" s="32" t="s">
-        <v>148</v>
+        <v>637</v>
       </c>
       <c r="B237" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-MP0)</v>
+        <v>(VOL-REC-SF3-MP0)</v>
       </c>
       <c r="C237" s="91" t="s">
         <v>544</v>
@@ -22077,11 +22134,11 @@
     </row>
     <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A238" s="32" t="s">
-        <v>146</v>
+        <v>638</v>
       </c>
       <c r="B238" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-MP1)</v>
+        <v>(VOL-REC-SF3-MP1)</v>
       </c>
       <c r="C238" s="91" t="s">
         <v>545</v>
@@ -22107,11 +22164,11 @@
     </row>
     <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A239" s="32" t="s">
-        <v>149</v>
+        <v>639</v>
       </c>
       <c r="B239" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-MP2)</v>
+        <v>(VOL-REC-SF3-MP2)</v>
       </c>
       <c r="C239" s="91" t="s">
         <v>546</v>
@@ -22137,11 +22194,11 @@
     </row>
     <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A240" s="32" t="s">
-        <v>150</v>
+        <v>640</v>
       </c>
       <c r="B240" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-MP3)</v>
+        <v>(VOL-REC-SF3-MP3)</v>
       </c>
       <c r="C240" s="91" t="s">
         <v>547</v>
@@ -22167,11 +22224,11 @@
     </row>
     <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A241" s="32" t="s">
-        <v>151</v>
+        <v>641</v>
       </c>
       <c r="B241" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>(REG-REC-SF3-MP4)</v>
+        <v>(VOL-REC-SF3-MP4)</v>
       </c>
       <c r="C241" s="91" t="s">
         <v>548</v>
@@ -22658,7 +22715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051AA2F-ED82-497D-A0D7-BA51300AC6DC}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3320" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08ECB37-4192-4848-8778-FFFCC2B2F5BC}"/>
+  <xr:revisionPtr revIDLastSave="3321" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CB3F30-56B2-442C-A906-7F29A75A9C76}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2659,6 +2659,37 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2706,37 +2737,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3473,7 +3473,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P180" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
+  <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Beltone Envision 9 62S-DRWC Digital RIE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P131">
     <sortCondition ref="B1:B135"/>
   </sortState>
@@ -3905,33 +3911,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="113"/>
+      <c r="B5" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="97"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="116"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="94" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3956,10 +3962,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
+      <c r="C10" s="98"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3969,27 +3975,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="106" t="str">
+      <c r="B11" s="115" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4002,28 +4008,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="95" t="str" cm="1">
+      <c r="J11" s="104" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="106" t="str">
+      <c r="B12" s="115" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4036,25 +4042,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="106" t="str" cm="1">
+      <c r="B13" s="115" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -4067,26 +4073,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="106" t="str" cm="1">
+      <c r="B14" s="115" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4096,26 +4102,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="106" t="str">
+      <c r="B15" s="115" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4125,46 +4131,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="103" t="str" cm="1">
+      <c r="J16" s="112" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="105"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="str" cm="1">
+      <c r="B17" s="111" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4177,11 +4183,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4191,9 +4197,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4205,12 +4211,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="95" t="e" cm="1" vm="1">
+      <c r="L20" s="104" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="106"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4224,9 +4230,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="100"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4244,9 +4250,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="100"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4262,9 +4268,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="100"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="109"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4283,9 +4289,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="109"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4293,9 +4299,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4322,11 +4328,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4341,6 +4342,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4383,11 +4389,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L179" sqref="C178:L179"/>
+      <selection pane="bottomRight" activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4462,7 +4468,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -4560,7 +4566,7 @@
       </c>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -4609,7 +4615,7 @@
       </c>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
@@ -4659,7 +4665,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -4708,7 +4714,7 @@
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -4758,7 +4764,7 @@
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -4807,7 +4813,7 @@
       </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4857,7 +4863,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -4906,7 +4912,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -4956,7 +4962,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -5005,7 +5011,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -5055,7 +5061,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5104,7 +5110,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A15" s="71" t="s">
         <v>558</v>
       </c>
@@ -5148,7 +5154,7 @@
       <c r="P15" s="73"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -5196,7 +5202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A17" s="71" t="s">
         <v>557</v>
       </c>
@@ -5239,7 +5245,7 @@
       <c r="O17" s="77"/>
       <c r="P17" s="73"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A19" s="71" t="s">
         <v>553</v>
       </c>
@@ -5337,7 +5343,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -5386,7 +5392,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A21" s="71" t="s">
         <v>556</v>
       </c>
@@ -5430,7 +5436,7 @@
       <c r="P21" s="73"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -5479,7 +5485,7 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A23" s="71" t="s">
         <v>555</v>
       </c>
@@ -5529,7 +5535,7 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -5628,7 +5634,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5677,7 +5683,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -5729,7 +5735,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5778,7 +5784,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -5828,7 +5834,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -5877,7 +5883,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -5927,7 +5933,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -5976,7 +5982,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -6026,7 +6032,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -6075,7 +6081,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -6125,7 +6131,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -6174,7 +6180,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -6224,7 +6230,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -6271,7 +6277,7 @@
       <c r="P38" s="2"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -6319,7 +6325,7 @@
       <c r="P39" s="2"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -6366,7 +6372,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -6414,7 +6420,7 @@
       <c r="P41" s="2"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -6460,7 +6466,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -6512,7 +6518,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -6559,7 +6565,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>421</v>
       </c>
@@ -6611,7 +6617,7 @@
       </c>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -6658,7 +6664,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
@@ -6708,7 +6714,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -6755,7 +6761,7 @@
       <c r="P48" s="2"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
@@ -6805,7 +6811,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -6852,7 +6858,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -6902,7 +6908,7 @@
       </c>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
@@ -6949,7 +6955,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -6999,7 +7005,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
@@ -7049,7 +7055,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A55" s="71" t="s">
         <v>558</v>
       </c>
@@ -7092,7 +7098,7 @@
       <c r="P55" s="73"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
@@ -7140,7 +7146,7 @@
       <c r="P56" s="2"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A57" s="71" t="s">
         <v>557</v>
       </c>
@@ -7192,7 +7198,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A58" s="71" t="s">
         <v>557</v>
       </c>
@@ -7244,7 +7250,7 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A59" s="71" t="s">
         <v>557</v>
       </c>
@@ -7296,7 +7302,7 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
         <v>557</v>
       </c>
@@ -7348,7 +7354,7 @@
       </c>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
@@ -7396,7 +7402,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
         <v>557</v>
       </c>
@@ -7446,7 +7452,7 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>557</v>
       </c>
@@ -7489,7 +7495,7 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>557</v>
       </c>
@@ -7539,7 +7545,7 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>557</v>
       </c>
@@ -7589,7 +7595,7 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A66" s="71" t="s">
         <v>557</v>
       </c>
@@ -7639,7 +7645,7 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A67" s="71" t="s">
         <v>557</v>
       </c>
@@ -7689,7 +7695,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A68" s="71" t="s">
         <v>557</v>
       </c>
@@ -7739,7 +7745,7 @@
       </c>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
         <v>553</v>
       </c>
@@ -7789,7 +7795,7 @@
       </c>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A70" s="71" t="s">
         <v>553</v>
       </c>
@@ -7838,7 +7844,7 @@
       </c>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A71" s="71" t="s">
         <v>553</v>
       </c>
@@ -7888,7 +7894,7 @@
       </c>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A72" s="4" t="s">
         <v>48</v>
       </c>
@@ -7936,7 +7942,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
         <v>556</v>
       </c>
@@ -7979,7 +7985,7 @@
       <c r="P73" s="73"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
@@ -8031,7 +8037,7 @@
       </c>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A75" s="71" t="s">
         <v>555</v>
       </c>
@@ -8081,7 +8087,7 @@
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A76" s="71" t="s">
         <v>555</v>
       </c>
@@ -8131,7 +8137,7 @@
       </c>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A77" s="4" t="s">
         <v>34</v>
       </c>
@@ -8230,7 +8236,7 @@
       </c>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A79" s="71" t="s">
         <v>554</v>
       </c>
@@ -8379,7 +8385,7 @@
       </c>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A82" s="4" t="s">
         <v>22</v>
       </c>
@@ -8428,7 +8434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -8478,7 +8484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
@@ -8527,7 +8533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
@@ -8624,7 +8630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A87" s="4" t="s">
         <v>51</v>
       </c>
@@ -8674,7 +8680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A88" s="4" t="s">
         <v>28</v>
       </c>
@@ -8723,7 +8729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A89" s="4" t="s">
         <v>421</v>
       </c>
@@ -8773,7 +8779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -8820,7 +8826,7 @@
       </c>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A91" s="4" t="s">
         <v>52</v>
       </c>
@@ -8868,7 +8874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A92" s="4" t="s">
         <v>30</v>
       </c>
@@ -8915,7 +8921,7 @@
       </c>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A93" s="4" t="s">
         <v>32</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
@@ -9012,7 +9018,7 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
@@ -9060,7 +9066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96" s="71" t="s">
         <v>557</v>
       </c>
@@ -9111,7 +9117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A97" s="4" t="s">
         <v>432</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>432</v>
       </c>
@@ -9212,7 +9218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A99" s="4" t="s">
         <v>432</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A100" s="4" t="s">
         <v>432</v>
       </c>
@@ -9312,7 +9318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A101" s="4" t="s">
         <v>432</v>
       </c>
@@ -9363,7 +9369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A102" s="4" t="s">
         <v>432</v>
       </c>
@@ -9414,7 +9420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A103" s="4" t="s">
         <v>432</v>
       </c>
@@ -9465,7 +9471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>432</v>
       </c>
@@ -9516,7 +9522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A105" s="4" t="s">
         <v>432</v>
       </c>
@@ -9567,7 +9573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A106" s="4" t="s">
         <v>432</v>
       </c>
@@ -9618,7 +9624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A107" s="4" t="s">
         <v>432</v>
       </c>
@@ -9669,7 +9675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A108" s="4" t="s">
         <v>432</v>
       </c>
@@ -9720,7 +9726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A109" s="4" t="s">
         <v>432</v>
       </c>
@@ -9771,7 +9777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A110" s="4" t="s">
         <v>433</v>
       </c>
@@ -9822,7 +9828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A111" s="4" t="s">
         <v>433</v>
       </c>
@@ -9872,7 +9878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A112" s="4" t="s">
         <v>433</v>
       </c>
@@ -9921,7 +9927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A113" s="4" t="s">
         <v>433</v>
       </c>
@@ -9972,7 +9978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A114" s="4" t="s">
         <v>433</v>
       </c>
@@ -10023,7 +10029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A115" s="4" t="s">
         <v>433</v>
       </c>
@@ -10074,7 +10080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A116" s="4" t="s">
         <v>433</v>
       </c>
@@ -10125,7 +10131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>433</v>
       </c>
@@ -10176,7 +10182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A118" s="4" t="s">
         <v>433</v>
       </c>
@@ -10227,7 +10233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A119" s="4" t="s">
         <v>433</v>
       </c>
@@ -10278,7 +10284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A120" s="4" t="s">
         <v>433</v>
       </c>
@@ -10329,7 +10335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A121" s="4" t="s">
         <v>433</v>
       </c>
@@ -10380,7 +10386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A122" s="4" t="s">
         <v>433</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>434</v>
       </c>
@@ -10482,7 +10488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>434</v>
       </c>
@@ -10532,7 +10538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>434</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>434</v>
       </c>
@@ -10632,7 +10638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>434</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>434</v>
       </c>
@@ -10734,7 +10740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>434</v>
       </c>
@@ -10785,7 +10791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>434</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>434</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>434</v>
       </c>
@@ -10938,7 +10944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>434</v>
       </c>
@@ -10989,7 +10995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>434</v>
       </c>
@@ -11040,7 +11046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>434</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A136" s="83" t="s">
         <v>58</v>
       </c>
@@ -11138,7 +11144,7 @@
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A137" s="83" t="s">
         <v>59</v>
       </c>
@@ -11185,7 +11191,7 @@
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A138" s="83" t="s">
         <v>60</v>
       </c>
@@ -11232,7 +11238,7 @@
       </c>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A139" s="83" t="s">
         <v>61</v>
       </c>
@@ -11279,7 +11285,7 @@
       </c>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A140" s="83" t="s">
         <v>62</v>
       </c>
@@ -11326,7 +11332,7 @@
       </c>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A141" s="83" t="s">
         <v>63</v>
       </c>
@@ -11373,7 +11379,7 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142" s="83" t="s">
         <v>558</v>
       </c>
@@ -11414,7 +11420,7 @@
       <c r="P142" s="85"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143" s="83" t="s">
         <v>557</v>
       </c>
@@ -11454,7 +11460,7 @@
       <c r="O143" s="89"/>
       <c r="P143" s="85"/>
     </row>
-    <row r="144" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A144" s="83" t="s">
         <v>553</v>
       </c>
@@ -11501,7 +11507,7 @@
       </c>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A145" s="83" t="s">
         <v>556</v>
       </c>
@@ -11542,7 +11548,7 @@
       <c r="P145" s="85"/>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A146" s="83" t="s">
         <v>555</v>
       </c>
@@ -11636,7 +11642,7 @@
       </c>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A148" s="83" t="s">
         <v>49</v>
       </c>
@@ -11685,7 +11691,7 @@
       </c>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A149" s="83" t="s">
         <v>50</v>
       </c>
@@ -11732,7 +11738,7 @@
       </c>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A150" s="83" t="s">
         <v>36</v>
       </c>
@@ -11779,7 +11785,7 @@
       </c>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A151" s="83" t="s">
         <v>37</v>
       </c>
@@ -11826,7 +11832,7 @@
       </c>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A152" s="83" t="s">
         <v>38</v>
       </c>
@@ -11873,7 +11879,7 @@
       </c>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A153" s="83" t="s">
         <v>39</v>
       </c>
@@ -11920,7 +11926,7 @@
       </c>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A154" s="83" t="s">
         <v>45</v>
       </c>
@@ -11965,7 +11971,7 @@
       <c r="P154" s="86"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A155" s="83" t="s">
         <v>47</v>
       </c>
@@ -12010,7 +12016,7 @@
       <c r="P155" s="86"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A156" s="83" t="s">
         <v>51</v>
       </c>
@@ -12059,7 +12065,7 @@
       </c>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A157" s="83" t="s">
         <v>421</v>
       </c>
@@ -12108,7 +12114,7 @@
       </c>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A158" s="83" t="s">
         <v>52</v>
       </c>
@@ -12155,7 +12161,7 @@
       </c>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A159" s="83" t="s">
         <v>40</v>
       </c>
@@ -12202,7 +12208,7 @@
       </c>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A160" s="83" t="s">
         <v>41</v>
       </c>
@@ -12249,7 +12255,7 @@
       </c>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A161" s="83" t="s">
         <v>42</v>
       </c>
@@ -12296,7 +12302,7 @@
       </c>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A162" s="83" t="s">
         <v>43</v>
       </c>
@@ -12343,7 +12349,7 @@
       </c>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A163" s="83" t="s">
         <v>44</v>
       </c>
@@ -12388,7 +12394,7 @@
       <c r="P163" s="86"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A164" s="83" t="s">
         <v>46</v>
       </c>
@@ -12433,7 +12439,7 @@
       <c r="P164" s="86"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A165" s="83" t="s">
         <v>48</v>
       </c>
@@ -12478,7 +12484,7 @@
       <c r="P165" s="86"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A166" s="83" t="s">
         <v>32</v>
       </c>
@@ -12527,7 +12533,7 @@
       </c>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A167" s="83" t="s">
         <v>34</v>
       </c>
@@ -12574,7 +12580,7 @@
       </c>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A168" s="83" t="s">
         <v>22</v>
       </c>
@@ -12620,7 +12626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A169" s="83" t="s">
         <v>26</v>
       </c>
@@ -12666,7 +12672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A170" s="83" t="s">
         <v>27</v>
       </c>
@@ -12712,7 +12718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A171" s="83" t="s">
         <v>28</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A172" s="83" t="s">
         <v>29</v>
       </c>
@@ -12802,7 +12808,7 @@
       </c>
       <c r="P172" s="86"/>
     </row>
-    <row r="173" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A173" s="83" t="s">
         <v>30</v>
       </c>
@@ -12846,7 +12852,7 @@
       </c>
       <c r="P173" s="86"/>
     </row>
-    <row r="174" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A174" s="83" t="s">
         <v>31</v>
       </c>
@@ -12890,7 +12896,7 @@
       </c>
       <c r="P174" s="86"/>
     </row>
-    <row r="175" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A175" s="83" t="s">
         <v>432</v>
       </c>
@@ -12938,7 +12944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A176" s="83" t="s">
         <v>433</v>
       </c>
@@ -12986,7 +12992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>
@@ -13034,7 +13040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A178" s="83" t="s">
         <v>553</v>
       </c>
@@ -13080,7 +13086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A179" s="83" t="s">
         <v>555</v>
       </c>
@@ -15006,7 +15012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D837ECC3-A09E-4C86-AA3E-B9664769F460}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3321" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CB3F30-56B2-442C-A906-7F29A75A9C76}"/>
+  <xr:revisionPtr revIDLastSave="3326" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054AAFA1-B092-46BB-A949-505446033A85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="2355" yWindow="480" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="641">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1635,9 +1635,6 @@
   </si>
   <si>
     <t>CMP-HI-REL4-63DRWC</t>
-  </si>
-  <si>
-    <t>CNH-HI-REL4-63DRWC</t>
   </si>
   <si>
     <t>TV Streamer Plus</t>
@@ -2659,37 +2656,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2737,6 +2703,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3476,7 +3473,9 @@
   <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Beltone Envision 9 62S-DRWC Digital RIE"/>
+        <filter val="Beltone Commence 2 63-DRW Digital RIE"/>
+        <filter val="Beltone Commence 3 62-DRWC Digital RIE"/>
+        <filter val="Beltone RIE Digital Commence 3 62-DRWC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3911,35 +3910,35 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="97"/>
+      <c r="B5" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="113"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="110" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="102"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>3</v>
@@ -3962,10 +3961,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="114"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3975,27 +3974,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="115" t="str">
+      <c r="B11" s="106" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4008,28 +4007,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="104" t="str" cm="1">
+      <c r="J11" s="95" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="106"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="115" t="str">
+      <c r="B12" s="106" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4042,25 +4041,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="115" t="str" cm="1">
+      <c r="B13" s="106" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -4073,26 +4072,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="115" t="str" cm="1">
+      <c r="B14" s="106" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4102,26 +4101,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="115" t="str">
+      <c r="B15" s="106" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4131,46 +4130,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="112" t="str" cm="1">
+      <c r="J16" s="103" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="114"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="111" t="str" cm="1">
+      <c r="B17" s="102" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4183,11 +4182,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4197,9 +4196,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4211,12 +4210,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="104" t="e" cm="1" vm="1">
+      <c r="L20" s="95" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="106"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4230,9 +4229,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4250,9 +4249,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="109"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="100"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4268,9 +4267,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="109"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4289,9 +4288,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4299,9 +4298,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4328,6 +4327,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4342,11 +4346,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4390,10 +4389,10 @@
   <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I147" sqref="I147"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4452,7 +4451,7 @@
         <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>87</v>
@@ -4473,11 +4472,11 @@
         <v>58</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E2" s="79" t="s">
         <v>189</v>
@@ -4521,7 +4520,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="26" t="str">
@@ -4571,11 +4570,11 @@
         <v>59</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E4" s="79" t="s">
         <v>189</v>
@@ -4620,7 +4619,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="26" t="str">
@@ -4670,11 +4669,11 @@
         <v>60</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E6" s="79" t="s">
         <v>189</v>
@@ -4719,7 +4718,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="26" t="str">
@@ -4769,11 +4768,11 @@
         <v>61</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>189</v>
@@ -4818,7 +4817,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="26" t="str">
@@ -4868,11 +4867,11 @@
         <v>62</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E10" s="79" t="s">
         <v>189</v>
@@ -4917,7 +4916,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="26" t="str">
@@ -4967,11 +4966,11 @@
         <v>63</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E12" s="79" t="s">
         <v>189</v>
@@ -5016,7 +5015,7 @@
         <v>63</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="26" t="str">
@@ -5066,11 +5065,11 @@
         <v>36</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E14" s="79" t="s">
         <v>189</v>
@@ -5110,12 +5109,12 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A15" s="71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="26" t="str">
@@ -5159,11 +5158,11 @@
         <v>37</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E16" s="79" t="s">
         <v>189</v>
@@ -5202,12 +5201,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A17" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="26" t="str">
@@ -5250,11 +5249,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E18" s="79" t="s">
         <v>189</v>
@@ -5295,10 +5294,10 @@
     </row>
     <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A19" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="26" t="str">
@@ -5348,11 +5347,11 @@
         <v>39</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E20" s="79" t="s">
         <v>189</v>
@@ -5394,10 +5393,10 @@
     </row>
     <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A21" s="71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="26" t="str">
@@ -5441,11 +5440,11 @@
         <v>40</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E22" s="79" t="s">
         <v>189</v>
@@ -5487,10 +5486,10 @@
     </row>
     <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A23" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="26" t="str">
@@ -5540,11 +5539,11 @@
         <v>41</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E24" s="79" t="s">
         <v>189</v>
@@ -5584,12 +5583,12 @@
       </c>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A25" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="26" t="str">
@@ -5639,11 +5638,11 @@
         <v>42</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E26" s="79" t="s">
         <v>189</v>
@@ -5740,11 +5739,11 @@
         <v>43</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E28" s="79" t="s">
         <v>189</v>
@@ -5789,7 +5788,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="26" t="str">
@@ -5839,11 +5838,11 @@
         <v>22</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E30" s="79" t="s">
         <v>189</v>
@@ -5888,7 +5887,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="26" t="str">
@@ -5938,11 +5937,11 @@
         <v>26</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E32" s="79" t="s">
         <v>189</v>
@@ -5987,7 +5986,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="26" t="str">
@@ -6037,11 +6036,11 @@
         <v>27</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E34" s="79" t="s">
         <v>189</v>
@@ -6086,7 +6085,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="26" t="str">
@@ -6136,11 +6135,11 @@
         <v>28</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E36" s="79" t="s">
         <v>189</v>
@@ -6185,7 +6184,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="26" t="str">
@@ -6235,11 +6234,11 @@
         <v>44</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E38" s="79" t="s">
         <v>189</v>
@@ -6282,7 +6281,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="26" t="str">
@@ -6330,11 +6329,11 @@
         <v>29</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>189</v>
@@ -6377,7 +6376,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="26" t="str">
@@ -6425,11 +6424,11 @@
         <v>45</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E42" s="79" t="s">
         <v>189</v>
@@ -6523,11 +6522,11 @@
         <v>46</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E44" s="79" t="s">
         <v>189</v>
@@ -6622,11 +6621,11 @@
         <v>30</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>189</v>
@@ -6669,7 +6668,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="26" t="str">
@@ -6719,11 +6718,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>189</v>
@@ -6766,7 +6765,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="26" t="str">
@@ -6816,11 +6815,11 @@
         <v>48</v>
       </c>
       <c r="B50" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E50" s="79" t="s">
         <v>189</v>
@@ -6863,7 +6862,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="26" t="str">
@@ -6913,11 +6912,11 @@
         <v>31</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E52" s="79" t="s">
         <v>189</v>
@@ -6960,7 +6959,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="26" t="str">
@@ -7010,7 +7009,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="26" t="str">
@@ -7055,16 +7054,16 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A55" s="71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E55" s="79" t="s">
         <v>189</v>
@@ -7103,7 +7102,7 @@
         <v>44</v>
       </c>
       <c r="B56" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="26" t="str">
@@ -7146,12 +7145,12 @@
       <c r="P56" s="2"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A57" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B57" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C57" s="66" t="s">
         <v>515</v>
@@ -7198,12 +7197,12 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A58" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C58" s="66" t="s">
         <v>516</v>
@@ -7250,12 +7249,12 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A59" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B59" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>517</v>
@@ -7302,12 +7301,12 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C60" s="66" t="s">
         <v>518</v>
@@ -7359,7 +7358,7 @@
         <v>46</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="26" t="str">
@@ -7402,12 +7401,12 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B62" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C62" s="66"/>
       <c r="D62" s="26" t="str">
@@ -7452,16 +7451,16 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B63" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B63" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C63" s="71"/>
       <c r="D63" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E63" s="79" t="s">
         <v>189</v>
@@ -7495,12 +7494,12 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B64" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B64" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C64" s="66"/>
       <c r="D64" s="26" t="str">
@@ -7508,7 +7507,7 @@
         <v>()</v>
       </c>
       <c r="E64" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F64" s="73">
         <v>2339</v>
@@ -7545,12 +7544,12 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B65" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C65" s="56"/>
       <c r="D65" s="26" t="str">
@@ -7595,12 +7594,12 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A66" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B66" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C66" s="66"/>
       <c r="D66" s="26" t="str">
@@ -7645,12 +7644,12 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A67" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B67" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="26" t="str">
@@ -7695,12 +7694,12 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A68" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B68" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B68" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C68" s="66"/>
       <c r="D68" s="26" t="str">
@@ -7747,10 +7746,10 @@
     </row>
     <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B69" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="26" t="str">
@@ -7797,14 +7796,14 @@
     </row>
     <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A70" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C70" s="71"/>
       <c r="D70" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E70" s="79" t="s">
         <v>189</v>
@@ -7846,10 +7845,10 @@
     </row>
     <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A71" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="26" t="str">
@@ -7899,7 +7898,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="26" t="str">
@@ -7944,14 +7943,14 @@
     </row>
     <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C73" s="71"/>
       <c r="D73" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E73" s="79" t="s">
         <v>189</v>
@@ -8039,10 +8038,10 @@
     </row>
     <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A75" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="26" t="str">
@@ -8089,10 +8088,10 @@
     </row>
     <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A76" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="26" t="str">
@@ -8142,7 +8141,7 @@
         <v>34</v>
       </c>
       <c r="B77" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="26" t="str">
@@ -8187,16 +8186,16 @@
       </c>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A78" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B78" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E78" s="79" t="s">
         <v>189</v>
@@ -8238,14 +8237,14 @@
     </row>
     <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A79" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C79" s="71"/>
       <c r="D79" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E79" s="79" t="s">
         <v>189</v>
@@ -8285,12 +8284,12 @@
       </c>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A80" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="26" t="str">
@@ -8335,12 +8334,12 @@
       </c>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A81" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="26" t="str">
@@ -8390,7 +8389,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="26" t="str">
@@ -8445,7 +8444,7 @@
         <v>417</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E83" s="79" t="s">
         <v>189</v>
@@ -8489,7 +8488,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="26" t="str">
@@ -8538,11 +8537,11 @@
         <v>50</v>
       </c>
       <c r="B85" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E85" s="79" t="s">
         <v>189</v>
@@ -8586,7 +8585,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="26" t="str">
@@ -8641,7 +8640,7 @@
         <v>418</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E87" s="79" t="s">
         <v>189</v>
@@ -8685,7 +8684,7 @@
         <v>28</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="26" t="str">
@@ -8740,7 +8739,7 @@
         <v>423</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E89" s="79" t="s">
         <v>189</v>
@@ -8784,7 +8783,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="26" t="str">
@@ -8831,11 +8830,11 @@
         <v>52</v>
       </c>
       <c r="B91" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E91" s="79" t="s">
         <v>189</v>
@@ -8879,7 +8878,7 @@
         <v>30</v>
       </c>
       <c r="B92" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="26" t="str">
@@ -8932,7 +8931,7 @@
         <v>419</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E93" s="79" t="s">
         <v>189</v>
@@ -8976,7 +8975,7 @@
         <v>31</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="26" t="str">
@@ -9023,11 +9022,11 @@
         <v>34</v>
       </c>
       <c r="B95" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E95" s="79" t="s">
         <v>189</v>
@@ -9066,19 +9065,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A96" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B96" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="C96" s="66" t="s">
-        <v>519</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="B96" s="83" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96" s="66"/>
       <c r="D96" s="26" t="str">
         <f>"("&amp;C96&amp;")"</f>
-        <v>(CNH-HI-REL4-63DRWC)</v>
+        <v>()</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>57</v>
@@ -9179,7 +9176,7 @@
         <v>435</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E98" s="79" t="s">
         <v>189</v>
@@ -9231,7 +9228,7 @@
         <v>()</v>
       </c>
       <c r="E99" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F99" s="73">
         <v>5819</v>
@@ -9839,7 +9836,7 @@
         <v>436</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E111" s="79" t="s">
         <v>189</v>
@@ -9891,7 +9888,7 @@
         <v>()</v>
       </c>
       <c r="E112" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F112" s="73">
         <v>3689</v>
@@ -10499,7 +10496,7 @@
         <v>437</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E124" s="79" t="s">
         <v>189</v>
@@ -10551,7 +10548,7 @@
         <v>()</v>
       </c>
       <c r="E125" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F125" s="73">
         <v>4679</v>
@@ -11102,14 +11099,14 @@
         <v>58</v>
       </c>
       <c r="B136" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C136" s="83"/>
       <c r="D136" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F136" s="85">
         <v>5819</v>
@@ -11149,14 +11146,14 @@
         <v>59</v>
       </c>
       <c r="B137" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C137" s="83"/>
       <c r="D137" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E137" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F137" s="85">
         <v>5819</v>
@@ -11196,14 +11193,14 @@
         <v>60</v>
       </c>
       <c r="B138" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C138" s="83"/>
       <c r="D138" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E138" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F138" s="85">
         <v>3689</v>
@@ -11243,14 +11240,14 @@
         <v>61</v>
       </c>
       <c r="B139" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C139" s="83"/>
       <c r="D139" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E139" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F139" s="85">
         <v>3689</v>
@@ -11290,14 +11287,14 @@
         <v>62</v>
       </c>
       <c r="B140" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C140" s="83"/>
       <c r="D140" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E140" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F140" s="85">
         <v>4679</v>
@@ -11337,14 +11334,14 @@
         <v>63</v>
       </c>
       <c r="B141" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C141" s="83"/>
       <c r="D141" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E141" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F141" s="85">
         <v>4679</v>
@@ -11379,19 +11376,19 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A142" s="83" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B142" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C142" s="83"/>
       <c r="D142" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E142" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F142" s="85">
         <v>1859</v>
@@ -11420,19 +11417,19 @@
       <c r="P142" s="85"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A143" s="83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B143" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C143" s="83"/>
       <c r="D143" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E143" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F143" s="85">
         <v>2339</v>
@@ -11462,17 +11459,17 @@
     </row>
     <row r="144" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A144" s="83" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B144" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C144" s="83"/>
       <c r="D144" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F144" s="85">
         <v>5819</v>
@@ -11509,17 +11506,17 @@
     </row>
     <row r="145" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A145" s="83" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B145" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C145" s="83"/>
       <c r="D145" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E145" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F145" s="85">
         <v>3029</v>
@@ -11550,17 +11547,17 @@
     </row>
     <row r="146" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A146" s="83" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B146" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C146" s="83"/>
       <c r="D146" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E146" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F146" s="85">
         <v>3689</v>
@@ -11595,19 +11592,19 @@
       </c>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A147" s="83" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B147" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C147" s="83"/>
       <c r="D147" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E147" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F147" s="85">
         <v>4679</v>
@@ -11653,10 +11650,10 @@
         <v>417</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F148" s="85">
         <v>1960</v>
@@ -11696,14 +11693,14 @@
         <v>50</v>
       </c>
       <c r="B149" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C149" s="83"/>
       <c r="D149" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E149" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F149" s="85">
         <v>1960</v>
@@ -11743,14 +11740,14 @@
         <v>36</v>
       </c>
       <c r="B150" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C150" s="83"/>
       <c r="D150" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E150" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F150" s="85">
         <v>1960</v>
@@ -11790,14 +11787,14 @@
         <v>37</v>
       </c>
       <c r="B151" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C151" s="83"/>
       <c r="D151" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E151" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F151" s="85">
         <v>1960</v>
@@ -11837,14 +11834,14 @@
         <v>38</v>
       </c>
       <c r="B152" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C152" s="83"/>
       <c r="D152" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F152" s="85">
         <v>1960</v>
@@ -11884,14 +11881,14 @@
         <v>39</v>
       </c>
       <c r="B153" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C153" s="83"/>
       <c r="D153" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E153" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F153" s="85">
         <v>1960</v>
@@ -11931,14 +11928,14 @@
         <v>45</v>
       </c>
       <c r="B154" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C154" s="83"/>
       <c r="D154" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E154" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F154" s="85">
         <v>1960</v>
@@ -11976,14 +11973,14 @@
         <v>47</v>
       </c>
       <c r="B155" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C155" s="83"/>
       <c r="D155" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E155" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F155" s="85">
         <v>1960</v>
@@ -12027,10 +12024,10 @@
         <v>418</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F156" s="85">
         <v>2345</v>
@@ -12076,10 +12073,10 @@
         <v>423</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E157" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F157" s="85">
         <v>2345</v>
@@ -12119,14 +12116,14 @@
         <v>52</v>
       </c>
       <c r="B158" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C158" s="83"/>
       <c r="D158" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E158" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F158" s="85">
         <v>2345</v>
@@ -12166,14 +12163,14 @@
         <v>40</v>
       </c>
       <c r="B159" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C159" s="83"/>
       <c r="D159" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E159" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F159" s="85">
         <v>2345</v>
@@ -12213,14 +12210,14 @@
         <v>41</v>
       </c>
       <c r="B160" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C160" s="83"/>
       <c r="D160" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F160" s="85">
         <v>2345</v>
@@ -12260,14 +12257,14 @@
         <v>42</v>
       </c>
       <c r="B161" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C161" s="83"/>
       <c r="D161" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E161" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F161" s="85">
         <v>2345</v>
@@ -12307,14 +12304,14 @@
         <v>43</v>
       </c>
       <c r="B162" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C162" s="83"/>
       <c r="D162" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E162" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F162" s="85">
         <v>2345</v>
@@ -12354,14 +12351,14 @@
         <v>44</v>
       </c>
       <c r="B163" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C163" s="83"/>
       <c r="D163" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E163" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F163" s="85">
         <v>2345</v>
@@ -12399,14 +12396,14 @@
         <v>46</v>
       </c>
       <c r="B164" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C164" s="83"/>
       <c r="D164" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F164" s="85">
         <v>2345</v>
@@ -12444,14 +12441,14 @@
         <v>48</v>
       </c>
       <c r="B165" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C165" s="83"/>
       <c r="D165" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E165" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F165" s="85">
         <v>2345</v>
@@ -12495,10 +12492,10 @@
         <v>419</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E166" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F166" s="85">
         <v>3029</v>
@@ -12538,14 +12535,14 @@
         <v>34</v>
       </c>
       <c r="B167" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C167" s="83"/>
       <c r="D167" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E167" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F167" s="85">
         <v>3029</v>
@@ -12585,14 +12582,14 @@
         <v>22</v>
       </c>
       <c r="B168" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C168" s="83"/>
       <c r="D168" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F168" s="85">
         <v>3029</v>
@@ -12631,14 +12628,14 @@
         <v>26</v>
       </c>
       <c r="B169" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C169" s="83"/>
       <c r="D169" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E169" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F169" s="85">
         <v>3029</v>
@@ -12677,14 +12674,14 @@
         <v>27</v>
       </c>
       <c r="B170" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C170" s="83"/>
       <c r="D170" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E170" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F170" s="85">
         <v>3029</v>
@@ -12723,14 +12720,14 @@
         <v>28</v>
       </c>
       <c r="B171" s="83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C171" s="83"/>
       <c r="D171" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E171" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F171" s="85">
         <v>3029</v>
@@ -12769,14 +12766,14 @@
         <v>29</v>
       </c>
       <c r="B172" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C172" s="83"/>
       <c r="D172" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F172" s="85">
         <v>3029</v>
@@ -12813,14 +12810,14 @@
         <v>30</v>
       </c>
       <c r="B173" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C173" s="83"/>
       <c r="D173" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E173" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F173" s="85">
         <v>3029</v>
@@ -12857,14 +12854,14 @@
         <v>31</v>
       </c>
       <c r="B174" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C174" s="83"/>
       <c r="D174" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E174" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F174" s="85">
         <v>3029</v>
@@ -12907,10 +12904,10 @@
         <v>435</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E175" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F175" s="85">
         <v>5819</v>
@@ -12955,10 +12952,10 @@
         <v>436</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F176" s="85">
         <v>3689</v>
@@ -13003,10 +13000,10 @@
         <v>437</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E177" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F177" s="85">
         <v>4679</v>
@@ -13042,17 +13039,17 @@
     </row>
     <row r="178" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A178" s="83" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B178" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C178" s="83"/>
       <c r="D178" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E178" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F178" s="85">
         <v>5819</v>
@@ -13088,17 +13085,17 @@
     </row>
     <row r="179" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A179" s="83" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B179" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C179" s="83"/>
       <c r="D179" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F179" s="85">
         <v>3689</v>
@@ -13132,19 +13129,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A180" s="83" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B180" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C180" s="83"/>
       <c r="D180" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F180" s="85">
         <v>4679</v>
@@ -15037,10 +15034,10 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E1" t="s">
         <v>131</v>
@@ -15067,7 +15064,7 @@
         <v>(CAM-REC-SF3-HP0)</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>102</v>
@@ -15097,7 +15094,7 @@
         <v>(CAM-REC-SF3-HP1)</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>104</v>
@@ -15127,7 +15124,7 @@
         <v>(CAM-REC-SF3-HP2)</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>106</v>
@@ -15157,7 +15154,7 @@
         <v>(CAM-REC-SF3-HP3)</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>108</v>
@@ -15187,7 +15184,7 @@
         <v>(CAM-REC-SF3-HP4)</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>110</v>
@@ -15217,7 +15214,7 @@
         <v>(CAM-REC-SF3-LP0)</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>112</v>
@@ -15247,7 +15244,7 @@
         <v>(CAM-REC-SF3-LP1)</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>114</v>
@@ -15277,7 +15274,7 @@
         <v>(CAM-REC-SF3-LP2)</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>116</v>
@@ -15307,7 +15304,7 @@
         <v>(CAM-REC-SF3-LP3)</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>118</v>
@@ -15337,7 +15334,7 @@
         <v>(CAM-REC-SF3-LP4)</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>120</v>
@@ -15367,7 +15364,7 @@
         <v>(CAM-REC-SF3-MP0)</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>122</v>
@@ -15397,7 +15394,7 @@
         <v>(CAM-REC-SF3-MP1)</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>124</v>
@@ -15427,7 +15424,7 @@
         <v>(CAM-REC-SF3-MP2)</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>126</v>
@@ -15457,7 +15454,7 @@
         <v>(CAM-REC-SF3-MP3)</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>128</v>
@@ -15487,7 +15484,7 @@
         <v>(CAM-REC-SF3-MP4)</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>130</v>
@@ -15517,7 +15514,7 @@
         <v>(ABC-REC-SF3-HP0)</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>102</v>
@@ -15547,7 +15544,7 @@
         <v>(ABC-REC-SF3-HP1)</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>104</v>
@@ -15577,7 +15574,7 @@
         <v>(ABC-REC-SF3-HP2)</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>106</v>
@@ -15607,7 +15604,7 @@
         <v>(ABC-REC-SF3-HP3)</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>108</v>
@@ -15637,7 +15634,7 @@
         <v>(ABC-REC-SF3-HP4)</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>110</v>
@@ -15667,7 +15664,7 @@
         <v>(ABC-REC-SF3-LP0)</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>112</v>
@@ -15697,7 +15694,7 @@
         <v>(ABC-REC-SF3-LP1)</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>114</v>
@@ -15727,7 +15724,7 @@
         <v>(ABC-REC-SF3-LP2)</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>116</v>
@@ -15757,7 +15754,7 @@
         <v>(ABC-REC-SF3-LP3)</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>118</v>
@@ -15787,7 +15784,7 @@
         <v>(ABC-REC-SF3-LP4)</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>120</v>
@@ -15817,7 +15814,7 @@
         <v>(ABC-REC-SF3-MP0)</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>122</v>
@@ -15847,7 +15844,7 @@
         <v>(ABC-REC-SF3-MP1)</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>124</v>
@@ -15877,7 +15874,7 @@
         <v>(ABC-REC-SF3-MP2)</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>126</v>
@@ -15907,7 +15904,7 @@
         <v>(ABC-REC-SF3-MP3)</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>128</v>
@@ -15937,7 +15934,7 @@
         <v>(ELU-REC-MM-1)</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>94</v>
@@ -15967,7 +15964,7 @@
         <v>(ELU-REC-MM-2)</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>96</v>
@@ -15997,7 +15994,7 @@
         <v>(ELU-REC-MM-3)</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>98</v>
@@ -16027,7 +16024,7 @@
         <v>(ELU-REC-MM-4)</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>100</v>
@@ -16057,7 +16054,7 @@
         <v>(ELU-REC-SF3-HP0)</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>102</v>
@@ -16087,7 +16084,7 @@
         <v>(ELU-REC-SF3-HP1)</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>104</v>
@@ -16117,7 +16114,7 @@
         <v>(ELU-REC-SF3-HP2)</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>106</v>
@@ -16147,7 +16144,7 @@
         <v>(ELU-REC-SF3-HP3)</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>108</v>
@@ -16177,7 +16174,7 @@
         <v>(ELU-REC-SF3-HP4)</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>110</v>
@@ -16207,7 +16204,7 @@
         <v>(ELU-REC-SF3-LP0)</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>112</v>
@@ -16237,7 +16234,7 @@
         <v>(ELU-REC-SF3-LP1)</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>114</v>
@@ -16267,7 +16264,7 @@
         <v>(ELU-REC-SF3-LP2)</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>116</v>
@@ -16297,7 +16294,7 @@
         <v>(ELU-REC-SF3-LP3)</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>118</v>
@@ -16327,7 +16324,7 @@
         <v>(ELU-REC-SF3-LP4)</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>120</v>
@@ -16357,7 +16354,7 @@
         <v>(ELU-REC-SF3-MP0)</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>122</v>
@@ -16387,7 +16384,7 @@
         <v>(ELU-REC-SF3-MP1)</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>124</v>
@@ -16417,7 +16414,7 @@
         <v>(ELU-REC-SF3-MP2)</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>126</v>
@@ -16447,7 +16444,7 @@
         <v>(ELU-REC-SF3-MP3)</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>128</v>
@@ -16477,7 +16474,7 @@
         <v>(ELU-REC-SF3-MP4)</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>130</v>
@@ -16507,7 +16504,7 @@
         <v>(FAF-REC-MM-1)</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>94</v>
@@ -16537,7 +16534,7 @@
         <v>(FAF-REC-MM-2)</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>96</v>
@@ -16567,7 +16564,7 @@
         <v>(FAF-REC-MM-3)</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>98</v>
@@ -16597,7 +16594,7 @@
         <v>(FAF-REC-MM-4)</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>100</v>
@@ -16627,7 +16624,7 @@
         <v>(FAF-REC-SF3-HP0)</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>102</v>
@@ -16657,7 +16654,7 @@
         <v>(FAF-REC-SF3-HP1)</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>104</v>
@@ -16687,7 +16684,7 @@
         <v>(FAF-REC-SF3-HP2)</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>106</v>
@@ -16717,7 +16714,7 @@
         <v>(FAF-REC-SF3-HP3)</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>108</v>
@@ -16747,7 +16744,7 @@
         <v>(FAF-REC-SF3-HP4)</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>110</v>
@@ -16777,7 +16774,7 @@
         <v>(FAF-REC-SF3-LP0)</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>112</v>
@@ -16807,7 +16804,7 @@
         <v>(FAF-REC-SF3-LP1)</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>114</v>
@@ -16837,7 +16834,7 @@
         <v>(FAF-REC-SF3-LP2)</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>116</v>
@@ -16867,7 +16864,7 @@
         <v>(FAF-REC-SF3-LP3)</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>118</v>
@@ -16897,7 +16894,7 @@
         <v>(FAF-REC-SF3-LP4)</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>120</v>
@@ -16927,7 +16924,7 @@
         <v>(FAF-REC-SF3-MP0)</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>122</v>
@@ -16957,7 +16954,7 @@
         <v>(FAF-REC-SF3-MP1)</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D65" s="32" t="s">
         <v>124</v>
@@ -16987,7 +16984,7 @@
         <v>(FAF-REC-SF3-MP2)</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D66" s="32" t="s">
         <v>126</v>
@@ -17017,7 +17014,7 @@
         <v>(FAF-REC-SF3-MP3)</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>128</v>
@@ -17047,7 +17044,7 @@
         <v>(FAF-REC-SF3-MP4)</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>130</v>
@@ -17077,7 +17074,7 @@
         <v>(GHB-REC-SF3-HP0)</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D69" s="32" t="s">
         <v>102</v>
@@ -17107,7 +17104,7 @@
         <v>(GHB-REC-SF3-HP1)</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>104</v>
@@ -17137,7 +17134,7 @@
         <v>(GHB-REC-SF3-HP2)</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D71" s="32" t="s">
         <v>106</v>
@@ -17167,7 +17164,7 @@
         <v>(GHB-REC-SF3-HP3)</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>108</v>
@@ -17197,7 +17194,7 @@
         <v>(GHB-REC-SF3-HP4)</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D73" s="32" t="s">
         <v>110</v>
@@ -17227,7 +17224,7 @@
         <v>(GHB-REC-SF3-LP0)</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D74" s="32" t="s">
         <v>112</v>
@@ -17257,7 +17254,7 @@
         <v>(GHB-REC-SF3-LP1)</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D75" s="32" t="s">
         <v>114</v>
@@ -17287,7 +17284,7 @@
         <v>(GHB-REC-SF3-LP2)</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D76" s="32" t="s">
         <v>116</v>
@@ -17317,7 +17314,7 @@
         <v>(GHB-REC-SF3-LP3)</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D77" s="32" t="s">
         <v>118</v>
@@ -17347,7 +17344,7 @@
         <v>(GHB-REC-SF3-LP4)</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D78" s="32" t="s">
         <v>120</v>
@@ -17377,7 +17374,7 @@
         <v>(GHB-REC-SF3-MP0)</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>122</v>
@@ -17407,7 +17404,7 @@
         <v>(GHB-REC-SF3-MP1)</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D80" s="32" t="s">
         <v>124</v>
@@ -17437,7 +17434,7 @@
         <v>(GHB-REC-SF3-MP2)</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>126</v>
@@ -17467,7 +17464,7 @@
         <v>(GHB-REC-SF3-MP3)</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>128</v>
@@ -17497,7 +17494,7 @@
         <v>(GHB-REC-SF3-MP4)</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>130</v>
@@ -17527,7 +17524,7 @@
         <v>(CHS-REC-SF3-HP0)</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>102</v>
@@ -17557,7 +17554,7 @@
         <v>(CHS-REC-SF3-HP1)</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>104</v>
@@ -17587,7 +17584,7 @@
         <v>(CHS-REC-SF3-HP2)</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D86" s="32" t="s">
         <v>106</v>
@@ -17617,7 +17614,7 @@
         <v>(CHS-REC-SF3-HP3)</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>108</v>
@@ -17647,7 +17644,7 @@
         <v>(CHS-REC-SF3-HP4)</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>110</v>
@@ -17677,7 +17674,7 @@
         <v>(CHS-REC-SF3-LP0)</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D89" s="32" t="s">
         <v>112</v>
@@ -17707,7 +17704,7 @@
         <v>(CHS-REC-SF3-LP1)</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D90" s="32" t="s">
         <v>114</v>
@@ -17737,7 +17734,7 @@
         <v>(CHS-REC-SF3-LP2)</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D91" s="32" t="s">
         <v>116</v>
@@ -17767,7 +17764,7 @@
         <v>(CHS-REC-SF3-LP3)</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D92" s="32" t="s">
         <v>118</v>
@@ -17797,7 +17794,7 @@
         <v>(CHS-REC-SF3-LP4)</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>120</v>
@@ -17827,7 +17824,7 @@
         <v>(CHS-REC-SF3-MP0)</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D94" s="32" t="s">
         <v>122</v>
@@ -17857,7 +17854,7 @@
         <v>(CHS-REC-SF3-MP1)</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D95" s="32" t="s">
         <v>124</v>
@@ -17887,7 +17884,7 @@
         <v>(CHS-REC-SF3-MP2)</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>126</v>
@@ -17917,7 +17914,7 @@
         <v>(CHS-REC-SF3-MP3)</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D97" s="32" t="s">
         <v>128</v>
@@ -17947,7 +17944,7 @@
         <v>(CHS-REC-SF3-MP4)</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>130</v>
@@ -17977,7 +17974,7 @@
         <v>(CHU-REC-SF3-HP0)</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>102</v>
@@ -18007,7 +18004,7 @@
         <v>(CHU-REC-SF3-HP1)</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D100" s="32" t="s">
         <v>104</v>
@@ -18037,7 +18034,7 @@
         <v>(CHU-REC-SF3-HP2)</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D101" s="32" t="s">
         <v>106</v>
@@ -18067,7 +18064,7 @@
         <v>(CHU-REC-SF3-HP3)</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D102" s="32" t="s">
         <v>108</v>
@@ -18097,7 +18094,7 @@
         <v>(CHU-REC-SF3-HP4)</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D103" s="32" t="s">
         <v>110</v>
@@ -18127,7 +18124,7 @@
         <v>(CHU-REC-SF3-LP0)</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D104" s="32" t="s">
         <v>112</v>
@@ -18157,7 +18154,7 @@
         <v>(CHU-REC-SF3-LP1)</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D105" s="32" t="s">
         <v>114</v>
@@ -18187,7 +18184,7 @@
         <v>(CHU-REC-SF3-LP2)</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D106" s="32" t="s">
         <v>116</v>
@@ -18217,7 +18214,7 @@
         <v>(CHU-REC-SF3-LP3)</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D107" s="32" t="s">
         <v>118</v>
@@ -18247,7 +18244,7 @@
         <v>(CHU-REC-SF3-LP4)</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D108" s="32" t="s">
         <v>120</v>
@@ -18277,7 +18274,7 @@
         <v>(CHU-REC-SF3-MP0)</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D109" s="32" t="s">
         <v>122</v>
@@ -18307,7 +18304,7 @@
         <v>(CHU-REC-SF3-MP1)</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D110" s="32" t="s">
         <v>124</v>
@@ -18337,7 +18334,7 @@
         <v>(CHU-REC-SF3-MP2)</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D111" s="32" t="s">
         <v>126</v>
@@ -18367,7 +18364,7 @@
         <v>(CHU-REC-SF3-MP3)</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D112" s="32" t="s">
         <v>128</v>
@@ -18397,7 +18394,7 @@
         <v>(CHU-REC-SF3-MP4)</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D113" s="32" t="s">
         <v>130</v>
@@ -18427,7 +18424,7 @@
         <v>(HUM-REC-SF3-HP0)</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D114" s="32" t="s">
         <v>102</v>
@@ -18457,7 +18454,7 @@
         <v>(HUM-REC-SF3-HP1)</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D115" s="32" t="s">
         <v>104</v>
@@ -18487,7 +18484,7 @@
         <v>(HUM-REC-SF3-HP2)</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D116" s="32" t="s">
         <v>106</v>
@@ -18517,7 +18514,7 @@
         <v>(HUM-REC-SF3-HP3)</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D117" s="32" t="s">
         <v>108</v>
@@ -18547,7 +18544,7 @@
         <v>(HUM-REC-SF3-HP4)</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D118" s="32" t="s">
         <v>110</v>
@@ -18577,7 +18574,7 @@
         <v>(HUM-REC-SF3-LP0)</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D119" s="32" t="s">
         <v>112</v>
@@ -18607,7 +18604,7 @@
         <v>(HUM-REC-SF3-LP1)</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D120" s="32" t="s">
         <v>114</v>
@@ -18637,7 +18634,7 @@
         <v>(HUM-REC-SF3-LP2)</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D121" s="32" t="s">
         <v>116</v>
@@ -18667,7 +18664,7 @@
         <v>(HUM-REC-SF3-LP3)</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D122" s="32" t="s">
         <v>118</v>
@@ -18697,7 +18694,7 @@
         <v>(HUM-REC-SF3-LP4)</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D123" s="32" t="s">
         <v>120</v>
@@ -18727,7 +18724,7 @@
         <v>(HUM-REC-SF3-MP0)</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D124" s="32" t="s">
         <v>122</v>
@@ -18757,7 +18754,7 @@
         <v>(HUM-REC-SF3-MP1)</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D125" s="32" t="s">
         <v>124</v>
@@ -18787,7 +18784,7 @@
         <v>(HUM-REC-SF3-MP2)</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D126" s="32" t="s">
         <v>126</v>
@@ -18817,7 +18814,7 @@
         <v>(HUM-REC-SF3-MP3)</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D127" s="32" t="s">
         <v>128</v>
@@ -18847,7 +18844,7 @@
         <v>(HUM-REC-SF3-MP4)</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D128" s="32" t="s">
         <v>130</v>
@@ -18877,7 +18874,7 @@
         <v>(CMP-REC-SF3-HP0)</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D129" s="32" t="s">
         <v>102</v>
@@ -18907,7 +18904,7 @@
         <v>(CMP-REC-SF3-HP1)</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D130" s="32" t="s">
         <v>104</v>
@@ -18937,7 +18934,7 @@
         <v>(CMP-REC-SF3-HP2)</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D131" s="32" t="s">
         <v>106</v>
@@ -18967,7 +18964,7 @@
         <v>(CMP-REC-SF3-HP3)</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D132" s="32" t="s">
         <v>108</v>
@@ -18997,7 +18994,7 @@
         <v>(CMP-REC-SF3-HP4)</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D133" s="32" t="s">
         <v>110</v>
@@ -19027,7 +19024,7 @@
         <v>(CMP-REC-SF3-LP0)</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D134" s="32" t="s">
         <v>112</v>
@@ -19057,7 +19054,7 @@
         <v>(CMP-REC-SF3-LP1)</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D135" s="32" t="s">
         <v>114</v>
@@ -19087,7 +19084,7 @@
         <v>(CMP-REC-SF3-LP2)</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D136" s="32" t="s">
         <v>116</v>
@@ -19117,7 +19114,7 @@
         <v>(CMP-REC-SF3-LP3)</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D137" s="32" t="s">
         <v>118</v>
@@ -19147,7 +19144,7 @@
         <v>(CMP-REC-SF3-LP4)</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D138" s="32" t="s">
         <v>120</v>
@@ -19177,7 +19174,7 @@
         <v>(CMP-REC-SF3-MP0)</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D139" s="32" t="s">
         <v>122</v>
@@ -19207,7 +19204,7 @@
         <v>(CMP-REC-SF3-MP1)</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D140" s="32" t="s">
         <v>124</v>
@@ -19237,7 +19234,7 @@
         <v>(CMP-REC-SF3-MP2)</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D141" s="32" t="s">
         <v>126</v>
@@ -19267,7 +19264,7 @@
         <v>(CMP-REC-SF3-MP3)</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D142" s="32" t="s">
         <v>128</v>
@@ -19297,7 +19294,7 @@
         <v>(CMP-REC-SF3-MP4)</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D143" s="32" t="s">
         <v>130</v>
@@ -19327,7 +19324,7 @@
         <v>(MLA-REC-SF3-HP0)</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D144" s="32" t="s">
         <v>102</v>
@@ -19357,7 +19354,7 @@
         <v>(MLA-REC-SF3-HP1)</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D145" s="32" t="s">
         <v>104</v>
@@ -19387,7 +19384,7 @@
         <v>(MLA-REC-SF3-HP2)</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D146" s="32" t="s">
         <v>106</v>
@@ -19417,7 +19414,7 @@
         <v>(MLA-REC-SF3-HP3)</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D147" s="32" t="s">
         <v>108</v>
@@ -19447,7 +19444,7 @@
         <v>(MLA-REC-SF3-HP4)</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D148" s="32" t="s">
         <v>110</v>
@@ -19477,7 +19474,7 @@
         <v>(MLA-REC-SF3-LP0)</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D149" s="32" t="s">
         <v>112</v>
@@ -19507,7 +19504,7 @@
         <v>(MLA-REC-SF3-LP1)</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D150" s="32" t="s">
         <v>114</v>
@@ -19537,7 +19534,7 @@
         <v>(MLA-REC-SF3-LP2)</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D151" s="32" t="s">
         <v>116</v>
@@ -19567,7 +19564,7 @@
         <v>(MLA-REC-SF3-LP3)</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>118</v>
@@ -19597,7 +19594,7 @@
         <v>(MLA-REC-SF3-LP4)</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D153" s="32" t="s">
         <v>120</v>
@@ -19627,7 +19624,7 @@
         <v>(MLA-REC-SF3-MP0)</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D154" s="32" t="s">
         <v>122</v>
@@ -19657,7 +19654,7 @@
         <v>(MLA-REC-SF3-MP1)</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D155" s="32" t="s">
         <v>124</v>
@@ -19687,7 +19684,7 @@
         <v>(MLA-REC-SF3-MP2)</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D156" s="32" t="s">
         <v>126</v>
@@ -19717,7 +19714,7 @@
         <v>(MLA-REC-SF3-MP3)</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D157" s="32" t="s">
         <v>128</v>
@@ -19747,7 +19744,7 @@
         <v>(MLA-REC-SF3-MP4)</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D158" s="32" t="s">
         <v>130</v>
@@ -19777,7 +19774,7 @@
         <v>(CNH-REC-SF3-HP0)</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D159" s="32" t="s">
         <v>102</v>
@@ -19807,7 +19804,7 @@
         <v>(CNH-REC-SF3-HP1)</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D160" s="32" t="s">
         <v>104</v>
@@ -19837,7 +19834,7 @@
         <v>(CNH-REC-SF3-HP2)</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D161" s="32" t="s">
         <v>106</v>
@@ -19867,7 +19864,7 @@
         <v>(CNH-REC-SF3-HP3)</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D162" s="32" t="s">
         <v>108</v>
@@ -19897,7 +19894,7 @@
         <v>(CNH-REC-SF3-HP4)</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D163" s="32" t="s">
         <v>110</v>
@@ -19927,7 +19924,7 @@
         <v>(CNH-REC-SF3-LP0)</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D164" s="32" t="s">
         <v>112</v>
@@ -19957,7 +19954,7 @@
         <v>(CNH-REC-SF3-LP1)</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D165" s="32" t="s">
         <v>114</v>
@@ -19987,7 +19984,7 @@
         <v>(CNH-REC-SF3-LP2)</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D166" s="32" t="s">
         <v>116</v>
@@ -20017,7 +20014,7 @@
         <v>(CNH-REC-SF3-LP3)</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D167" s="32" t="s">
         <v>118</v>
@@ -20047,7 +20044,7 @@
         <v>(CNH-REC-SF3-LP4)</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D168" s="32" t="s">
         <v>120</v>
@@ -20077,7 +20074,7 @@
         <v>(CNH-REC-SF3-MP0)</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D169" s="32" t="s">
         <v>122</v>
@@ -20107,7 +20104,7 @@
         <v>(CNH-REC-SF3-MP1)</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D170" s="32" t="s">
         <v>124</v>
@@ -20137,7 +20134,7 @@
         <v>(CNH-REC-SF3-MP2)</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D171" s="32" t="s">
         <v>126</v>
@@ -20167,7 +20164,7 @@
         <v>(CNH-REC-SF3-MP3)</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D172" s="32" t="s">
         <v>128</v>
@@ -20197,7 +20194,7 @@
         <v>(CNH-REC-SF3-MP4)</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D173" s="32" t="s">
         <v>130</v>
@@ -20227,7 +20224,7 @@
         <v>(REG-REC-MM-1)</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D174" s="32" t="s">
         <v>94</v>
@@ -20257,7 +20254,7 @@
         <v>(REG-REC-MM-2)</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D175" s="32" t="s">
         <v>96</v>
@@ -20287,7 +20284,7 @@
         <v>(REG-REC-MM-3)</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D176" s="32" t="s">
         <v>98</v>
@@ -20317,7 +20314,7 @@
         <v>(REG-REC-MM-4)</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D177" s="32" t="s">
         <v>100</v>
@@ -20347,7 +20344,7 @@
         <v>(REG-REC-SF3-HP0)</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D178" s="32" t="s">
         <v>102</v>
@@ -20377,7 +20374,7 @@
         <v>(REG-REC-SF3-HP1)</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D179" s="32" t="s">
         <v>104</v>
@@ -20407,7 +20404,7 @@
         <v>(REG-REC-SF3-HP2)</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D180" s="32" t="s">
         <v>106</v>
@@ -20437,7 +20434,7 @@
         <v>(REG-REC-SF3-HP3)</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D181" s="32" t="s">
         <v>108</v>
@@ -20467,7 +20464,7 @@
         <v>(REG-REC-SF3-HP4)</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D182" s="32" t="s">
         <v>110</v>
@@ -20497,7 +20494,7 @@
         <v>(REG-REC-SF3-LP0)</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D183" s="32" t="s">
         <v>112</v>
@@ -20527,7 +20524,7 @@
         <v>(REG-REC-SF3-LP1)</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D184" s="32" t="s">
         <v>114</v>
@@ -20557,7 +20554,7 @@
         <v>(REG-REC-SF3-LP2)</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D185" s="32" t="s">
         <v>116</v>
@@ -20587,7 +20584,7 @@
         <v>(REG-REC-SF3-LP3)</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D186" s="32" t="s">
         <v>118</v>
@@ -20617,7 +20614,7 @@
         <v>(REG-REC-SF3-LP4)</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D187" s="32" t="s">
         <v>120</v>
@@ -20647,7 +20644,7 @@
         <v>(REG-REC-SF3-MP0)</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D188" s="32" t="s">
         <v>122</v>
@@ -20677,7 +20674,7 @@
         <v>(REG-REC-SF3-MP1)</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D189" s="32" t="s">
         <v>124</v>
@@ -20707,7 +20704,7 @@
         <v>(REG-REC-SF3-MP2)</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D190" s="32" t="s">
         <v>126</v>
@@ -20737,7 +20734,7 @@
         <v>(REG-REC-SF3-MP3)</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D191" s="32" t="s">
         <v>128</v>
@@ -20767,7 +20764,7 @@
         <v>(REG-REC-SF3-MP4)</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D192" s="32" t="s">
         <v>130</v>
@@ -20797,7 +20794,7 @@
         <v>(CTH-REC-SF3-HP0)</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D193" s="32" t="s">
         <v>102</v>
@@ -20827,7 +20824,7 @@
         <v>(CTH-REC-SF3-HP1)</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D194" s="32" t="s">
         <v>104</v>
@@ -20857,7 +20854,7 @@
         <v>(CTH-REC-SF3-HP2)</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D195" s="32" t="s">
         <v>106</v>
@@ -20887,7 +20884,7 @@
         <v>(CTH-REC-SF3-HP3)</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D196" s="32" t="s">
         <v>108</v>
@@ -20917,7 +20914,7 @@
         <v>(CTH-REC-SF3-HP4)</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D197" s="32" t="s">
         <v>110</v>
@@ -20947,7 +20944,7 @@
         <v>(CTH-REC-SF3-LP0)</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D198" s="32" t="s">
         <v>112</v>
@@ -20977,7 +20974,7 @@
         <v>(CTH-REC-SF3-LP1)</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D199" s="32" t="s">
         <v>114</v>
@@ -21007,7 +21004,7 @@
         <v>(CTH-REC-SF3-LP2)</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D200" s="32" t="s">
         <v>116</v>
@@ -21037,7 +21034,7 @@
         <v>(CTH-REC-SF3-LP3)</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D201" s="32" t="s">
         <v>118</v>
@@ -21067,7 +21064,7 @@
         <v>(CTH-REC-SF3-LP4)</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D202" s="32" t="s">
         <v>120</v>
@@ -21097,7 +21094,7 @@
         <v>(CTH-REC-SF3-MP0)</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D203" s="32" t="s">
         <v>122</v>
@@ -21127,7 +21124,7 @@
         <v>(CTH-REC-SF3-MP1)</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D204" s="32" t="s">
         <v>124</v>
@@ -21157,7 +21154,7 @@
         <v>(CTH-REC-SF3-MP2)</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D205" s="32" t="s">
         <v>126</v>
@@ -21187,7 +21184,7 @@
         <v>(CTH-REC-SF3-MP3)</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D206" s="32" t="s">
         <v>128</v>
@@ -21217,7 +21214,7 @@
         <v>(CTH-REC-SF3-MP4)</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D207" s="32" t="s">
         <v>130</v>
@@ -21247,7 +21244,7 @@
         <v>(CWC-REC-SF3-HP0)</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D208" s="32" t="s">
         <v>102</v>
@@ -21277,7 +21274,7 @@
         <v>(CWC-REC-SF3-HP1)</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D209" s="32" t="s">
         <v>104</v>
@@ -21307,7 +21304,7 @@
         <v>(CWC-REC-SF3-HP2)</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D210" s="32" t="s">
         <v>106</v>
@@ -21337,7 +21334,7 @@
         <v>(CWC-REC-SF3-HP3)</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D211" s="32" t="s">
         <v>108</v>
@@ -21367,7 +21364,7 @@
         <v>(CWC-REC-SF3-HP4)</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D212" s="32" t="s">
         <v>110</v>
@@ -21397,7 +21394,7 @@
         <v>(CWC-REC-SF3-LP0)</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D213" s="32" t="s">
         <v>112</v>
@@ -21427,7 +21424,7 @@
         <v>(CWC-REC-SF3-LP1)</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D214" s="32" t="s">
         <v>114</v>
@@ -21457,7 +21454,7 @@
         <v>(CWC-REC-SF3-LP2)</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D215" s="32" t="s">
         <v>116</v>
@@ -21487,7 +21484,7 @@
         <v>(CWC-REC-SF3-LP3)</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D216" s="32" t="s">
         <v>118</v>
@@ -21517,7 +21514,7 @@
         <v>(CWC-REC-SF3-LP4)</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D217" s="32" t="s">
         <v>120</v>
@@ -21547,7 +21544,7 @@
         <v>(CWC-REC-SF3-MP0)</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D218" s="32" t="s">
         <v>122</v>
@@ -21577,7 +21574,7 @@
         <v>(CWC-REC-SF3-MP1)</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D219" s="32" t="s">
         <v>124</v>
@@ -21607,7 +21604,7 @@
         <v>(CWC-REC-SF3-MP2)</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D220" s="32" t="s">
         <v>126</v>
@@ -21637,7 +21634,7 @@
         <v>(CWC-REC-SF3-MP3)</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D221" s="32" t="s">
         <v>128</v>
@@ -21667,7 +21664,7 @@
         <v>(CWC-REC-SF3-MP4)</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D222" s="32" t="s">
         <v>130</v>
@@ -21690,14 +21687,14 @@
     </row>
     <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A223" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B223" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-1)</v>
       </c>
       <c r="C223" s="91" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D223" s="32" t="s">
         <v>94</v>
@@ -21712,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I223" s="32">
         <v>0</v>
@@ -21720,14 +21717,14 @@
     </row>
     <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A224" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B224" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-2)</v>
       </c>
       <c r="C224" s="91" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D224" s="32" t="s">
         <v>96</v>
@@ -21742,7 +21739,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I224" s="32">
         <v>0</v>
@@ -21750,14 +21747,14 @@
     </row>
     <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A225" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B225" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-3)</v>
       </c>
       <c r="C225" s="91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D225" s="32" t="s">
         <v>98</v>
@@ -21772,7 +21769,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I225" s="32">
         <v>0</v>
@@ -21780,14 +21777,14 @@
     </row>
     <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A226" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B226" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-4)</v>
       </c>
       <c r="C226" s="91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D226" s="32" t="s">
         <v>100</v>
@@ -21802,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I226" s="32">
         <v>0</v>
@@ -21810,14 +21807,14 @@
     </row>
     <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A227" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B227" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP0)</v>
       </c>
       <c r="C227" s="91" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D227" s="32" t="s">
         <v>102</v>
@@ -21832,7 +21829,7 @@
         <v>150</v>
       </c>
       <c r="H227" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I227" s="32">
         <v>0</v>
@@ -21840,14 +21837,14 @@
     </row>
     <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A228" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B228" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP1)</v>
       </c>
       <c r="C228" s="91" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D228" s="32" t="s">
         <v>104</v>
@@ -21862,7 +21859,7 @@
         <v>150</v>
       </c>
       <c r="H228" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I228" s="32">
         <v>0</v>
@@ -21870,14 +21867,14 @@
     </row>
     <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A229" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B229" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP2)</v>
       </c>
       <c r="C229" s="91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D229" s="32" t="s">
         <v>106</v>
@@ -21892,7 +21889,7 @@
         <v>150</v>
       </c>
       <c r="H229" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I229" s="32">
         <v>0</v>
@@ -21900,14 +21897,14 @@
     </row>
     <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A230" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B230" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP3)</v>
       </c>
       <c r="C230" s="91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D230" s="32" t="s">
         <v>108</v>
@@ -21922,7 +21919,7 @@
         <v>150</v>
       </c>
       <c r="H230" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I230" s="32">
         <v>0</v>
@@ -21930,14 +21927,14 @@
     </row>
     <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A231" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B231" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP4)</v>
       </c>
       <c r="C231" s="91" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D231" s="32" t="s">
         <v>110</v>
@@ -21952,7 +21949,7 @@
         <v>150</v>
       </c>
       <c r="H231" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I231" s="32">
         <v>0</v>
@@ -21960,14 +21957,14 @@
     </row>
     <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A232" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B232" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP0)</v>
       </c>
       <c r="C232" s="91" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D232" s="32" t="s">
         <v>112</v>
@@ -21982,7 +21979,7 @@
         <v>150</v>
       </c>
       <c r="H232" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I232" s="32">
         <v>0</v>
@@ -21990,14 +21987,14 @@
     </row>
     <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A233" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B233" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP1)</v>
       </c>
       <c r="C233" s="91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D233" s="32" t="s">
         <v>114</v>
@@ -22012,7 +22009,7 @@
         <v>150</v>
       </c>
       <c r="H233" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I233" s="32">
         <v>0</v>
@@ -22020,14 +22017,14 @@
     </row>
     <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A234" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B234" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP2)</v>
       </c>
       <c r="C234" s="91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D234" s="32" t="s">
         <v>116</v>
@@ -22042,7 +22039,7 @@
         <v>150</v>
       </c>
       <c r="H234" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I234" s="32">
         <v>0</v>
@@ -22050,14 +22047,14 @@
     </row>
     <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A235" s="32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B235" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP3)</v>
       </c>
       <c r="C235" s="91" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D235" s="32" t="s">
         <v>118</v>
@@ -22072,7 +22069,7 @@
         <v>150</v>
       </c>
       <c r="H235" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I235" s="32">
         <v>0</v>
@@ -22080,14 +22077,14 @@
     </row>
     <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A236" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B236" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP4)</v>
       </c>
       <c r="C236" s="91" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D236" s="32" t="s">
         <v>120</v>
@@ -22102,7 +22099,7 @@
         <v>150</v>
       </c>
       <c r="H236" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I236" s="32">
         <v>0</v>
@@ -22110,14 +22107,14 @@
     </row>
     <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A237" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B237" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP0)</v>
       </c>
       <c r="C237" s="91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D237" s="32" t="s">
         <v>122</v>
@@ -22132,7 +22129,7 @@
         <v>150</v>
       </c>
       <c r="H237" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I237" s="32">
         <v>0</v>
@@ -22140,14 +22137,14 @@
     </row>
     <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A238" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B238" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP1)</v>
       </c>
       <c r="C238" s="91" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D238" s="32" t="s">
         <v>124</v>
@@ -22162,7 +22159,7 @@
         <v>150</v>
       </c>
       <c r="H238" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I238" s="32">
         <v>0</v>
@@ -22170,14 +22167,14 @@
     </row>
     <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A239" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B239" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP2)</v>
       </c>
       <c r="C239" s="91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D239" s="32" t="s">
         <v>126</v>
@@ -22192,7 +22189,7 @@
         <v>150</v>
       </c>
       <c r="H239" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I239" s="32">
         <v>0</v>
@@ -22200,14 +22197,14 @@
     </row>
     <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A240" s="32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B240" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP3)</v>
       </c>
       <c r="C240" s="91" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D240" s="32" t="s">
         <v>128</v>
@@ -22222,7 +22219,7 @@
         <v>150</v>
       </c>
       <c r="H240" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I240" s="32">
         <v>0</v>
@@ -22230,14 +22227,14 @@
     </row>
     <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A241" s="32" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B241" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP4)</v>
       </c>
       <c r="C241" s="91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D241" s="32" t="s">
         <v>130</v>
@@ -22252,7 +22249,7 @@
         <v>150</v>
       </c>
       <c r="H241" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I241" s="32">
         <v>0</v>
@@ -23470,10 +23467,10 @@
         <v>(GB-REM-TVSTRPL)</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E27" s="41">
         <v>425</v>
@@ -23911,17 +23908,17 @@
     </row>
     <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B43" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(OHGB-REM-MULTIMIC)</v>
       </c>
       <c r="C43" t="s">
+        <v>525</v>
+      </c>
+      <c r="D43" t="s">
         <v>526</v>
-      </c>
-      <c r="D43" t="s">
-        <v>527</v>
       </c>
       <c r="E43" s="41">
         <v>425</v>
@@ -23962,22 +23959,22 @@
         <v>150</v>
       </c>
       <c r="H44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B45" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(OHPB-REM-MULTIMIC)</v>
       </c>
       <c r="C45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" t="s">
         <v>526</v>
-      </c>
-      <c r="D45" t="s">
-        <v>527</v>
       </c>
       <c r="E45" s="41">
         <v>425</v>
@@ -23990,7 +23987,7 @@
         <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
@@ -24002,10 +23999,10 @@
         <v>(OHPB-REM-TVSTRPL)</v>
       </c>
       <c r="C46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E46" s="41">
         <v>425</v>
@@ -24018,12 +24015,12 @@
         <v>350</v>
       </c>
       <c r="H46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B47" s="31" t="str">
         <f t="shared" si="1"/>
@@ -24046,22 +24043,22 @@
         <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B48" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(OHSB-REM-TVSTRPL)</v>
       </c>
       <c r="C48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E48" s="41">
         <v>425</v>
@@ -24074,7 +24071,7 @@
         <v>350</v>
       </c>
       <c r="H48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
@@ -24135,17 +24132,17 @@
     </row>
     <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B51" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(PB-REM-MULTIMIC)</v>
       </c>
       <c r="C51" t="s">
+        <v>525</v>
+      </c>
+      <c r="D51" t="s">
         <v>526</v>
-      </c>
-      <c r="D51" t="s">
-        <v>527</v>
       </c>
       <c r="E51" s="41">
         <v>325</v>
@@ -24170,10 +24167,10 @@
         <v>(PB-REM-TVSTRPL)</v>
       </c>
       <c r="C52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E52" s="41">
         <v>425</v>
@@ -24510,10 +24507,10 @@
         <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E64" s="68">
         <v>425</v>
@@ -24590,17 +24587,17 @@
     </row>
     <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B67" s="31" t="str">
         <f t="shared" si="2"/>
         <v>(REG-REM-MULTIMIC)</v>
       </c>
       <c r="C67" t="s">
+        <v>525</v>
+      </c>
+      <c r="D67" t="s">
         <v>526</v>
-      </c>
-      <c r="D67" t="s">
-        <v>527</v>
       </c>
       <c r="E67" s="68">
         <v>425</v>
@@ -24806,7 +24803,7 @@
     </row>
     <row r="75" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B75" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24829,12 +24826,12 @@
         <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B76" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24857,12 +24854,12 @@
         <v>250</v>
       </c>
       <c r="H76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B77" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24885,12 +24882,12 @@
         <v>450</v>
       </c>
       <c r="H77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B78" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24913,12 +24910,12 @@
         <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B79" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24941,12 +24938,12 @@
         <v>225</v>
       </c>
       <c r="H79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B80" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24969,12 +24966,12 @@
         <v>225</v>
       </c>
       <c r="H80" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B81" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24997,12 +24994,12 @@
         <v>315</v>
       </c>
       <c r="H81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B82" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25025,12 +25022,12 @@
         <v>200</v>
       </c>
       <c r="H82" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B83" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25053,12 +25050,12 @@
         <v>340</v>
       </c>
       <c r="H83" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B84" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25081,12 +25078,12 @@
         <v>185</v>
       </c>
       <c r="H84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B85" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25109,22 +25106,22 @@
         <v>365</v>
       </c>
       <c r="H85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B86" s="31" t="str">
         <f t="shared" si="2"/>
         <v>(VOL-REM-TVSTRPL)</v>
       </c>
       <c r="C86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E86" s="68">
         <v>425</v>
@@ -25137,12 +25134,12 @@
         <v>425</v>
       </c>
       <c r="H86" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B87" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25165,12 +25162,12 @@
         <v>300</v>
       </c>
       <c r="H87" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B88" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25193,22 +25190,22 @@
         <v>300</v>
       </c>
       <c r="H88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B89" s="31" t="str">
         <f t="shared" si="2"/>
         <v>(VOL-REM-MULTIMIC)</v>
       </c>
       <c r="C89" t="s">
+        <v>525</v>
+      </c>
+      <c r="D89" t="s">
         <v>526</v>
-      </c>
-      <c r="D89" t="s">
-        <v>527</v>
       </c>
       <c r="E89" s="68">
         <v>425</v>
@@ -25221,12 +25218,12 @@
         <v>425</v>
       </c>
       <c r="H89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B90" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25249,12 +25246,12 @@
         <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B91" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25277,12 +25274,12 @@
         <v>325</v>
       </c>
       <c r="H91" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B92" s="31" t="str">
         <f>"("&amp;A92&amp;")"</f>
@@ -25305,7 +25302,7 @@
         <v>325</v>
       </c>
       <c r="H92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -25371,7 +25368,7 @@
         <v>(REG-SVC-PAFITTING)</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3326" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054AAFA1-B092-46BB-A949-505446033A85}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="480" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView minimized="1" xWindow="2355" yWindow="180" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Data Lists" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2656,6 +2657,37 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,37 +2735,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3910,33 +3911,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="113"/>
+      <c r="B5" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="97"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="116"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="82" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="94" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="81" t="s">
         <v>572</v>
       </c>
@@ -3961,10 +3962,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
+      <c r="C10" s="98"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3974,27 +3975,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="106" t="str">
+      <c r="B11" s="115" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4007,28 +4008,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="95" t="str" cm="1">
+      <c r="J11" s="104" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="106" t="str">
+      <c r="B12" s="115" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4041,25 +4042,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="106" t="str" cm="1">
+      <c r="B13" s="115" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -4072,26 +4073,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="106" t="str" cm="1">
+      <c r="B14" s="115" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4101,26 +4102,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="106" t="str">
+      <c r="B15" s="115" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4130,46 +4131,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="103" t="str" cm="1">
+      <c r="J16" s="112" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="105"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="str" cm="1">
+      <c r="B17" s="111" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4182,11 +4183,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4196,9 +4197,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4210,12 +4211,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="95" t="e" cm="1" vm="1">
+      <c r="L20" s="104" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="106"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4229,9 +4230,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="100"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4249,9 +4250,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="100"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4267,9 +4268,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="100"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="109"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4288,9 +4289,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="109"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4298,9 +4299,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4327,11 +4328,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4346,6 +4342,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3326" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054AAFA1-B092-46BB-A949-505446033A85}"/>
+  <xr:revisionPtr revIDLastSave="3327" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C4EFC0-9A7F-4C80-AB4F-955788D9B5A7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2355" yWindow="180" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="5100" yWindow="5895" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -3474,9 +3474,7 @@
   <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Beltone Commence 2 63-DRW Digital RIE"/>
-        <filter val="Beltone Commence 3 62-DRWC Digital RIE"/>
-        <filter val="Beltone RIE Digital Commence 3 62-DRWC"/>
+        <filter val="Beltone Serene 9 62SDRWC Digital RIE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4393,7 +4391,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5110,7 +5108,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A15" s="71" t="s">
         <v>557</v>
       </c>
@@ -5202,7 +5200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A17" s="71" t="s">
         <v>556</v>
       </c>
@@ -7055,7 +7053,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A55" s="71" t="s">
         <v>557</v>
       </c>
@@ -7146,7 +7144,7 @@
       <c r="P56" s="2"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A57" s="71" t="s">
         <v>556</v>
       </c>
@@ -7198,7 +7196,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A58" s="71" t="s">
         <v>556</v>
       </c>
@@ -7250,7 +7248,7 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A59" s="71" t="s">
         <v>556</v>
       </c>
@@ -7302,7 +7300,7 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
         <v>556</v>
       </c>
@@ -7402,7 +7400,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
         <v>556</v>
       </c>
@@ -7452,7 +7450,7 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>556</v>
       </c>
@@ -7495,7 +7493,7 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>556</v>
       </c>
@@ -7545,7 +7543,7 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>556</v>
       </c>
@@ -7595,7 +7593,7 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A66" s="71" t="s">
         <v>556</v>
       </c>
@@ -7645,7 +7643,7 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A67" s="71" t="s">
         <v>556</v>
       </c>
@@ -7695,7 +7693,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A68" s="71" t="s">
         <v>556</v>
       </c>
@@ -9066,7 +9064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96" s="71" t="s">
         <v>556</v>
       </c>
@@ -10435,7 +10433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>434</v>
       </c>
@@ -10486,7 +10484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>434</v>
       </c>
@@ -10536,7 +10534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>434</v>
       </c>
@@ -10585,7 +10583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>434</v>
       </c>
@@ -10636,7 +10634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>434</v>
       </c>
@@ -10687,7 +10685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>434</v>
       </c>
@@ -10738,7 +10736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>434</v>
       </c>
@@ -10789,7 +10787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>434</v>
       </c>
@@ -10840,7 +10838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>434</v>
       </c>
@@ -10891,7 +10889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>434</v>
       </c>
@@ -10942,7 +10940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>434</v>
       </c>
@@ -10993,7 +10991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>434</v>
       </c>
@@ -11044,7 +11042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>434</v>
       </c>
@@ -11377,7 +11375,7 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142" s="83" t="s">
         <v>557</v>
       </c>
@@ -11418,7 +11416,7 @@
       <c r="P142" s="85"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143" s="83" t="s">
         <v>556</v>
       </c>
@@ -12990,7 +12988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="8_{964C585B-190F-46EC-9553-F8D486DF59FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003B2DBB-EC58-4253-86E0-6C66C87391C5}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="8_{964C585B-190F-46EC-9553-F8D486DF59FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB9FD4A-C3AE-47DF-867A-352253C649E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2293,20 +2293,10 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2320,7 +2310,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2334,12 +2323,6 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2378,9 +2361,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3643,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B380E-1396-4B6E-A468-8A3D9AA81345}">
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3658,402 +3651,372 @@
     <col min="8" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-    </row>
+    <row r="2" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="3" spans="1:8" ht="13.5" thickBot="1">
       <c r="A3" s="65" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="97" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1">
       <c r="A5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="97">
         <v>2</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="67"/>
+      <c r="C5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="67"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1">
       <c r="A7" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" thickBot="1">
       <c r="A8" s="65"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" thickBot="1">
       <c r="A9" s="65" t="s">
         <v>591</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="97" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="67"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="C9" s="98"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="83" t="s">
         <v>595</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="84" t="s">
         <v>596</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="83" t="s">
         <v>597</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="84" t="s">
         <v>596</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="85" t="s">
         <v>412</v>
       </c>
-      <c r="B15" s="93" cm="1">
+      <c r="B15" s="86" cm="1">
         <f t="array" ref="B15">IF($B$3="","",_xlfn.XLOOKUP($B$3&amp;$B$7,haList!A:A&amp;haList!I:I,haList!D:D))</f>
         <v>4679</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="85" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="97" cm="1">
+      <c r="D15" s="90" cm="1">
         <f t="array" ref="D15">IF($B$5=1,"",_xlfn.XLOOKUP($B$3&amp;$B$7,haList!A:A&amp;haList!I:I,haList!D:D))</f>
         <v>4679</v>
       </c>
-      <c r="F15" s="79"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="85" t="s">
         <v>538</v>
       </c>
-      <c r="B16" s="94" cm="1">
+      <c r="B16" s="87" cm="1">
         <f t="array" ref="B16">_xlfn.XLOOKUP($B$3,haList!$A:$A,-haList!$F:$F)</f>
         <v>-479</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="85" t="s">
         <v>538</v>
       </c>
-      <c r="D16" s="94" cm="1">
+      <c r="D16" s="87" cm="1">
         <f t="array" ref="D16">IF(B5=1,"",_xlfn.XLOOKUP($B$3,haList!$A:$A,-haList!$F:$F))</f>
         <v>-479</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="85" t="s">
         <v>588</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="86">
         <f>B15+B16</f>
         <v>4200</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="85" t="s">
         <v>588</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="91">
         <f>IF(B5=1,"",D15+D16)</f>
         <v>4200</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="85" t="s">
         <v>589</v>
       </c>
-      <c r="B18" s="93" cm="1">
+      <c r="B18" s="86" cm="1">
         <f t="array" ref="B18">_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,-haList!$J:$J)</f>
         <v>-500</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="85" t="s">
         <v>589</v>
       </c>
-      <c r="D18" s="93" cm="1">
+      <c r="D18" s="86" cm="1">
         <f t="array" ref="D18">IF(B5=1,"",_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,-haList!$J:$J))</f>
         <v>-500</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="85" t="s">
         <v>590</v>
       </c>
-      <c r="B19" s="93">
+      <c r="B19" s="86">
         <f>B17+B18</f>
         <v>3700</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="85" t="s">
         <v>590</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="91">
         <f>IF(B5=1,"",D17+D18)</f>
         <v>3700</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="85" t="s">
         <v>592</v>
       </c>
-      <c r="B20" s="93" cm="1">
+      <c r="B20" s="86" cm="1">
         <f t="array" ref="B20">IF($B$9="Envision Special",_xlfn.XLOOKUP($B$3&amp;$B$9,haList!$A:$A&amp;haList!$M:$M,-haList!$N:$N),IF($B$9="Open House Special",_xlfn.XLOOKUP($B$3&amp;$B$9,haList!$A:$A&amp;haList!$M:$M,-haList!$N:$N),""))</f>
         <v>-525</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="85" t="s">
         <v>592</v>
       </c>
-      <c r="D20" s="93" cm="1">
+      <c r="D20" s="86" cm="1">
         <f t="array" ref="D20">IF(B5=1,"",IF($B$9="Envision Special",_xlfn.XLOOKUP($B$3&amp;$B$9,haList!$A:$A&amp;haList!$M:$M,-haList!$N:$N),IF($B$9="Open House Special",_xlfn.XLOOKUP($B$3&amp;$B$9,haList!$A:$A&amp;haList!$M:$M,-haList!$N:$N),"")))</f>
         <v>-525</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="88" t="s">
         <v>593</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="89">
         <f>B19+B20</f>
         <v>3175</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="88" t="s">
         <v>593</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D21" s="92">
         <f>IF(B5=1,"",D19+D20)</f>
         <v>3175</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="65" t="s">
         <v>594</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="76">
         <f>B21</f>
         <v>3175</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="B25" s="83" t="str">
+      <c r="B25" s="65" t="str">
         <f>IF($B$5=1,"",B24)</f>
         <v>Hearing Aid 1</v>
       </c>
-      <c r="C25" s="102">
+      <c r="C25" s="94">
         <f>IF(B5=2,D21,0)</f>
         <v>3175</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="B26" s="83" t="str" cm="1">
+      <c r="B26" s="65" t="str" cm="1">
         <f t="array" ref="B26">IF($B$3="","",_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,haList!$R:$R))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C26" s="79" cm="1">
+      <c r="C26" s="74" cm="1">
         <f t="array" ref="C26">IF($B$26="","",_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,haList!$S:$S))</f>
         <v>250</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="I26" s="81"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="B27" s="83" t="str" cm="1">
+      <c r="B27" s="65" t="str" cm="1">
         <f t="array" ref="B27">IF($B$3="","",_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,haList!$T:$T))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C27" s="79" cm="1">
+      <c r="C27" s="74" cm="1">
         <f t="array" ref="C27">IF($B$26="","",_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,haList!$U:$U))</f>
         <v>0</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="F27" s="79"/>
-      <c r="I27" s="81"/>
+      <c r="D27" s="77"/>
+      <c r="F27" s="74"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="B28" s="83" t="str">
+      <c r="B28" s="65" t="str">
         <f>IF($B$5=1,"",B27)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="74">
         <f>IF(B5=2,C27,0)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="F28" s="79"/>
+      <c r="D28" s="77"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="76">
         <f>C24+C25+C26+C27+C28</f>
         <v>6600</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="79"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="74"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="B30" s="83" t="str" cm="1">
+      <c r="B30" s="65" t="str" cm="1">
         <f t="array" ref="B30">IF($B$3="","",IF(_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,haList!$Q:$Q)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C30" s="80" cm="1">
+      <c r="C30" s="75" cm="1">
         <f t="array" ref="C30">IF($B$3="","",IF(_xlfn.XLOOKUP($B$3&amp;$B$7,haList!$A:$A&amp;haList!$I:$I,haList!$Q:$Q)=1,300,""))</f>
         <v>300</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="G30" s="66" t="str">
         <f>IF(B7="Anthem BCBS","&lt;---Needs to be on a separate invoice.  Private Pay only!","")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="103">
+      <c r="C31" s="95">
         <f>C29+C30</f>
         <v>6900</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="85"/>
-      <c r="H31" s="79"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="78"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="85"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1"/>
     <row r="34" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="86" t="s">
+      <c r="A34" s="68"/>
+      <c r="B34" s="79" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="88" t="s">
+      <c r="A35" s="80"/>
+      <c r="B35" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="74">
         <f>C31</f>
         <v>6900</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A36" s="77"/>
-      <c r="B36" s="83" t="str">
+      <c r="A36" s="72"/>
+      <c r="B36" s="65" t="str">
         <f>IF($B$35='Data Lists'!C3,"Down Payment Type is Needed",IF($B$35='Data Lists'!C4,"20% down payment needed",IF($B$35='Data Lists'!C5,"20% down payment needed",IF($B$35='Data Lists'!C6,"$800 down payment needed",IF(AND($B$35='Data Lists'!C7,F31&gt;5555),"Down Payment Needed",IF(AND($B$35='Data Lists'!C7,F31&lt;5555),"10% Down Payment Needed"))))))</f>
         <v>20% down payment needed</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="74">
         <f>IF(B35='Data Lists'!C3,0,IF(AND(B35='Data Lists'!C4,$B$7="Anthem BCBS"),'Price Calculator'!F36/2,IF(AND(B35='Data Lists'!C5,$B$7="Anthem BCBS"),'Price Calculator'!F36*20%,IF(AND(B35='Data Lists'!C6,$B$7="Anthem BCBS"),700,IF(AND(B35='Data Lists'!C7,$B$7="Anthem BCBS",F36&lt;5555),F36*10%,IF(AND(B35='Data Lists'!C7,$B$7="Anthem BCBS",F36&gt;5555),F36-5000,IF(B35='Data Lists'!C4,'Price Calculator'!C35*20%,IF(B35='Data Lists'!C5,'Price Calculator'!C35*20%,IF('Price Calculator'!B35='Data Lists'!C6,800,IF(AND('Price Calculator'!B35='Data Lists'!C7,C35&lt;5555),C35*10%,IF(AND('Price Calculator'!B35='Data Lists'!C7,C35&gt;5555),C35-5000,"")))))))))))</f>
         <v>1380</v>
       </c>
-      <c r="F36" s="79"/>
+      <c r="F36" s="74"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83" t="str">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65" t="str">
         <f>IF($B$35='Data Lists'!C3,"Down Payment Type is Needed",IF($B$35='Data Lists'!C4,"Balance due from Patient at delivery",IF(OR($B$35='Data Lists'!C5,$B$35='Data Lists'!C6,$B$35='Data Lists'!C7),"Balance due from AllWell at delivery")))</f>
         <v>Balance due from Patient at delivery</v>
       </c>
-      <c r="C37" s="89">
+      <c r="C37" s="82">
         <f>C35-C36</f>
         <v>5520</v>
       </c>
@@ -4110,10 +4073,10 @@
   <dimension ref="A1:AF235"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89:XFD89"/>
+      <selection pane="bottomRight" activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -10515,7 +10478,7 @@
       <c r="H89" s="2">
         <v>8650</v>
       </c>
-      <c r="I89" s="100" t="s">
+      <c r="I89" s="93" t="s">
         <v>539</v>
       </c>
       <c r="J89" s="2">
@@ -26443,7 +26406,7 @@
   <dimension ref="A2:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -26474,7 +26437,7 @@
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:B17">_xlfn.UNIQUE(_xlfn._xlws.SORT(HearingAids[Discount Type 2]))</f>
+        <f t="array" ref="B3:B16">_xlfn.UNIQUE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(HearingAids[Discount Type 2], HearingAids[Discount Type 2]&lt;&gt;"")))</f>
         <v>Amplifon Competitive</v>
       </c>
       <c r="C3" t="s">
@@ -26597,85 +26560,82 @@
         <v>WellCare Competitive</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:1">
       <c r="A31" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:1">
       <c r="A32" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://